--- a/ExcelEsport/FMWC_Examples/What Is My Flight Number - Patrick Chatain - My Work.xlsx
+++ b/ExcelEsport/FMWC_Examples/What Is My Flight Number - Patrick Chatain - My Work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\ExcelEsport\FMWC_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA1B636-D005-4815-8C50-93BDF8992AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95035469-C45D-4E43-85EA-111B3E623040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18690" yWindow="-870" windowWidth="18795" windowHeight="15585" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="29" r:id="rId1"/>
@@ -19,7 +19,11 @@
   </sheets>
   <definedNames>
     <definedName name="_nCity">Case!$Y$15:$Y$26</definedName>
+    <definedName name="_nDestination">'Flight Routes'!$C$2:$C$104</definedName>
+    <definedName name="_nDistance">'Flight Routes'!$F$2:$F$104</definedName>
     <definedName name="_nIATA">Case!$Z$15:$Z$26</definedName>
+    <definedName name="_nOrigin">'Flight Routes'!$B$2:$B$104</definedName>
+    <definedName name="_nRoutes">'Flight Routes'!$G$2:$G$104</definedName>
     <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
     <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
     <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
@@ -78,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="317">
   <si>
     <t>Instructions</t>
   </si>
@@ -1142,6 +1146,12 @@
   <si>
     <t>Then we continue in order and LON-RIX will be assigned flight #3, CPT-LAX flight #4 and LON-EZE flight #5. (So the final flight numbers would be 1, 3, 4, 2, 5)</t>
   </si>
+  <si>
+    <t>Cdistance</t>
+  </si>
+  <si>
+    <t>Routes</t>
+  </si>
 </sst>
 </file>
 
@@ -1774,7 +1784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1973,6 +1983,57 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2042,56 +2103,8 @@
     <xf numFmtId="3" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2648,8 +2661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCF8115-0CC8-46F8-8E7E-E74BDD47BD6B}">
   <dimension ref="A1:AZ216"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -2665,7 +2678,7 @@
     <col min="9" max="9" width="14.5546875" style="1" customWidth="1"/>
     <col min="10" max="20" width="8.88671875" style="1" customWidth="1"/>
     <col min="21" max="21" width="5.88671875" style="1" customWidth="1"/>
-    <col min="22" max="24" width="3.88671875" style="1" customWidth="1"/>
+    <col min="22" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.109375" style="1" customWidth="1"/>
     <col min="26" max="26" width="16.44140625" style="1" customWidth="1"/>
     <col min="27" max="27" width="16.88671875" style="1" customWidth="1"/>
@@ -2702,34 +2715,34 @@
       <c r="AZ1" s="6"/>
     </row>
     <row r="2" spans="2:52" ht="60.6" customHeight="1">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="79" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
       <c r="AO2" s="3"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -2745,32 +2758,32 @@
       <c r="AZ3" s="6"/>
     </row>
     <row r="4" spans="2:52" ht="33.6" customHeight="1">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="Y4" s="114" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="Y4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="103"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="80"/>
       <c r="AO4" s="3"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -2970,11 +2983,11 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="115" t="s">
+      <c r="Y11" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="117"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="94"/>
       <c r="AO11" s="3"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -3009,33 +3022,33 @@
       <c r="AZ12" s="6"/>
     </row>
     <row r="13" spans="2:52" ht="24.9" customHeight="1" thickBot="1">
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
       <c r="U13" s="60"/>
-      <c r="Y13" s="104" t="s">
+      <c r="Y13" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="80"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -3043,27 +3056,27 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:52" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="82" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="107"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="84"/>
       <c r="U14" s="3"/>
       <c r="Y14" s="61" t="s">
         <v>31</v>
@@ -3080,25 +3093,25 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:52" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="110"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="87"/>
       <c r="U15" s="3"/>
       <c r="Y15" s="62" t="s">
         <v>32</v>
@@ -3115,25 +3128,25 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="110"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="87"/>
       <c r="U16" s="3"/>
       <c r="Y16" s="62" t="s">
         <v>47</v>
@@ -3149,25 +3162,25 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="110"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="87"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="62" t="s">
         <v>39</v>
@@ -3183,25 +3196,25 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="18" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="110"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="87"/>
       <c r="U18" s="3"/>
       <c r="Y18" s="62" t="s">
         <v>35</v>
@@ -3217,25 +3230,25 @@
       <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B19" s="108"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="110"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="87"/>
       <c r="U19" s="3"/>
       <c r="Y19" s="62" t="s">
         <v>42</v>
@@ -3251,25 +3264,25 @@
       <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="110"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="87"/>
       <c r="U20" s="3"/>
       <c r="Y20" s="62" t="s">
         <v>48</v>
@@ -3283,25 +3296,25 @@
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="110"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="87"/>
       <c r="U21" s="3"/>
       <c r="Y21" s="62" t="s">
         <v>49</v>
@@ -3317,25 +3330,25 @@
       <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="110"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="87"/>
       <c r="U22" s="3"/>
       <c r="Y22" s="62" t="s">
         <v>50</v>
@@ -3352,25 +3365,25 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="110"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="87"/>
       <c r="U23" s="3"/>
       <c r="Y23" s="62" t="s">
         <v>51</v>
@@ -3387,25 +3400,25 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="110"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="87"/>
       <c r="U24" s="3"/>
       <c r="Y24" s="62" t="s">
         <v>52</v>
@@ -3422,25 +3435,25 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="110"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="87"/>
       <c r="U25" s="3"/>
       <c r="Y25" s="62" t="s">
         <v>53</v>
@@ -3455,25 +3468,25 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="110"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="87"/>
       <c r="U26" s="3"/>
       <c r="Y26" s="62" t="s">
         <v>105</v>
@@ -3493,25 +3506,25 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B27" s="108"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="110"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="87"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -3530,25 +3543,25 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="47.25" customHeight="1">
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="113"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="90"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -3559,10 +3572,10 @@
       <c r="AC28" s="63"/>
       <c r="AD28" s="63"/>
       <c r="AE28" s="64"/>
-      <c r="AF28" s="101"/>
-      <c r="AG28" s="101"/>
-      <c r="AH28" s="101"/>
-      <c r="AI28" s="101"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="78"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
     </row>
@@ -3607,34 +3620,34 @@
       <c r="AZ29" s="6"/>
     </row>
     <row r="30" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="83"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="100"/>
       <c r="AC30" s="63"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="64"/>
@@ -3685,29 +3698,29 @@
       <c r="E33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="84" t="s">
+      <c r="G33" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="85"/>
-      <c r="X33" s="85"/>
-      <c r="Y33" s="85"/>
-      <c r="Z33" s="85"/>
-      <c r="AA33" s="86"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="103"/>
       <c r="AC33" s="63"/>
       <c r="AD33" s="63"/>
       <c r="AE33" s="64"/>
@@ -3727,29 +3740,29 @@
         <f>IF(AND(E34&lt;&gt;"",E34=Answers!E34),1,IF(ISBLANK(E34),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="104" t="s">
         <v>308</v>
       </c>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="88"/>
-      <c r="T34" s="88"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="88"/>
-      <c r="Y34" s="88"/>
-      <c r="Z34" s="88"/>
-      <c r="AA34" s="89"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
+      <c r="V34" s="105"/>
+      <c r="W34" s="105"/>
+      <c r="X34" s="105"/>
+      <c r="Y34" s="105"/>
+      <c r="Z34" s="105"/>
+      <c r="AA34" s="106"/>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="64"/>
@@ -3769,29 +3782,29 @@
         <f>IF(AND(E35&lt;&gt;"",E35=Answers!E35),1,IF(ISBLANK(E35),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G35" s="90" t="s">
+      <c r="G35" s="107" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="91"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="91"/>
-      <c r="Y35" s="91"/>
-      <c r="Z35" s="91"/>
-      <c r="AA35" s="92"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="108"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="108"/>
+      <c r="T35" s="108"/>
+      <c r="U35" s="108"/>
+      <c r="V35" s="108"/>
+      <c r="W35" s="108"/>
+      <c r="X35" s="108"/>
+      <c r="Y35" s="108"/>
+      <c r="Z35" s="108"/>
+      <c r="AA35" s="109"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
@@ -3811,29 +3824,29 @@
         <f>IF(AND(E36&lt;&gt;"",E36=Answers!E36),1,IF(ISBLANK(E36),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G36" s="93" t="s">
+      <c r="G36" s="110" t="s">
         <v>309</v>
       </c>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="94"/>
-      <c r="AA36" s="95"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="111"/>
+      <c r="AA36" s="112"/>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="64"/>
@@ -3936,13 +3949,13 @@
       <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="97" t="s">
+      <c r="J41" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="97"/>
-      <c r="N41" s="97"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
       <c r="AS41" s="6"/>
       <c r="AT41" s="6"/>
       <c r="AU41" s="6"/>
@@ -3953,14 +3966,14 @@
       <c r="AZ41" s="6"/>
     </row>
     <row r="42" spans="2:52" ht="15" customHeight="1" thickTop="1">
-      <c r="J42" s="96" cm="1">
+      <c r="J42" s="113" cm="1">
         <f t="array" ref="J42">SUMPRODUCT(--(F34:F216=1),F34:F216,D34:D216)</f>
-        <v>60</v>
-      </c>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
+        <v>220</v>
+      </c>
+      <c r="K42" s="113"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
       <c r="AS42" s="6"/>
       <c r="AT42" s="6"/>
       <c r="AU42" s="6"/>
@@ -3974,11 +3987,11 @@
       <c r="B43" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
       <c r="AS43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
@@ -3991,11 +4004,11 @@
     <row r="44" spans="2:52" ht="15" customHeight="1" thickBot="1">
       <c r="B44" s="20"/>
       <c r="G44" s="27"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="113"/>
+      <c r="N44" s="113"/>
       <c r="R44" s="6"/>
     </row>
     <row r="45" spans="2:52" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4016,11 +4029,11 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
       <c r="R45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
@@ -4117,7 +4130,7 @@
         <v>YYZ</v>
       </c>
       <c r="J47" s="1" t="str">
-        <f>_xlfn.XLOOKUP(I47,_nIATA,_nCity)</f>
+        <f t="shared" ref="J47:J58" si="0">_xlfn.XLOOKUP(I47,_nIATA,_nCity)</f>
         <v>Toronto</v>
       </c>
       <c r="R47" s="6"/>
@@ -4163,11 +4176,11 @@
       <c r="E48" s="39"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6" t="e">
-        <f t="shared" ref="I48:I58" si="0">_xlfn.TEXTAFTER(G48,"-")</f>
+        <f t="shared" ref="I48" si="1">_xlfn.TEXTAFTER(G48,"-")</f>
         <v>#N/A</v>
       </c>
       <c r="J48" s="1" t="e">
-        <f>_xlfn.XLOOKUP(I48,_nIATA,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="R48" s="6"/>
@@ -4232,7 +4245,7 @@
         <v>LIS</v>
       </c>
       <c r="J49" s="1" t="str">
-        <f>_xlfn.XLOOKUP(I49,_nIATA,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Lisbon</v>
       </c>
       <c r="R49" s="6"/>
@@ -4294,11 +4307,11 @@
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6" t="str">
-        <f t="shared" ref="I50:I58" si="1">_xlfn.TEXTBEFORE(G50,"-")</f>
+        <f t="shared" ref="I50:I58" si="2">_xlfn.TEXTBEFORE(G50,"-")</f>
         <v>LAX</v>
       </c>
       <c r="J50" s="1" t="str">
-        <f>_xlfn.XLOOKUP(I50,_nIATA,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Los Angeles</v>
       </c>
       <c r="K50" s="6"/>
@@ -4366,11 +4379,11 @@
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MAD</v>
       </c>
       <c r="J51" s="1" t="str">
-        <f>_xlfn.XLOOKUP(I51,_nIATA,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Madrid</v>
       </c>
       <c r="K51" s="6"/>
@@ -4417,7 +4430,7 @@
     </row>
     <row r="52" spans="2:52" ht="23.4">
       <c r="B52" s="17">
-        <f t="shared" ref="B52:B58" si="2">B51+1</f>
+        <f t="shared" ref="B52:B58" si="3">B51+1</f>
         <v>4</v>
       </c>
       <c r="C52" s="17">
@@ -4438,11 +4451,11 @@
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>LON</v>
       </c>
       <c r="J52" s="1" t="str">
-        <f>_xlfn.XLOOKUP(I52,_nIATA,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>London</v>
       </c>
       <c r="K52" s="6"/>
@@ -4489,7 +4502,7 @@
     </row>
     <row r="53" spans="2:52" ht="23.4">
       <c r="B53" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C53" s="17">
@@ -4510,11 +4523,11 @@
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>YUL</v>
       </c>
       <c r="J53" s="1" t="str">
-        <f>_xlfn.XLOOKUP(I53,_nIATA,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Montreal</v>
       </c>
       <c r="K53" s="6"/>
@@ -4561,7 +4574,7 @@
     </row>
     <row r="54" spans="2:52" ht="23.4">
       <c r="B54" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="C54" s="17">
@@ -4582,11 +4595,11 @@
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>BOG</v>
       </c>
       <c r="J54" s="1" t="str">
-        <f>_xlfn.XLOOKUP(I54,_nIATA,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Bogota</v>
       </c>
       <c r="K54" s="6"/>
@@ -4633,7 +4646,7 @@
     </row>
     <row r="55" spans="2:52" ht="23.4">
       <c r="B55" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C55" s="17">
@@ -4654,11 +4667,11 @@
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EZE</v>
       </c>
       <c r="J55" s="1" t="str">
-        <f>_xlfn.XLOOKUP(I55,_nIATA,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Buenos Aires</v>
       </c>
       <c r="K55" s="6"/>
@@ -4705,7 +4718,7 @@
     </row>
     <row r="56" spans="2:52" ht="23.4">
       <c r="B56" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C56" s="17">
@@ -4726,11 +4739,11 @@
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>CPT</v>
       </c>
       <c r="J56" s="1" t="str">
-        <f>_xlfn.XLOOKUP(I56,_nIATA,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Cape Town</v>
       </c>
       <c r="K56" s="6"/>
@@ -4777,7 +4790,7 @@
     </row>
     <row r="57" spans="2:52" ht="23.4">
       <c r="B57" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C57" s="17">
@@ -4798,11 +4811,11 @@
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>LIS</v>
       </c>
       <c r="J57" s="1" t="str">
-        <f>_xlfn.XLOOKUP(I57,_nIATA,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Lisbon</v>
       </c>
       <c r="K57" s="6"/>
@@ -4849,7 +4862,7 @@
     </row>
     <row r="58" spans="2:52" ht="23.4">
       <c r="B58" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C58" s="17">
@@ -4870,11 +4883,11 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>EZE</v>
       </c>
       <c r="J58" s="1" t="str">
-        <f>_xlfn.XLOOKUP(I58,_nIATA,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Buenos Aires</v>
       </c>
       <c r="K58" s="6"/>
@@ -5212,20 +5225,20 @@
       <c r="E67" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="84" t="s">
+      <c r="G67" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="85"/>
-      <c r="I67" s="85"/>
-      <c r="J67" s="85"/>
-      <c r="K67" s="85"/>
-      <c r="L67" s="85"/>
-      <c r="M67" s="85"/>
-      <c r="N67" s="85"/>
-      <c r="O67" s="85"/>
-      <c r="P67" s="85"/>
-      <c r="Q67" s="85"/>
-      <c r="R67" s="86"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="102"/>
+      <c r="K67" s="102"/>
+      <c r="L67" s="102"/>
+      <c r="M67" s="102"/>
+      <c r="N67" s="102"/>
+      <c r="O67" s="102"/>
+      <c r="P67" s="102"/>
+      <c r="Q67" s="102"/>
+      <c r="R67" s="103"/>
       <c r="S67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -5311,6 +5324,10 @@
       <c r="Q69" s="33"/>
       <c r="R69" s="34"/>
       <c r="S69" s="6"/>
+      <c r="T69" s="1" cm="1">
+        <f t="array" ref="T69">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G69,";"),_nRoutes,_nDistance))</f>
+        <v>85328</v>
+      </c>
       <c r="AE69" s="7"/>
       <c r="AF69" s="7"/>
       <c r="AG69" s="7"/>
@@ -5384,10 +5401,12 @@
       <c r="D71" s="18">
         <v>8</v>
       </c>
-      <c r="E71" s="30"/>
+      <c r="E71" s="30">
+        <v>64958</v>
+      </c>
       <c r="F71" s="36">
         <f>IF(AND(E71&lt;&gt;"",E71=Answers!E71),1,IF(ISBLANK(E71),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="32" t="s">
         <v>176</v>
@@ -5403,6 +5422,10 @@
       <c r="P71" s="33"/>
       <c r="Q71" s="33"/>
       <c r="R71" s="34"/>
+      <c r="T71" s="1" cm="1">
+        <f t="array" ref="T71">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G71,";"),_nRoutes,_nDistance))</f>
+        <v>64958</v>
+      </c>
       <c r="AE71" s="7"/>
       <c r="AO71" s="6"/>
       <c r="AP71" s="6"/>
@@ -5419,7 +5442,7 @@
     </row>
     <row r="72" spans="2:52" ht="25.5" customHeight="1">
       <c r="B72" s="17">
-        <f t="shared" ref="B72:B90" si="3">B71+1</f>
+        <f t="shared" ref="B72:B90" si="4">B71+1</f>
         <v>12</v>
       </c>
       <c r="C72" s="17">
@@ -5428,10 +5451,12 @@
       <c r="D72" s="18">
         <v>8</v>
       </c>
-      <c r="E72" s="30"/>
+      <c r="E72" s="30">
+        <v>79970</v>
+      </c>
       <c r="F72" s="36">
         <f>IF(AND(E72&lt;&gt;"",E72=Answers!E72),1,IF(ISBLANK(E72),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="32" t="s">
         <v>177</v>
@@ -5448,6 +5473,10 @@
       <c r="Q72" s="33"/>
       <c r="R72" s="34"/>
       <c r="S72" s="6"/>
+      <c r="T72" s="1" cm="1">
+        <f t="array" ref="T72">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G72,";"),_nRoutes,_nDistance))</f>
+        <v>79970</v>
+      </c>
       <c r="U72" s="6"/>
       <c r="AE72" s="7"/>
       <c r="AN72" s="6"/>
@@ -5466,7 +5495,7 @@
     </row>
     <row r="73" spans="2:52" ht="25.5" customHeight="1">
       <c r="B73" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="C73" s="17">
@@ -5475,10 +5504,12 @@
       <c r="D73" s="18">
         <v>8</v>
       </c>
-      <c r="E73" s="30"/>
+      <c r="E73" s="30">
+        <v>73858</v>
+      </c>
       <c r="F73" s="36">
         <f>IF(AND(E73&lt;&gt;"",E73=Answers!E73),1,IF(ISBLANK(E73),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="32" t="s">
         <v>178</v>
@@ -5495,6 +5526,10 @@
       <c r="Q73" s="33"/>
       <c r="R73" s="34"/>
       <c r="S73" s="6"/>
+      <c r="T73" s="1" cm="1">
+        <f t="array" ref="T73">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G73,";"),_nRoutes,_nDistance))</f>
+        <v>73858</v>
+      </c>
       <c r="AE73" s="7"/>
       <c r="AN73" s="6"/>
       <c r="AO73" s="6"/>
@@ -5512,7 +5547,7 @@
     </row>
     <row r="74" spans="2:52" ht="25.5" customHeight="1">
       <c r="B74" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="C74" s="17">
@@ -5521,10 +5556,12 @@
       <c r="D74" s="18">
         <v>8</v>
       </c>
-      <c r="E74" s="30"/>
+      <c r="E74" s="30">
+        <v>77444</v>
+      </c>
       <c r="F74" s="36">
         <f>IF(AND(E74&lt;&gt;"",E74=Answers!E74),1,IF(ISBLANK(E74),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="32" t="s">
         <v>179</v>
@@ -5541,6 +5578,10 @@
       <c r="Q74" s="33"/>
       <c r="R74" s="34"/>
       <c r="S74" s="6"/>
+      <c r="T74" s="1" cm="1">
+        <f t="array" ref="T74">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G74,";"),_nRoutes,_nDistance))</f>
+        <v>77444</v>
+      </c>
       <c r="AE74" s="7"/>
       <c r="AN74" s="6"/>
       <c r="AO74" s="6"/>
@@ -5558,7 +5599,7 @@
     </row>
     <row r="75" spans="2:52" ht="25.5" customHeight="1">
       <c r="B75" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="C75" s="17">
@@ -5567,10 +5608,12 @@
       <c r="D75" s="18">
         <v>8</v>
       </c>
-      <c r="E75" s="30"/>
+      <c r="E75" s="30">
+        <v>79092</v>
+      </c>
       <c r="F75" s="36">
         <f>IF(AND(E75&lt;&gt;"",E75=Answers!E75),1,IF(ISBLANK(E75),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="32" t="s">
         <v>180</v>
@@ -5587,6 +5630,10 @@
       <c r="Q75" s="33"/>
       <c r="R75" s="34"/>
       <c r="S75" s="6"/>
+      <c r="T75" s="1" cm="1">
+        <f t="array" ref="T75">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G75,";"),_nRoutes,_nDistance))</f>
+        <v>79092</v>
+      </c>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
@@ -5622,7 +5669,7 @@
     </row>
     <row r="76" spans="2:52" ht="25.5" customHeight="1">
       <c r="B76" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="C76" s="17">
@@ -5631,10 +5678,12 @@
       <c r="D76" s="18">
         <v>8</v>
       </c>
-      <c r="E76" s="30"/>
+      <c r="E76" s="30">
+        <v>93957</v>
+      </c>
       <c r="F76" s="36">
         <f>IF(AND(E76&lt;&gt;"",E76=Answers!E76),1,IF(ISBLANK(E76),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="32" t="s">
         <v>181</v>
@@ -5651,6 +5700,10 @@
       <c r="Q76" s="33"/>
       <c r="R76" s="34"/>
       <c r="S76" s="6"/>
+      <c r="T76" s="1" cm="1">
+        <f t="array" ref="T76">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G76,";"),_nRoutes,_nDistance))</f>
+        <v>93957</v>
+      </c>
       <c r="V76" s="7"/>
       <c r="W76" s="7"/>
       <c r="X76" s="7"/>
@@ -5685,7 +5738,7 @@
     </row>
     <row r="77" spans="2:52" ht="25.5" customHeight="1">
       <c r="B77" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="C77" s="17">
@@ -5694,10 +5747,12 @@
       <c r="D77" s="18">
         <v>8</v>
       </c>
-      <c r="E77" s="30"/>
+      <c r="E77" s="30">
+        <v>74320</v>
+      </c>
       <c r="F77" s="36">
         <f>IF(AND(E77&lt;&gt;"",E77=Answers!E77),1,IF(ISBLANK(E77),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="32" t="s">
         <v>182</v>
@@ -5714,6 +5769,10 @@
       <c r="Q77" s="33"/>
       <c r="R77" s="34"/>
       <c r="S77" s="6"/>
+      <c r="T77" s="1" cm="1">
+        <f t="array" ref="T77">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G77,";"),_nRoutes,_nDistance))</f>
+        <v>74320</v>
+      </c>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
@@ -5749,7 +5808,7 @@
     </row>
     <row r="78" spans="2:52" ht="25.5" customHeight="1">
       <c r="B78" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="C78" s="17">
@@ -5758,10 +5817,12 @@
       <c r="D78" s="18">
         <v>8</v>
       </c>
-      <c r="E78" s="30"/>
+      <c r="E78" s="30">
+        <v>66179</v>
+      </c>
       <c r="F78" s="36">
         <f>IF(AND(E78&lt;&gt;"",E78=Answers!E78),1,IF(ISBLANK(E78),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="32" t="s">
         <v>195</v>
@@ -5778,6 +5839,10 @@
       <c r="Q78" s="33"/>
       <c r="R78" s="34"/>
       <c r="S78" s="6"/>
+      <c r="T78" s="1" cm="1">
+        <f t="array" ref="T78">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G78,";"),_nRoutes,_nDistance))</f>
+        <v>66179</v>
+      </c>
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7"/>
@@ -5813,7 +5878,7 @@
     </row>
     <row r="79" spans="2:52" ht="25.5" customHeight="1">
       <c r="B79" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="C79" s="17">
@@ -5822,10 +5887,12 @@
       <c r="D79" s="18">
         <v>8</v>
       </c>
-      <c r="E79" s="30"/>
+      <c r="E79" s="30">
+        <v>81610</v>
+      </c>
       <c r="F79" s="36">
         <f>IF(AND(E79&lt;&gt;"",E79=Answers!E79),1,IF(ISBLANK(E79),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="32" t="s">
         <v>183</v>
@@ -5842,6 +5909,10 @@
       <c r="Q79" s="33"/>
       <c r="R79" s="34"/>
       <c r="S79" s="6"/>
+      <c r="T79" s="1" cm="1">
+        <f t="array" ref="T79">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G79,";"),_nRoutes,_nDistance))</f>
+        <v>81610</v>
+      </c>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
@@ -5877,7 +5948,7 @@
     </row>
     <row r="80" spans="2:52" ht="25.5" customHeight="1">
       <c r="B80" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="C80" s="17">
@@ -5886,10 +5957,12 @@
       <c r="D80" s="18">
         <v>8</v>
       </c>
-      <c r="E80" s="30"/>
+      <c r="E80" s="30">
+        <v>81476</v>
+      </c>
       <c r="F80" s="36">
         <f>IF(AND(E80&lt;&gt;"",E80=Answers!E80),1,IF(ISBLANK(E80),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="32" t="s">
         <v>184</v>
@@ -5906,6 +5979,10 @@
       <c r="Q80" s="33"/>
       <c r="R80" s="34"/>
       <c r="S80" s="6"/>
+      <c r="T80" s="1" cm="1">
+        <f t="array" ref="T80">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G80,";"),_nRoutes,_nDistance))</f>
+        <v>81476</v>
+      </c>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
@@ -5941,7 +6018,7 @@
     </row>
     <row r="81" spans="2:52" ht="25.5" customHeight="1">
       <c r="B81" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="C81" s="17">
@@ -5950,10 +6027,12 @@
       <c r="D81" s="18">
         <v>8</v>
       </c>
-      <c r="E81" s="30"/>
+      <c r="E81" s="30">
+        <v>71758</v>
+      </c>
       <c r="F81" s="36">
         <f>IF(AND(E81&lt;&gt;"",E81=Answers!E81),1,IF(ISBLANK(E81),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="32" t="s">
         <v>185</v>
@@ -5970,6 +6049,10 @@
       <c r="Q81" s="33"/>
       <c r="R81" s="34"/>
       <c r="S81" s="6"/>
+      <c r="T81" s="1" cm="1">
+        <f t="array" ref="T81">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G81,";"),_nRoutes,_nDistance))</f>
+        <v>71758</v>
+      </c>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7"/>
@@ -6005,7 +6088,7 @@
     </row>
     <row r="82" spans="2:52" ht="25.5" customHeight="1">
       <c r="B82" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="C82" s="17">
@@ -6014,10 +6097,12 @@
       <c r="D82" s="18">
         <v>8</v>
       </c>
-      <c r="E82" s="30"/>
+      <c r="E82" s="30">
+        <v>78104</v>
+      </c>
       <c r="F82" s="36">
         <f>IF(AND(E82&lt;&gt;"",E82=Answers!E82),1,IF(ISBLANK(E82),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="32" t="s">
         <v>186</v>
@@ -6034,6 +6119,10 @@
       <c r="Q82" s="33"/>
       <c r="R82" s="34"/>
       <c r="S82" s="6"/>
+      <c r="T82" s="1" cm="1">
+        <f t="array" ref="T82">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G82,";"),_nRoutes,_nDistance))</f>
+        <v>78104</v>
+      </c>
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
@@ -6069,7 +6158,7 @@
     </row>
     <row r="83" spans="2:52" ht="25.5" customHeight="1">
       <c r="B83" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="C83" s="17">
@@ -6078,10 +6167,12 @@
       <c r="D83" s="18">
         <v>8</v>
       </c>
-      <c r="E83" s="30"/>
+      <c r="E83" s="30">
+        <v>80854</v>
+      </c>
       <c r="F83" s="36">
         <f>IF(AND(E83&lt;&gt;"",E83=Answers!E83),1,IF(ISBLANK(E83),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="32" t="s">
         <v>187</v>
@@ -6098,6 +6189,10 @@
       <c r="Q83" s="33"/>
       <c r="R83" s="34"/>
       <c r="S83" s="6"/>
+      <c r="T83" s="1" cm="1">
+        <f t="array" ref="T83">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G83,";"),_nRoutes,_nDistance))</f>
+        <v>80854</v>
+      </c>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
@@ -6133,7 +6228,7 @@
     </row>
     <row r="84" spans="2:52" ht="25.5" customHeight="1">
       <c r="B84" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C84" s="17">
@@ -6142,10 +6237,12 @@
       <c r="D84" s="18">
         <v>8</v>
       </c>
-      <c r="E84" s="30"/>
+      <c r="E84" s="30">
+        <v>104324</v>
+      </c>
       <c r="F84" s="36">
         <f>IF(AND(E84&lt;&gt;"",E84=Answers!E84),1,IF(ISBLANK(E84),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="32" t="s">
         <v>188</v>
@@ -6162,6 +6259,10 @@
       <c r="Q84" s="33"/>
       <c r="R84" s="34"/>
       <c r="S84" s="6"/>
+      <c r="T84" s="1" cm="1">
+        <f t="array" ref="T84">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G84,";"),_nRoutes,_nDistance))</f>
+        <v>104324</v>
+      </c>
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7"/>
@@ -6197,7 +6298,7 @@
     </row>
     <row r="85" spans="2:52" ht="25.5" customHeight="1">
       <c r="B85" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="C85" s="17">
@@ -6206,10 +6307,12 @@
       <c r="D85" s="18">
         <v>8</v>
       </c>
-      <c r="E85" s="30"/>
+      <c r="E85" s="30">
+        <v>82947</v>
+      </c>
       <c r="F85" s="36">
         <f>IF(AND(E85&lt;&gt;"",E85=Answers!E85),1,IF(ISBLANK(E85),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="32" t="s">
         <v>189</v>
@@ -6226,6 +6329,10 @@
       <c r="Q85" s="33"/>
       <c r="R85" s="34"/>
       <c r="S85" s="6"/>
+      <c r="T85" s="1" cm="1">
+        <f t="array" ref="T85">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G85,";"),_nRoutes,_nDistance))</f>
+        <v>82947</v>
+      </c>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
       <c r="W85" s="7"/>
@@ -6261,7 +6368,7 @@
     </row>
     <row r="86" spans="2:52" ht="25.5" customHeight="1">
       <c r="B86" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="C86" s="17">
@@ -6270,10 +6377,12 @@
       <c r="D86" s="18">
         <v>8</v>
       </c>
-      <c r="E86" s="30"/>
+      <c r="E86" s="30">
+        <v>96384</v>
+      </c>
       <c r="F86" s="36">
         <f>IF(AND(E86&lt;&gt;"",E86=Answers!E86),1,IF(ISBLANK(E86),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="32" t="s">
         <v>190</v>
@@ -6290,6 +6399,10 @@
       <c r="Q86" s="33"/>
       <c r="R86" s="34"/>
       <c r="S86" s="6"/>
+      <c r="T86" s="1" cm="1">
+        <f t="array" ref="T86">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G86,";"),_nRoutes,_nDistance))</f>
+        <v>96384</v>
+      </c>
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
       <c r="W86" s="7"/>
@@ -6325,7 +6438,7 @@
     </row>
     <row r="87" spans="2:52" ht="25.5" customHeight="1">
       <c r="B87" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="C87" s="17">
@@ -6334,10 +6447,12 @@
       <c r="D87" s="18">
         <v>8</v>
       </c>
-      <c r="E87" s="30"/>
+      <c r="E87" s="30">
+        <v>72089</v>
+      </c>
       <c r="F87" s="36">
         <f>IF(AND(E87&lt;&gt;"",E87=Answers!E87),1,IF(ISBLANK(E87),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="32" t="s">
         <v>191</v>
@@ -6354,6 +6469,10 @@
       <c r="Q87" s="33"/>
       <c r="R87" s="34"/>
       <c r="S87" s="6"/>
+      <c r="T87" s="1" cm="1">
+        <f t="array" ref="T87">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G87,";"),_nRoutes,_nDistance))</f>
+        <v>72089</v>
+      </c>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
       <c r="W87" s="7"/>
@@ -6389,7 +6508,7 @@
     </row>
     <row r="88" spans="2:52" ht="25.5" customHeight="1">
       <c r="B88" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="C88" s="17">
@@ -6398,10 +6517,12 @@
       <c r="D88" s="18">
         <v>8</v>
       </c>
-      <c r="E88" s="30"/>
+      <c r="E88" s="30">
+        <v>89050</v>
+      </c>
       <c r="F88" s="36">
         <f>IF(AND(E88&lt;&gt;"",E88=Answers!E88),1,IF(ISBLANK(E88),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="32" t="s">
         <v>192</v>
@@ -6418,6 +6539,10 @@
       <c r="Q88" s="33"/>
       <c r="R88" s="34"/>
       <c r="S88" s="6"/>
+      <c r="T88" s="1" cm="1">
+        <f t="array" ref="T88">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G88,";"),_nRoutes,_nDistance))</f>
+        <v>89050</v>
+      </c>
       <c r="U88" s="7"/>
       <c r="V88" s="7"/>
       <c r="W88" s="7"/>
@@ -6453,7 +6578,7 @@
     </row>
     <row r="89" spans="2:52" ht="25.5" customHeight="1">
       <c r="B89" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="C89" s="17">
@@ -6462,10 +6587,12 @@
       <c r="D89" s="18">
         <v>8</v>
       </c>
-      <c r="E89" s="30"/>
+      <c r="E89" s="30">
+        <v>100153</v>
+      </c>
       <c r="F89" s="36">
         <f>IF(AND(E89&lt;&gt;"",E89=Answers!E89),1,IF(ISBLANK(E89),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="32" t="s">
         <v>193</v>
@@ -6482,6 +6609,10 @@
       <c r="Q89" s="33"/>
       <c r="R89" s="34"/>
       <c r="S89" s="6"/>
+      <c r="T89" s="1" cm="1">
+        <f t="array" ref="T89">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G89,";"),_nRoutes,_nDistance))</f>
+        <v>100153</v>
+      </c>
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
       <c r="W89" s="7"/>
@@ -6517,7 +6648,7 @@
     </row>
     <row r="90" spans="2:52" ht="25.5" customHeight="1">
       <c r="B90" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="C90" s="17">
@@ -6526,10 +6657,12 @@
       <c r="D90" s="18">
         <v>8</v>
       </c>
-      <c r="E90" s="30"/>
+      <c r="E90" s="30">
+        <v>88615</v>
+      </c>
       <c r="F90" s="36">
         <f>IF(AND(E90&lt;&gt;"",E90=Answers!E90),1,IF(ISBLANK(E90),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="32" t="s">
         <v>194</v>
@@ -6546,6 +6679,10 @@
       <c r="Q90" s="33"/>
       <c r="R90" s="34"/>
       <c r="S90" s="6"/>
+      <c r="T90" s="1" cm="1">
+        <f t="array" ref="T90">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G90,";"),_nRoutes,_nDistance))</f>
+        <v>88615</v>
+      </c>
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
       <c r="W90" s="7"/>
@@ -6633,11 +6770,11 @@
       </c>
       <c r="E92" s="30">
         <f>SUM(E71:E90)</f>
-        <v>0</v>
+        <v>1637142</v>
       </c>
       <c r="F92" s="36">
         <f>IF(AND(E92&lt;&gt;"",E92=Answers!E92),1,IF(ISBLANK(E92),0,-1))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L92" s="26"/>
       <c r="R92" s="26"/>
@@ -7144,35 +7281,35 @@
         <v>4</v>
       </c>
       <c r="E104" s="44"/>
-      <c r="G104" s="98" t="s">
+      <c r="G104" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="99"/>
-      <c r="I104" s="99"/>
-      <c r="J104" s="99"/>
-      <c r="K104" s="99"/>
-      <c r="L104" s="99"/>
-      <c r="M104" s="99"/>
-      <c r="N104" s="99"/>
-      <c r="O104" s="99"/>
-      <c r="P104" s="99"/>
-      <c r="Q104" s="99"/>
-      <c r="R104" s="99"/>
-      <c r="S104" s="99"/>
-      <c r="T104" s="99"/>
-      <c r="U104" s="99"/>
-      <c r="V104" s="99"/>
-      <c r="W104" s="99"/>
-      <c r="X104" s="99"/>
-      <c r="Y104" s="99"/>
-      <c r="Z104" s="99"/>
-      <c r="AA104" s="99"/>
-      <c r="AB104" s="99"/>
-      <c r="AC104" s="99"/>
-      <c r="AD104" s="99"/>
-      <c r="AE104" s="99"/>
-      <c r="AF104" s="99"/>
-      <c r="AG104" s="100"/>
+      <c r="H104" s="116"/>
+      <c r="I104" s="116"/>
+      <c r="J104" s="116"/>
+      <c r="K104" s="116"/>
+      <c r="L104" s="116"/>
+      <c r="M104" s="116"/>
+      <c r="N104" s="116"/>
+      <c r="O104" s="116"/>
+      <c r="P104" s="116"/>
+      <c r="Q104" s="116"/>
+      <c r="R104" s="116"/>
+      <c r="S104" s="116"/>
+      <c r="T104" s="116"/>
+      <c r="U104" s="116"/>
+      <c r="V104" s="116"/>
+      <c r="W104" s="116"/>
+      <c r="X104" s="116"/>
+      <c r="Y104" s="116"/>
+      <c r="Z104" s="116"/>
+      <c r="AA104" s="116"/>
+      <c r="AB104" s="116"/>
+      <c r="AC104" s="116"/>
+      <c r="AD104" s="116"/>
+      <c r="AE104" s="116"/>
+      <c r="AF104" s="116"/>
+      <c r="AG104" s="117"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
       <c r="AJ104" s="6"/>
@@ -7350,7 +7487,7 @@
     </row>
     <row r="109" spans="2:52" ht="23.4">
       <c r="B109" s="17">
-        <f t="shared" ref="B109:B127" si="4">B108+1</f>
+        <f t="shared" ref="B109:B127" si="5">B108+1</f>
         <v>32</v>
       </c>
       <c r="C109" s="17">
@@ -7396,7 +7533,7 @@
     </row>
     <row r="110" spans="2:52" ht="23.4">
       <c r="B110" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="C110" s="17">
@@ -7442,7 +7579,7 @@
     </row>
     <row r="111" spans="2:52" ht="23.4">
       <c r="B111" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="C111" s="17">
@@ -7488,7 +7625,7 @@
     </row>
     <row r="112" spans="2:52" ht="23.4">
       <c r="B112" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="C112" s="17">
@@ -7580,7 +7717,7 @@
     </row>
     <row r="114" spans="2:33" ht="23.4">
       <c r="B114" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="C114" s="17">
@@ -7626,7 +7763,7 @@
     </row>
     <row r="115" spans="2:33" ht="23.4">
       <c r="B115" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="C115" s="17">
@@ -7672,7 +7809,7 @@
     </row>
     <row r="116" spans="2:33" ht="23.4">
       <c r="B116" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="C116" s="17">
@@ -7718,7 +7855,7 @@
     </row>
     <row r="117" spans="2:33" ht="23.4">
       <c r="B117" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="C117" s="17">
@@ -7764,7 +7901,7 @@
     </row>
     <row r="118" spans="2:33" ht="23.4">
       <c r="B118" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="C118" s="17">
@@ -7810,7 +7947,7 @@
     </row>
     <row r="119" spans="2:33" ht="23.4">
       <c r="B119" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="C119" s="17">
@@ -7856,7 +7993,7 @@
     </row>
     <row r="120" spans="2:33" ht="23.4">
       <c r="B120" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="C120" s="17">
@@ -7902,7 +8039,7 @@
     </row>
     <row r="121" spans="2:33" ht="23.4">
       <c r="B121" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="C121" s="17">
@@ -7948,7 +8085,7 @@
     </row>
     <row r="122" spans="2:33" ht="23.4">
       <c r="B122" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="C122" s="17">
@@ -7994,7 +8131,7 @@
     </row>
     <row r="123" spans="2:33" ht="23.4">
       <c r="B123" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="C123" s="17">
@@ -8040,7 +8177,7 @@
     </row>
     <row r="124" spans="2:33" ht="23.4">
       <c r="B124" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="C124" s="17">
@@ -8086,7 +8223,7 @@
     </row>
     <row r="125" spans="2:33" ht="23.4">
       <c r="B125" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="C125" s="17">
@@ -8132,7 +8269,7 @@
     </row>
     <row r="126" spans="2:33" ht="23.4">
       <c r="B126" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="C126" s="17">
@@ -8178,7 +8315,7 @@
     </row>
     <row r="127" spans="2:33" ht="23.4">
       <c r="B127" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="C127" s="17">
@@ -8808,48 +8945,48 @@
       <c r="G144" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="78" t="s">
+      <c r="I144" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J144" s="79"/>
-      <c r="K144" s="79"/>
-      <c r="L144" s="79"/>
-      <c r="M144" s="79"/>
-      <c r="N144" s="79"/>
-      <c r="O144" s="79"/>
-      <c r="P144" s="79"/>
-      <c r="Q144" s="79"/>
-      <c r="R144" s="79"/>
-      <c r="S144" s="79"/>
-      <c r="T144" s="79"/>
-      <c r="U144" s="79"/>
-      <c r="V144" s="79"/>
-      <c r="W144" s="79"/>
-      <c r="X144" s="79"/>
-      <c r="Y144" s="79"/>
-      <c r="Z144" s="79"/>
-      <c r="AA144" s="79"/>
-      <c r="AB144" s="79"/>
-      <c r="AC144" s="79"/>
-      <c r="AD144" s="79"/>
-      <c r="AE144" s="79"/>
-      <c r="AF144" s="79"/>
-      <c r="AG144" s="79"/>
-      <c r="AH144" s="79"/>
-      <c r="AI144" s="79"/>
-      <c r="AJ144" s="79"/>
-      <c r="AK144" s="79"/>
-      <c r="AL144" s="79"/>
-      <c r="AM144" s="79"/>
-      <c r="AN144" s="79"/>
-      <c r="AO144" s="79"/>
-      <c r="AP144" s="79"/>
-      <c r="AQ144" s="79"/>
-      <c r="AR144" s="79"/>
-      <c r="AS144" s="79"/>
-      <c r="AT144" s="79"/>
-      <c r="AU144" s="79"/>
-      <c r="AV144" s="80"/>
+      <c r="J144" s="96"/>
+      <c r="K144" s="96"/>
+      <c r="L144" s="96"/>
+      <c r="M144" s="96"/>
+      <c r="N144" s="96"/>
+      <c r="O144" s="96"/>
+      <c r="P144" s="96"/>
+      <c r="Q144" s="96"/>
+      <c r="R144" s="96"/>
+      <c r="S144" s="96"/>
+      <c r="T144" s="96"/>
+      <c r="U144" s="96"/>
+      <c r="V144" s="96"/>
+      <c r="W144" s="96"/>
+      <c r="X144" s="96"/>
+      <c r="Y144" s="96"/>
+      <c r="Z144" s="96"/>
+      <c r="AA144" s="96"/>
+      <c r="AB144" s="96"/>
+      <c r="AC144" s="96"/>
+      <c r="AD144" s="96"/>
+      <c r="AE144" s="96"/>
+      <c r="AF144" s="96"/>
+      <c r="AG144" s="96"/>
+      <c r="AH144" s="96"/>
+      <c r="AI144" s="96"/>
+      <c r="AJ144" s="96"/>
+      <c r="AK144" s="96"/>
+      <c r="AL144" s="96"/>
+      <c r="AM144" s="96"/>
+      <c r="AN144" s="96"/>
+      <c r="AO144" s="96"/>
+      <c r="AP144" s="96"/>
+      <c r="AQ144" s="96"/>
+      <c r="AR144" s="96"/>
+      <c r="AS144" s="96"/>
+      <c r="AT144" s="96"/>
+      <c r="AU144" s="96"/>
+      <c r="AV144" s="97"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="6"/>
       <c r="AY144" s="6"/>
@@ -9061,7 +9198,7 @@
     </row>
     <row r="149" spans="2:52" ht="23.4">
       <c r="B149" s="17">
-        <f t="shared" ref="B149:B167" si="5">B148+1</f>
+        <f t="shared" ref="B149:B167" si="6">B148+1</f>
         <v>52</v>
       </c>
       <c r="C149" s="17">
@@ -9124,7 +9261,7 @@
     </row>
     <row r="150" spans="2:52" ht="23.4">
       <c r="B150" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="C150" s="17">
@@ -9187,7 +9324,7 @@
     </row>
     <row r="151" spans="2:52" ht="23.4">
       <c r="B151" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="C151" s="17">
@@ -9250,7 +9387,7 @@
     </row>
     <row r="152" spans="2:52" ht="23.4">
       <c r="B152" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="C152" s="17">
@@ -9313,7 +9450,7 @@
     </row>
     <row r="153" spans="2:52" ht="23.4">
       <c r="B153" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="C153" s="17">
@@ -9376,7 +9513,7 @@
     </row>
     <row r="154" spans="2:52" ht="23.4">
       <c r="B154" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="C154" s="17">
@@ -9439,7 +9576,7 @@
     </row>
     <row r="155" spans="2:52" ht="23.4">
       <c r="B155" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="C155" s="17">
@@ -9502,7 +9639,7 @@
     </row>
     <row r="156" spans="2:52" ht="23.4">
       <c r="B156" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="C156" s="17">
@@ -9565,7 +9702,7 @@
     </row>
     <row r="157" spans="2:52" ht="23.4">
       <c r="B157" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="C157" s="17">
@@ -9628,7 +9765,7 @@
     </row>
     <row r="158" spans="2:52" ht="23.4">
       <c r="B158" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="C158" s="17">
@@ -9691,7 +9828,7 @@
     </row>
     <row r="159" spans="2:52" ht="23.4">
       <c r="B159" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="C159" s="17">
@@ -9754,7 +9891,7 @@
     </row>
     <row r="160" spans="2:52" ht="23.4">
       <c r="B160" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="C160" s="17">
@@ -9817,7 +9954,7 @@
     </row>
     <row r="161" spans="2:48" ht="23.4">
       <c r="B161" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="C161" s="17">
@@ -9880,7 +10017,7 @@
     </row>
     <row r="162" spans="2:48" ht="23.4">
       <c r="B162" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="C162" s="17">
@@ -9943,7 +10080,7 @@
     </row>
     <row r="163" spans="2:48" ht="23.4">
       <c r="B163" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="C163" s="17">
@@ -10006,7 +10143,7 @@
     </row>
     <row r="164" spans="2:48" ht="23.4">
       <c r="B164" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="C164" s="17">
@@ -10069,7 +10206,7 @@
     </row>
     <row r="165" spans="2:48" ht="23.4">
       <c r="B165" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="C165" s="17">
@@ -10132,7 +10269,7 @@
     </row>
     <row r="166" spans="2:48" ht="23.4">
       <c r="B166" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="C166" s="17">
@@ -10195,7 +10332,7 @@
     </row>
     <row r="167" spans="2:48" ht="23.4">
       <c r="B167" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="C167" s="17">
@@ -10440,52 +10577,52 @@
       <c r="G179" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I179" s="78" t="s">
+      <c r="I179" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J179" s="79"/>
-      <c r="K179" s="79"/>
-      <c r="L179" s="79"/>
-      <c r="M179" s="79"/>
-      <c r="N179" s="79"/>
-      <c r="O179" s="79"/>
-      <c r="P179" s="79"/>
-      <c r="Q179" s="79"/>
-      <c r="R179" s="79"/>
-      <c r="S179" s="79"/>
-      <c r="T179" s="79"/>
-      <c r="U179" s="79"/>
-      <c r="V179" s="79"/>
-      <c r="W179" s="79"/>
-      <c r="X179" s="79"/>
-      <c r="Y179" s="79"/>
-      <c r="Z179" s="79"/>
-      <c r="AA179" s="79"/>
-      <c r="AB179" s="79"/>
-      <c r="AC179" s="79"/>
-      <c r="AD179" s="79"/>
-      <c r="AE179" s="79"/>
-      <c r="AF179" s="79"/>
-      <c r="AG179" s="79"/>
-      <c r="AH179" s="79"/>
-      <c r="AI179" s="79"/>
-      <c r="AJ179" s="79"/>
-      <c r="AK179" s="79"/>
-      <c r="AL179" s="79"/>
-      <c r="AM179" s="79"/>
-      <c r="AN179" s="79"/>
-      <c r="AO179" s="79"/>
-      <c r="AP179" s="79"/>
-      <c r="AQ179" s="79"/>
-      <c r="AR179" s="79"/>
-      <c r="AS179" s="79"/>
-      <c r="AT179" s="79"/>
-      <c r="AU179" s="79"/>
-      <c r="AV179" s="79"/>
-      <c r="AW179" s="79"/>
-      <c r="AX179" s="79"/>
-      <c r="AY179" s="79"/>
-      <c r="AZ179" s="80"/>
+      <c r="J179" s="96"/>
+      <c r="K179" s="96"/>
+      <c r="L179" s="96"/>
+      <c r="M179" s="96"/>
+      <c r="N179" s="96"/>
+      <c r="O179" s="96"/>
+      <c r="P179" s="96"/>
+      <c r="Q179" s="96"/>
+      <c r="R179" s="96"/>
+      <c r="S179" s="96"/>
+      <c r="T179" s="96"/>
+      <c r="U179" s="96"/>
+      <c r="V179" s="96"/>
+      <c r="W179" s="96"/>
+      <c r="X179" s="96"/>
+      <c r="Y179" s="96"/>
+      <c r="Z179" s="96"/>
+      <c r="AA179" s="96"/>
+      <c r="AB179" s="96"/>
+      <c r="AC179" s="96"/>
+      <c r="AD179" s="96"/>
+      <c r="AE179" s="96"/>
+      <c r="AF179" s="96"/>
+      <c r="AG179" s="96"/>
+      <c r="AH179" s="96"/>
+      <c r="AI179" s="96"/>
+      <c r="AJ179" s="96"/>
+      <c r="AK179" s="96"/>
+      <c r="AL179" s="96"/>
+      <c r="AM179" s="96"/>
+      <c r="AN179" s="96"/>
+      <c r="AO179" s="96"/>
+      <c r="AP179" s="96"/>
+      <c r="AQ179" s="96"/>
+      <c r="AR179" s="96"/>
+      <c r="AS179" s="96"/>
+      <c r="AT179" s="96"/>
+      <c r="AU179" s="96"/>
+      <c r="AV179" s="96"/>
+      <c r="AW179" s="96"/>
+      <c r="AX179" s="96"/>
+      <c r="AY179" s="96"/>
+      <c r="AZ179" s="97"/>
     </row>
     <row r="180" spans="2:52" ht="15" thickTop="1">
       <c r="B180" s="1"/>
@@ -10705,7 +10842,7 @@
     </row>
     <row r="184" spans="2:52" ht="23.4">
       <c r="B184" s="17">
-        <f t="shared" ref="B184:B212" si="6">B183+1</f>
+        <f t="shared" ref="B184:B212" si="7">B183+1</f>
         <v>72</v>
       </c>
       <c r="C184" s="17">
@@ -10772,7 +10909,7 @@
     </row>
     <row r="185" spans="2:52" ht="23.4">
       <c r="B185" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
       <c r="C185" s="17">
@@ -10839,7 +10976,7 @@
     </row>
     <row r="186" spans="2:52" ht="23.4">
       <c r="B186" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="C186" s="17">
@@ -10906,7 +11043,7 @@
     </row>
     <row r="187" spans="2:52" ht="23.4">
       <c r="B187" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="C187" s="17">
@@ -10973,7 +11110,7 @@
     </row>
     <row r="188" spans="2:52" ht="23.4">
       <c r="B188" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
       <c r="C188" s="17">
@@ -11040,7 +11177,7 @@
     </row>
     <row r="189" spans="2:52" ht="23.4">
       <c r="B189" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="C189" s="17">
@@ -11107,7 +11244,7 @@
     </row>
     <row r="190" spans="2:52" ht="23.4">
       <c r="B190" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="C190" s="17">
@@ -11174,7 +11311,7 @@
     </row>
     <row r="191" spans="2:52" ht="23.4">
       <c r="B191" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
       <c r="C191" s="17">
@@ -11241,7 +11378,7 @@
     </row>
     <row r="192" spans="2:52" ht="23.4">
       <c r="B192" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="C192" s="17">
@@ -11308,7 +11445,7 @@
     </row>
     <row r="193" spans="2:52" ht="23.4">
       <c r="B193" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
       <c r="C193" s="17">
@@ -11375,7 +11512,7 @@
     </row>
     <row r="194" spans="2:52" ht="23.4">
       <c r="B194" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="C194" s="17">
@@ -11442,7 +11579,7 @@
     </row>
     <row r="195" spans="2:52" ht="23.4">
       <c r="B195" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="C195" s="17">
@@ -11509,7 +11646,7 @@
     </row>
     <row r="196" spans="2:52" ht="23.4">
       <c r="B196" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
       <c r="C196" s="17">
@@ -11576,7 +11713,7 @@
     </row>
     <row r="197" spans="2:52" ht="23.4">
       <c r="B197" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="C197" s="17">
@@ -11643,7 +11780,7 @@
     </row>
     <row r="198" spans="2:52" ht="23.4">
       <c r="B198" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="C198" s="17">
@@ -11710,7 +11847,7 @@
     </row>
     <row r="199" spans="2:52" ht="23.4">
       <c r="B199" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
       <c r="C199" s="17">
@@ -11777,7 +11914,7 @@
     </row>
     <row r="200" spans="2:52" ht="23.4">
       <c r="B200" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="C200" s="17">
@@ -11844,7 +11981,7 @@
     </row>
     <row r="201" spans="2:52" ht="23.4">
       <c r="B201" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="C201" s="17">
@@ -11911,7 +12048,7 @@
     </row>
     <row r="202" spans="2:52" ht="23.4">
       <c r="B202" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="C202" s="17">
@@ -11978,7 +12115,7 @@
     </row>
     <row r="203" spans="2:52" ht="23.4">
       <c r="B203" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="C203" s="17">
@@ -12045,7 +12182,7 @@
     </row>
     <row r="204" spans="2:52" ht="23.4">
       <c r="B204" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="C204" s="17">
@@ -12112,7 +12249,7 @@
     </row>
     <row r="205" spans="2:52" ht="23.4">
       <c r="B205" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="C205" s="17">
@@ -12179,7 +12316,7 @@
     </row>
     <row r="206" spans="2:52" ht="23.4">
       <c r="B206" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="C206" s="17">
@@ -12246,7 +12383,7 @@
     </row>
     <row r="207" spans="2:52" ht="23.4">
       <c r="B207" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="C207" s="17">
@@ -12313,7 +12450,7 @@
     </row>
     <row r="208" spans="2:52" ht="23.4">
       <c r="B208" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="C208" s="17">
@@ -12380,7 +12517,7 @@
     </row>
     <row r="209" spans="2:52" ht="23.4">
       <c r="B209" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="C209" s="17">
@@ -12447,7 +12584,7 @@
     </row>
     <row r="210" spans="2:52" ht="23.4">
       <c r="B210" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="C210" s="17">
@@ -12514,7 +12651,7 @@
     </row>
     <row r="211" spans="2:52" ht="23.4">
       <c r="B211" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="C211" s="17">
@@ -12581,7 +12718,7 @@
     </row>
     <row r="212" spans="2:52" ht="23.4">
       <c r="B212" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="C212" s="17">
@@ -12689,15 +12826,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="B2:AA2"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="B14:T28"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y11:AA11"/>
     <mergeCell ref="I179:AZ179"/>
     <mergeCell ref="B30:AA30"/>
     <mergeCell ref="G33:AA33"/>
@@ -12709,6 +12837,15 @@
     <mergeCell ref="J41:N41"/>
     <mergeCell ref="G104:AG104"/>
     <mergeCell ref="I144:AV144"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="B14:T28"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y11:AA11"/>
   </mergeCells>
   <conditionalFormatting sqref="Y15:AA26 AE26 AC27:AE39">
     <cfRule type="expression" dxfId="3" priority="18">
@@ -13035,7 +13172,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1463E2-8F2B-4D23-B0F5-2E2A75D6AE1A}">
   <dimension ref="A1:DD369"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
@@ -13065,6 +13204,12 @@
       <c r="E1" s="65" t="s">
         <v>43</v>
       </c>
+      <c r="F1" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>316</v>
+      </c>
       <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:108" ht="20.100000000000001" customHeight="1" thickTop="1">
@@ -13083,8 +13228,14 @@
       <c r="E2" s="70">
         <v>0.80169597484312816</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74"/>
+      <c r="F2" s="118">
+        <f>SUBSTITUTE(D2,"km","")+0</f>
+        <v>12750</v>
+      </c>
+      <c r="G2" s="74" t="str" cm="1">
+        <f t="array" ref="G2">_xlfn.XLOOKUP(B2,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C2,_nCity,_nIATA))</f>
+        <v>EZE-RIX</v>
+      </c>
       <c r="H2" s="74"/>
       <c r="I2" s="73"/>
       <c r="J2" s="73"/>
@@ -13203,8 +13354,14 @@
       <c r="E3" s="70">
         <v>0.50165025853656542</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
+      <c r="F3" s="118">
+        <f t="shared" ref="F3:F66" si="0">SUBSTITUTE(D3,"km","")+0</f>
+        <v>1586</v>
+      </c>
+      <c r="G3" s="74" t="str" cm="1">
+        <f t="array" ref="G3">_xlfn.XLOOKUP(B3,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C3,_nCity,_nIATA))</f>
+        <v>LIS-LON</v>
+      </c>
       <c r="H3" s="74"/>
       <c r="I3" s="73"/>
       <c r="J3" s="73"/>
@@ -13323,8 +13480,14 @@
       <c r="E4" s="70">
         <v>0.52330561390398622</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="118">
+        <f t="shared" si="0"/>
+        <v>9598</v>
+      </c>
+      <c r="G4" s="74" t="str" cm="1">
+        <f t="array" ref="G4">_xlfn.XLOOKUP(B4,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C4,_nCity,_nIATA))</f>
+        <v>LIS-EZE</v>
+      </c>
       <c r="H4" s="74"/>
       <c r="I4" s="73"/>
       <c r="J4" s="73"/>
@@ -13443,8 +13606,14 @@
       <c r="E5" s="70">
         <v>0.72699970806827896</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
+      <c r="F5" s="118">
+        <f t="shared" si="0"/>
+        <v>8756</v>
+      </c>
+      <c r="G5" s="74" t="str" cm="1">
+        <f t="array" ref="G5">_xlfn.XLOOKUP(B5,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C5,_nCity,_nIATA))</f>
+        <v>LON-LAX</v>
+      </c>
       <c r="H5" s="74"/>
       <c r="I5" s="73"/>
       <c r="J5" s="73"/>
@@ -13563,8 +13732,14 @@
       <c r="E6" s="70">
         <v>9.1377314814814814E-2</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="F6" s="118">
+        <f t="shared" si="0"/>
+        <v>6770</v>
+      </c>
+      <c r="G6" s="74" t="str" cm="1">
+        <f t="array" ref="G6">_xlfn.XLOOKUP(B6,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C6,_nCity,_nIATA))</f>
+        <v>YYZ-RIX</v>
+      </c>
       <c r="H6" s="74"/>
       <c r="I6" s="73"/>
       <c r="J6" s="73"/>
@@ -13683,8 +13858,14 @@
       <c r="E7" s="70">
         <v>0.77749999999999997</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="74"/>
+      <c r="F7" s="118">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="G7" s="74" t="str" cm="1">
+        <f t="array" ref="G7">_xlfn.XLOOKUP(B7,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C7,_nCity,_nIATA))</f>
+        <v>MAD-LIS</v>
+      </c>
       <c r="H7" s="74"/>
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
@@ -13803,8 +13984,14 @@
       <c r="E8" s="70">
         <v>0.17020463351650006</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
+      <c r="F8" s="118">
+        <f t="shared" si="0"/>
+        <v>9295</v>
+      </c>
+      <c r="G8" s="74" t="str" cm="1">
+        <f t="array" ref="G8">_xlfn.XLOOKUP(B8,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C8,_nCity,_nIATA))</f>
+        <v>LAX-RIX</v>
+      </c>
       <c r="H8" s="74"/>
       <c r="I8" s="73"/>
       <c r="J8" s="73"/>
@@ -13923,8 +14110,14 @@
       <c r="E9" s="70">
         <v>0.26646045906101323</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="F9" s="118">
+        <f t="shared" si="0"/>
+        <v>8020</v>
+      </c>
+      <c r="G9" s="74" t="str" cm="1">
+        <f t="array" ref="G9">_xlfn.XLOOKUP(B9,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C9,_nCity,_nIATA))</f>
+        <v>BOG-MAD</v>
+      </c>
       <c r="H9" s="74"/>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
@@ -14043,8 +14236,14 @@
       <c r="E10" s="70">
         <v>0.84111989395040754</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
+      <c r="F10" s="118">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="G10" s="74" t="str" cm="1">
+        <f t="array" ref="G10">_xlfn.XLOOKUP(B10,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C10,_nCity,_nIATA))</f>
+        <v>YUL-YYZ</v>
+      </c>
       <c r="H10" s="74"/>
       <c r="I10" s="73"/>
       <c r="J10" s="73"/>
@@ -14163,8 +14362,14 @@
       <c r="E11" s="70">
         <v>0.38928576422761818</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
+      <c r="F11" s="118">
+        <f t="shared" si="0"/>
+        <v>4373</v>
+      </c>
+      <c r="G11" s="74" t="str" cm="1">
+        <f t="array" ref="G11">_xlfn.XLOOKUP(B11,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C11,_nCity,_nIATA))</f>
+        <v>BOG-YYZ</v>
+      </c>
       <c r="H11" s="74"/>
       <c r="I11" s="73"/>
       <c r="J11" s="73"/>
@@ -14283,8 +14488,14 @@
       <c r="E12" s="70">
         <v>0.71119509102971845</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74"/>
+      <c r="F12" s="118">
+        <f t="shared" si="0"/>
+        <v>596</v>
+      </c>
+      <c r="G12" s="74" t="str" cm="1">
+        <f t="array" ref="G12">_xlfn.XLOOKUP(B12,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C12,_nCity,_nIATA))</f>
+        <v>YYZ-YUL</v>
+      </c>
       <c r="H12" s="74"/>
       <c r="I12" s="73"/>
       <c r="J12" s="73"/>
@@ -14403,8 +14614,14 @@
       <c r="E13" s="70">
         <v>0.56372121931574781</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
+      <c r="F13" s="118">
+        <f t="shared" si="0"/>
+        <v>18177</v>
+      </c>
+      <c r="G13" s="74" t="str" cm="1">
+        <f t="array" ref="G13">_xlfn.XLOOKUP(B13,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C13,_nCity,_nIATA))</f>
+        <v>SYD-LIS</v>
+      </c>
       <c r="H13" s="74"/>
       <c r="I13" s="73"/>
       <c r="J13" s="73"/>
@@ -14523,8 +14740,14 @@
       <c r="E14" s="70">
         <v>0.12040653913431276</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
+      <c r="F14" s="118">
+        <f t="shared" si="0"/>
+        <v>8020</v>
+      </c>
+      <c r="G14" s="74" t="str" cm="1">
+        <f t="array" ref="G14">_xlfn.XLOOKUP(B14,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C14,_nCity,_nIATA))</f>
+        <v>MAD-BOG</v>
+      </c>
       <c r="H14" s="74"/>
       <c r="I14" s="73"/>
       <c r="J14" s="73"/>
@@ -14643,8 +14866,14 @@
       <c r="E15" s="70">
         <v>0.15923862647131637</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
+      <c r="F15" s="118">
+        <f t="shared" si="0"/>
+        <v>11011</v>
+      </c>
+      <c r="G15" s="74" t="str" cm="1">
+        <f t="array" ref="G15">_xlfn.XLOOKUP(B15,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C15,_nCity,_nIATA))</f>
+        <v>SYD-CPT</v>
+      </c>
       <c r="H15" s="74"/>
       <c r="I15" s="73"/>
       <c r="J15" s="73"/>
@@ -14763,8 +14992,14 @@
       <c r="E16" s="70">
         <v>6.4491484891636031E-2</v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74"/>
+      <c r="F16" s="118">
+        <f t="shared" si="0"/>
+        <v>4373</v>
+      </c>
+      <c r="G16" s="74" t="str" cm="1">
+        <f t="array" ref="G16">_xlfn.XLOOKUP(B16,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C16,_nCity,_nIATA))</f>
+        <v>YYZ-BOG</v>
+      </c>
       <c r="H16" s="74"/>
       <c r="I16" s="73"/>
       <c r="J16" s="73"/>
@@ -14883,8 +15118,14 @@
       <c r="E17" s="70">
         <v>0.59245190309608631</v>
       </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
+      <c r="F17" s="118">
+        <f t="shared" si="0"/>
+        <v>12434</v>
+      </c>
+      <c r="G17" s="74" t="str" cm="1">
+        <f t="array" ref="G17">_xlfn.XLOOKUP(B17,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C17,_nCity,_nIATA))</f>
+        <v>SYD-LAS</v>
+      </c>
       <c r="H17" s="74"/>
       <c r="I17" s="73"/>
       <c r="J17" s="73"/>
@@ -15003,8 +15244,14 @@
       <c r="E18" s="70">
         <v>0.52151479258045341</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
+      <c r="F18" s="118">
+        <f t="shared" si="0"/>
+        <v>5531</v>
+      </c>
+      <c r="G18" s="74" t="str" cm="1">
+        <f t="array" ref="G18">_xlfn.XLOOKUP(B18,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C18,_nCity,_nIATA))</f>
+        <v>MAD-YUL</v>
+      </c>
       <c r="H18" s="74"/>
       <c r="I18" s="73"/>
       <c r="J18" s="73"/>
@@ -15123,8 +15370,14 @@
       <c r="E19" s="70">
         <v>6.8348495154935462E-2</v>
       </c>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74"/>
+      <c r="F19" s="118">
+        <f t="shared" si="0"/>
+        <v>9039</v>
+      </c>
+      <c r="G19" s="74" t="str" cm="1">
+        <f t="array" ref="G19">_xlfn.XLOOKUP(B19,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C19,_nCity,_nIATA))</f>
+        <v>EZE-YUL</v>
+      </c>
       <c r="H19" s="74"/>
       <c r="I19" s="73"/>
       <c r="J19" s="73"/>
@@ -15243,8 +15496,14 @@
       <c r="E20" s="70">
         <v>0.73878178738192202</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
+      <c r="F20" s="118">
+        <f t="shared" si="0"/>
+        <v>12750</v>
+      </c>
+      <c r="G20" s="74" t="str" cm="1">
+        <f t="array" ref="G20">_xlfn.XLOOKUP(B20,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C20,_nCity,_nIATA))</f>
+        <v>RIX-EZE</v>
+      </c>
       <c r="H20" s="74"/>
       <c r="I20" s="73"/>
       <c r="J20" s="73"/>
@@ -15363,8 +15622,14 @@
       <c r="E21" s="70">
         <v>0.85466352902487674</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
+      <c r="F21" s="118">
+        <f t="shared" si="0"/>
+        <v>16050</v>
+      </c>
+      <c r="G21" s="74" t="str" cm="1">
+        <f t="array" ref="G21">_xlfn.XLOOKUP(B21,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C21,_nCity,_nIATA))</f>
+        <v>CPT-LAX</v>
+      </c>
       <c r="H21" s="74"/>
       <c r="I21" s="73"/>
       <c r="J21" s="73"/>
@@ -15483,8 +15748,14 @@
       <c r="E22" s="70">
         <v>0.92358954873804378</v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
+      <c r="F22" s="118">
+        <f t="shared" si="0"/>
+        <v>11801</v>
+      </c>
+      <c r="G22" s="74" t="str" cm="1">
+        <f t="array" ref="G22">_xlfn.XLOOKUP(B22,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C22,_nCity,_nIATA))</f>
+        <v>SYD-EZE</v>
+      </c>
       <c r="H22" s="74"/>
       <c r="I22" s="73"/>
       <c r="J22" s="73"/>
@@ -15603,8 +15874,14 @@
       <c r="E23" s="70">
         <v>0.61279289472991016</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
+      <c r="F23" s="118">
+        <f t="shared" si="0"/>
+        <v>4549</v>
+      </c>
+      <c r="G23" s="74" t="str" cm="1">
+        <f t="array" ref="G23">_xlfn.XLOOKUP(B23,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C23,_nCity,_nIATA))</f>
+        <v>BOG-YUL</v>
+      </c>
       <c r="H23" s="74"/>
       <c r="I23" s="73"/>
       <c r="J23" s="73"/>
@@ -15723,8 +16000,14 @@
       <c r="E24" s="70">
         <v>0.59543630891317312</v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
+      <c r="F24" s="118">
+        <f t="shared" si="0"/>
+        <v>3605</v>
+      </c>
+      <c r="G24" s="74" t="str" cm="1">
+        <f t="array" ref="G24">_xlfn.XLOOKUP(B24,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C24,_nCity,_nIATA))</f>
+        <v>LAS-YUL</v>
+      </c>
       <c r="H24" s="74"/>
       <c r="I24" s="73"/>
       <c r="J24" s="73"/>
@@ -15843,8 +16126,14 @@
       <c r="E25" s="70">
         <v>0.26430521502137994</v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
+      <c r="F25" s="118">
+        <f t="shared" si="0"/>
+        <v>16995</v>
+      </c>
+      <c r="G25" s="74" t="str" cm="1">
+        <f t="array" ref="G25">_xlfn.XLOOKUP(B25,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C25,_nCity,_nIATA))</f>
+        <v>SYD-LON</v>
+      </c>
       <c r="H25" s="74"/>
       <c r="I25" s="73"/>
       <c r="J25" s="73"/>
@@ -15963,8 +16252,14 @@
       <c r="E26" s="70">
         <v>0.28157215519277523</v>
       </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="74"/>
+      <c r="F26" s="118">
+        <f t="shared" si="0"/>
+        <v>367</v>
+      </c>
+      <c r="G26" s="74" t="str" cm="1">
+        <f t="array" ref="G26">_xlfn.XLOOKUP(B26,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C26,_nCity,_nIATA))</f>
+        <v>LAX-LAS</v>
+      </c>
       <c r="H26" s="74"/>
       <c r="I26" s="73"/>
       <c r="J26" s="73"/>
@@ -16083,8 +16378,14 @@
       <c r="E27" s="70">
         <v>7.4996010193979501E-3</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="74"/>
+      <c r="F27" s="118">
+        <f t="shared" si="0"/>
+        <v>5531</v>
+      </c>
+      <c r="G27" s="74" t="str" cm="1">
+        <f t="array" ref="G27">_xlfn.XLOOKUP(B27,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C27,_nCity,_nIATA))</f>
+        <v>YUL-MAD</v>
+      </c>
       <c r="H27" s="74"/>
       <c r="I27" s="73"/>
       <c r="J27" s="73"/>
@@ -16203,8 +16504,14 @@
       <c r="E28" s="70">
         <v>0.71922216171828945</v>
       </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="74"/>
+      <c r="F28" s="118">
+        <f t="shared" si="0"/>
+        <v>11127</v>
+      </c>
+      <c r="G28" s="74" t="str" cm="1">
+        <f t="array" ref="G28">_xlfn.XLOOKUP(B28,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C28,_nCity,_nIATA))</f>
+        <v>LON-EZE</v>
+      </c>
       <c r="H28" s="74"/>
       <c r="I28" s="73"/>
       <c r="J28" s="73"/>
@@ -16323,8 +16630,14 @@
       <c r="E29" s="70">
         <v>5.5802918452216299E-2</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="74"/>
+      <c r="F29" s="118">
+        <f t="shared" si="0"/>
+        <v>5220</v>
+      </c>
+      <c r="G29" s="74" t="str" cm="1">
+        <f t="array" ref="G29">_xlfn.XLOOKUP(B29,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C29,_nCity,_nIATA))</f>
+        <v>LON-YUL</v>
+      </c>
       <c r="H29" s="74"/>
       <c r="I29" s="73"/>
       <c r="J29" s="73"/>
@@ -16443,8 +16756,14 @@
       <c r="E30" s="70">
         <v>0.83441455488096183</v>
       </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
+      <c r="F30" s="118">
+        <f t="shared" si="0"/>
+        <v>9853</v>
+      </c>
+      <c r="G30" s="74" t="str" cm="1">
+        <f t="array" ref="G30">_xlfn.XLOOKUP(B30,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C30,_nCity,_nIATA))</f>
+        <v>LAX-EZE</v>
+      </c>
       <c r="H30" s="74"/>
       <c r="I30" s="73"/>
       <c r="J30" s="73"/>
@@ -16563,8 +16882,14 @@
       <c r="E31" s="70">
         <v>0.56198750981840306</v>
       </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="74"/>
+      <c r="F31" s="118">
+        <f t="shared" si="0"/>
+        <v>12434</v>
+      </c>
+      <c r="G31" s="74" t="str" cm="1">
+        <f t="array" ref="G31">_xlfn.XLOOKUP(B31,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C31,_nCity,_nIATA))</f>
+        <v>LAS-SYD</v>
+      </c>
       <c r="H31" s="74"/>
       <c r="I31" s="73"/>
       <c r="J31" s="73"/>
@@ -16683,8 +17008,14 @@
       <c r="E32" s="70">
         <v>0.56851851851851853</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="74"/>
+      <c r="F32" s="118">
+        <f t="shared" si="0"/>
+        <v>8500</v>
+      </c>
+      <c r="G32" s="74" t="str" cm="1">
+        <f t="array" ref="G32">_xlfn.XLOOKUP(B32,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C32,_nCity,_nIATA))</f>
+        <v>LON-BOG</v>
+      </c>
       <c r="H32" s="74"/>
       <c r="I32" s="73"/>
       <c r="J32" s="73"/>
@@ -16803,8 +17134,14 @@
       <c r="E33" s="70">
         <v>0.65331448278910276</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="74"/>
+      <c r="F33" s="118">
+        <f t="shared" si="0"/>
+        <v>15318</v>
+      </c>
+      <c r="G33" s="74" t="str" cm="1">
+        <f t="array" ref="G33">_xlfn.XLOOKUP(B33,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C33,_nCity,_nIATA))</f>
+        <v>RIX-SYD</v>
+      </c>
       <c r="H33" s="74"/>
       <c r="I33" s="73"/>
       <c r="J33" s="73"/>
@@ -16923,8 +17260,14 @@
       <c r="E34" s="70">
         <v>0.42725923086216433</v>
       </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="74"/>
+      <c r="F34" s="118">
+        <f t="shared" si="0"/>
+        <v>12074</v>
+      </c>
+      <c r="G34" s="74" t="str" cm="1">
+        <f t="array" ref="G34">_xlfn.XLOOKUP(B34,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C34,_nCity,_nIATA))</f>
+        <v>LAX-SYD</v>
+      </c>
       <c r="H34" s="74"/>
       <c r="I34" s="73"/>
       <c r="J34" s="73"/>
@@ -17043,8 +17386,14 @@
       <c r="E35" s="70">
         <v>0.53875041406765412</v>
       </c>
-      <c r="F35" s="73"/>
-      <c r="G35" s="74"/>
+      <c r="F35" s="118">
+        <f t="shared" si="0"/>
+        <v>2712</v>
+      </c>
+      <c r="G35" s="74" t="str" cm="1">
+        <f t="array" ref="G35">_xlfn.XLOOKUP(B35,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C35,_nCity,_nIATA))</f>
+        <v>RIX-MAD</v>
+      </c>
       <c r="H35" s="74"/>
       <c r="I35" s="73"/>
       <c r="J35" s="73"/>
@@ -17163,8 +17512,14 @@
       <c r="E36" s="70">
         <v>0.76288481819058085</v>
       </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="74"/>
+      <c r="F36" s="118">
+        <f t="shared" si="0"/>
+        <v>10523</v>
+      </c>
+      <c r="G36" s="74" t="str" cm="1">
+        <f t="array" ref="G36">_xlfn.XLOOKUP(B36,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C36,_nCity,_nIATA))</f>
+        <v>BOG-CPT</v>
+      </c>
       <c r="H36" s="74"/>
       <c r="I36" s="73"/>
       <c r="J36" s="73"/>
@@ -17283,8 +17638,14 @@
       <c r="E37" s="70">
         <v>0.40064254025561807</v>
       </c>
-      <c r="F37" s="73"/>
-      <c r="G37" s="74"/>
+      <c r="F37" s="118">
+        <f t="shared" si="0"/>
+        <v>15821</v>
+      </c>
+      <c r="G37" s="74" t="str" cm="1">
+        <f t="array" ref="G37">_xlfn.XLOOKUP(B37,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C37,_nCity,_nIATA))</f>
+        <v>LAS-CPT</v>
+      </c>
       <c r="H37" s="74"/>
       <c r="I37" s="73"/>
       <c r="J37" s="73"/>
@@ -17403,8 +17764,14 @@
       <c r="E38" s="70">
         <v>0.93886428211768957</v>
       </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="74"/>
+      <c r="F38" s="118">
+        <f t="shared" si="0"/>
+        <v>6320</v>
+      </c>
+      <c r="G38" s="74" t="str" cm="1">
+        <f t="array" ref="G38">_xlfn.XLOOKUP(B38,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C38,_nCity,_nIATA))</f>
+        <v>YUL-RIX</v>
+      </c>
       <c r="H38" s="74"/>
       <c r="I38" s="73"/>
       <c r="J38" s="73"/>
@@ -17523,8 +17890,14 @@
       <c r="E39" s="70">
         <v>5.9612284072541488E-2</v>
       </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
+      <c r="F39" s="118">
+        <f t="shared" si="0"/>
+        <v>10523</v>
+      </c>
+      <c r="G39" s="74" t="str" cm="1">
+        <f t="array" ref="G39">_xlfn.XLOOKUP(B39,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C39,_nCity,_nIATA))</f>
+        <v>CPT-BOG</v>
+      </c>
       <c r="H39" s="74"/>
       <c r="I39" s="73"/>
       <c r="J39" s="73"/>
@@ -17643,8 +18016,14 @@
       <c r="E40" s="70">
         <v>0.76809161156554506</v>
       </c>
-      <c r="F40" s="73"/>
-      <c r="G40" s="74"/>
+      <c r="F40" s="118">
+        <f t="shared" si="0"/>
+        <v>8572</v>
+      </c>
+      <c r="G40" s="74" t="str" cm="1">
+        <f t="array" ref="G40">_xlfn.XLOOKUP(B40,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C40,_nCity,_nIATA))</f>
+        <v>CPT-MAD</v>
+      </c>
       <c r="H40" s="74"/>
       <c r="I40" s="73"/>
       <c r="J40" s="73"/>
@@ -17763,8 +18142,14 @@
       <c r="E41" s="70">
         <v>0.85694684860053028</v>
       </c>
-      <c r="F41" s="73"/>
-      <c r="G41" s="74"/>
+      <c r="F41" s="118">
+        <f t="shared" si="0"/>
+        <v>5465</v>
+      </c>
+      <c r="G41" s="74" t="str" cm="1">
+        <f t="array" ref="G41">_xlfn.XLOOKUP(B41,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C41,_nCity,_nIATA))</f>
+        <v>BOG-LAS</v>
+      </c>
       <c r="H41" s="74"/>
       <c r="I41" s="73"/>
       <c r="J41" s="73"/>
@@ -17883,8 +18268,14 @@
       <c r="E42" s="70">
         <v>0.57532560950751188</v>
       </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="74"/>
+      <c r="F42" s="118">
+        <f t="shared" si="0"/>
+        <v>7526</v>
+      </c>
+      <c r="G42" s="74" t="str" cm="1">
+        <f t="array" ref="G42">_xlfn.XLOOKUP(B42,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C42,_nCity,_nIATA))</f>
+        <v>LIS-BOG</v>
+      </c>
       <c r="H42" s="74"/>
       <c r="I42" s="73"/>
       <c r="J42" s="73"/>
@@ -18003,8 +18394,14 @@
       <c r="E43" s="70">
         <v>0.93563657407407408</v>
       </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="74"/>
+      <c r="F43" s="118">
+        <f t="shared" si="0"/>
+        <v>15821</v>
+      </c>
+      <c r="G43" s="74" t="str" cm="1">
+        <f t="array" ref="G43">_xlfn.XLOOKUP(B43,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C43,_nCity,_nIATA))</f>
+        <v>CPT-LAS</v>
+      </c>
       <c r="H43" s="74"/>
       <c r="I43" s="73"/>
       <c r="J43" s="73"/>
@@ -18123,8 +18520,14 @@
       <c r="E44" s="70">
         <v>0.8917333027977512</v>
       </c>
-      <c r="F44" s="73"/>
-      <c r="G44" s="74"/>
+      <c r="F44" s="118">
+        <f t="shared" si="0"/>
+        <v>3968</v>
+      </c>
+      <c r="G44" s="74" t="str" cm="1">
+        <f t="array" ref="G44">_xlfn.XLOOKUP(B44,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C44,_nCity,_nIATA))</f>
+        <v>YUL-LAX</v>
+      </c>
       <c r="H44" s="74"/>
       <c r="I44" s="73"/>
       <c r="J44" s="73"/>
@@ -18243,8 +18646,14 @@
       <c r="E45" s="70">
         <v>0.66213647180291813</v>
       </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="74"/>
+      <c r="F45" s="118">
+        <f t="shared" si="0"/>
+        <v>5713</v>
+      </c>
+      <c r="G45" s="74" t="str" cm="1">
+        <f t="array" ref="G45">_xlfn.XLOOKUP(B45,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C45,_nCity,_nIATA))</f>
+        <v>YYZ-LON</v>
+      </c>
       <c r="H45" s="74"/>
       <c r="I45" s="73"/>
       <c r="J45" s="73"/>
@@ -18363,8 +18772,14 @@
       <c r="E46" s="70">
         <v>0.82961835683788687</v>
       </c>
-      <c r="F46" s="73"/>
-      <c r="G46" s="74"/>
+      <c r="F46" s="118">
+        <f t="shared" si="0"/>
+        <v>16995</v>
+      </c>
+      <c r="G46" s="74" t="str" cm="1">
+        <f t="array" ref="G46">_xlfn.XLOOKUP(B46,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C46,_nCity,_nIATA))</f>
+        <v>LON-SYD</v>
+      </c>
       <c r="H46" s="74"/>
       <c r="I46" s="73"/>
       <c r="J46" s="73"/>
@@ -18483,8 +18898,14 @@
       <c r="E47" s="70">
         <v>0.15779597209395735</v>
       </c>
-      <c r="F47" s="73"/>
-      <c r="G47" s="74"/>
+      <c r="F47" s="118">
+        <f t="shared" si="0"/>
+        <v>16050</v>
+      </c>
+      <c r="G47" s="74" t="str" cm="1">
+        <f t="array" ref="G47">_xlfn.XLOOKUP(B47,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C47,_nCity,_nIATA))</f>
+        <v>LAX-CPT</v>
+      </c>
       <c r="H47" s="74"/>
       <c r="I47" s="73"/>
       <c r="J47" s="73"/>
@@ -18603,8 +19024,14 @@
       <c r="E48" s="70">
         <v>0.63093350577128704</v>
       </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="74"/>
+      <c r="F48" s="118">
+        <f t="shared" si="0"/>
+        <v>503</v>
+      </c>
+      <c r="G48" s="74" t="str" cm="1">
+        <f t="array" ref="G48">_xlfn.XLOOKUP(B48,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C48,_nCity,_nIATA))</f>
+        <v>LIS-MAD</v>
+      </c>
       <c r="H48" s="74"/>
       <c r="I48" s="73"/>
       <c r="J48" s="73"/>
@@ -18723,8 +19150,14 @@
       <c r="E49" s="70">
         <v>0.69621830901201187</v>
       </c>
-      <c r="F49" s="73"/>
-      <c r="G49" s="74"/>
+      <c r="F49" s="118">
+        <f t="shared" si="0"/>
+        <v>4549</v>
+      </c>
+      <c r="G49" s="74" t="str" cm="1">
+        <f t="array" ref="G49">_xlfn.XLOOKUP(B49,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C49,_nCity,_nIATA))</f>
+        <v>YUL-BOG</v>
+      </c>
       <c r="H49" s="74"/>
       <c r="I49" s="73"/>
       <c r="J49" s="73"/>
@@ -18843,8 +19276,14 @@
       <c r="E50" s="70">
         <v>0.33170981756597862</v>
       </c>
-      <c r="F50" s="73"/>
-      <c r="G50" s="74"/>
+      <c r="F50" s="118">
+        <f t="shared" si="0"/>
+        <v>18177</v>
+      </c>
+      <c r="G50" s="74" t="str" cm="1">
+        <f t="array" ref="G50">_xlfn.XLOOKUP(B50,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C50,_nCity,_nIATA))</f>
+        <v>LIS-SYD</v>
+      </c>
       <c r="H50" s="74"/>
       <c r="I50" s="73"/>
       <c r="J50" s="73"/>
@@ -18963,8 +19402,14 @@
       <c r="E51" s="70">
         <v>0.28671442556477911</v>
       </c>
-      <c r="F51" s="73"/>
-      <c r="G51" s="74"/>
+      <c r="F51" s="118">
+        <f t="shared" si="0"/>
+        <v>13101</v>
+      </c>
+      <c r="G51" s="74" t="str" cm="1">
+        <f t="array" ref="G51">_xlfn.XLOOKUP(B51,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C51,_nCity,_nIATA))</f>
+        <v>CPT-YYZ</v>
+      </c>
       <c r="H51" s="74"/>
       <c r="I51" s="73"/>
       <c r="J51" s="73"/>
@@ -19083,8 +19528,14 @@
       <c r="E52" s="70">
         <v>0.91366313157121015</v>
       </c>
-      <c r="F52" s="73"/>
-      <c r="G52" s="74"/>
+      <c r="F52" s="118">
+        <f t="shared" si="0"/>
+        <v>8572</v>
+      </c>
+      <c r="G52" s="74" t="str" cm="1">
+        <f t="array" ref="G52">_xlfn.XLOOKUP(B52,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C52,_nCity,_nIATA))</f>
+        <v>MAD-CPT</v>
+      </c>
       <c r="H52" s="74"/>
       <c r="I52" s="73"/>
       <c r="J52" s="73"/>
@@ -19203,8 +19654,14 @@
       <c r="E53" s="70">
         <v>2.5786614814057529E-2</v>
       </c>
-      <c r="F53" s="73"/>
-      <c r="G53" s="74"/>
+      <c r="F53" s="118">
+        <f t="shared" si="0"/>
+        <v>11801</v>
+      </c>
+      <c r="G53" s="74" t="str" cm="1">
+        <f t="array" ref="G53">_xlfn.XLOOKUP(B53,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C53,_nCity,_nIATA))</f>
+        <v>EZE-SYD</v>
+      </c>
       <c r="H53" s="74"/>
       <c r="I53" s="73"/>
       <c r="J53" s="73"/>
@@ -19323,8 +19780,14 @@
       <c r="E54" s="70">
         <v>7.2951306312709407E-2</v>
       </c>
-      <c r="F54" s="73"/>
-      <c r="G54" s="74"/>
+      <c r="F54" s="118">
+        <f t="shared" si="0"/>
+        <v>9122</v>
+      </c>
+      <c r="G54" s="74" t="str" cm="1">
+        <f t="array" ref="G54">_xlfn.XLOOKUP(B54,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C54,_nCity,_nIATA))</f>
+        <v>LIS-LAX</v>
+      </c>
       <c r="H54" s="74"/>
       <c r="I54" s="73"/>
       <c r="J54" s="73"/>
@@ -19443,8 +19906,14 @@
       <c r="E55" s="70">
         <v>0.12965004154906745</v>
       </c>
-      <c r="F55" s="73"/>
-      <c r="G55" s="74"/>
+      <c r="F55" s="118">
+        <f t="shared" si="0"/>
+        <v>12756</v>
+      </c>
+      <c r="G55" s="74" t="str" cm="1">
+        <f t="array" ref="G55">_xlfn.XLOOKUP(B55,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C55,_nCity,_nIATA))</f>
+        <v>CPT-YUL</v>
+      </c>
       <c r="H55" s="74"/>
       <c r="I55" s="73"/>
       <c r="J55" s="73"/>
@@ -19563,8 +20032,14 @@
       <c r="E56" s="70">
         <v>0.76457442501995654</v>
       </c>
-      <c r="F56" s="73"/>
-      <c r="G56" s="74"/>
+      <c r="F56" s="118">
+        <f t="shared" si="0"/>
+        <v>13101</v>
+      </c>
+      <c r="G56" s="74" t="str" cm="1">
+        <f t="array" ref="G56">_xlfn.XLOOKUP(B56,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C56,_nCity,_nIATA))</f>
+        <v>YYZ-CPT</v>
+      </c>
       <c r="H56" s="74"/>
       <c r="I56" s="73"/>
       <c r="J56" s="73"/>
@@ -19683,8 +20158,14 @@
       <c r="E57" s="70">
         <v>0.71387402067094397</v>
       </c>
-      <c r="F57" s="73"/>
-      <c r="G57" s="74"/>
+      <c r="F57" s="118">
+        <f t="shared" si="0"/>
+        <v>6868</v>
+      </c>
+      <c r="G57" s="74" t="str" cm="1">
+        <f t="array" ref="G57">_xlfn.XLOOKUP(B57,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C57,_nCity,_nIATA))</f>
+        <v>CPT-EZE</v>
+      </c>
       <c r="H57" s="74"/>
       <c r="I57" s="73"/>
       <c r="J57" s="73"/>
@@ -19803,8 +20284,14 @@
       <c r="E58" s="70">
         <v>0.68450003712072338</v>
       </c>
-      <c r="F58" s="73"/>
-      <c r="G58" s="74"/>
+      <c r="F58" s="118">
+        <f t="shared" si="0"/>
+        <v>5224</v>
+      </c>
+      <c r="G58" s="74" t="str" cm="1">
+        <f t="array" ref="G58">_xlfn.XLOOKUP(B58,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C58,_nCity,_nIATA))</f>
+        <v>LIS-YUL</v>
+      </c>
       <c r="H58" s="74"/>
       <c r="I58" s="73"/>
       <c r="J58" s="73"/>
@@ -19923,8 +20410,14 @@
       <c r="E59" s="70">
         <v>0.12661964940464476</v>
       </c>
-      <c r="F59" s="73"/>
-      <c r="G59" s="74"/>
+      <c r="F59" s="118">
+        <f t="shared" si="0"/>
+        <v>3968</v>
+      </c>
+      <c r="G59" s="74" t="str" cm="1">
+        <f t="array" ref="G59">_xlfn.XLOOKUP(B59,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C59,_nCity,_nIATA))</f>
+        <v>LAX-YUL</v>
+      </c>
       <c r="H59" s="74"/>
       <c r="I59" s="73"/>
       <c r="J59" s="73"/>
@@ -20043,8 +20536,14 @@
       <c r="E60" s="70">
         <v>9.8642545686673855E-2</v>
       </c>
-      <c r="F60" s="73"/>
-      <c r="G60" s="74"/>
+      <c r="F60" s="118">
+        <f t="shared" si="0"/>
+        <v>10119</v>
+      </c>
+      <c r="G60" s="74" t="str" cm="1">
+        <f t="array" ref="G60">_xlfn.XLOOKUP(B60,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C60,_nCity,_nIATA))</f>
+        <v>RIX-CPT</v>
+      </c>
       <c r="H60" s="74"/>
       <c r="I60" s="73"/>
       <c r="J60" s="73"/>
@@ -20163,8 +20662,14 @@
       <c r="E61" s="70">
         <v>0.45372556930768471</v>
       </c>
-      <c r="F61" s="73"/>
-      <c r="G61" s="74"/>
+      <c r="F61" s="118">
+        <f t="shared" si="0"/>
+        <v>10071</v>
+      </c>
+      <c r="G61" s="74" t="str" cm="1">
+        <f t="array" ref="G61">_xlfn.XLOOKUP(B61,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C61,_nCity,_nIATA))</f>
+        <v>BOG-RIX</v>
+      </c>
       <c r="H61" s="74"/>
       <c r="I61" s="73"/>
       <c r="J61" s="73"/>
@@ -20283,8 +20788,14 @@
       <c r="E62" s="70">
         <v>0.67251532786613555</v>
       </c>
-      <c r="F62" s="73"/>
-      <c r="G62" s="74"/>
+      <c r="F62" s="118">
+        <f t="shared" si="0"/>
+        <v>14326</v>
+      </c>
+      <c r="G62" s="74" t="str" cm="1">
+        <f t="array" ref="G62">_xlfn.XLOOKUP(B62,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C62,_nCity,_nIATA))</f>
+        <v>SYD-BOG</v>
+      </c>
       <c r="H62" s="74"/>
       <c r="I62" s="73"/>
       <c r="J62" s="73"/>
@@ -20403,8 +20914,14 @@
       <c r="E63" s="70">
         <v>0.79579723685392634</v>
       </c>
-      <c r="F63" s="73"/>
-      <c r="G63" s="74"/>
+      <c r="F63" s="118">
+        <f t="shared" si="0"/>
+        <v>1263</v>
+      </c>
+      <c r="G63" s="74" t="str" cm="1">
+        <f t="array" ref="G63">_xlfn.XLOOKUP(B63,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C63,_nCity,_nIATA))</f>
+        <v>LON-MAD</v>
+      </c>
       <c r="H63" s="74"/>
       <c r="I63" s="73"/>
       <c r="J63" s="73"/>
@@ -20523,8 +21040,14 @@
       <c r="E64" s="70">
         <v>0.83534396135051603</v>
       </c>
-      <c r="F64" s="73"/>
-      <c r="G64" s="74"/>
+      <c r="F64" s="118">
+        <f t="shared" si="0"/>
+        <v>3152</v>
+      </c>
+      <c r="G64" s="74" t="str" cm="1">
+        <f t="array" ref="G64">_xlfn.XLOOKUP(B64,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C64,_nCity,_nIATA))</f>
+        <v>RIX-LIS</v>
+      </c>
       <c r="H64" s="74"/>
       <c r="I64" s="73"/>
       <c r="J64" s="73"/>
@@ -20643,8 +21166,14 @@
       <c r="E65" s="70">
         <v>8.729300484017033E-2</v>
       </c>
-      <c r="F65" s="73"/>
-      <c r="G65" s="74"/>
+      <c r="F65" s="118">
+        <f t="shared" si="0"/>
+        <v>1677</v>
+      </c>
+      <c r="G65" s="74" t="str" cm="1">
+        <f t="array" ref="G65">_xlfn.XLOOKUP(B65,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C65,_nCity,_nIATA))</f>
+        <v>LON-RIX</v>
+      </c>
       <c r="H65" s="74"/>
       <c r="I65" s="73"/>
       <c r="J65" s="73"/>
@@ -20763,8 +21292,14 @@
       <c r="E66" s="70">
         <v>0.94979899196889506</v>
       </c>
-      <c r="F66" s="73"/>
-      <c r="G66" s="74"/>
+      <c r="F66" s="118">
+        <f t="shared" si="0"/>
+        <v>9823</v>
+      </c>
+      <c r="G66" s="74" t="str" cm="1">
+        <f t="array" ref="G66">_xlfn.XLOOKUP(B66,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C66,_nCity,_nIATA))</f>
+        <v>LAS-EZE</v>
+      </c>
       <c r="H66" s="74"/>
       <c r="I66" s="73"/>
       <c r="J66" s="73"/>
@@ -20883,8 +21418,14 @@
       <c r="E67" s="70">
         <v>0.51473639925340675</v>
       </c>
-      <c r="F67" s="73"/>
-      <c r="G67" s="74"/>
+      <c r="F67" s="118">
+        <f t="shared" ref="F67:F104" si="1">SUBSTITUTE(D67,"km","")+0</f>
+        <v>9122</v>
+      </c>
+      <c r="G67" s="74" t="str" cm="1">
+        <f t="array" ref="G67">_xlfn.XLOOKUP(B67,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C67,_nCity,_nIATA))</f>
+        <v>LAX-LIS</v>
+      </c>
       <c r="H67" s="74"/>
       <c r="I67" s="73"/>
       <c r="J67" s="73"/>
@@ -21003,8 +21544,14 @@
       <c r="E68" s="70">
         <v>0.37423246011048694</v>
       </c>
-      <c r="F68" s="73"/>
-      <c r="G68" s="74"/>
+      <c r="F68" s="118">
+        <f t="shared" si="1"/>
+        <v>3135</v>
+      </c>
+      <c r="G68" s="74" t="str" cm="1">
+        <f t="array" ref="G68">_xlfn.XLOOKUP(B68,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C68,_nCity,_nIATA))</f>
+        <v>LAS-YYZ</v>
+      </c>
       <c r="H68" s="74"/>
       <c r="I68" s="73"/>
       <c r="J68" s="73"/>
@@ -21123,8 +21670,14 @@
       <c r="E69" s="70">
         <v>0.63483761845923059</v>
       </c>
-      <c r="F69" s="73"/>
-      <c r="G69" s="74"/>
+      <c r="F69" s="118">
+        <f t="shared" si="1"/>
+        <v>14326</v>
+      </c>
+      <c r="G69" s="74" t="str" cm="1">
+        <f t="array" ref="G69">_xlfn.XLOOKUP(B69,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C69,_nCity,_nIATA))</f>
+        <v>BOG-SYD</v>
+      </c>
       <c r="H69" s="74"/>
       <c r="I69" s="73"/>
       <c r="J69" s="73"/>
@@ -21243,8 +21796,14 @@
       <c r="E70" s="70">
         <v>0.8704337311356104</v>
       </c>
-      <c r="F70" s="73"/>
-      <c r="G70" s="74"/>
+      <c r="F70" s="118">
+        <f t="shared" si="1"/>
+        <v>1263</v>
+      </c>
+      <c r="G70" s="74" t="str" cm="1">
+        <f t="array" ref="G70">_xlfn.XLOOKUP(B70,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C70,_nCity,_nIATA))</f>
+        <v>MAD-LON</v>
+      </c>
       <c r="H70" s="74"/>
       <c r="I70" s="73"/>
       <c r="J70" s="73"/>
@@ -21363,8 +21922,14 @@
       <c r="E71" s="70">
         <v>0.29785531503234752</v>
       </c>
-      <c r="F71" s="73"/>
-      <c r="G71" s="74"/>
+      <c r="F71" s="118">
+        <f t="shared" si="1"/>
+        <v>8562</v>
+      </c>
+      <c r="G71" s="74" t="str" cm="1">
+        <f t="array" ref="G71">_xlfn.XLOOKUP(B71,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C71,_nCity,_nIATA))</f>
+        <v>LIS-CPT</v>
+      </c>
       <c r="H71" s="74"/>
       <c r="I71" s="73"/>
       <c r="J71" s="73"/>
@@ -21483,8 +22048,14 @@
       <c r="E72" s="70">
         <v>0.88477973946593003</v>
       </c>
-      <c r="F72" s="73"/>
-      <c r="G72" s="74"/>
+      <c r="F72" s="118">
+        <f t="shared" si="1"/>
+        <v>9853</v>
+      </c>
+      <c r="G72" s="74" t="str" cm="1">
+        <f t="array" ref="G72">_xlfn.XLOOKUP(B72,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C72,_nCity,_nIATA))</f>
+        <v>EZE-LAX</v>
+      </c>
       <c r="H72" s="74"/>
       <c r="I72" s="73"/>
       <c r="J72" s="73"/>
@@ -21603,8 +22174,14 @@
       <c r="E73" s="70">
         <v>0.20761860487805495</v>
       </c>
-      <c r="F73" s="73"/>
-      <c r="G73" s="74"/>
+      <c r="F73" s="118">
+        <f t="shared" si="1"/>
+        <v>1677</v>
+      </c>
+      <c r="G73" s="74" t="str" cm="1">
+        <f t="array" ref="G73">_xlfn.XLOOKUP(B73,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C73,_nCity,_nIATA))</f>
+        <v>RIX-LON</v>
+      </c>
       <c r="H73" s="74"/>
       <c r="I73" s="73"/>
       <c r="J73" s="73"/>
@@ -21723,8 +22300,14 @@
       <c r="E74" s="70">
         <v>0.95134259259259257</v>
       </c>
-      <c r="F74" s="73"/>
-      <c r="G74" s="74"/>
+      <c r="F74" s="118">
+        <f t="shared" si="1"/>
+        <v>8402</v>
+      </c>
+      <c r="G74" s="74" t="str" cm="1">
+        <f t="array" ref="G74">_xlfn.XLOOKUP(B74,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C74,_nCity,_nIATA))</f>
+        <v>LAS-LON</v>
+      </c>
       <c r="H74" s="74"/>
       <c r="I74" s="73"/>
       <c r="J74" s="73"/>
@@ -21843,8 +22426,14 @@
       <c r="E75" s="70">
         <v>0.57617741681344048</v>
       </c>
-      <c r="F75" s="73"/>
-      <c r="G75" s="74"/>
+      <c r="F75" s="118">
+        <f t="shared" si="1"/>
+        <v>6770</v>
+      </c>
+      <c r="G75" s="74" t="str" cm="1">
+        <f t="array" ref="G75">_xlfn.XLOOKUP(B75,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C75,_nCity,_nIATA))</f>
+        <v>RIX-YYZ</v>
+      </c>
       <c r="H75" s="74"/>
       <c r="I75" s="73"/>
       <c r="J75" s="73"/>
@@ -21963,8 +22552,14 @@
       <c r="E76" s="70">
         <v>0.53022946506135005</v>
       </c>
-      <c r="F76" s="73"/>
-      <c r="G76" s="74"/>
+      <c r="F76" s="118">
+        <f t="shared" si="1"/>
+        <v>5224</v>
+      </c>
+      <c r="G76" s="74" t="str" cm="1">
+        <f t="array" ref="G76">_xlfn.XLOOKUP(B76,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C76,_nCity,_nIATA))</f>
+        <v>YUL-LIS</v>
+      </c>
       <c r="H76" s="74"/>
       <c r="I76" s="73"/>
       <c r="J76" s="73"/>
@@ -22083,8 +22678,14 @@
       <c r="E77" s="70">
         <v>0.95372965527261444</v>
       </c>
-      <c r="F77" s="73"/>
-      <c r="G77" s="74"/>
+      <c r="F77" s="118">
+        <f t="shared" si="1"/>
+        <v>9363</v>
+      </c>
+      <c r="G77" s="74" t="str" cm="1">
+        <f t="array" ref="G77">_xlfn.XLOOKUP(B77,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C77,_nCity,_nIATA))</f>
+        <v>MAD-LAX</v>
+      </c>
       <c r="H77" s="74"/>
       <c r="I77" s="73"/>
       <c r="J77" s="73"/>
@@ -22203,8 +22804,14 @@
       <c r="E78" s="70">
         <v>0.20336194487020143</v>
       </c>
-      <c r="F78" s="73"/>
-      <c r="G78" s="74"/>
+      <c r="F78" s="118">
+        <f t="shared" si="1"/>
+        <v>2712</v>
+      </c>
+      <c r="G78" s="74" t="str" cm="1">
+        <f t="array" ref="G78">_xlfn.XLOOKUP(B78,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C78,_nCity,_nIATA))</f>
+        <v>MAD-RIX</v>
+      </c>
       <c r="H78" s="74"/>
       <c r="I78" s="73"/>
       <c r="J78" s="73"/>
@@ -22323,8 +22930,14 @@
       <c r="E79" s="70">
         <v>0.6153081111885248</v>
       </c>
-      <c r="F79" s="73"/>
-      <c r="G79" s="74"/>
+      <c r="F79" s="118">
+        <f t="shared" si="1"/>
+        <v>9363</v>
+      </c>
+      <c r="G79" s="74" t="str" cm="1">
+        <f t="array" ref="G79">_xlfn.XLOOKUP(B79,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C79,_nCity,_nIATA))</f>
+        <v>LAX-MAD</v>
+      </c>
       <c r="H79" s="74"/>
       <c r="I79" s="73"/>
       <c r="J79" s="73"/>
@@ -22443,8 +23056,14 @@
       <c r="E80" s="70">
         <v>0.66381652728523044</v>
       </c>
-      <c r="F80" s="73"/>
-      <c r="G80" s="74"/>
+      <c r="F80" s="118">
+        <f t="shared" si="1"/>
+        <v>3494</v>
+      </c>
+      <c r="G80" s="74" t="str" cm="1">
+        <f t="array" ref="G80">_xlfn.XLOOKUP(B80,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C80,_nCity,_nIATA))</f>
+        <v>YYZ-LAX</v>
+      </c>
       <c r="H80" s="74"/>
       <c r="I80" s="73"/>
       <c r="J80" s="73"/>
@@ -22563,8 +23182,14 @@
       <c r="E81" s="70">
         <v>0.92898243493522159</v>
       </c>
-      <c r="F81" s="73"/>
-      <c r="G81" s="74"/>
+      <c r="F81" s="118">
+        <f t="shared" si="1"/>
+        <v>3152</v>
+      </c>
+      <c r="G81" s="74" t="str" cm="1">
+        <f t="array" ref="G81">_xlfn.XLOOKUP(B81,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C81,_nCity,_nIATA))</f>
+        <v>LIS-RIX</v>
+      </c>
       <c r="H81" s="74"/>
       <c r="I81" s="73"/>
       <c r="J81" s="73"/>
@@ -22683,8 +23308,14 @@
       <c r="E82" s="70">
         <v>0.65715444098636255</v>
       </c>
-      <c r="F82" s="73"/>
-      <c r="G82" s="74"/>
+      <c r="F82" s="118">
+        <f t="shared" si="1"/>
+        <v>3135</v>
+      </c>
+      <c r="G82" s="74" t="str" cm="1">
+        <f t="array" ref="G82">_xlfn.XLOOKUP(B82,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C82,_nCity,_nIATA))</f>
+        <v>YYZ-LAS</v>
+      </c>
       <c r="H82" s="74"/>
       <c r="I82" s="73"/>
       <c r="J82" s="73"/>
@@ -22803,8 +23434,14 @@
       <c r="E83" s="70">
         <v>0.57446770726610896</v>
       </c>
-      <c r="F83" s="73"/>
-      <c r="G83" s="74"/>
+      <c r="F83" s="118">
+        <f t="shared" si="1"/>
+        <v>5220</v>
+      </c>
+      <c r="G83" s="74" t="str" cm="1">
+        <f t="array" ref="G83">_xlfn.XLOOKUP(B83,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C83,_nCity,_nIATA))</f>
+        <v>YUL-LON</v>
+      </c>
       <c r="H83" s="74"/>
       <c r="I83" s="73"/>
       <c r="J83" s="73"/>
@@ -22923,8 +23560,14 @@
       <c r="E84" s="70">
         <v>0.45953108910764318</v>
       </c>
-      <c r="F84" s="73"/>
-      <c r="G84" s="74"/>
+      <c r="F84" s="118">
+        <f t="shared" si="1"/>
+        <v>6868</v>
+      </c>
+      <c r="G84" s="74" t="str" cm="1">
+        <f t="array" ref="G84">_xlfn.XLOOKUP(B84,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C84,_nCity,_nIATA))</f>
+        <v>EZE-CPT</v>
+      </c>
       <c r="H84" s="74"/>
       <c r="I84" s="73"/>
       <c r="J84" s="73"/>
@@ -23043,8 +23686,14 @@
       <c r="E85" s="70">
         <v>8.5215872237556667E-2</v>
       </c>
-      <c r="F85" s="73"/>
-      <c r="G85" s="74"/>
+      <c r="F85" s="118">
+        <f t="shared" si="1"/>
+        <v>4660</v>
+      </c>
+      <c r="G85" s="74" t="str" cm="1">
+        <f t="array" ref="G85">_xlfn.XLOOKUP(B85,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C85,_nCity,_nIATA))</f>
+        <v>EZE-BOG</v>
+      </c>
       <c r="H85" s="74"/>
       <c r="I85" s="73"/>
       <c r="J85" s="73"/>
@@ -23163,8 +23812,14 @@
       <c r="E86" s="70">
         <v>7.8095461748342254E-2</v>
       </c>
-      <c r="F86" s="73"/>
-      <c r="G86" s="74"/>
+      <c r="F86" s="118">
+        <f t="shared" si="1"/>
+        <v>3695</v>
+      </c>
+      <c r="G86" s="74" t="str" cm="1">
+        <f t="array" ref="G86">_xlfn.XLOOKUP(B86,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C86,_nCity,_nIATA))</f>
+        <v>YUL-LAS</v>
+      </c>
       <c r="H86" s="74"/>
       <c r="I86" s="73"/>
       <c r="J86" s="73"/>
@@ -23283,8 +23938,14 @@
       <c r="E87" s="70">
         <v>0.68840639535083414</v>
       </c>
-      <c r="F87" s="73"/>
-      <c r="G87" s="74"/>
+      <c r="F87" s="118">
+        <f t="shared" si="1"/>
+        <v>5605</v>
+      </c>
+      <c r="G87" s="74" t="str" cm="1">
+        <f t="array" ref="G87">_xlfn.XLOOKUP(B87,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C87,_nCity,_nIATA))</f>
+        <v>BOG-LAX</v>
+      </c>
       <c r="H87" s="74"/>
       <c r="I87" s="73"/>
       <c r="J87" s="73"/>
@@ -23403,8 +24064,14 @@
       <c r="E88" s="70">
         <v>9.3081911757682323E-2</v>
       </c>
-      <c r="F88" s="73"/>
-      <c r="G88" s="74"/>
+      <c r="F88" s="118">
+        <f t="shared" si="1"/>
+        <v>8756</v>
+      </c>
+      <c r="G88" s="74" t="str" cm="1">
+        <f t="array" ref="G88">_xlfn.XLOOKUP(B88,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C88,_nCity,_nIATA))</f>
+        <v>LAX-LON</v>
+      </c>
       <c r="H88" s="74"/>
       <c r="I88" s="73"/>
       <c r="J88" s="73"/>
@@ -23523,8 +24190,14 @@
       <c r="E89" s="70">
         <v>0.37162318415255113</v>
       </c>
-      <c r="F89" s="73"/>
-      <c r="G89" s="74"/>
+      <c r="F89" s="118">
+        <f t="shared" si="1"/>
+        <v>5727</v>
+      </c>
+      <c r="G89" s="74" t="str" cm="1">
+        <f t="array" ref="G89">_xlfn.XLOOKUP(B89,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C89,_nCity,_nIATA))</f>
+        <v>YYZ-LIS</v>
+      </c>
       <c r="H89" s="74"/>
       <c r="I89" s="73"/>
       <c r="J89" s="73"/>
@@ -23643,8 +24316,14 @@
       <c r="E90" s="70">
         <v>0.45689396308850094</v>
       </c>
-      <c r="F90" s="73"/>
-      <c r="G90" s="74"/>
+      <c r="F90" s="118">
+        <f t="shared" si="1"/>
+        <v>5465</v>
+      </c>
+      <c r="G90" s="74" t="str" cm="1">
+        <f t="array" ref="G90">_xlfn.XLOOKUP(B90,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C90,_nCity,_nIATA))</f>
+        <v>LAS-BOG</v>
+      </c>
       <c r="H90" s="74"/>
       <c r="I90" s="73"/>
       <c r="J90" s="73"/>
@@ -23763,8 +24442,14 @@
       <c r="E91" s="70">
         <v>6.5497685185185187E-2</v>
       </c>
-      <c r="F91" s="73"/>
-      <c r="G91" s="74"/>
+      <c r="F91" s="118">
+        <f t="shared" si="1"/>
+        <v>9823</v>
+      </c>
+      <c r="G91" s="74" t="str" cm="1">
+        <f t="array" ref="G91">_xlfn.XLOOKUP(B91,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C91,_nCity,_nIATA))</f>
+        <v>EZE-LAS</v>
+      </c>
       <c r="H91" s="74"/>
       <c r="I91" s="73"/>
       <c r="J91" s="73"/>
@@ -23883,8 +24568,14 @@
       <c r="E92" s="70">
         <v>4.1404661928027053E-2</v>
       </c>
-      <c r="F92" s="73"/>
-      <c r="G92" s="74"/>
+      <c r="F92" s="118">
+        <f t="shared" si="1"/>
+        <v>367</v>
+      </c>
+      <c r="G92" s="74" t="str" cm="1">
+        <f t="array" ref="G92">_xlfn.XLOOKUP(B92,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C92,_nCity,_nIATA))</f>
+        <v>LAS-LAX</v>
+      </c>
       <c r="H92" s="74"/>
       <c r="I92" s="73"/>
       <c r="J92" s="73"/>
@@ -24003,8 +24694,14 @@
       <c r="E93" s="70">
         <v>0.74954969077703937</v>
       </c>
-      <c r="F93" s="73"/>
-      <c r="G93" s="74"/>
+      <c r="F93" s="118">
+        <f t="shared" si="1"/>
+        <v>10119</v>
+      </c>
+      <c r="G93" s="74" t="str" cm="1">
+        <f t="array" ref="G93">_xlfn.XLOOKUP(B93,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C93,_nCity,_nIATA))</f>
+        <v>CPT-RIX</v>
+      </c>
       <c r="H93" s="74"/>
       <c r="I93" s="74"/>
       <c r="J93" s="73"/>
@@ -24123,8 +24820,14 @@
       <c r="E94" s="70">
         <v>0.59104472603881741</v>
       </c>
-      <c r="F94" s="73"/>
-      <c r="G94" s="74"/>
+      <c r="F94" s="118">
+        <f t="shared" si="1"/>
+        <v>4660</v>
+      </c>
+      <c r="G94" s="74" t="str" cm="1">
+        <f t="array" ref="G94">_xlfn.XLOOKUP(B94,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C94,_nCity,_nIATA))</f>
+        <v>BOG-EZE</v>
+      </c>
       <c r="H94" s="74"/>
       <c r="I94" s="74"/>
       <c r="J94" s="73"/>
@@ -24243,8 +24946,14 @@
       <c r="E95" s="70">
         <v>0.93120925285053602</v>
       </c>
-      <c r="F95" s="73"/>
-      <c r="G95" s="74"/>
+      <c r="F95" s="118">
+        <f t="shared" si="1"/>
+        <v>8977</v>
+      </c>
+      <c r="G95" s="74" t="str" cm="1">
+        <f t="array" ref="G95">_xlfn.XLOOKUP(B95,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C95,_nCity,_nIATA))</f>
+        <v>RIX-LAS</v>
+      </c>
       <c r="H95" s="74"/>
       <c r="I95" s="74"/>
       <c r="J95" s="73"/>
@@ -24363,8 +25072,14 @@
       <c r="E96" s="70">
         <v>0.9372342614532192</v>
       </c>
-      <c r="F96" s="73"/>
-      <c r="G96" s="74"/>
+      <c r="F96" s="118">
+        <f t="shared" si="1"/>
+        <v>3494</v>
+      </c>
+      <c r="G96" s="74" t="str" cm="1">
+        <f t="array" ref="G96">_xlfn.XLOOKUP(B96,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C96,_nCity,_nIATA))</f>
+        <v>LAX-YYZ</v>
+      </c>
       <c r="H96" s="74"/>
       <c r="I96" s="74"/>
       <c r="J96" s="73"/>
@@ -24483,8 +25198,14 @@
       <c r="E97" s="70">
         <v>0.71002339752198596</v>
       </c>
-      <c r="F97" s="73"/>
-      <c r="G97" s="74"/>
+      <c r="F97" s="118">
+        <f t="shared" si="1"/>
+        <v>8755</v>
+      </c>
+      <c r="G97" s="74" t="str" cm="1">
+        <f t="array" ref="G97">_xlfn.XLOOKUP(B97,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C97,_nCity,_nIATA))</f>
+        <v>LAS-LIS</v>
+      </c>
       <c r="H97" s="74"/>
       <c r="I97" s="74"/>
       <c r="J97" s="73"/>
@@ -24603,8 +25324,14 @@
       <c r="E98" s="70">
         <v>8.1832791120927229E-2</v>
       </c>
-      <c r="F98" s="73"/>
-      <c r="G98" s="74"/>
+      <c r="F98" s="118">
+        <f t="shared" si="1"/>
+        <v>1586</v>
+      </c>
+      <c r="G98" s="74" t="str" cm="1">
+        <f t="array" ref="G98">_xlfn.XLOOKUP(B98,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C98,_nCity,_nIATA))</f>
+        <v>LON-LIS</v>
+      </c>
       <c r="H98" s="74"/>
       <c r="I98" s="74"/>
       <c r="J98" s="73"/>
@@ -24723,8 +25450,14 @@
       <c r="E99" s="70">
         <v>0.51724304638840624</v>
       </c>
-      <c r="F99" s="73"/>
-      <c r="G99" s="74"/>
+      <c r="F99" s="118">
+        <f t="shared" si="1"/>
+        <v>8402</v>
+      </c>
+      <c r="G99" s="74" t="str" cm="1">
+        <f t="array" ref="G99">_xlfn.XLOOKUP(B99,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C99,_nCity,_nIATA))</f>
+        <v>LON-LAS</v>
+      </c>
       <c r="H99" s="74"/>
       <c r="I99" s="74"/>
       <c r="J99" s="73"/>
@@ -24843,8 +25576,14 @@
       <c r="E100" s="70">
         <v>0.66292808314045693</v>
       </c>
-      <c r="F100" s="73"/>
-      <c r="G100" s="74"/>
+      <c r="F100" s="118">
+        <f t="shared" si="1"/>
+        <v>10045</v>
+      </c>
+      <c r="G100" s="74" t="str" cm="1">
+        <f t="array" ref="G100">_xlfn.XLOOKUP(B100,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C100,_nCity,_nIATA))</f>
+        <v>MAD-EZE</v>
+      </c>
       <c r="H100" s="74"/>
       <c r="I100" s="74"/>
       <c r="J100" s="73"/>
@@ -24963,8 +25702,14 @@
       <c r="E101" s="70">
         <v>0.25679080736504145</v>
       </c>
-      <c r="F101" s="73"/>
-      <c r="G101" s="74"/>
+      <c r="F101" s="118">
+        <f t="shared" si="1"/>
+        <v>8997</v>
+      </c>
+      <c r="G101" s="74" t="str" cm="1">
+        <f t="array" ref="G101">_xlfn.XLOOKUP(B101,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C101,_nCity,_nIATA))</f>
+        <v>LAS-MAD</v>
+      </c>
       <c r="H101" s="74"/>
       <c r="I101" s="74"/>
       <c r="J101" s="73"/>
@@ -25083,8 +25828,14 @@
       <c r="E102" s="70">
         <v>0.99500230125785194</v>
       </c>
-      <c r="F102" s="73"/>
-      <c r="G102" s="74"/>
+      <c r="F102" s="118">
+        <f t="shared" si="1"/>
+        <v>4373</v>
+      </c>
+      <c r="G102" s="74" t="str" cm="1">
+        <f t="array" ref="G102">_xlfn.XLOOKUP(B102,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C102,_nCity,_nIATA))</f>
+        <v>CPT-LIS</v>
+      </c>
       <c r="H102" s="74"/>
       <c r="I102" s="74"/>
       <c r="J102" s="73"/>
@@ -25203,8 +25954,14 @@
       <c r="E103" s="70">
         <v>0.24322626406221459</v>
       </c>
-      <c r="F103" s="73"/>
-      <c r="G103" s="74"/>
+      <c r="F103" s="118">
+        <f t="shared" si="1"/>
+        <v>12756</v>
+      </c>
+      <c r="G103" s="74" t="str" cm="1">
+        <f t="array" ref="G103">_xlfn.XLOOKUP(B103,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C103,_nCity,_nIATA))</f>
+        <v>YUL-CPT</v>
+      </c>
       <c r="H103" s="74"/>
       <c r="I103" s="74"/>
       <c r="J103" s="73"/>
@@ -25323,8 +26080,14 @@
       <c r="E104" s="70">
         <v>0.11421296296296296</v>
       </c>
-      <c r="F104" s="73"/>
-      <c r="G104" s="74"/>
+      <c r="F104" s="118">
+        <f t="shared" si="1"/>
+        <v>15568</v>
+      </c>
+      <c r="G104" s="74" t="str" cm="1">
+        <f t="array" ref="G104">_xlfn.XLOOKUP(B104,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C104,_nCity,_nIATA))</f>
+        <v>YYZ-SYD</v>
+      </c>
       <c r="H104" s="74"/>
       <c r="I104" s="74"/>
       <c r="J104" s="73"/>
@@ -26309,34 +27072,34 @@
       <c r="BD1" s="6"/>
     </row>
     <row r="2" spans="2:56" ht="60.6" customHeight="1">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="79" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="102"/>
-      <c r="Y2" s="102"/>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="102"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
       <c r="AO2" s="3"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -26360,32 +27123,32 @@
       <c r="BD3" s="6"/>
     </row>
     <row r="4" spans="2:56" ht="33.6" customHeight="1">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="Y4" s="114" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="Y4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="114"/>
-      <c r="AA4" s="103"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="80"/>
       <c r="AO4" s="3"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -26613,11 +27376,11 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="115" t="s">
+      <c r="Y11" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="117"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="94"/>
       <c r="AO11" s="3"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -26662,33 +27425,33 @@
       <c r="BD12" s="6"/>
     </row>
     <row r="13" spans="2:56" ht="24.9" customHeight="1" thickBot="1">
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
       <c r="U13" s="60"/>
-      <c r="Y13" s="104" t="s">
+      <c r="Y13" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="103"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="80"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -26696,27 +27459,27 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:56" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="82" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="106"/>
-      <c r="T14" s="107"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="83"/>
+      <c r="T14" s="84"/>
       <c r="U14" s="3"/>
       <c r="Y14" s="61" t="s">
         <v>31</v>
@@ -26733,25 +27496,25 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:56" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B15" s="108"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="110"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="86"/>
+      <c r="S15" s="86"/>
+      <c r="T15" s="87"/>
       <c r="U15" s="3"/>
       <c r="Y15" s="62" t="s">
         <v>32</v>
@@ -26768,25 +27531,25 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B16" s="108"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="T16" s="110"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="86"/>
+      <c r="S16" s="86"/>
+      <c r="T16" s="87"/>
       <c r="U16" s="3"/>
       <c r="Y16" s="62" t="s">
         <v>47</v>
@@ -26802,25 +27565,25 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="110"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="86"/>
+      <c r="S17" s="86"/>
+      <c r="T17" s="87"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="62" t="s">
         <v>39</v>
@@ -26836,25 +27599,25 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="18" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="110"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="87"/>
       <c r="U18" s="3"/>
       <c r="Y18" s="62" t="s">
         <v>35</v>
@@ -26870,25 +27633,25 @@
       <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B19" s="108"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="110"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="86"/>
+      <c r="T19" s="87"/>
       <c r="U19" s="3"/>
       <c r="Y19" s="62" t="s">
         <v>42</v>
@@ -26904,25 +27667,25 @@
       <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B20" s="108"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="110"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="87"/>
       <c r="U20" s="3"/>
       <c r="Y20" s="62" t="s">
         <v>48</v>
@@ -26936,25 +27699,25 @@
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="109"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="110"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="87"/>
       <c r="U21" s="3"/>
       <c r="Y21" s="62" t="s">
         <v>49</v>
@@ -26970,25 +27733,25 @@
       <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="110"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="87"/>
       <c r="U22" s="3"/>
       <c r="Y22" s="62" t="s">
         <v>50</v>
@@ -27005,25 +27768,25 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B23" s="108"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="110"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="87"/>
       <c r="U23" s="3"/>
       <c r="Y23" s="62" t="s">
         <v>51</v>
@@ -27040,25 +27803,25 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B24" s="108"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="110"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="87"/>
       <c r="U24" s="3"/>
       <c r="Y24" s="62" t="s">
         <v>52</v>
@@ -27075,25 +27838,25 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B25" s="108"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="110"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="87"/>
       <c r="U25" s="3"/>
       <c r="Y25" s="62" t="s">
         <v>53</v>
@@ -27108,25 +27871,25 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="110"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="87"/>
       <c r="U26" s="3"/>
       <c r="Y26" s="62" t="s">
         <v>105</v>
@@ -27146,25 +27909,25 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B27" s="108"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="T27" s="110"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="87"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -27183,25 +27946,25 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:56" ht="47.25" customHeight="1">
-      <c r="B28" s="111"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="112"/>
-      <c r="H28" s="112"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="112"/>
-      <c r="K28" s="112"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="112"/>
-      <c r="O28" s="112"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="113"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="90"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -27212,10 +27975,10 @@
       <c r="AC28" s="63"/>
       <c r="AD28" s="63"/>
       <c r="AE28" s="64"/>
-      <c r="AF28" s="101"/>
-      <c r="AG28" s="101"/>
-      <c r="AH28" s="101"/>
-      <c r="AI28" s="101"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="78"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
     </row>
@@ -27264,34 +28027,34 @@
       <c r="BD29" s="6"/>
     </row>
     <row r="30" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-      <c r="X30" s="82"/>
-      <c r="Y30" s="82"/>
-      <c r="Z30" s="82"/>
-      <c r="AA30" s="83"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="99"/>
+      <c r="Y30" s="99"/>
+      <c r="Z30" s="99"/>
+      <c r="AA30" s="100"/>
       <c r="AC30" s="63"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="64"/>
@@ -27354,29 +28117,29 @@
       <c r="E33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="84" t="s">
+      <c r="G33" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="85"/>
-      <c r="X33" s="85"/>
-      <c r="Y33" s="85"/>
-      <c r="Z33" s="85"/>
-      <c r="AA33" s="86"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="103"/>
       <c r="AC33" s="63"/>
       <c r="AD33" s="63"/>
       <c r="AE33" s="64"/>
@@ -27399,29 +28162,29 @@
         <v>29</v>
       </c>
       <c r="F34" s="36"/>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="104" t="s">
         <v>302</v>
       </c>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="88"/>
-      <c r="T34" s="88"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="88"/>
-      <c r="Y34" s="88"/>
-      <c r="Z34" s="88"/>
-      <c r="AA34" s="89"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="105"/>
+      <c r="R34" s="105"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="105"/>
+      <c r="U34" s="105"/>
+      <c r="V34" s="105"/>
+      <c r="W34" s="105"/>
+      <c r="X34" s="105"/>
+      <c r="Y34" s="105"/>
+      <c r="Z34" s="105"/>
+      <c r="AA34" s="106"/>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="64"/>
@@ -27444,29 +28207,29 @@
         <v>51</v>
       </c>
       <c r="F35" s="36"/>
-      <c r="G35" s="90" t="s">
+      <c r="G35" s="107" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="91"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="91"/>
-      <c r="X35" s="91"/>
-      <c r="Y35" s="91"/>
-      <c r="Z35" s="91"/>
-      <c r="AA35" s="92"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="108"/>
+      <c r="M35" s="108"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="108"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="108"/>
+      <c r="T35" s="108"/>
+      <c r="U35" s="108"/>
+      <c r="V35" s="108"/>
+      <c r="W35" s="108"/>
+      <c r="X35" s="108"/>
+      <c r="Y35" s="108"/>
+      <c r="Z35" s="108"/>
+      <c r="AA35" s="109"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
@@ -27489,29 +28252,29 @@
         <v>95</v>
       </c>
       <c r="F36" s="36"/>
-      <c r="G36" s="93" t="s">
+      <c r="G36" s="110" t="s">
         <v>301</v>
       </c>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="94"/>
-      <c r="Q36" s="94"/>
-      <c r="R36" s="94"/>
-      <c r="S36" s="94"/>
-      <c r="T36" s="94"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="94"/>
-      <c r="W36" s="94"/>
-      <c r="X36" s="94"/>
-      <c r="Y36" s="94"/>
-      <c r="Z36" s="94"/>
-      <c r="AA36" s="95"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
+      <c r="Z36" s="111"/>
+      <c r="AA36" s="112"/>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="64"/>
@@ -28980,20 +29743,20 @@
       <c r="E67" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="84" t="s">
+      <c r="G67" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="85"/>
-      <c r="I67" s="85"/>
-      <c r="J67" s="85"/>
-      <c r="K67" s="85"/>
-      <c r="L67" s="85"/>
-      <c r="M67" s="85"/>
-      <c r="N67" s="85"/>
-      <c r="O67" s="85"/>
-      <c r="P67" s="85"/>
-      <c r="Q67" s="85"/>
-      <c r="R67" s="86"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="102"/>
+      <c r="K67" s="102"/>
+      <c r="L67" s="102"/>
+      <c r="M67" s="102"/>
+      <c r="N67" s="102"/>
+      <c r="O67" s="102"/>
+      <c r="P67" s="102"/>
+      <c r="Q67" s="102"/>
+      <c r="R67" s="103"/>
       <c r="S67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -31033,34 +31796,34 @@
       <c r="E104" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="98" t="s">
+      <c r="G104" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="99"/>
-      <c r="I104" s="99"/>
-      <c r="J104" s="99"/>
-      <c r="K104" s="99"/>
-      <c r="L104" s="99"/>
-      <c r="M104" s="99"/>
-      <c r="N104" s="99"/>
-      <c r="O104" s="99"/>
-      <c r="P104" s="99"/>
-      <c r="Q104" s="99"/>
-      <c r="R104" s="99"/>
-      <c r="S104" s="99"/>
-      <c r="T104" s="99"/>
-      <c r="U104" s="99"/>
-      <c r="V104" s="99"/>
-      <c r="W104" s="99"/>
-      <c r="X104" s="99"/>
-      <c r="Y104" s="99"/>
-      <c r="Z104" s="99"/>
-      <c r="AA104" s="99"/>
-      <c r="AB104" s="99"/>
-      <c r="AC104" s="99"/>
-      <c r="AD104" s="99"/>
-      <c r="AE104" s="99"/>
-      <c r="AF104" s="100"/>
+      <c r="H104" s="116"/>
+      <c r="I104" s="116"/>
+      <c r="J104" s="116"/>
+      <c r="K104" s="116"/>
+      <c r="L104" s="116"/>
+      <c r="M104" s="116"/>
+      <c r="N104" s="116"/>
+      <c r="O104" s="116"/>
+      <c r="P104" s="116"/>
+      <c r="Q104" s="116"/>
+      <c r="R104" s="116"/>
+      <c r="S104" s="116"/>
+      <c r="T104" s="116"/>
+      <c r="U104" s="116"/>
+      <c r="V104" s="116"/>
+      <c r="W104" s="116"/>
+      <c r="X104" s="116"/>
+      <c r="Y104" s="116"/>
+      <c r="Z104" s="116"/>
+      <c r="AA104" s="116"/>
+      <c r="AB104" s="116"/>
+      <c r="AC104" s="116"/>
+      <c r="AD104" s="116"/>
+      <c r="AE104" s="116"/>
+      <c r="AF104" s="117"/>
       <c r="AG104" s="6"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
@@ -32776,47 +33539,47 @@
       <c r="G144" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="78" t="s">
+      <c r="I144" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J144" s="79"/>
-      <c r="K144" s="79"/>
-      <c r="L144" s="79"/>
-      <c r="M144" s="79"/>
-      <c r="N144" s="79"/>
-      <c r="O144" s="79"/>
-      <c r="P144" s="79"/>
-      <c r="Q144" s="79"/>
-      <c r="R144" s="79"/>
-      <c r="S144" s="79"/>
-      <c r="T144" s="79"/>
-      <c r="U144" s="79"/>
-      <c r="V144" s="79"/>
-      <c r="W144" s="79"/>
-      <c r="X144" s="79"/>
-      <c r="Y144" s="79"/>
-      <c r="Z144" s="79"/>
-      <c r="AA144" s="79"/>
-      <c r="AB144" s="79"/>
-      <c r="AC144" s="79"/>
-      <c r="AD144" s="79"/>
-      <c r="AE144" s="79"/>
-      <c r="AF144" s="79"/>
-      <c r="AG144" s="79"/>
-      <c r="AH144" s="79"/>
-      <c r="AI144" s="79"/>
-      <c r="AJ144" s="79"/>
-      <c r="AK144" s="79"/>
-      <c r="AL144" s="79"/>
-      <c r="AM144" s="79"/>
-      <c r="AN144" s="79"/>
-      <c r="AO144" s="79"/>
-      <c r="AP144" s="79"/>
-      <c r="AQ144" s="79"/>
-      <c r="AR144" s="79"/>
-      <c r="AS144" s="79"/>
-      <c r="AT144" s="79"/>
-      <c r="AU144" s="80"/>
+      <c r="J144" s="96"/>
+      <c r="K144" s="96"/>
+      <c r="L144" s="96"/>
+      <c r="M144" s="96"/>
+      <c r="N144" s="96"/>
+      <c r="O144" s="96"/>
+      <c r="P144" s="96"/>
+      <c r="Q144" s="96"/>
+      <c r="R144" s="96"/>
+      <c r="S144" s="96"/>
+      <c r="T144" s="96"/>
+      <c r="U144" s="96"/>
+      <c r="V144" s="96"/>
+      <c r="W144" s="96"/>
+      <c r="X144" s="96"/>
+      <c r="Y144" s="96"/>
+      <c r="Z144" s="96"/>
+      <c r="AA144" s="96"/>
+      <c r="AB144" s="96"/>
+      <c r="AC144" s="96"/>
+      <c r="AD144" s="96"/>
+      <c r="AE144" s="96"/>
+      <c r="AF144" s="96"/>
+      <c r="AG144" s="96"/>
+      <c r="AH144" s="96"/>
+      <c r="AI144" s="96"/>
+      <c r="AJ144" s="96"/>
+      <c r="AK144" s="96"/>
+      <c r="AL144" s="96"/>
+      <c r="AM144" s="96"/>
+      <c r="AN144" s="96"/>
+      <c r="AO144" s="96"/>
+      <c r="AP144" s="96"/>
+      <c r="AQ144" s="96"/>
+      <c r="AR144" s="96"/>
+      <c r="AS144" s="96"/>
+      <c r="AT144" s="96"/>
+      <c r="AU144" s="97"/>
       <c r="AV144" s="6"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="6"/>
@@ -34468,55 +35231,55 @@
       <c r="G179" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I179" s="78" t="s">
+      <c r="I179" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J179" s="79"/>
-      <c r="K179" s="79"/>
-      <c r="L179" s="79"/>
-      <c r="M179" s="79"/>
-      <c r="N179" s="79"/>
-      <c r="O179" s="79"/>
-      <c r="P179" s="79"/>
-      <c r="Q179" s="79"/>
-      <c r="R179" s="79"/>
-      <c r="S179" s="79"/>
-      <c r="T179" s="79"/>
-      <c r="U179" s="79"/>
-      <c r="V179" s="79"/>
-      <c r="W179" s="79"/>
-      <c r="X179" s="79"/>
-      <c r="Y179" s="79"/>
-      <c r="Z179" s="79"/>
-      <c r="AA179" s="79"/>
-      <c r="AB179" s="79"/>
-      <c r="AC179" s="79"/>
-      <c r="AD179" s="79"/>
-      <c r="AE179" s="79"/>
-      <c r="AF179" s="79"/>
-      <c r="AG179" s="79"/>
-      <c r="AH179" s="79"/>
-      <c r="AI179" s="79"/>
-      <c r="AJ179" s="79"/>
-      <c r="AK179" s="79"/>
-      <c r="AL179" s="79"/>
-      <c r="AM179" s="79"/>
-      <c r="AN179" s="79"/>
-      <c r="AO179" s="79"/>
-      <c r="AP179" s="79"/>
-      <c r="AQ179" s="79"/>
-      <c r="AR179" s="79"/>
-      <c r="AS179" s="79"/>
-      <c r="AT179" s="79"/>
-      <c r="AU179" s="79"/>
-      <c r="AV179" s="79"/>
-      <c r="AW179" s="79"/>
-      <c r="AX179" s="79"/>
-      <c r="AY179" s="79"/>
-      <c r="AZ179" s="79"/>
-      <c r="BA179" s="79"/>
-      <c r="BB179" s="79"/>
-      <c r="BC179" s="80"/>
+      <c r="J179" s="96"/>
+      <c r="K179" s="96"/>
+      <c r="L179" s="96"/>
+      <c r="M179" s="96"/>
+      <c r="N179" s="96"/>
+      <c r="O179" s="96"/>
+      <c r="P179" s="96"/>
+      <c r="Q179" s="96"/>
+      <c r="R179" s="96"/>
+      <c r="S179" s="96"/>
+      <c r="T179" s="96"/>
+      <c r="U179" s="96"/>
+      <c r="V179" s="96"/>
+      <c r="W179" s="96"/>
+      <c r="X179" s="96"/>
+      <c r="Y179" s="96"/>
+      <c r="Z179" s="96"/>
+      <c r="AA179" s="96"/>
+      <c r="AB179" s="96"/>
+      <c r="AC179" s="96"/>
+      <c r="AD179" s="96"/>
+      <c r="AE179" s="96"/>
+      <c r="AF179" s="96"/>
+      <c r="AG179" s="96"/>
+      <c r="AH179" s="96"/>
+      <c r="AI179" s="96"/>
+      <c r="AJ179" s="96"/>
+      <c r="AK179" s="96"/>
+      <c r="AL179" s="96"/>
+      <c r="AM179" s="96"/>
+      <c r="AN179" s="96"/>
+      <c r="AO179" s="96"/>
+      <c r="AP179" s="96"/>
+      <c r="AQ179" s="96"/>
+      <c r="AR179" s="96"/>
+      <c r="AS179" s="96"/>
+      <c r="AT179" s="96"/>
+      <c r="AU179" s="96"/>
+      <c r="AV179" s="96"/>
+      <c r="AW179" s="96"/>
+      <c r="AX179" s="96"/>
+      <c r="AY179" s="96"/>
+      <c r="AZ179" s="96"/>
+      <c r="BA179" s="96"/>
+      <c r="BB179" s="96"/>
+      <c r="BC179" s="97"/>
       <c r="BD179" s="6"/>
     </row>
     <row r="180" spans="2:56" ht="15" thickTop="1">
@@ -36832,11 +37595,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G36:AA36"/>
-    <mergeCell ref="G67:R67"/>
-    <mergeCell ref="I179:BC179"/>
-    <mergeCell ref="I144:AU144"/>
-    <mergeCell ref="G104:AF104"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="Y13:AA13"/>
     <mergeCell ref="AF28:AG28"/>
     <mergeCell ref="AH28:AI28"/>
     <mergeCell ref="B30:AA30"/>
@@ -36844,12 +37608,11 @@
     <mergeCell ref="G35:AA35"/>
     <mergeCell ref="G34:AA34"/>
     <mergeCell ref="B14:T28"/>
-    <mergeCell ref="B2:AA2"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="G36:AA36"/>
+    <mergeCell ref="G67:R67"/>
+    <mergeCell ref="I179:BC179"/>
+    <mergeCell ref="I144:AU144"/>
+    <mergeCell ref="G104:AF104"/>
   </mergeCells>
   <conditionalFormatting sqref="Y15:AA26 AE26 AC27:AE39">
     <cfRule type="expression" dxfId="0" priority="16">

--- a/ExcelEsport/FMWC_Examples/What Is My Flight Number - Patrick Chatain - My Work.xlsx
+++ b/ExcelEsport/FMWC_Examples/What Is My Flight Number - Patrick Chatain - My Work.xlsx
@@ -8,22 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\ExcelEsport\FMWC_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95035469-C45D-4E43-85EA-111B3E623040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3F9E7A-56F3-4BFD-8FC0-371EF21F2F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="29" r:id="rId1"/>
-    <sheet name="Flight Routes" sheetId="33" r:id="rId2"/>
-    <sheet name="Answers" sheetId="42" r:id="rId3"/>
+    <sheet name="Model" sheetId="43" r:id="rId2"/>
+    <sheet name="Flight Routes" sheetId="33" r:id="rId3"/>
+    <sheet name="Answers" sheetId="42" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_nCanada">Case!$AB$15:$AB$26</definedName>
     <definedName name="_nCity">Case!$Y$15:$Y$26</definedName>
     <definedName name="_nDestination">'Flight Routes'!$C$2:$C$104</definedName>
     <definedName name="_nDistance">'Flight Routes'!$F$2:$F$104</definedName>
     <definedName name="_nIATA">Case!$Z$15:$Z$26</definedName>
     <definedName name="_nOrigin">'Flight Routes'!$B$2:$B$104</definedName>
     <definedName name="_nRoutes">'Flight Routes'!$G$2:$G$104</definedName>
+    <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
     <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
     <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
     <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
@@ -82,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="324">
   <si>
     <t>Instructions</t>
   </si>
@@ -1152,6 +1155,27 @@
   <si>
     <t>Routes</t>
   </si>
+  <si>
+    <t>Route Code</t>
+  </si>
+  <si>
+    <t>Canadian?</t>
+  </si>
+  <si>
+    <t>Dep</t>
+  </si>
+  <si>
+    <t>Arr</t>
+  </si>
+  <si>
+    <t>Can dep</t>
+  </si>
+  <si>
+    <t>Can arr</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
 </sst>
 </file>
 
@@ -1160,7 +1184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1363,8 +1387,23 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1416,6 +1455,18 @@
           <color rgb="FF020024"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="30">
@@ -1780,11 +1831,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1983,56 +2036,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2103,13 +2108,64 @@
     <xf numFmtId="3" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{C1B9BA85-4C62-429F-905A-EBA90D38020B}"/>
+    <cellStyle name="Intro_Hd" xfId="3" xr:uid="{01AF7EAE-CB85-4D6D-B8FE-45DE2D307247}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{EDE34C5E-6BEB-481A-9346-EA067B118248}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -2661,34 +2717,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCF8115-0CC8-46F8-8E7E-E74BDD47BD6B}">
   <dimension ref="A1:AZ216"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V68" sqref="V68"/>
+    <sheetView showGridLines="0" topLeftCell="P13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15:AB26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="1" customWidth="1"/>
-    <col min="10" max="20" width="8.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" style="1" customWidth="1"/>
-    <col min="22" max="24" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="16.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="16.88671875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.44140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5546875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="26.109375" style="1" customWidth="1"/>
-    <col min="32" max="51" width="16.21875" style="1" customWidth="1"/>
-    <col min="52" max="52" width="41.44140625" style="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.5546875" style="6"/>
+    <col min="4" max="4" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" customWidth="1"/>
+    <col min="10" max="20" width="8.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="1" customWidth="1"/>
+    <col min="22" max="24" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="26.140625" style="1" customWidth="1"/>
+    <col min="32" max="51" width="16.28515625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="41.42578125" style="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.5703125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:52" ht="15" customHeight="1">
@@ -2715,34 +2771,34 @@
       <c r="AZ1" s="6"/>
     </row>
     <row r="2" spans="2:52" ht="60.6" customHeight="1">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="103" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
       <c r="AO2" s="3"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -2758,32 +2814,32 @@
       <c r="AZ3" s="6"/>
     </row>
     <row r="4" spans="2:52" ht="33.6" customHeight="1">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="Y4" s="91" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="Y4" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="80"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="104"/>
       <c r="AO4" s="3"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -2983,11 +3039,11 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="92" t="s">
+      <c r="Y11" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="94"/>
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="118"/>
       <c r="AO11" s="3"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -3021,34 +3077,34 @@
       <c r="AY12" s="6"/>
       <c r="AZ12" s="6"/>
     </row>
-    <row r="13" spans="2:52" ht="24.9" customHeight="1" thickBot="1">
-      <c r="B13" s="81" t="s">
+    <row r="13" spans="2:52" ht="24.95" customHeight="1" thickBot="1">
+      <c r="B13" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
       <c r="U13" s="60"/>
-      <c r="Y13" s="81" t="s">
+      <c r="Y13" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="80"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -3056,27 +3112,27 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:52" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="106" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="84"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="108"/>
       <c r="U14" s="3"/>
       <c r="Y14" s="61" t="s">
         <v>31</v>
@@ -3086,6 +3142,9 @@
       </c>
       <c r="AA14" s="61" t="s">
         <v>72</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="AF14" s="55"/>
       <c r="AG14" s="56"/>
@@ -3093,25 +3152,25 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:52" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="87"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="111"/>
       <c r="U15" s="3"/>
       <c r="Y15" s="62" t="s">
         <v>32</v>
@@ -3121,6 +3180,9 @@
       </c>
       <c r="AA15" s="62" t="s">
         <v>76</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1</v>
       </c>
       <c r="AF15" s="55"/>
       <c r="AG15" s="56"/>
@@ -3128,25 +3190,25 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="87"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="111"/>
       <c r="U16" s="3"/>
       <c r="Y16" s="62" t="s">
         <v>47</v>
@@ -3157,30 +3219,33 @@
       <c r="AA16" s="62" t="s">
         <v>77</v>
       </c>
+      <c r="AB16" s="1">
+        <v>1</v>
+      </c>
       <c r="AG16" s="54"/>
       <c r="AH16" s="54"/>
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="87"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="111"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="62" t="s">
         <v>39</v>
@@ -3191,30 +3256,33 @@
       <c r="AA17" s="62" t="s">
         <v>79</v>
       </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
       <c r="AG17" s="54"/>
       <c r="AH17" s="54"/>
       <c r="AP17" s="3"/>
     </row>
     <row r="18" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="87"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="111"/>
       <c r="U18" s="3"/>
       <c r="Y18" s="62" t="s">
         <v>35</v>
@@ -3225,30 +3293,33 @@
       <c r="AA18" s="62" t="s">
         <v>75</v>
       </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
       <c r="AG18" s="54"/>
       <c r="AH18" s="54"/>
       <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="87"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="111"/>
       <c r="U19" s="3"/>
       <c r="Y19" s="62" t="s">
         <v>42</v>
@@ -3259,30 +3330,33 @@
       <c r="AA19" s="62" t="s">
         <v>78</v>
       </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
       <c r="AG19" s="54"/>
       <c r="AH19" s="54"/>
       <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="87"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="111"/>
       <c r="U20" s="3"/>
       <c r="Y20" s="62" t="s">
         <v>48</v>
@@ -3293,28 +3367,31 @@
       <c r="AA20" s="62" t="s">
         <v>83</v>
       </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="87"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="111"/>
       <c r="U21" s="3"/>
       <c r="Y21" s="62" t="s">
         <v>49</v>
@@ -3325,30 +3402,33 @@
       <c r="AA21" s="62" t="s">
         <v>80</v>
       </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
       <c r="AG21" s="54"/>
       <c r="AH21" s="54"/>
       <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="87"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="111"/>
       <c r="U22" s="3"/>
       <c r="Y22" s="62" t="s">
         <v>50</v>
@@ -3358,6 +3438,9 @@
       </c>
       <c r="AA22" s="62" t="s">
         <v>81</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
       </c>
       <c r="AG22" s="54"/>
       <c r="AH22" s="54"/>
@@ -3365,25 +3448,25 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="87"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="111"/>
       <c r="U23" s="3"/>
       <c r="Y23" s="62" t="s">
         <v>51</v>
@@ -3393,6 +3476,9 @@
       </c>
       <c r="AA23" s="62" t="s">
         <v>82</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
       </c>
       <c r="AG23" s="54"/>
       <c r="AH23" s="54"/>
@@ -3400,25 +3486,25 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="87"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="111"/>
       <c r="U24" s="3"/>
       <c r="Y24" s="62" t="s">
         <v>52</v>
@@ -3428,6 +3514,9 @@
       </c>
       <c r="AA24" s="62" t="s">
         <v>73</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
       </c>
       <c r="AG24" s="54"/>
       <c r="AH24" s="54"/>
@@ -3435,25 +3524,25 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="87"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="111"/>
       <c r="U25" s="3"/>
       <c r="Y25" s="62" t="s">
         <v>53</v>
@@ -3464,29 +3553,32 @@
       <c r="AA25" s="62" t="s">
         <v>74</v>
       </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="87"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="111"/>
       <c r="U26" s="3"/>
       <c r="Y26" s="62" t="s">
         <v>105</v>
@@ -3496,6 +3588,9 @@
       </c>
       <c r="AA26" s="62" t="s">
         <v>104</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
       </c>
       <c r="AE26" s="64"/>
       <c r="AF26" s="2"/>
@@ -3506,25 +3601,25 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="87"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="111"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -3543,25 +3638,25 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="47.25" customHeight="1">
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="90"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="114"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -3572,10 +3667,10 @@
       <c r="AC28" s="63"/>
       <c r="AD28" s="63"/>
       <c r="AE28" s="64"/>
-      <c r="AF28" s="78"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="78"/>
+      <c r="AF28" s="102"/>
+      <c r="AG28" s="102"/>
+      <c r="AH28" s="102"/>
+      <c r="AI28" s="102"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
     </row>
@@ -3620,34 +3715,34 @@
       <c r="AZ29" s="6"/>
     </row>
     <row r="30" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="99"/>
-      <c r="U30" s="99"/>
-      <c r="V30" s="99"/>
-      <c r="W30" s="99"/>
-      <c r="X30" s="99"/>
-      <c r="Y30" s="99"/>
-      <c r="Z30" s="99"/>
-      <c r="AA30" s="100"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="84"/>
       <c r="AC30" s="63"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="64"/>
@@ -3698,29 +3793,29 @@
       <c r="E33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="101" t="s">
+      <c r="G33" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="102"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="102"/>
-      <c r="AA33" s="103"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="86"/>
+      <c r="X33" s="86"/>
+      <c r="Y33" s="86"/>
+      <c r="Z33" s="86"/>
+      <c r="AA33" s="87"/>
       <c r="AC33" s="63"/>
       <c r="AD33" s="63"/>
       <c r="AE33" s="64"/>
@@ -3740,34 +3835,34 @@
         <f>IF(AND(E34&lt;&gt;"",E34=Answers!E34),1,IF(ISBLANK(E34),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G34" s="104" t="s">
+      <c r="G34" s="88" t="s">
         <v>308</v>
       </c>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="105"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="105"/>
-      <c r="T34" s="105"/>
-      <c r="U34" s="105"/>
-      <c r="V34" s="105"/>
-      <c r="W34" s="105"/>
-      <c r="X34" s="105"/>
-      <c r="Y34" s="105"/>
-      <c r="Z34" s="105"/>
-      <c r="AA34" s="106"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="90"/>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="64"/>
     </row>
-    <row r="35" spans="2:52" ht="33.9" customHeight="1">
+    <row r="35" spans="2:52" ht="33.950000000000003" customHeight="1">
       <c r="B35" s="14" t="s">
         <v>21</v>
       </c>
@@ -3782,29 +3877,29 @@
         <f>IF(AND(E35&lt;&gt;"",E35=Answers!E35),1,IF(ISBLANK(E35),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="108"/>
-      <c r="S35" s="108"/>
-      <c r="T35" s="108"/>
-      <c r="U35" s="108"/>
-      <c r="V35" s="108"/>
-      <c r="W35" s="108"/>
-      <c r="X35" s="108"/>
-      <c r="Y35" s="108"/>
-      <c r="Z35" s="108"/>
-      <c r="AA35" s="109"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="93"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
@@ -3824,29 +3919,29 @@
         <f>IF(AND(E36&lt;&gt;"",E36=Answers!E36),1,IF(ISBLANK(E36),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G36" s="110" t="s">
+      <c r="G36" s="94" t="s">
         <v>309</v>
       </c>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="111"/>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111"/>
-      <c r="U36" s="111"/>
-      <c r="V36" s="111"/>
-      <c r="W36" s="111"/>
-      <c r="X36" s="111"/>
-      <c r="Y36" s="111"/>
-      <c r="Z36" s="111"/>
-      <c r="AA36" s="112"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="95"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="95"/>
+      <c r="Y36" s="95"/>
+      <c r="Z36" s="95"/>
+      <c r="AA36" s="96"/>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="64"/>
@@ -3876,7 +3971,7 @@
       <c r="AY38" s="6"/>
       <c r="AZ38" s="6"/>
     </row>
-    <row r="39" spans="2:52" ht="28.2">
+    <row r="39" spans="2:52" ht="27.75">
       <c r="B39" s="28" t="s">
         <v>1</v>
       </c>
@@ -3949,13 +4044,13 @@
       <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="114" t="s">
+      <c r="J41" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
+      <c r="N41" s="98"/>
       <c r="AS41" s="6"/>
       <c r="AT41" s="6"/>
       <c r="AU41" s="6"/>
@@ -3966,14 +4061,14 @@
       <c r="AZ41" s="6"/>
     </row>
     <row r="42" spans="2:52" ht="15" customHeight="1" thickTop="1">
-      <c r="J42" s="113" cm="1">
+      <c r="J42" s="97" cm="1">
         <f t="array" ref="J42">SUMPRODUCT(--(F34:F216=1),F34:F216,D34:D216)</f>
         <v>220</v>
       </c>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
       <c r="AS42" s="6"/>
       <c r="AT42" s="6"/>
       <c r="AU42" s="6"/>
@@ -3987,11 +4082,11 @@
       <c r="B43" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="97"/>
       <c r="AS43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
@@ -4004,11 +4099,11 @@
     <row r="44" spans="2:52" ht="15" customHeight="1" thickBot="1">
       <c r="B44" s="20"/>
       <c r="G44" s="27"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
       <c r="R44" s="6"/>
     </row>
     <row r="45" spans="2:52" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4029,11 +4124,11 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
       <c r="R45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
@@ -4061,7 +4156,7 @@
       <c r="AY45" s="6"/>
       <c r="AZ45" s="6"/>
     </row>
-    <row r="46" spans="2:52" ht="15" thickTop="1">
+    <row r="46" spans="2:52" ht="15.75" thickTop="1">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -4104,7 +4199,7 @@
       <c r="AY46" s="6"/>
       <c r="AZ46" s="6"/>
     </row>
-    <row r="47" spans="2:52" ht="23.4">
+    <row r="47" spans="2:52" ht="23.25">
       <c r="B47" s="14" t="s">
         <v>7</v>
       </c>
@@ -4219,7 +4314,7 @@
       <c r="AY48" s="6"/>
       <c r="AZ48" s="6"/>
     </row>
-    <row r="49" spans="2:52" ht="23.4">
+    <row r="49" spans="2:52" ht="23.25">
       <c r="B49" s="17">
         <v>1</v>
       </c>
@@ -4284,7 +4379,7 @@
       <c r="AY49" s="6"/>
       <c r="AZ49" s="6"/>
     </row>
-    <row r="50" spans="2:52" ht="23.4">
+    <row r="50" spans="2:52" ht="23.25">
       <c r="B50" s="17">
         <f>B49+1</f>
         <v>2</v>
@@ -4356,7 +4451,7 @@
       <c r="AY50" s="6"/>
       <c r="AZ50" s="6"/>
     </row>
-    <row r="51" spans="2:52" ht="23.4">
+    <row r="51" spans="2:52" ht="23.25">
       <c r="B51" s="17">
         <f>B50+1</f>
         <v>3</v>
@@ -4428,7 +4523,7 @@
       <c r="AY51" s="6"/>
       <c r="AZ51" s="6"/>
     </row>
-    <row r="52" spans="2:52" ht="23.4">
+    <row r="52" spans="2:52" ht="23.25">
       <c r="B52" s="17">
         <f t="shared" ref="B52:B58" si="3">B51+1</f>
         <v>4</v>
@@ -4500,7 +4595,7 @@
       <c r="AY52" s="6"/>
       <c r="AZ52" s="6"/>
     </row>
-    <row r="53" spans="2:52" ht="23.4">
+    <row r="53" spans="2:52" ht="23.25">
       <c r="B53" s="17">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -4572,7 +4667,7 @@
       <c r="AY53" s="6"/>
       <c r="AZ53" s="6"/>
     </row>
-    <row r="54" spans="2:52" ht="23.4">
+    <row r="54" spans="2:52" ht="23.25">
       <c r="B54" s="17">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -4644,7 +4739,7 @@
       <c r="AY54" s="6"/>
       <c r="AZ54" s="6"/>
     </row>
-    <row r="55" spans="2:52" ht="23.4">
+    <row r="55" spans="2:52" ht="23.25">
       <c r="B55" s="17">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -4716,7 +4811,7 @@
       <c r="AY55" s="6"/>
       <c r="AZ55" s="6"/>
     </row>
-    <row r="56" spans="2:52" ht="23.4">
+    <row r="56" spans="2:52" ht="23.25">
       <c r="B56" s="17">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -4788,7 +4883,7 @@
       <c r="AY56" s="6"/>
       <c r="AZ56" s="6"/>
     </row>
-    <row r="57" spans="2:52" ht="23.4">
+    <row r="57" spans="2:52" ht="23.25">
       <c r="B57" s="17">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -4860,7 +4955,7 @@
       <c r="AY57" s="6"/>
       <c r="AZ57" s="6"/>
     </row>
-    <row r="58" spans="2:52" ht="23.4">
+    <row r="58" spans="2:52" ht="23.25">
       <c r="B58" s="17">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -4963,7 +5058,7 @@
       <c r="AY59" s="6"/>
       <c r="AZ59" s="6"/>
     </row>
-    <row r="60" spans="2:52" ht="23.4">
+    <row r="60" spans="2:52" ht="23.25">
       <c r="B60" s="17" t="s">
         <v>30</v>
       </c>
@@ -5038,7 +5133,7 @@
       <c r="AY61" s="6"/>
       <c r="AZ61" s="6"/>
     </row>
-    <row r="62" spans="2:52" ht="15" thickBot="1">
+    <row r="62" spans="2:52" ht="15.75" thickBot="1">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -5104,7 +5199,7 @@
       <c r="AY63" s="6"/>
       <c r="AZ63" s="6"/>
     </row>
-    <row r="64" spans="2:52" ht="15" thickTop="1">
+    <row r="64" spans="2:52" ht="15.75" thickTop="1">
       <c r="B64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -5168,7 +5263,7 @@
       <c r="AY65" s="6"/>
       <c r="AZ65" s="6"/>
     </row>
-    <row r="66" spans="2:52" ht="15" thickBot="1">
+    <row r="66" spans="2:52" ht="15.75" thickBot="1">
       <c r="B66" s="20"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -5212,7 +5307,7 @@
       <c r="AY66" s="6"/>
       <c r="AZ66" s="6"/>
     </row>
-    <row r="67" spans="2:52" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
+    <row r="67" spans="2:52" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="B67" s="19" t="s">
         <v>2</v>
       </c>
@@ -5225,20 +5320,20 @@
       <c r="E67" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="101" t="s">
+      <c r="G67" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="102"/>
-      <c r="I67" s="102"/>
-      <c r="J67" s="102"/>
-      <c r="K67" s="102"/>
-      <c r="L67" s="102"/>
-      <c r="M67" s="102"/>
-      <c r="N67" s="102"/>
-      <c r="O67" s="102"/>
-      <c r="P67" s="102"/>
-      <c r="Q67" s="102"/>
-      <c r="R67" s="103"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="86"/>
+      <c r="J67" s="86"/>
+      <c r="K67" s="86"/>
+      <c r="L67" s="86"/>
+      <c r="M67" s="86"/>
+      <c r="N67" s="86"/>
+      <c r="O67" s="86"/>
+      <c r="P67" s="86"/>
+      <c r="Q67" s="86"/>
+      <c r="R67" s="87"/>
       <c r="S67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -5273,7 +5368,7 @@
       <c r="AY67" s="6"/>
       <c r="AZ67" s="6"/>
     </row>
-    <row r="68" spans="2:52" ht="15" thickTop="1">
+    <row r="68" spans="2:52" ht="15.75" thickTop="1">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -6716,7 +6811,7 @@
       <c r="AY90" s="6"/>
       <c r="AZ90" s="6"/>
     </row>
-    <row r="91" spans="2:52" ht="23.4">
+    <row r="91" spans="2:52" ht="23.25">
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="13"/>
@@ -6758,7 +6853,7 @@
       <c r="AY91" s="6"/>
       <c r="AZ91" s="6"/>
     </row>
-    <row r="92" spans="2:52" ht="23.4">
+    <row r="92" spans="2:52" ht="23.25">
       <c r="B92" s="17" t="s">
         <v>26</v>
       </c>
@@ -6813,7 +6908,7 @@
       <c r="AY92" s="6"/>
       <c r="AZ92" s="6"/>
     </row>
-    <row r="93" spans="2:52" ht="23.4">
+    <row r="93" spans="2:52" ht="23.25">
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
       <c r="D93" s="13"/>
@@ -6855,7 +6950,7 @@
       <c r="AY93" s="6"/>
       <c r="AZ93" s="6"/>
     </row>
-    <row r="94" spans="2:52" ht="15" thickBot="1">
+    <row r="94" spans="2:52" ht="15.75" thickBot="1">
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -6896,7 +6991,7 @@
       <c r="AY94" s="6"/>
       <c r="AZ94" s="6"/>
     </row>
-    <row r="95" spans="2:52" ht="19.2" thickTop="1" thickBot="1">
+    <row r="95" spans="2:52" ht="20.25" thickTop="1" thickBot="1">
       <c r="B95" s="21" t="s">
         <v>13</v>
       </c>
@@ -6944,7 +7039,7 @@
       <c r="AY95" s="6"/>
       <c r="AZ95" s="6"/>
     </row>
-    <row r="96" spans="2:52" ht="15" thickTop="1">
+    <row r="96" spans="2:52" ht="15.75" thickTop="1">
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -7226,7 +7321,7 @@
       <c r="AY102" s="6"/>
       <c r="AZ102" s="6"/>
     </row>
-    <row r="103" spans="2:52" ht="15" thickBot="1">
+    <row r="103" spans="2:52" ht="15.75" thickBot="1">
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -7281,35 +7376,35 @@
         <v>4</v>
       </c>
       <c r="E104" s="44"/>
-      <c r="G104" s="115" t="s">
+      <c r="G104" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="116"/>
-      <c r="I104" s="116"/>
-      <c r="J104" s="116"/>
-      <c r="K104" s="116"/>
-      <c r="L104" s="116"/>
-      <c r="M104" s="116"/>
-      <c r="N104" s="116"/>
-      <c r="O104" s="116"/>
-      <c r="P104" s="116"/>
-      <c r="Q104" s="116"/>
-      <c r="R104" s="116"/>
-      <c r="S104" s="116"/>
-      <c r="T104" s="116"/>
-      <c r="U104" s="116"/>
-      <c r="V104" s="116"/>
-      <c r="W104" s="116"/>
-      <c r="X104" s="116"/>
-      <c r="Y104" s="116"/>
-      <c r="Z104" s="116"/>
-      <c r="AA104" s="116"/>
-      <c r="AB104" s="116"/>
-      <c r="AC104" s="116"/>
-      <c r="AD104" s="116"/>
-      <c r="AE104" s="116"/>
-      <c r="AF104" s="116"/>
-      <c r="AG104" s="117"/>
+      <c r="H104" s="100"/>
+      <c r="I104" s="100"/>
+      <c r="J104" s="100"/>
+      <c r="K104" s="100"/>
+      <c r="L104" s="100"/>
+      <c r="M104" s="100"/>
+      <c r="N104" s="100"/>
+      <c r="O104" s="100"/>
+      <c r="P104" s="100"/>
+      <c r="Q104" s="100"/>
+      <c r="R104" s="100"/>
+      <c r="S104" s="100"/>
+      <c r="T104" s="100"/>
+      <c r="U104" s="100"/>
+      <c r="V104" s="100"/>
+      <c r="W104" s="100"/>
+      <c r="X104" s="100"/>
+      <c r="Y104" s="100"/>
+      <c r="Z104" s="100"/>
+      <c r="AA104" s="100"/>
+      <c r="AB104" s="100"/>
+      <c r="AC104" s="100"/>
+      <c r="AD104" s="100"/>
+      <c r="AE104" s="100"/>
+      <c r="AF104" s="100"/>
+      <c r="AG104" s="101"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
       <c r="AJ104" s="6"/>
@@ -7330,7 +7425,7 @@
       <c r="AY104" s="6"/>
       <c r="AZ104" s="6"/>
     </row>
-    <row r="105" spans="2:52" ht="15" thickTop="1">
+    <row r="105" spans="2:52" ht="15.75" thickTop="1">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -7371,7 +7466,7 @@
       <c r="AY105" s="6"/>
       <c r="AZ105" s="6"/>
     </row>
-    <row r="106" spans="2:52" ht="23.4">
+    <row r="106" spans="2:52" ht="23.25">
       <c r="B106" s="17" t="s">
         <v>9</v>
       </c>
@@ -7440,7 +7535,7 @@
       <c r="AF107" s="6"/>
       <c r="AG107" s="6"/>
     </row>
-    <row r="108" spans="2:52" ht="23.4">
+    <row r="108" spans="2:52" ht="23.25">
       <c r="B108" s="17">
         <v>31</v>
       </c>
@@ -7485,7 +7580,7 @@
       <c r="AF108" s="48"/>
       <c r="AG108" s="49"/>
     </row>
-    <row r="109" spans="2:52" ht="23.4">
+    <row r="109" spans="2:52" ht="23.25">
       <c r="B109" s="17">
         <f t="shared" ref="B109:B127" si="5">B108+1</f>
         <v>32</v>
@@ -7531,7 +7626,7 @@
       <c r="AF109" s="48"/>
       <c r="AG109" s="49"/>
     </row>
-    <row r="110" spans="2:52" ht="23.4">
+    <row r="110" spans="2:52" ht="23.25">
       <c r="B110" s="17">
         <f t="shared" si="5"/>
         <v>33</v>
@@ -7577,7 +7672,7 @@
       <c r="AF110" s="48"/>
       <c r="AG110" s="49"/>
     </row>
-    <row r="111" spans="2:52" ht="23.4">
+    <row r="111" spans="2:52" ht="23.25">
       <c r="B111" s="17">
         <f t="shared" si="5"/>
         <v>34</v>
@@ -7623,7 +7718,7 @@
       <c r="AF111" s="48"/>
       <c r="AG111" s="49"/>
     </row>
-    <row r="112" spans="2:52" ht="23.4">
+    <row r="112" spans="2:52" ht="23.25">
       <c r="B112" s="17">
         <f t="shared" si="5"/>
         <v>35</v>
@@ -7669,7 +7764,7 @@
       <c r="AF112" s="48"/>
       <c r="AG112" s="49"/>
     </row>
-    <row r="113" spans="2:33" ht="23.4">
+    <row r="113" spans="2:33" ht="23.25">
       <c r="B113" s="17">
         <f>B112+1</f>
         <v>36</v>
@@ -7715,7 +7810,7 @@
       <c r="AF113" s="48"/>
       <c r="AG113" s="49"/>
     </row>
-    <row r="114" spans="2:33" ht="23.4">
+    <row r="114" spans="2:33" ht="23.25">
       <c r="B114" s="17">
         <f t="shared" si="5"/>
         <v>37</v>
@@ -7761,7 +7856,7 @@
       <c r="AF114" s="48"/>
       <c r="AG114" s="49"/>
     </row>
-    <row r="115" spans="2:33" ht="23.4">
+    <row r="115" spans="2:33" ht="23.25">
       <c r="B115" s="17">
         <f t="shared" si="5"/>
         <v>38</v>
@@ -7807,7 +7902,7 @@
       <c r="AF115" s="48"/>
       <c r="AG115" s="49"/>
     </row>
-    <row r="116" spans="2:33" ht="23.4">
+    <row r="116" spans="2:33" ht="23.25">
       <c r="B116" s="17">
         <f t="shared" si="5"/>
         <v>39</v>
@@ -7853,7 +7948,7 @@
       <c r="AF116" s="48"/>
       <c r="AG116" s="49"/>
     </row>
-    <row r="117" spans="2:33" ht="23.4">
+    <row r="117" spans="2:33" ht="23.25">
       <c r="B117" s="17">
         <f t="shared" si="5"/>
         <v>40</v>
@@ -7899,7 +7994,7 @@
       <c r="AF117" s="48"/>
       <c r="AG117" s="49"/>
     </row>
-    <row r="118" spans="2:33" ht="23.4">
+    <row r="118" spans="2:33" ht="23.25">
       <c r="B118" s="17">
         <f t="shared" si="5"/>
         <v>41</v>
@@ -7945,7 +8040,7 @@
       <c r="AF118" s="48"/>
       <c r="AG118" s="49"/>
     </row>
-    <row r="119" spans="2:33" ht="23.4">
+    <row r="119" spans="2:33" ht="23.25">
       <c r="B119" s="17">
         <f t="shared" si="5"/>
         <v>42</v>
@@ -7991,7 +8086,7 @@
       <c r="AF119" s="48"/>
       <c r="AG119" s="49"/>
     </row>
-    <row r="120" spans="2:33" ht="23.4">
+    <row r="120" spans="2:33" ht="23.25">
       <c r="B120" s="17">
         <f t="shared" si="5"/>
         <v>43</v>
@@ -8037,7 +8132,7 @@
       <c r="AF120" s="48"/>
       <c r="AG120" s="49"/>
     </row>
-    <row r="121" spans="2:33" ht="23.4">
+    <row r="121" spans="2:33" ht="23.25">
       <c r="B121" s="17">
         <f t="shared" si="5"/>
         <v>44</v>
@@ -8083,7 +8178,7 @@
       <c r="AF121" s="48"/>
       <c r="AG121" s="49"/>
     </row>
-    <row r="122" spans="2:33" ht="23.4">
+    <row r="122" spans="2:33" ht="23.25">
       <c r="B122" s="17">
         <f t="shared" si="5"/>
         <v>45</v>
@@ -8129,7 +8224,7 @@
       <c r="AF122" s="48"/>
       <c r="AG122" s="49"/>
     </row>
-    <row r="123" spans="2:33" ht="23.4">
+    <row r="123" spans="2:33" ht="23.25">
       <c r="B123" s="17">
         <f t="shared" si="5"/>
         <v>46</v>
@@ -8175,7 +8270,7 @@
       <c r="AF123" s="48"/>
       <c r="AG123" s="49"/>
     </row>
-    <row r="124" spans="2:33" ht="23.4">
+    <row r="124" spans="2:33" ht="23.25">
       <c r="B124" s="17">
         <f t="shared" si="5"/>
         <v>47</v>
@@ -8221,7 +8316,7 @@
       <c r="AF124" s="48"/>
       <c r="AG124" s="49"/>
     </row>
-    <row r="125" spans="2:33" ht="23.4">
+    <row r="125" spans="2:33" ht="23.25">
       <c r="B125" s="17">
         <f t="shared" si="5"/>
         <v>48</v>
@@ -8267,7 +8362,7 @@
       <c r="AF125" s="48"/>
       <c r="AG125" s="49"/>
     </row>
-    <row r="126" spans="2:33" ht="23.4">
+    <row r="126" spans="2:33" ht="23.25">
       <c r="B126" s="17">
         <f t="shared" si="5"/>
         <v>49</v>
@@ -8313,7 +8408,7 @@
       <c r="AF126" s="48"/>
       <c r="AG126" s="49"/>
     </row>
-    <row r="127" spans="2:33" ht="23.4">
+    <row r="127" spans="2:33" ht="23.25">
       <c r="B127" s="17">
         <f t="shared" si="5"/>
         <v>50</v>
@@ -8372,7 +8467,7 @@
       <c r="AF128" s="6"/>
       <c r="AG128" s="6"/>
     </row>
-    <row r="129" spans="2:52" ht="23.4">
+    <row r="129" spans="2:52" ht="23.25">
       <c r="B129" s="17" t="s">
         <v>26</v>
       </c>
@@ -8407,7 +8502,7 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
     </row>
-    <row r="131" spans="2:52" ht="15" thickBot="1">
+    <row r="131" spans="2:52" ht="15.75" thickBot="1">
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -8417,7 +8512,7 @@
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
     </row>
-    <row r="132" spans="2:52" ht="19.2" thickTop="1" thickBot="1">
+    <row r="132" spans="2:52" ht="20.25" thickTop="1" thickBot="1">
       <c r="B132" s="22" t="s">
         <v>14</v>
       </c>
@@ -8465,7 +8560,7 @@
       <c r="AY132" s="6"/>
       <c r="AZ132" s="6"/>
     </row>
-    <row r="133" spans="2:52" ht="15" thickTop="1">
+    <row r="133" spans="2:52" ht="15.75" thickTop="1">
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -8885,7 +8980,7 @@
       <c r="AY142" s="6"/>
       <c r="AZ142" s="6"/>
     </row>
-    <row r="143" spans="2:52" ht="15" thickBot="1">
+    <row r="143" spans="2:52" ht="15.75" thickBot="1">
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -8945,54 +9040,54 @@
       <c r="G144" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="95" t="s">
+      <c r="I144" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="J144" s="96"/>
-      <c r="K144" s="96"/>
-      <c r="L144" s="96"/>
-      <c r="M144" s="96"/>
-      <c r="N144" s="96"/>
-      <c r="O144" s="96"/>
-      <c r="P144" s="96"/>
-      <c r="Q144" s="96"/>
-      <c r="R144" s="96"/>
-      <c r="S144" s="96"/>
-      <c r="T144" s="96"/>
-      <c r="U144" s="96"/>
-      <c r="V144" s="96"/>
-      <c r="W144" s="96"/>
-      <c r="X144" s="96"/>
-      <c r="Y144" s="96"/>
-      <c r="Z144" s="96"/>
-      <c r="AA144" s="96"/>
-      <c r="AB144" s="96"/>
-      <c r="AC144" s="96"/>
-      <c r="AD144" s="96"/>
-      <c r="AE144" s="96"/>
-      <c r="AF144" s="96"/>
-      <c r="AG144" s="96"/>
-      <c r="AH144" s="96"/>
-      <c r="AI144" s="96"/>
-      <c r="AJ144" s="96"/>
-      <c r="AK144" s="96"/>
-      <c r="AL144" s="96"/>
-      <c r="AM144" s="96"/>
-      <c r="AN144" s="96"/>
-      <c r="AO144" s="96"/>
-      <c r="AP144" s="96"/>
-      <c r="AQ144" s="96"/>
-      <c r="AR144" s="96"/>
-      <c r="AS144" s="96"/>
-      <c r="AT144" s="96"/>
-      <c r="AU144" s="96"/>
-      <c r="AV144" s="97"/>
+      <c r="J144" s="80"/>
+      <c r="K144" s="80"/>
+      <c r="L144" s="80"/>
+      <c r="M144" s="80"/>
+      <c r="N144" s="80"/>
+      <c r="O144" s="80"/>
+      <c r="P144" s="80"/>
+      <c r="Q144" s="80"/>
+      <c r="R144" s="80"/>
+      <c r="S144" s="80"/>
+      <c r="T144" s="80"/>
+      <c r="U144" s="80"/>
+      <c r="V144" s="80"/>
+      <c r="W144" s="80"/>
+      <c r="X144" s="80"/>
+      <c r="Y144" s="80"/>
+      <c r="Z144" s="80"/>
+      <c r="AA144" s="80"/>
+      <c r="AB144" s="80"/>
+      <c r="AC144" s="80"/>
+      <c r="AD144" s="80"/>
+      <c r="AE144" s="80"/>
+      <c r="AF144" s="80"/>
+      <c r="AG144" s="80"/>
+      <c r="AH144" s="80"/>
+      <c r="AI144" s="80"/>
+      <c r="AJ144" s="80"/>
+      <c r="AK144" s="80"/>
+      <c r="AL144" s="80"/>
+      <c r="AM144" s="80"/>
+      <c r="AN144" s="80"/>
+      <c r="AO144" s="80"/>
+      <c r="AP144" s="80"/>
+      <c r="AQ144" s="80"/>
+      <c r="AR144" s="80"/>
+      <c r="AS144" s="80"/>
+      <c r="AT144" s="80"/>
+      <c r="AU144" s="80"/>
+      <c r="AV144" s="81"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="6"/>
       <c r="AY144" s="6"/>
       <c r="AZ144" s="6"/>
     </row>
-    <row r="145" spans="2:52" ht="15" thickTop="1">
+    <row r="145" spans="2:52" ht="15.75" thickTop="1">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -9033,7 +9128,7 @@
       <c r="AY145" s="6"/>
       <c r="AZ145" s="6"/>
     </row>
-    <row r="146" spans="2:52" ht="23.4">
+    <row r="146" spans="2:52" ht="23.25">
       <c r="B146" s="17" t="s">
         <v>28</v>
       </c>
@@ -9134,7 +9229,7 @@
       <c r="AU147" s="6"/>
       <c r="AV147" s="6"/>
     </row>
-    <row r="148" spans="2:52" ht="23.4">
+    <row r="148" spans="2:52" ht="23.25">
       <c r="B148" s="17">
         <v>51</v>
       </c>
@@ -9196,7 +9291,7 @@
       <c r="AU148" s="34"/>
       <c r="AV148" s="34"/>
     </row>
-    <row r="149" spans="2:52" ht="23.4">
+    <row r="149" spans="2:52" ht="23.25">
       <c r="B149" s="17">
         <f t="shared" ref="B149:B167" si="6">B148+1</f>
         <v>52</v>
@@ -9259,7 +9354,7 @@
       <c r="AU149" s="34"/>
       <c r="AV149" s="34"/>
     </row>
-    <row r="150" spans="2:52" ht="23.4">
+    <row r="150" spans="2:52" ht="23.25">
       <c r="B150" s="17">
         <f t="shared" si="6"/>
         <v>53</v>
@@ -9322,7 +9417,7 @@
       <c r="AU150" s="34"/>
       <c r="AV150" s="34"/>
     </row>
-    <row r="151" spans="2:52" ht="23.4">
+    <row r="151" spans="2:52" ht="23.25">
       <c r="B151" s="17">
         <f t="shared" si="6"/>
         <v>54</v>
@@ -9385,7 +9480,7 @@
       <c r="AU151" s="34"/>
       <c r="AV151" s="34"/>
     </row>
-    <row r="152" spans="2:52" ht="23.4">
+    <row r="152" spans="2:52" ht="23.25">
       <c r="B152" s="17">
         <f t="shared" si="6"/>
         <v>55</v>
@@ -9448,7 +9543,7 @@
       <c r="AU152" s="34"/>
       <c r="AV152" s="34"/>
     </row>
-    <row r="153" spans="2:52" ht="23.4">
+    <row r="153" spans="2:52" ht="23.25">
       <c r="B153" s="17">
         <f t="shared" si="6"/>
         <v>56</v>
@@ -9511,7 +9606,7 @@
       <c r="AU153" s="34"/>
       <c r="AV153" s="34"/>
     </row>
-    <row r="154" spans="2:52" ht="23.4">
+    <row r="154" spans="2:52" ht="23.25">
       <c r="B154" s="17">
         <f t="shared" si="6"/>
         <v>57</v>
@@ -9574,7 +9669,7 @@
       <c r="AU154" s="34"/>
       <c r="AV154" s="34"/>
     </row>
-    <row r="155" spans="2:52" ht="23.4">
+    <row r="155" spans="2:52" ht="23.25">
       <c r="B155" s="17">
         <f t="shared" si="6"/>
         <v>58</v>
@@ -9637,7 +9732,7 @@
       <c r="AU155" s="34"/>
       <c r="AV155" s="34"/>
     </row>
-    <row r="156" spans="2:52" ht="23.4">
+    <row r="156" spans="2:52" ht="23.25">
       <c r="B156" s="17">
         <f t="shared" si="6"/>
         <v>59</v>
@@ -9700,7 +9795,7 @@
       <c r="AU156" s="34"/>
       <c r="AV156" s="34"/>
     </row>
-    <row r="157" spans="2:52" ht="23.4">
+    <row r="157" spans="2:52" ht="23.25">
       <c r="B157" s="17">
         <f t="shared" si="6"/>
         <v>60</v>
@@ -9763,7 +9858,7 @@
       <c r="AU157" s="34"/>
       <c r="AV157" s="34"/>
     </row>
-    <row r="158" spans="2:52" ht="23.4">
+    <row r="158" spans="2:52" ht="23.25">
       <c r="B158" s="17">
         <f t="shared" si="6"/>
         <v>61</v>
@@ -9826,7 +9921,7 @@
       <c r="AU158" s="34"/>
       <c r="AV158" s="34"/>
     </row>
-    <row r="159" spans="2:52" ht="23.4">
+    <row r="159" spans="2:52" ht="23.25">
       <c r="B159" s="17">
         <f t="shared" si="6"/>
         <v>62</v>
@@ -9889,7 +9984,7 @@
       <c r="AU159" s="34"/>
       <c r="AV159" s="34"/>
     </row>
-    <row r="160" spans="2:52" ht="23.4">
+    <row r="160" spans="2:52" ht="23.25">
       <c r="B160" s="17">
         <f t="shared" si="6"/>
         <v>63</v>
@@ -9952,7 +10047,7 @@
       <c r="AU160" s="34"/>
       <c r="AV160" s="34"/>
     </row>
-    <row r="161" spans="2:48" ht="23.4">
+    <row r="161" spans="2:48" ht="23.25">
       <c r="B161" s="17">
         <f t="shared" si="6"/>
         <v>64</v>
@@ -10015,7 +10110,7 @@
       <c r="AU161" s="34"/>
       <c r="AV161" s="34"/>
     </row>
-    <row r="162" spans="2:48" ht="23.4">
+    <row r="162" spans="2:48" ht="23.25">
       <c r="B162" s="17">
         <f t="shared" si="6"/>
         <v>65</v>
@@ -10078,7 +10173,7 @@
       <c r="AU162" s="34"/>
       <c r="AV162" s="34"/>
     </row>
-    <row r="163" spans="2:48" ht="23.4">
+    <row r="163" spans="2:48" ht="23.25">
       <c r="B163" s="17">
         <f t="shared" si="6"/>
         <v>66</v>
@@ -10141,7 +10236,7 @@
       <c r="AU163" s="34"/>
       <c r="AV163" s="34"/>
     </row>
-    <row r="164" spans="2:48" ht="23.4">
+    <row r="164" spans="2:48" ht="23.25">
       <c r="B164" s="17">
         <f t="shared" si="6"/>
         <v>67</v>
@@ -10204,7 +10299,7 @@
       <c r="AU164" s="34"/>
       <c r="AV164" s="34"/>
     </row>
-    <row r="165" spans="2:48" ht="23.4">
+    <row r="165" spans="2:48" ht="23.25">
       <c r="B165" s="17">
         <f t="shared" si="6"/>
         <v>68</v>
@@ -10267,7 +10362,7 @@
       <c r="AU165" s="34"/>
       <c r="AV165" s="34"/>
     </row>
-    <row r="166" spans="2:48" ht="23.4">
+    <row r="166" spans="2:48" ht="23.25">
       <c r="B166" s="17">
         <f t="shared" si="6"/>
         <v>69</v>
@@ -10330,7 +10425,7 @@
       <c r="AU166" s="34"/>
       <c r="AV166" s="34"/>
     </row>
-    <row r="167" spans="2:48" ht="23.4">
+    <row r="167" spans="2:48" ht="23.25">
       <c r="B167" s="17">
         <f t="shared" si="6"/>
         <v>70</v>
@@ -10403,7 +10498,7 @@
       <c r="T168" s="6"/>
       <c r="U168" s="6"/>
     </row>
-    <row r="169" spans="2:48" ht="23.4">
+    <row r="169" spans="2:48" ht="23.25">
       <c r="B169" s="17" t="s">
         <v>26</v>
       </c>
@@ -10435,7 +10530,7 @@
       <c r="T170" s="6"/>
       <c r="U170" s="6"/>
     </row>
-    <row r="171" spans="2:48" ht="15" thickBot="1">
+    <row r="171" spans="2:48" ht="15.75" thickBot="1">
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -10445,7 +10540,7 @@
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
     </row>
-    <row r="172" spans="2:48" ht="19.2" thickTop="1" thickBot="1">
+    <row r="172" spans="2:48" ht="20.25" thickTop="1" thickBot="1">
       <c r="B172" s="22" t="s">
         <v>16</v>
       </c>
@@ -10462,7 +10557,7 @@
       <c r="T172" s="6"/>
       <c r="U172" s="6"/>
     </row>
-    <row r="173" spans="2:48" ht="15" thickTop="1">
+    <row r="173" spans="2:48" ht="15.75" thickTop="1">
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -10517,7 +10612,7 @@
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
     </row>
-    <row r="178" spans="2:52" ht="15" thickBot="1">
+    <row r="178" spans="2:52" ht="15.75" thickBot="1">
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
@@ -10577,54 +10672,54 @@
       <c r="G179" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I179" s="95" t="s">
+      <c r="I179" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="J179" s="96"/>
-      <c r="K179" s="96"/>
-      <c r="L179" s="96"/>
-      <c r="M179" s="96"/>
-      <c r="N179" s="96"/>
-      <c r="O179" s="96"/>
-      <c r="P179" s="96"/>
-      <c r="Q179" s="96"/>
-      <c r="R179" s="96"/>
-      <c r="S179" s="96"/>
-      <c r="T179" s="96"/>
-      <c r="U179" s="96"/>
-      <c r="V179" s="96"/>
-      <c r="W179" s="96"/>
-      <c r="X179" s="96"/>
-      <c r="Y179" s="96"/>
-      <c r="Z179" s="96"/>
-      <c r="AA179" s="96"/>
-      <c r="AB179" s="96"/>
-      <c r="AC179" s="96"/>
-      <c r="AD179" s="96"/>
-      <c r="AE179" s="96"/>
-      <c r="AF179" s="96"/>
-      <c r="AG179" s="96"/>
-      <c r="AH179" s="96"/>
-      <c r="AI179" s="96"/>
-      <c r="AJ179" s="96"/>
-      <c r="AK179" s="96"/>
-      <c r="AL179" s="96"/>
-      <c r="AM179" s="96"/>
-      <c r="AN179" s="96"/>
-      <c r="AO179" s="96"/>
-      <c r="AP179" s="96"/>
-      <c r="AQ179" s="96"/>
-      <c r="AR179" s="96"/>
-      <c r="AS179" s="96"/>
-      <c r="AT179" s="96"/>
-      <c r="AU179" s="96"/>
-      <c r="AV179" s="96"/>
-      <c r="AW179" s="96"/>
-      <c r="AX179" s="96"/>
-      <c r="AY179" s="96"/>
-      <c r="AZ179" s="97"/>
-    </row>
-    <row r="180" spans="2:52" ht="15" thickTop="1">
+      <c r="J179" s="80"/>
+      <c r="K179" s="80"/>
+      <c r="L179" s="80"/>
+      <c r="M179" s="80"/>
+      <c r="N179" s="80"/>
+      <c r="O179" s="80"/>
+      <c r="P179" s="80"/>
+      <c r="Q179" s="80"/>
+      <c r="R179" s="80"/>
+      <c r="S179" s="80"/>
+      <c r="T179" s="80"/>
+      <c r="U179" s="80"/>
+      <c r="V179" s="80"/>
+      <c r="W179" s="80"/>
+      <c r="X179" s="80"/>
+      <c r="Y179" s="80"/>
+      <c r="Z179" s="80"/>
+      <c r="AA179" s="80"/>
+      <c r="AB179" s="80"/>
+      <c r="AC179" s="80"/>
+      <c r="AD179" s="80"/>
+      <c r="AE179" s="80"/>
+      <c r="AF179" s="80"/>
+      <c r="AG179" s="80"/>
+      <c r="AH179" s="80"/>
+      <c r="AI179" s="80"/>
+      <c r="AJ179" s="80"/>
+      <c r="AK179" s="80"/>
+      <c r="AL179" s="80"/>
+      <c r="AM179" s="80"/>
+      <c r="AN179" s="80"/>
+      <c r="AO179" s="80"/>
+      <c r="AP179" s="80"/>
+      <c r="AQ179" s="80"/>
+      <c r="AR179" s="80"/>
+      <c r="AS179" s="80"/>
+      <c r="AT179" s="80"/>
+      <c r="AU179" s="80"/>
+      <c r="AV179" s="80"/>
+      <c r="AW179" s="80"/>
+      <c r="AX179" s="80"/>
+      <c r="AY179" s="80"/>
+      <c r="AZ179" s="81"/>
+    </row>
+    <row r="180" spans="2:52" ht="15.75" thickTop="1">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -10665,7 +10760,7 @@
       <c r="AY180" s="6"/>
       <c r="AZ180" s="6"/>
     </row>
-    <row r="181" spans="2:52" ht="23.4">
+    <row r="181" spans="2:52" ht="23.25">
       <c r="B181" s="17" t="s">
         <v>27</v>
       </c>
@@ -10774,7 +10869,7 @@
       <c r="AY182" s="6"/>
       <c r="AZ182" s="6"/>
     </row>
-    <row r="183" spans="2:52" ht="23.4">
+    <row r="183" spans="2:52" ht="23.25">
       <c r="B183" s="17">
         <v>71</v>
       </c>
@@ -10840,7 +10935,7 @@
       <c r="AY183" s="34"/>
       <c r="AZ183" s="34"/>
     </row>
-    <row r="184" spans="2:52" ht="23.4">
+    <row r="184" spans="2:52" ht="23.25">
       <c r="B184" s="17">
         <f t="shared" ref="B184:B212" si="7">B183+1</f>
         <v>72</v>
@@ -10907,7 +11002,7 @@
       <c r="AY184" s="34"/>
       <c r="AZ184" s="34"/>
     </row>
-    <row r="185" spans="2:52" ht="23.4">
+    <row r="185" spans="2:52" ht="23.25">
       <c r="B185" s="17">
         <f t="shared" si="7"/>
         <v>73</v>
@@ -10974,7 +11069,7 @@
       <c r="AY185" s="34"/>
       <c r="AZ185" s="34"/>
     </row>
-    <row r="186" spans="2:52" ht="23.4">
+    <row r="186" spans="2:52" ht="23.25">
       <c r="B186" s="17">
         <f t="shared" si="7"/>
         <v>74</v>
@@ -11041,7 +11136,7 @@
       <c r="AY186" s="34"/>
       <c r="AZ186" s="34"/>
     </row>
-    <row r="187" spans="2:52" ht="23.4">
+    <row r="187" spans="2:52" ht="23.25">
       <c r="B187" s="17">
         <f t="shared" si="7"/>
         <v>75</v>
@@ -11108,7 +11203,7 @@
       <c r="AY187" s="34"/>
       <c r="AZ187" s="34"/>
     </row>
-    <row r="188" spans="2:52" ht="23.4">
+    <row r="188" spans="2:52" ht="23.25">
       <c r="B188" s="17">
         <f t="shared" si="7"/>
         <v>76</v>
@@ -11175,7 +11270,7 @@
       <c r="AY188" s="34"/>
       <c r="AZ188" s="34"/>
     </row>
-    <row r="189" spans="2:52" ht="23.4">
+    <row r="189" spans="2:52" ht="23.25">
       <c r="B189" s="17">
         <f t="shared" si="7"/>
         <v>77</v>
@@ -11242,7 +11337,7 @@
       <c r="AY189" s="34"/>
       <c r="AZ189" s="34"/>
     </row>
-    <row r="190" spans="2:52" ht="23.4">
+    <row r="190" spans="2:52" ht="23.25">
       <c r="B190" s="17">
         <f t="shared" si="7"/>
         <v>78</v>
@@ -11309,7 +11404,7 @@
       <c r="AY190" s="34"/>
       <c r="AZ190" s="34"/>
     </row>
-    <row r="191" spans="2:52" ht="23.4">
+    <row r="191" spans="2:52" ht="23.25">
       <c r="B191" s="17">
         <f t="shared" si="7"/>
         <v>79</v>
@@ -11376,7 +11471,7 @@
       <c r="AY191" s="34"/>
       <c r="AZ191" s="34"/>
     </row>
-    <row r="192" spans="2:52" ht="23.4">
+    <row r="192" spans="2:52" ht="23.25">
       <c r="B192" s="17">
         <f t="shared" si="7"/>
         <v>80</v>
@@ -11443,7 +11538,7 @@
       <c r="AY192" s="34"/>
       <c r="AZ192" s="34"/>
     </row>
-    <row r="193" spans="2:52" ht="23.4">
+    <row r="193" spans="2:52" ht="23.25">
       <c r="B193" s="17">
         <f t="shared" si="7"/>
         <v>81</v>
@@ -11510,7 +11605,7 @@
       <c r="AY193" s="34"/>
       <c r="AZ193" s="34"/>
     </row>
-    <row r="194" spans="2:52" ht="23.4">
+    <row r="194" spans="2:52" ht="23.25">
       <c r="B194" s="17">
         <f t="shared" si="7"/>
         <v>82</v>
@@ -11577,7 +11672,7 @@
       <c r="AY194" s="34"/>
       <c r="AZ194" s="34"/>
     </row>
-    <row r="195" spans="2:52" ht="23.4">
+    <row r="195" spans="2:52" ht="23.25">
       <c r="B195" s="17">
         <f t="shared" si="7"/>
         <v>83</v>
@@ -11644,7 +11739,7 @@
       <c r="AY195" s="34"/>
       <c r="AZ195" s="34"/>
     </row>
-    <row r="196" spans="2:52" ht="23.4">
+    <row r="196" spans="2:52" ht="23.25">
       <c r="B196" s="17">
         <f t="shared" si="7"/>
         <v>84</v>
@@ -11711,7 +11806,7 @@
       <c r="AY196" s="34"/>
       <c r="AZ196" s="34"/>
     </row>
-    <row r="197" spans="2:52" ht="23.4">
+    <row r="197" spans="2:52" ht="23.25">
       <c r="B197" s="17">
         <f t="shared" si="7"/>
         <v>85</v>
@@ -11778,7 +11873,7 @@
       <c r="AY197" s="34"/>
       <c r="AZ197" s="34"/>
     </row>
-    <row r="198" spans="2:52" ht="23.4">
+    <row r="198" spans="2:52" ht="23.25">
       <c r="B198" s="17">
         <f t="shared" si="7"/>
         <v>86</v>
@@ -11845,7 +11940,7 @@
       <c r="AY198" s="34"/>
       <c r="AZ198" s="34"/>
     </row>
-    <row r="199" spans="2:52" ht="23.4">
+    <row r="199" spans="2:52" ht="23.25">
       <c r="B199" s="17">
         <f t="shared" si="7"/>
         <v>87</v>
@@ -11912,7 +12007,7 @@
       <c r="AY199" s="34"/>
       <c r="AZ199" s="34"/>
     </row>
-    <row r="200" spans="2:52" ht="23.4">
+    <row r="200" spans="2:52" ht="23.25">
       <c r="B200" s="17">
         <f t="shared" si="7"/>
         <v>88</v>
@@ -11979,7 +12074,7 @@
       <c r="AY200" s="34"/>
       <c r="AZ200" s="34"/>
     </row>
-    <row r="201" spans="2:52" ht="23.4">
+    <row r="201" spans="2:52" ht="23.25">
       <c r="B201" s="17">
         <f t="shared" si="7"/>
         <v>89</v>
@@ -12046,7 +12141,7 @@
       <c r="AY201" s="34"/>
       <c r="AZ201" s="34"/>
     </row>
-    <row r="202" spans="2:52" ht="23.4">
+    <row r="202" spans="2:52" ht="23.25">
       <c r="B202" s="17">
         <f t="shared" si="7"/>
         <v>90</v>
@@ -12113,7 +12208,7 @@
       <c r="AY202" s="34"/>
       <c r="AZ202" s="34"/>
     </row>
-    <row r="203" spans="2:52" ht="23.4">
+    <row r="203" spans="2:52" ht="23.25">
       <c r="B203" s="17">
         <f t="shared" si="7"/>
         <v>91</v>
@@ -12180,7 +12275,7 @@
       <c r="AY203" s="34"/>
       <c r="AZ203" s="34"/>
     </row>
-    <row r="204" spans="2:52" ht="23.4">
+    <row r="204" spans="2:52" ht="23.25">
       <c r="B204" s="17">
         <f t="shared" si="7"/>
         <v>92</v>
@@ -12247,7 +12342,7 @@
       <c r="AY204" s="34"/>
       <c r="AZ204" s="34"/>
     </row>
-    <row r="205" spans="2:52" ht="23.4">
+    <row r="205" spans="2:52" ht="23.25">
       <c r="B205" s="17">
         <f t="shared" si="7"/>
         <v>93</v>
@@ -12314,7 +12409,7 @@
       <c r="AY205" s="34"/>
       <c r="AZ205" s="34"/>
     </row>
-    <row r="206" spans="2:52" ht="23.4">
+    <row r="206" spans="2:52" ht="23.25">
       <c r="B206" s="17">
         <f t="shared" si="7"/>
         <v>94</v>
@@ -12381,7 +12476,7 @@
       <c r="AY206" s="34"/>
       <c r="AZ206" s="34"/>
     </row>
-    <row r="207" spans="2:52" ht="23.4">
+    <row r="207" spans="2:52" ht="23.25">
       <c r="B207" s="17">
         <f t="shared" si="7"/>
         <v>95</v>
@@ -12448,7 +12543,7 @@
       <c r="AY207" s="34"/>
       <c r="AZ207" s="34"/>
     </row>
-    <row r="208" spans="2:52" ht="23.4">
+    <row r="208" spans="2:52" ht="23.25">
       <c r="B208" s="17">
         <f t="shared" si="7"/>
         <v>96</v>
@@ -12515,7 +12610,7 @@
       <c r="AY208" s="34"/>
       <c r="AZ208" s="34"/>
     </row>
-    <row r="209" spans="2:52" ht="23.4">
+    <row r="209" spans="2:52" ht="23.25">
       <c r="B209" s="17">
         <f t="shared" si="7"/>
         <v>97</v>
@@ -12582,7 +12677,7 @@
       <c r="AY209" s="34"/>
       <c r="AZ209" s="34"/>
     </row>
-    <row r="210" spans="2:52" ht="23.4">
+    <row r="210" spans="2:52" ht="23.25">
       <c r="B210" s="17">
         <f t="shared" si="7"/>
         <v>98</v>
@@ -12649,7 +12744,7 @@
       <c r="AY210" s="34"/>
       <c r="AZ210" s="34"/>
     </row>
-    <row r="211" spans="2:52" ht="23.4">
+    <row r="211" spans="2:52" ht="23.25">
       <c r="B211" s="17">
         <f t="shared" si="7"/>
         <v>99</v>
@@ -12716,7 +12811,7 @@
       <c r="AY211" s="34"/>
       <c r="AZ211" s="34"/>
     </row>
-    <row r="212" spans="2:52" ht="23.4">
+    <row r="212" spans="2:52" ht="23.25">
       <c r="B212" s="17">
         <f t="shared" si="7"/>
         <v>100</v>
@@ -12789,7 +12884,7 @@
       <c r="AY213" s="6"/>
       <c r="AZ213" s="6"/>
     </row>
-    <row r="214" spans="2:52" ht="23.4">
+    <row r="214" spans="2:52" ht="23.25">
       <c r="B214" s="17" t="s">
         <v>26</v>
       </c>
@@ -12826,6 +12921,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="B14:T28"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y11:AA11"/>
     <mergeCell ref="I179:AZ179"/>
     <mergeCell ref="B30:AA30"/>
     <mergeCell ref="G33:AA33"/>
@@ -12837,15 +12941,6 @@
     <mergeCell ref="J41:N41"/>
     <mergeCell ref="G104:AG104"/>
     <mergeCell ref="I144:AV144"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="B2:AA2"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="B14:T28"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y11:AA11"/>
   </mergeCells>
   <conditionalFormatting sqref="Y15:AA26 AE26 AC27:AE39">
     <cfRule type="expression" dxfId="3" priority="18">
@@ -13169,6 +13264,935 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF1246F-240F-4F65-8DBE-618A3738E125}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="119"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="119" t="str">
+        <f>_xlfn.XLOOKUP(A1,Case!B:B,Case!G:G)</f>
+        <v>LAS-YUL;SYD-LON;LAX-LAS;YUL-MAD;LON-YUL;LAX-EZE;LAS-SYD;LON-BOG;BOG-CPT;LAS-CPT;YUL-RIX;CPT-BOG;BOG-LAS;LIS-BOG;CPT-LAS;YUL-LAX;YYZ-LON;LAX-CPT;LIS-MAD;LIS-SYD;CPT-YYZ;EZE-SYD;LIS-LAX;YYZ-CPT;CPT-EZE;LAX-YUL;BOG-RIX;SYD-BOG;LON-MAD;LAX-LIS;BOG-SYD;LIS-CPT;EZE-LAX;LAS-LON;RIX-YYZ;YUL-LIS;MAD-LAX;MAD-RIX;LAX-MAD;YYZ-LAX</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" s="119" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="119" t="s">
+        <v>320</v>
+      </c>
+      <c r="F3" s="119" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="H3" s="119" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="119" t="str" cm="1">
+        <f t="array" ref="C4:C43">_xlfn.TEXTSPLIT(C1,,";")</f>
+        <v>LAS-YUL</v>
+      </c>
+      <c r="D4" s="119" t="str" cm="1">
+        <f t="array" ref="D4:E4">_xlfn.TEXTSPLIT(C4,"-")</f>
+        <v>LAS</v>
+      </c>
+      <c r="E4" s="119" t="str">
+        <v>YUL</v>
+      </c>
+      <c r="F4" s="119" cm="1">
+        <f t="array" ref="F4:G43">_xlfn.XLOOKUP(D4:E43,_nIATA,_nCanada)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="119">
+        <v>1</v>
+      </c>
+      <c r="H4" s="119">
+        <f>--OR(F4:G4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" s="119" t="str">
+        <v>SYD-LON</v>
+      </c>
+      <c r="D5" s="119" t="str" cm="1">
+        <f t="array" ref="D5:E5">_xlfn.TEXTSPLIT(C5,"-")</f>
+        <v>SYD</v>
+      </c>
+      <c r="E5" s="119" t="str">
+        <v>LON</v>
+      </c>
+      <c r="F5" s="119">
+        <v>0</v>
+      </c>
+      <c r="G5" s="119">
+        <v>0</v>
+      </c>
+      <c r="H5" s="119">
+        <f t="shared" ref="H5:H43" si="0">--OR(F5:G5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" s="119" t="str">
+        <v>LAX-LAS</v>
+      </c>
+      <c r="D6" s="119" t="str" cm="1">
+        <f t="array" ref="D6:E6">_xlfn.TEXTSPLIT(C6,"-")</f>
+        <v>LAX</v>
+      </c>
+      <c r="E6" s="119" t="str">
+        <v>LAS</v>
+      </c>
+      <c r="F6" s="119">
+        <v>0</v>
+      </c>
+      <c r="G6" s="119">
+        <v>0</v>
+      </c>
+      <c r="H6" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" s="119" t="str">
+        <v>YUL-MAD</v>
+      </c>
+      <c r="D7" s="119" t="str" cm="1">
+        <f t="array" ref="D7:E7">_xlfn.TEXTSPLIT(C7,"-")</f>
+        <v>YUL</v>
+      </c>
+      <c r="E7" s="119" t="str">
+        <v>MAD</v>
+      </c>
+      <c r="F7" s="119">
+        <v>1</v>
+      </c>
+      <c r="G7" s="119">
+        <v>0</v>
+      </c>
+      <c r="H7" s="119">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="119" t="str">
+        <v>LON-YUL</v>
+      </c>
+      <c r="D8" s="119" t="str" cm="1">
+        <f t="array" ref="D8:E8">_xlfn.TEXTSPLIT(C8,"-")</f>
+        <v>LON</v>
+      </c>
+      <c r="E8" s="119" t="str">
+        <v>YUL</v>
+      </c>
+      <c r="F8" s="119">
+        <v>0</v>
+      </c>
+      <c r="G8" s="119">
+        <v>1</v>
+      </c>
+      <c r="H8" s="119">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" s="119" t="str">
+        <v>LAX-EZE</v>
+      </c>
+      <c r="D9" s="119" t="str" cm="1">
+        <f t="array" ref="D9:E9">_xlfn.TEXTSPLIT(C9,"-")</f>
+        <v>LAX</v>
+      </c>
+      <c r="E9" s="119" t="str">
+        <v>EZE</v>
+      </c>
+      <c r="F9" s="119">
+        <v>0</v>
+      </c>
+      <c r="G9" s="119">
+        <v>0</v>
+      </c>
+      <c r="H9" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="119" t="str">
+        <v>LAS-SYD</v>
+      </c>
+      <c r="D10" s="119" t="str" cm="1">
+        <f t="array" ref="D10:E10">_xlfn.TEXTSPLIT(C10,"-")</f>
+        <v>LAS</v>
+      </c>
+      <c r="E10" s="119" t="str">
+        <v>SYD</v>
+      </c>
+      <c r="F10" s="119">
+        <v>0</v>
+      </c>
+      <c r="G10" s="119">
+        <v>0</v>
+      </c>
+      <c r="H10" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="119" t="str">
+        <v>LON-BOG</v>
+      </c>
+      <c r="D11" s="119" t="str" cm="1">
+        <f t="array" ref="D11:E11">_xlfn.TEXTSPLIT(C11,"-")</f>
+        <v>LON</v>
+      </c>
+      <c r="E11" s="119" t="str">
+        <v>BOG</v>
+      </c>
+      <c r="F11" s="119">
+        <v>0</v>
+      </c>
+      <c r="G11" s="119">
+        <v>0</v>
+      </c>
+      <c r="H11" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" s="119" t="str">
+        <v>BOG-CPT</v>
+      </c>
+      <c r="D12" s="119" t="str" cm="1">
+        <f t="array" ref="D12:E12">_xlfn.TEXTSPLIT(C12,"-")</f>
+        <v>BOG</v>
+      </c>
+      <c r="E12" s="119" t="str">
+        <v>CPT</v>
+      </c>
+      <c r="F12" s="119">
+        <v>0</v>
+      </c>
+      <c r="G12" s="119">
+        <v>0</v>
+      </c>
+      <c r="H12" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" s="119" t="str">
+        <v>LAS-CPT</v>
+      </c>
+      <c r="D13" s="119" t="str" cm="1">
+        <f t="array" ref="D13:E13">_xlfn.TEXTSPLIT(C13,"-")</f>
+        <v>LAS</v>
+      </c>
+      <c r="E13" s="119" t="str">
+        <v>CPT</v>
+      </c>
+      <c r="F13" s="119">
+        <v>0</v>
+      </c>
+      <c r="G13" s="119">
+        <v>0</v>
+      </c>
+      <c r="H13" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="119" t="str">
+        <v>YUL-RIX</v>
+      </c>
+      <c r="D14" s="119" t="str" cm="1">
+        <f t="array" ref="D14:E14">_xlfn.TEXTSPLIT(C14,"-")</f>
+        <v>YUL</v>
+      </c>
+      <c r="E14" s="119" t="str">
+        <v>RIX</v>
+      </c>
+      <c r="F14" s="119">
+        <v>1</v>
+      </c>
+      <c r="G14" s="119">
+        <v>0</v>
+      </c>
+      <c r="H14" s="119">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" s="119" t="str">
+        <v>CPT-BOG</v>
+      </c>
+      <c r="D15" s="119" t="str" cm="1">
+        <f t="array" ref="D15:E15">_xlfn.TEXTSPLIT(C15,"-")</f>
+        <v>CPT</v>
+      </c>
+      <c r="E15" s="119" t="str">
+        <v>BOG</v>
+      </c>
+      <c r="F15" s="119">
+        <v>0</v>
+      </c>
+      <c r="G15" s="119">
+        <v>0</v>
+      </c>
+      <c r="H15" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="C16" s="119" t="str">
+        <v>BOG-LAS</v>
+      </c>
+      <c r="D16" s="119" t="str" cm="1">
+        <f t="array" ref="D16:E16">_xlfn.TEXTSPLIT(C16,"-")</f>
+        <v>BOG</v>
+      </c>
+      <c r="E16" s="119" t="str">
+        <v>LAS</v>
+      </c>
+      <c r="F16" s="119">
+        <v>0</v>
+      </c>
+      <c r="G16" s="119">
+        <v>0</v>
+      </c>
+      <c r="H16" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="119" t="str">
+        <v>LIS-BOG</v>
+      </c>
+      <c r="D17" s="119" t="str" cm="1">
+        <f t="array" ref="D17:E17">_xlfn.TEXTSPLIT(C17,"-")</f>
+        <v>LIS</v>
+      </c>
+      <c r="E17" s="119" t="str">
+        <v>BOG</v>
+      </c>
+      <c r="F17" s="119">
+        <v>0</v>
+      </c>
+      <c r="G17" s="119">
+        <v>0</v>
+      </c>
+      <c r="H17" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="119" t="str">
+        <v>CPT-LAS</v>
+      </c>
+      <c r="D18" s="119" t="str" cm="1">
+        <f t="array" ref="D18:E18">_xlfn.TEXTSPLIT(C18,"-")</f>
+        <v>CPT</v>
+      </c>
+      <c r="E18" s="119" t="str">
+        <v>LAS</v>
+      </c>
+      <c r="F18" s="119">
+        <v>0</v>
+      </c>
+      <c r="G18" s="119">
+        <v>0</v>
+      </c>
+      <c r="H18" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="119" t="str">
+        <v>YUL-LAX</v>
+      </c>
+      <c r="D19" s="119" t="str" cm="1">
+        <f t="array" ref="D19:E19">_xlfn.TEXTSPLIT(C19,"-")</f>
+        <v>YUL</v>
+      </c>
+      <c r="E19" s="119" t="str">
+        <v>LAX</v>
+      </c>
+      <c r="F19" s="119">
+        <v>1</v>
+      </c>
+      <c r="G19" s="119">
+        <v>0</v>
+      </c>
+      <c r="H19" s="119">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="119" t="str">
+        <v>YYZ-LON</v>
+      </c>
+      <c r="D20" s="119" t="str" cm="1">
+        <f t="array" ref="D20:E20">_xlfn.TEXTSPLIT(C20,"-")</f>
+        <v>YYZ</v>
+      </c>
+      <c r="E20" s="119" t="str">
+        <v>LON</v>
+      </c>
+      <c r="F20" s="119">
+        <v>1</v>
+      </c>
+      <c r="G20" s="119">
+        <v>0</v>
+      </c>
+      <c r="H20" s="119">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="119" t="str">
+        <v>LAX-CPT</v>
+      </c>
+      <c r="D21" s="119" t="str" cm="1">
+        <f t="array" ref="D21:E21">_xlfn.TEXTSPLIT(C21,"-")</f>
+        <v>LAX</v>
+      </c>
+      <c r="E21" s="119" t="str">
+        <v>CPT</v>
+      </c>
+      <c r="F21" s="119">
+        <v>0</v>
+      </c>
+      <c r="G21" s="119">
+        <v>0</v>
+      </c>
+      <c r="H21" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="119" t="str">
+        <v>LIS-MAD</v>
+      </c>
+      <c r="D22" s="119" t="str" cm="1">
+        <f t="array" ref="D22:E22">_xlfn.TEXTSPLIT(C22,"-")</f>
+        <v>LIS</v>
+      </c>
+      <c r="E22" s="119" t="str">
+        <v>MAD</v>
+      </c>
+      <c r="F22" s="119">
+        <v>0</v>
+      </c>
+      <c r="G22" s="119">
+        <v>0</v>
+      </c>
+      <c r="H22" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="119" t="str">
+        <v>LIS-SYD</v>
+      </c>
+      <c r="D23" s="119" t="str" cm="1">
+        <f t="array" ref="D23:E23">_xlfn.TEXTSPLIT(C23,"-")</f>
+        <v>LIS</v>
+      </c>
+      <c r="E23" s="119" t="str">
+        <v>SYD</v>
+      </c>
+      <c r="F23" s="119">
+        <v>0</v>
+      </c>
+      <c r="G23" s="119">
+        <v>0</v>
+      </c>
+      <c r="H23" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="119" t="str">
+        <v>CPT-YYZ</v>
+      </c>
+      <c r="D24" s="119" t="str" cm="1">
+        <f t="array" ref="D24:E24">_xlfn.TEXTSPLIT(C24,"-")</f>
+        <v>CPT</v>
+      </c>
+      <c r="E24" s="119" t="str">
+        <v>YYZ</v>
+      </c>
+      <c r="F24" s="119">
+        <v>0</v>
+      </c>
+      <c r="G24" s="119">
+        <v>1</v>
+      </c>
+      <c r="H24" s="119">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="119" t="str">
+        <v>EZE-SYD</v>
+      </c>
+      <c r="D25" s="119" t="str" cm="1">
+        <f t="array" ref="D25:E25">_xlfn.TEXTSPLIT(C25,"-")</f>
+        <v>EZE</v>
+      </c>
+      <c r="E25" s="119" t="str">
+        <v>SYD</v>
+      </c>
+      <c r="F25" s="119">
+        <v>0</v>
+      </c>
+      <c r="G25" s="119">
+        <v>0</v>
+      </c>
+      <c r="H25" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="119" t="str">
+        <v>LIS-LAX</v>
+      </c>
+      <c r="D26" s="119" t="str" cm="1">
+        <f t="array" ref="D26:E26">_xlfn.TEXTSPLIT(C26,"-")</f>
+        <v>LIS</v>
+      </c>
+      <c r="E26" s="119" t="str">
+        <v>LAX</v>
+      </c>
+      <c r="F26" s="119">
+        <v>0</v>
+      </c>
+      <c r="G26" s="119">
+        <v>0</v>
+      </c>
+      <c r="H26" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="119" t="str">
+        <v>YYZ-CPT</v>
+      </c>
+      <c r="D27" s="119" t="str" cm="1">
+        <f t="array" ref="D27:E27">_xlfn.TEXTSPLIT(C27,"-")</f>
+        <v>YYZ</v>
+      </c>
+      <c r="E27" s="119" t="str">
+        <v>CPT</v>
+      </c>
+      <c r="F27" s="119">
+        <v>1</v>
+      </c>
+      <c r="G27" s="119">
+        <v>0</v>
+      </c>
+      <c r="H27" s="119">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="119" t="str">
+        <v>CPT-EZE</v>
+      </c>
+      <c r="D28" s="119" t="str" cm="1">
+        <f t="array" ref="D28:E28">_xlfn.TEXTSPLIT(C28,"-")</f>
+        <v>CPT</v>
+      </c>
+      <c r="E28" s="119" t="str">
+        <v>EZE</v>
+      </c>
+      <c r="F28" s="119">
+        <v>0</v>
+      </c>
+      <c r="G28" s="119">
+        <v>0</v>
+      </c>
+      <c r="H28" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="119" t="str">
+        <v>LAX-YUL</v>
+      </c>
+      <c r="D29" s="119" t="str" cm="1">
+        <f t="array" ref="D29:E29">_xlfn.TEXTSPLIT(C29,"-")</f>
+        <v>LAX</v>
+      </c>
+      <c r="E29" s="119" t="str">
+        <v>YUL</v>
+      </c>
+      <c r="F29" s="119">
+        <v>0</v>
+      </c>
+      <c r="G29" s="119">
+        <v>1</v>
+      </c>
+      <c r="H29" s="119">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="119" t="str">
+        <v>BOG-RIX</v>
+      </c>
+      <c r="D30" s="119" t="str" cm="1">
+        <f t="array" ref="D30:E30">_xlfn.TEXTSPLIT(C30,"-")</f>
+        <v>BOG</v>
+      </c>
+      <c r="E30" s="119" t="str">
+        <v>RIX</v>
+      </c>
+      <c r="F30" s="119">
+        <v>0</v>
+      </c>
+      <c r="G30" s="119">
+        <v>0</v>
+      </c>
+      <c r="H30" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="119" t="str">
+        <v>SYD-BOG</v>
+      </c>
+      <c r="D31" s="119" t="str" cm="1">
+        <f t="array" ref="D31:E31">_xlfn.TEXTSPLIT(C31,"-")</f>
+        <v>SYD</v>
+      </c>
+      <c r="E31" s="119" t="str">
+        <v>BOG</v>
+      </c>
+      <c r="F31" s="119">
+        <v>0</v>
+      </c>
+      <c r="G31" s="119">
+        <v>0</v>
+      </c>
+      <c r="H31" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="119" t="str">
+        <v>LON-MAD</v>
+      </c>
+      <c r="D32" s="119" t="str" cm="1">
+        <f t="array" ref="D32:E32">_xlfn.TEXTSPLIT(C32,"-")</f>
+        <v>LON</v>
+      </c>
+      <c r="E32" s="119" t="str">
+        <v>MAD</v>
+      </c>
+      <c r="F32" s="119">
+        <v>0</v>
+      </c>
+      <c r="G32" s="119">
+        <v>0</v>
+      </c>
+      <c r="H32" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="119" t="str">
+        <v>LAX-LIS</v>
+      </c>
+      <c r="D33" s="119" t="str" cm="1">
+        <f t="array" ref="D33:E33">_xlfn.TEXTSPLIT(C33,"-")</f>
+        <v>LAX</v>
+      </c>
+      <c r="E33" s="119" t="str">
+        <v>LIS</v>
+      </c>
+      <c r="F33" s="119">
+        <v>0</v>
+      </c>
+      <c r="G33" s="119">
+        <v>0</v>
+      </c>
+      <c r="H33" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="119" t="str">
+        <v>BOG-SYD</v>
+      </c>
+      <c r="D34" s="119" t="str" cm="1">
+        <f t="array" ref="D34:E34">_xlfn.TEXTSPLIT(C34,"-")</f>
+        <v>BOG</v>
+      </c>
+      <c r="E34" s="119" t="str">
+        <v>SYD</v>
+      </c>
+      <c r="F34" s="119">
+        <v>0</v>
+      </c>
+      <c r="G34" s="119">
+        <v>0</v>
+      </c>
+      <c r="H34" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="119" t="str">
+        <v>LIS-CPT</v>
+      </c>
+      <c r="D35" s="119" t="str" cm="1">
+        <f t="array" ref="D35:E35">_xlfn.TEXTSPLIT(C35,"-")</f>
+        <v>LIS</v>
+      </c>
+      <c r="E35" s="119" t="str">
+        <v>CPT</v>
+      </c>
+      <c r="F35" s="119">
+        <v>0</v>
+      </c>
+      <c r="G35" s="119">
+        <v>0</v>
+      </c>
+      <c r="H35" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="119" t="str">
+        <v>EZE-LAX</v>
+      </c>
+      <c r="D36" s="119" t="str" cm="1">
+        <f t="array" ref="D36:E36">_xlfn.TEXTSPLIT(C36,"-")</f>
+        <v>EZE</v>
+      </c>
+      <c r="E36" s="119" t="str">
+        <v>LAX</v>
+      </c>
+      <c r="F36" s="119">
+        <v>0</v>
+      </c>
+      <c r="G36" s="119">
+        <v>0</v>
+      </c>
+      <c r="H36" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="119" t="str">
+        <v>LAS-LON</v>
+      </c>
+      <c r="D37" s="119" t="str" cm="1">
+        <f t="array" ref="D37:E37">_xlfn.TEXTSPLIT(C37,"-")</f>
+        <v>LAS</v>
+      </c>
+      <c r="E37" s="119" t="str">
+        <v>LON</v>
+      </c>
+      <c r="F37" s="119">
+        <v>0</v>
+      </c>
+      <c r="G37" s="119">
+        <v>0</v>
+      </c>
+      <c r="H37" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="119" t="str">
+        <v>RIX-YYZ</v>
+      </c>
+      <c r="D38" s="119" t="str" cm="1">
+        <f t="array" ref="D38:E38">_xlfn.TEXTSPLIT(C38,"-")</f>
+        <v>RIX</v>
+      </c>
+      <c r="E38" s="119" t="str">
+        <v>YYZ</v>
+      </c>
+      <c r="F38" s="119">
+        <v>0</v>
+      </c>
+      <c r="G38" s="119">
+        <v>1</v>
+      </c>
+      <c r="H38" s="119">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="119" t="str">
+        <v>YUL-LIS</v>
+      </c>
+      <c r="D39" s="119" t="str" cm="1">
+        <f t="array" ref="D39:E39">_xlfn.TEXTSPLIT(C39,"-")</f>
+        <v>YUL</v>
+      </c>
+      <c r="E39" s="119" t="str">
+        <v>LIS</v>
+      </c>
+      <c r="F39" s="119">
+        <v>1</v>
+      </c>
+      <c r="G39" s="119">
+        <v>0</v>
+      </c>
+      <c r="H39" s="119">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="119" t="str">
+        <v>MAD-LAX</v>
+      </c>
+      <c r="D40" s="119" t="str" cm="1">
+        <f t="array" ref="D40:E40">_xlfn.TEXTSPLIT(C40,"-")</f>
+        <v>MAD</v>
+      </c>
+      <c r="E40" s="119" t="str">
+        <v>LAX</v>
+      </c>
+      <c r="F40" s="119">
+        <v>0</v>
+      </c>
+      <c r="G40" s="119">
+        <v>0</v>
+      </c>
+      <c r="H40" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="119" t="str">
+        <v>MAD-RIX</v>
+      </c>
+      <c r="D41" s="119" t="str" cm="1">
+        <f t="array" ref="D41:E41">_xlfn.TEXTSPLIT(C41,"-")</f>
+        <v>MAD</v>
+      </c>
+      <c r="E41" s="119" t="str">
+        <v>RIX</v>
+      </c>
+      <c r="F41" s="119">
+        <v>0</v>
+      </c>
+      <c r="G41" s="119">
+        <v>0</v>
+      </c>
+      <c r="H41" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="119" t="str">
+        <v>LAX-MAD</v>
+      </c>
+      <c r="D42" s="119" t="str" cm="1">
+        <f t="array" ref="D42:E42">_xlfn.TEXTSPLIT(C42,"-")</f>
+        <v>LAX</v>
+      </c>
+      <c r="E42" s="119" t="str">
+        <v>MAD</v>
+      </c>
+      <c r="F42" s="119">
+        <v>0</v>
+      </c>
+      <c r="G42" s="119">
+        <v>0</v>
+      </c>
+      <c r="H42" s="119">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="119" t="str">
+        <v>YYZ-LAX</v>
+      </c>
+      <c r="D43" s="119" t="str" cm="1">
+        <f t="array" ref="D43:E43">_xlfn.TEXTSPLIT(C43,"-")</f>
+        <v>YYZ</v>
+      </c>
+      <c r="E43" s="119" t="str">
+        <v>LAX</v>
+      </c>
+      <c r="F43" s="119">
+        <v>1</v>
+      </c>
+      <c r="G43" s="119">
+        <v>0</v>
+      </c>
+      <c r="H43" s="119">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1463E2-8F2B-4D23-B0F5-2E2A75D6AE1A}">
   <dimension ref="A1:DD369"/>
   <sheetViews>
@@ -13176,18 +14200,18 @@
       <selection activeCell="G2" sqref="G2:G104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="68" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" style="68" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" style="68" customWidth="1"/>
-    <col min="4" max="5" width="21.88671875" style="68" customWidth="1"/>
-    <col min="6" max="100" width="20.77734375" style="50" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="68" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="68" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="68" customWidth="1"/>
+    <col min="4" max="5" width="21.85546875" style="68" customWidth="1"/>
+    <col min="6" max="100" width="20.7109375" style="50" customWidth="1"/>
     <col min="101" max="101" width="24" style="50" customWidth="1"/>
-    <col min="102" max="108" width="20.77734375" style="50" customWidth="1"/>
-    <col min="109" max="109" width="8.77734375" style="50"/>
-    <col min="110" max="110" width="9.5546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="111" max="16384" width="8.77734375" style="50"/>
+    <col min="102" max="108" width="20.7109375" style="50" customWidth="1"/>
+    <col min="109" max="109" width="8.7109375" style="50"/>
+    <col min="110" max="110" width="9.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="111" max="16384" width="8.7109375" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:108" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
@@ -13228,7 +14252,7 @@
       <c r="E2" s="70">
         <v>0.80169597484312816</v>
       </c>
-      <c r="F2" s="118">
+      <c r="F2" s="78">
         <f>SUBSTITUTE(D2,"km","")+0</f>
         <v>12750</v>
       </c>
@@ -13354,7 +14378,7 @@
       <c r="E3" s="70">
         <v>0.50165025853656542</v>
       </c>
-      <c r="F3" s="118">
+      <c r="F3" s="78">
         <f t="shared" ref="F3:F66" si="0">SUBSTITUTE(D3,"km","")+0</f>
         <v>1586</v>
       </c>
@@ -13480,7 +14504,7 @@
       <c r="E4" s="70">
         <v>0.52330561390398622</v>
       </c>
-      <c r="F4" s="118">
+      <c r="F4" s="78">
         <f t="shared" si="0"/>
         <v>9598</v>
       </c>
@@ -13606,7 +14630,7 @@
       <c r="E5" s="70">
         <v>0.72699970806827896</v>
       </c>
-      <c r="F5" s="118">
+      <c r="F5" s="78">
         <f t="shared" si="0"/>
         <v>8756</v>
       </c>
@@ -13732,7 +14756,7 @@
       <c r="E6" s="70">
         <v>9.1377314814814814E-2</v>
       </c>
-      <c r="F6" s="118">
+      <c r="F6" s="78">
         <f t="shared" si="0"/>
         <v>6770</v>
       </c>
@@ -13858,7 +14882,7 @@
       <c r="E7" s="70">
         <v>0.77749999999999997</v>
       </c>
-      <c r="F7" s="118">
+      <c r="F7" s="78">
         <f t="shared" si="0"/>
         <v>503</v>
       </c>
@@ -13984,7 +15008,7 @@
       <c r="E8" s="70">
         <v>0.17020463351650006</v>
       </c>
-      <c r="F8" s="118">
+      <c r="F8" s="78">
         <f t="shared" si="0"/>
         <v>9295</v>
       </c>
@@ -14110,7 +15134,7 @@
       <c r="E9" s="70">
         <v>0.26646045906101323</v>
       </c>
-      <c r="F9" s="118">
+      <c r="F9" s="78">
         <f t="shared" si="0"/>
         <v>8020</v>
       </c>
@@ -14236,7 +15260,7 @@
       <c r="E10" s="70">
         <v>0.84111989395040754</v>
       </c>
-      <c r="F10" s="118">
+      <c r="F10" s="78">
         <f t="shared" si="0"/>
         <v>506</v>
       </c>
@@ -14362,7 +15386,7 @@
       <c r="E11" s="70">
         <v>0.38928576422761818</v>
       </c>
-      <c r="F11" s="118">
+      <c r="F11" s="78">
         <f t="shared" si="0"/>
         <v>4373</v>
       </c>
@@ -14488,7 +15512,7 @@
       <c r="E12" s="70">
         <v>0.71119509102971845</v>
       </c>
-      <c r="F12" s="118">
+      <c r="F12" s="78">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
@@ -14614,7 +15638,7 @@
       <c r="E13" s="70">
         <v>0.56372121931574781</v>
       </c>
-      <c r="F13" s="118">
+      <c r="F13" s="78">
         <f t="shared" si="0"/>
         <v>18177</v>
       </c>
@@ -14740,7 +15764,7 @@
       <c r="E14" s="70">
         <v>0.12040653913431276</v>
       </c>
-      <c r="F14" s="118">
+      <c r="F14" s="78">
         <f t="shared" si="0"/>
         <v>8020</v>
       </c>
@@ -14866,7 +15890,7 @@
       <c r="E15" s="70">
         <v>0.15923862647131637</v>
       </c>
-      <c r="F15" s="118">
+      <c r="F15" s="78">
         <f t="shared" si="0"/>
         <v>11011</v>
       </c>
@@ -14992,7 +16016,7 @@
       <c r="E16" s="70">
         <v>6.4491484891636031E-2</v>
       </c>
-      <c r="F16" s="118">
+      <c r="F16" s="78">
         <f t="shared" si="0"/>
         <v>4373</v>
       </c>
@@ -15118,7 +16142,7 @@
       <c r="E17" s="70">
         <v>0.59245190309608631</v>
       </c>
-      <c r="F17" s="118">
+      <c r="F17" s="78">
         <f t="shared" si="0"/>
         <v>12434</v>
       </c>
@@ -15244,7 +16268,7 @@
       <c r="E18" s="70">
         <v>0.52151479258045341</v>
       </c>
-      <c r="F18" s="118">
+      <c r="F18" s="78">
         <f t="shared" si="0"/>
         <v>5531</v>
       </c>
@@ -15370,7 +16394,7 @@
       <c r="E19" s="70">
         <v>6.8348495154935462E-2</v>
       </c>
-      <c r="F19" s="118">
+      <c r="F19" s="78">
         <f t="shared" si="0"/>
         <v>9039</v>
       </c>
@@ -15496,7 +16520,7 @@
       <c r="E20" s="70">
         <v>0.73878178738192202</v>
       </c>
-      <c r="F20" s="118">
+      <c r="F20" s="78">
         <f t="shared" si="0"/>
         <v>12750</v>
       </c>
@@ -15622,7 +16646,7 @@
       <c r="E21" s="70">
         <v>0.85466352902487674</v>
       </c>
-      <c r="F21" s="118">
+      <c r="F21" s="78">
         <f t="shared" si="0"/>
         <v>16050</v>
       </c>
@@ -15748,7 +16772,7 @@
       <c r="E22" s="70">
         <v>0.92358954873804378</v>
       </c>
-      <c r="F22" s="118">
+      <c r="F22" s="78">
         <f t="shared" si="0"/>
         <v>11801</v>
       </c>
@@ -15874,7 +16898,7 @@
       <c r="E23" s="70">
         <v>0.61279289472991016</v>
       </c>
-      <c r="F23" s="118">
+      <c r="F23" s="78">
         <f t="shared" si="0"/>
         <v>4549</v>
       </c>
@@ -16000,7 +17024,7 @@
       <c r="E24" s="70">
         <v>0.59543630891317312</v>
       </c>
-      <c r="F24" s="118">
+      <c r="F24" s="78">
         <f t="shared" si="0"/>
         <v>3605</v>
       </c>
@@ -16126,7 +17150,7 @@
       <c r="E25" s="70">
         <v>0.26430521502137994</v>
       </c>
-      <c r="F25" s="118">
+      <c r="F25" s="78">
         <f t="shared" si="0"/>
         <v>16995</v>
       </c>
@@ -16252,7 +17276,7 @@
       <c r="E26" s="70">
         <v>0.28157215519277523</v>
       </c>
-      <c r="F26" s="118">
+      <c r="F26" s="78">
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
@@ -16378,7 +17402,7 @@
       <c r="E27" s="70">
         <v>7.4996010193979501E-3</v>
       </c>
-      <c r="F27" s="118">
+      <c r="F27" s="78">
         <f t="shared" si="0"/>
         <v>5531</v>
       </c>
@@ -16504,7 +17528,7 @@
       <c r="E28" s="70">
         <v>0.71922216171828945</v>
       </c>
-      <c r="F28" s="118">
+      <c r="F28" s="78">
         <f t="shared" si="0"/>
         <v>11127</v>
       </c>
@@ -16630,7 +17654,7 @@
       <c r="E29" s="70">
         <v>5.5802918452216299E-2</v>
       </c>
-      <c r="F29" s="118">
+      <c r="F29" s="78">
         <f t="shared" si="0"/>
         <v>5220</v>
       </c>
@@ -16756,7 +17780,7 @@
       <c r="E30" s="70">
         <v>0.83441455488096183</v>
       </c>
-      <c r="F30" s="118">
+      <c r="F30" s="78">
         <f t="shared" si="0"/>
         <v>9853</v>
       </c>
@@ -16882,7 +17906,7 @@
       <c r="E31" s="70">
         <v>0.56198750981840306</v>
       </c>
-      <c r="F31" s="118">
+      <c r="F31" s="78">
         <f t="shared" si="0"/>
         <v>12434</v>
       </c>
@@ -17008,7 +18032,7 @@
       <c r="E32" s="70">
         <v>0.56851851851851853</v>
       </c>
-      <c r="F32" s="118">
+      <c r="F32" s="78">
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
@@ -17134,7 +18158,7 @@
       <c r="E33" s="70">
         <v>0.65331448278910276</v>
       </c>
-      <c r="F33" s="118">
+      <c r="F33" s="78">
         <f t="shared" si="0"/>
         <v>15318</v>
       </c>
@@ -17260,7 +18284,7 @@
       <c r="E34" s="70">
         <v>0.42725923086216433</v>
       </c>
-      <c r="F34" s="118">
+      <c r="F34" s="78">
         <f t="shared" si="0"/>
         <v>12074</v>
       </c>
@@ -17386,7 +18410,7 @@
       <c r="E35" s="70">
         <v>0.53875041406765412</v>
       </c>
-      <c r="F35" s="118">
+      <c r="F35" s="78">
         <f t="shared" si="0"/>
         <v>2712</v>
       </c>
@@ -17512,7 +18536,7 @@
       <c r="E36" s="70">
         <v>0.76288481819058085</v>
       </c>
-      <c r="F36" s="118">
+      <c r="F36" s="78">
         <f t="shared" si="0"/>
         <v>10523</v>
       </c>
@@ -17638,7 +18662,7 @@
       <c r="E37" s="70">
         <v>0.40064254025561807</v>
       </c>
-      <c r="F37" s="118">
+      <c r="F37" s="78">
         <f t="shared" si="0"/>
         <v>15821</v>
       </c>
@@ -17764,7 +18788,7 @@
       <c r="E38" s="70">
         <v>0.93886428211768957</v>
       </c>
-      <c r="F38" s="118">
+      <c r="F38" s="78">
         <f t="shared" si="0"/>
         <v>6320</v>
       </c>
@@ -17890,7 +18914,7 @@
       <c r="E39" s="70">
         <v>5.9612284072541488E-2</v>
       </c>
-      <c r="F39" s="118">
+      <c r="F39" s="78">
         <f t="shared" si="0"/>
         <v>10523</v>
       </c>
@@ -18016,7 +19040,7 @@
       <c r="E40" s="70">
         <v>0.76809161156554506</v>
       </c>
-      <c r="F40" s="118">
+      <c r="F40" s="78">
         <f t="shared" si="0"/>
         <v>8572</v>
       </c>
@@ -18142,7 +19166,7 @@
       <c r="E41" s="70">
         <v>0.85694684860053028</v>
       </c>
-      <c r="F41" s="118">
+      <c r="F41" s="78">
         <f t="shared" si="0"/>
         <v>5465</v>
       </c>
@@ -18268,7 +19292,7 @@
       <c r="E42" s="70">
         <v>0.57532560950751188</v>
       </c>
-      <c r="F42" s="118">
+      <c r="F42" s="78">
         <f t="shared" si="0"/>
         <v>7526</v>
       </c>
@@ -18394,7 +19418,7 @@
       <c r="E43" s="70">
         <v>0.93563657407407408</v>
       </c>
-      <c r="F43" s="118">
+      <c r="F43" s="78">
         <f t="shared" si="0"/>
         <v>15821</v>
       </c>
@@ -18520,7 +19544,7 @@
       <c r="E44" s="70">
         <v>0.8917333027977512</v>
       </c>
-      <c r="F44" s="118">
+      <c r="F44" s="78">
         <f t="shared" si="0"/>
         <v>3968</v>
       </c>
@@ -18646,7 +19670,7 @@
       <c r="E45" s="70">
         <v>0.66213647180291813</v>
       </c>
-      <c r="F45" s="118">
+      <c r="F45" s="78">
         <f t="shared" si="0"/>
         <v>5713</v>
       </c>
@@ -18772,7 +19796,7 @@
       <c r="E46" s="70">
         <v>0.82961835683788687</v>
       </c>
-      <c r="F46" s="118">
+      <c r="F46" s="78">
         <f t="shared" si="0"/>
         <v>16995</v>
       </c>
@@ -18898,7 +19922,7 @@
       <c r="E47" s="70">
         <v>0.15779597209395735</v>
       </c>
-      <c r="F47" s="118">
+      <c r="F47" s="78">
         <f t="shared" si="0"/>
         <v>16050</v>
       </c>
@@ -19024,7 +20048,7 @@
       <c r="E48" s="70">
         <v>0.63093350577128704</v>
       </c>
-      <c r="F48" s="118">
+      <c r="F48" s="78">
         <f t="shared" si="0"/>
         <v>503</v>
       </c>
@@ -19150,7 +20174,7 @@
       <c r="E49" s="70">
         <v>0.69621830901201187</v>
       </c>
-      <c r="F49" s="118">
+      <c r="F49" s="78">
         <f t="shared" si="0"/>
         <v>4549</v>
       </c>
@@ -19276,7 +20300,7 @@
       <c r="E50" s="70">
         <v>0.33170981756597862</v>
       </c>
-      <c r="F50" s="118">
+      <c r="F50" s="78">
         <f t="shared" si="0"/>
         <v>18177</v>
       </c>
@@ -19402,7 +20426,7 @@
       <c r="E51" s="70">
         <v>0.28671442556477911</v>
       </c>
-      <c r="F51" s="118">
+      <c r="F51" s="78">
         <f t="shared" si="0"/>
         <v>13101</v>
       </c>
@@ -19528,7 +20552,7 @@
       <c r="E52" s="70">
         <v>0.91366313157121015</v>
       </c>
-      <c r="F52" s="118">
+      <c r="F52" s="78">
         <f t="shared" si="0"/>
         <v>8572</v>
       </c>
@@ -19654,7 +20678,7 @@
       <c r="E53" s="70">
         <v>2.5786614814057529E-2</v>
       </c>
-      <c r="F53" s="118">
+      <c r="F53" s="78">
         <f t="shared" si="0"/>
         <v>11801</v>
       </c>
@@ -19780,7 +20804,7 @@
       <c r="E54" s="70">
         <v>7.2951306312709407E-2</v>
       </c>
-      <c r="F54" s="118">
+      <c r="F54" s="78">
         <f t="shared" si="0"/>
         <v>9122</v>
       </c>
@@ -19906,7 +20930,7 @@
       <c r="E55" s="70">
         <v>0.12965004154906745</v>
       </c>
-      <c r="F55" s="118">
+      <c r="F55" s="78">
         <f t="shared" si="0"/>
         <v>12756</v>
       </c>
@@ -20032,7 +21056,7 @@
       <c r="E56" s="70">
         <v>0.76457442501995654</v>
       </c>
-      <c r="F56" s="118">
+      <c r="F56" s="78">
         <f t="shared" si="0"/>
         <v>13101</v>
       </c>
@@ -20158,7 +21182,7 @@
       <c r="E57" s="70">
         <v>0.71387402067094397</v>
       </c>
-      <c r="F57" s="118">
+      <c r="F57" s="78">
         <f t="shared" si="0"/>
         <v>6868</v>
       </c>
@@ -20284,7 +21308,7 @@
       <c r="E58" s="70">
         <v>0.68450003712072338</v>
       </c>
-      <c r="F58" s="118">
+      <c r="F58" s="78">
         <f t="shared" si="0"/>
         <v>5224</v>
       </c>
@@ -20410,7 +21434,7 @@
       <c r="E59" s="70">
         <v>0.12661964940464476</v>
       </c>
-      <c r="F59" s="118">
+      <c r="F59" s="78">
         <f t="shared" si="0"/>
         <v>3968</v>
       </c>
@@ -20536,7 +21560,7 @@
       <c r="E60" s="70">
         <v>9.8642545686673855E-2</v>
       </c>
-      <c r="F60" s="118">
+      <c r="F60" s="78">
         <f t="shared" si="0"/>
         <v>10119</v>
       </c>
@@ -20662,7 +21686,7 @@
       <c r="E61" s="70">
         <v>0.45372556930768471</v>
       </c>
-      <c r="F61" s="118">
+      <c r="F61" s="78">
         <f t="shared" si="0"/>
         <v>10071</v>
       </c>
@@ -20788,7 +21812,7 @@
       <c r="E62" s="70">
         <v>0.67251532786613555</v>
       </c>
-      <c r="F62" s="118">
+      <c r="F62" s="78">
         <f t="shared" si="0"/>
         <v>14326</v>
       </c>
@@ -20914,7 +21938,7 @@
       <c r="E63" s="70">
         <v>0.79579723685392634</v>
       </c>
-      <c r="F63" s="118">
+      <c r="F63" s="78">
         <f t="shared" si="0"/>
         <v>1263</v>
       </c>
@@ -21040,7 +22064,7 @@
       <c r="E64" s="70">
         <v>0.83534396135051603</v>
       </c>
-      <c r="F64" s="118">
+      <c r="F64" s="78">
         <f t="shared" si="0"/>
         <v>3152</v>
       </c>
@@ -21166,7 +22190,7 @@
       <c r="E65" s="70">
         <v>8.729300484017033E-2</v>
       </c>
-      <c r="F65" s="118">
+      <c r="F65" s="78">
         <f t="shared" si="0"/>
         <v>1677</v>
       </c>
@@ -21292,7 +22316,7 @@
       <c r="E66" s="70">
         <v>0.94979899196889506</v>
       </c>
-      <c r="F66" s="118">
+      <c r="F66" s="78">
         <f t="shared" si="0"/>
         <v>9823</v>
       </c>
@@ -21418,7 +22442,7 @@
       <c r="E67" s="70">
         <v>0.51473639925340675</v>
       </c>
-      <c r="F67" s="118">
+      <c r="F67" s="78">
         <f t="shared" ref="F67:F104" si="1">SUBSTITUTE(D67,"km","")+0</f>
         <v>9122</v>
       </c>
@@ -21544,7 +22568,7 @@
       <c r="E68" s="70">
         <v>0.37423246011048694</v>
       </c>
-      <c r="F68" s="118">
+      <c r="F68" s="78">
         <f t="shared" si="1"/>
         <v>3135</v>
       </c>
@@ -21670,7 +22694,7 @@
       <c r="E69" s="70">
         <v>0.63483761845923059</v>
       </c>
-      <c r="F69" s="118">
+      <c r="F69" s="78">
         <f t="shared" si="1"/>
         <v>14326</v>
       </c>
@@ -21796,7 +22820,7 @@
       <c r="E70" s="70">
         <v>0.8704337311356104</v>
       </c>
-      <c r="F70" s="118">
+      <c r="F70" s="78">
         <f t="shared" si="1"/>
         <v>1263</v>
       </c>
@@ -21922,7 +22946,7 @@
       <c r="E71" s="70">
         <v>0.29785531503234752</v>
       </c>
-      <c r="F71" s="118">
+      <c r="F71" s="78">
         <f t="shared" si="1"/>
         <v>8562</v>
       </c>
@@ -22048,7 +23072,7 @@
       <c r="E72" s="70">
         <v>0.88477973946593003</v>
       </c>
-      <c r="F72" s="118">
+      <c r="F72" s="78">
         <f t="shared" si="1"/>
         <v>9853</v>
       </c>
@@ -22174,7 +23198,7 @@
       <c r="E73" s="70">
         <v>0.20761860487805495</v>
       </c>
-      <c r="F73" s="118">
+      <c r="F73" s="78">
         <f t="shared" si="1"/>
         <v>1677</v>
       </c>
@@ -22300,7 +23324,7 @@
       <c r="E74" s="70">
         <v>0.95134259259259257</v>
       </c>
-      <c r="F74" s="118">
+      <c r="F74" s="78">
         <f t="shared" si="1"/>
         <v>8402</v>
       </c>
@@ -22426,7 +23450,7 @@
       <c r="E75" s="70">
         <v>0.57617741681344048</v>
       </c>
-      <c r="F75" s="118">
+      <c r="F75" s="78">
         <f t="shared" si="1"/>
         <v>6770</v>
       </c>
@@ -22552,7 +23576,7 @@
       <c r="E76" s="70">
         <v>0.53022946506135005</v>
       </c>
-      <c r="F76" s="118">
+      <c r="F76" s="78">
         <f t="shared" si="1"/>
         <v>5224</v>
       </c>
@@ -22678,7 +23702,7 @@
       <c r="E77" s="70">
         <v>0.95372965527261444</v>
       </c>
-      <c r="F77" s="118">
+      <c r="F77" s="78">
         <f t="shared" si="1"/>
         <v>9363</v>
       </c>
@@ -22804,7 +23828,7 @@
       <c r="E78" s="70">
         <v>0.20336194487020143</v>
       </c>
-      <c r="F78" s="118">
+      <c r="F78" s="78">
         <f t="shared" si="1"/>
         <v>2712</v>
       </c>
@@ -22930,7 +23954,7 @@
       <c r="E79" s="70">
         <v>0.6153081111885248</v>
       </c>
-      <c r="F79" s="118">
+      <c r="F79" s="78">
         <f t="shared" si="1"/>
         <v>9363</v>
       </c>
@@ -23056,7 +24080,7 @@
       <c r="E80" s="70">
         <v>0.66381652728523044</v>
       </c>
-      <c r="F80" s="118">
+      <c r="F80" s="78">
         <f t="shared" si="1"/>
         <v>3494</v>
       </c>
@@ -23182,7 +24206,7 @@
       <c r="E81" s="70">
         <v>0.92898243493522159</v>
       </c>
-      <c r="F81" s="118">
+      <c r="F81" s="78">
         <f t="shared" si="1"/>
         <v>3152</v>
       </c>
@@ -23308,7 +24332,7 @@
       <c r="E82" s="70">
         <v>0.65715444098636255</v>
       </c>
-      <c r="F82" s="118">
+      <c r="F82" s="78">
         <f t="shared" si="1"/>
         <v>3135</v>
       </c>
@@ -23434,7 +24458,7 @@
       <c r="E83" s="70">
         <v>0.57446770726610896</v>
       </c>
-      <c r="F83" s="118">
+      <c r="F83" s="78">
         <f t="shared" si="1"/>
         <v>5220</v>
       </c>
@@ -23560,7 +24584,7 @@
       <c r="E84" s="70">
         <v>0.45953108910764318</v>
       </c>
-      <c r="F84" s="118">
+      <c r="F84" s="78">
         <f t="shared" si="1"/>
         <v>6868</v>
       </c>
@@ -23686,7 +24710,7 @@
       <c r="E85" s="70">
         <v>8.5215872237556667E-2</v>
       </c>
-      <c r="F85" s="118">
+      <c r="F85" s="78">
         <f t="shared" si="1"/>
         <v>4660</v>
       </c>
@@ -23812,7 +24836,7 @@
       <c r="E86" s="70">
         <v>7.8095461748342254E-2</v>
       </c>
-      <c r="F86" s="118">
+      <c r="F86" s="78">
         <f t="shared" si="1"/>
         <v>3695</v>
       </c>
@@ -23938,7 +24962,7 @@
       <c r="E87" s="70">
         <v>0.68840639535083414</v>
       </c>
-      <c r="F87" s="118">
+      <c r="F87" s="78">
         <f t="shared" si="1"/>
         <v>5605</v>
       </c>
@@ -24064,7 +25088,7 @@
       <c r="E88" s="70">
         <v>9.3081911757682323E-2</v>
       </c>
-      <c r="F88" s="118">
+      <c r="F88" s="78">
         <f t="shared" si="1"/>
         <v>8756</v>
       </c>
@@ -24190,7 +25214,7 @@
       <c r="E89" s="70">
         <v>0.37162318415255113</v>
       </c>
-      <c r="F89" s="118">
+      <c r="F89" s="78">
         <f t="shared" si="1"/>
         <v>5727</v>
       </c>
@@ -24316,7 +25340,7 @@
       <c r="E90" s="70">
         <v>0.45689396308850094</v>
       </c>
-      <c r="F90" s="118">
+      <c r="F90" s="78">
         <f t="shared" si="1"/>
         <v>5465</v>
       </c>
@@ -24442,7 +25466,7 @@
       <c r="E91" s="70">
         <v>6.5497685185185187E-2</v>
       </c>
-      <c r="F91" s="118">
+      <c r="F91" s="78">
         <f t="shared" si="1"/>
         <v>9823</v>
       </c>
@@ -24568,7 +25592,7 @@
       <c r="E92" s="70">
         <v>4.1404661928027053E-2</v>
       </c>
-      <c r="F92" s="118">
+      <c r="F92" s="78">
         <f t="shared" si="1"/>
         <v>367</v>
       </c>
@@ -24694,7 +25718,7 @@
       <c r="E93" s="70">
         <v>0.74954969077703937</v>
       </c>
-      <c r="F93" s="118">
+      <c r="F93" s="78">
         <f t="shared" si="1"/>
         <v>10119</v>
       </c>
@@ -24820,7 +25844,7 @@
       <c r="E94" s="70">
         <v>0.59104472603881741</v>
       </c>
-      <c r="F94" s="118">
+      <c r="F94" s="78">
         <f t="shared" si="1"/>
         <v>4660</v>
       </c>
@@ -24946,7 +25970,7 @@
       <c r="E95" s="70">
         <v>0.93120925285053602</v>
       </c>
-      <c r="F95" s="118">
+      <c r="F95" s="78">
         <f t="shared" si="1"/>
         <v>8977</v>
       </c>
@@ -25072,7 +26096,7 @@
       <c r="E96" s="70">
         <v>0.9372342614532192</v>
       </c>
-      <c r="F96" s="118">
+      <c r="F96" s="78">
         <f t="shared" si="1"/>
         <v>3494</v>
       </c>
@@ -25198,7 +26222,7 @@
       <c r="E97" s="70">
         <v>0.71002339752198596</v>
       </c>
-      <c r="F97" s="118">
+      <c r="F97" s="78">
         <f t="shared" si="1"/>
         <v>8755</v>
       </c>
@@ -25324,7 +26348,7 @@
       <c r="E98" s="70">
         <v>8.1832791120927229E-2</v>
       </c>
-      <c r="F98" s="118">
+      <c r="F98" s="78">
         <f t="shared" si="1"/>
         <v>1586</v>
       </c>
@@ -25450,7 +26474,7 @@
       <c r="E99" s="70">
         <v>0.51724304638840624</v>
       </c>
-      <c r="F99" s="118">
+      <c r="F99" s="78">
         <f t="shared" si="1"/>
         <v>8402</v>
       </c>
@@ -25576,7 +26600,7 @@
       <c r="E100" s="70">
         <v>0.66292808314045693</v>
       </c>
-      <c r="F100" s="118">
+      <c r="F100" s="78">
         <f t="shared" si="1"/>
         <v>10045</v>
       </c>
@@ -25702,7 +26726,7 @@
       <c r="E101" s="70">
         <v>0.25679080736504145</v>
       </c>
-      <c r="F101" s="118">
+      <c r="F101" s="78">
         <f t="shared" si="1"/>
         <v>8997</v>
       </c>
@@ -25828,7 +26852,7 @@
       <c r="E102" s="70">
         <v>0.99500230125785194</v>
       </c>
-      <c r="F102" s="118">
+      <c r="F102" s="78">
         <f t="shared" si="1"/>
         <v>4373</v>
       </c>
@@ -25954,7 +26978,7 @@
       <c r="E103" s="70">
         <v>0.24322626406221459</v>
       </c>
-      <c r="F103" s="118">
+      <c r="F103" s="78">
         <f t="shared" si="1"/>
         <v>12756</v>
       </c>
@@ -26080,7 +27104,7 @@
       <c r="E104" s="70">
         <v>0.11421296296296296</v>
       </c>
-      <c r="F104" s="118">
+      <c r="F104" s="78">
         <f t="shared" si="1"/>
         <v>15568</v>
       </c>
@@ -27001,7 +28025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3900C5AE-14D9-4445-8C1B-11014D9A46D4}">
   <dimension ref="A1:DL216"/>
   <sheetViews>
@@ -27009,39 +28033,39 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="1" customWidth="1"/>
-    <col min="10" max="20" width="8.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" style="1" customWidth="1"/>
-    <col min="22" max="24" width="3.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="16.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="16.88671875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.44140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5546875" style="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5546875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="26.109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="24.21875" style="1" customWidth="1"/>
-    <col min="33" max="36" width="18.44140625" style="1" customWidth="1"/>
-    <col min="37" max="46" width="16.21875" style="1" customWidth="1"/>
-    <col min="47" max="47" width="17.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" customWidth="1"/>
+    <col min="10" max="20" width="8.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="1" customWidth="1"/>
+    <col min="22" max="24" width="3.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="18.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.85546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="26.140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="24.28515625" style="1" customWidth="1"/>
+    <col min="33" max="36" width="18.42578125" style="1" customWidth="1"/>
+    <col min="37" max="46" width="16.28515625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="17.5703125" style="1" customWidth="1"/>
     <col min="48" max="48" width="9" style="1" customWidth="1"/>
-    <col min="49" max="53" width="8.109375" style="1" customWidth="1"/>
-    <col min="54" max="54" width="5.44140625" style="1" customWidth="1"/>
-    <col min="55" max="55" width="33.5546875" style="1" customWidth="1"/>
-    <col min="56" max="56" width="8.109375" style="1" customWidth="1"/>
-    <col min="57" max="80" width="8.109375" style="6" customWidth="1"/>
-    <col min="81" max="106" width="6.21875" style="6" customWidth="1"/>
-    <col min="107" max="16384" width="8.5546875" style="6"/>
+    <col min="49" max="53" width="8.140625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="5.42578125" style="1" customWidth="1"/>
+    <col min="55" max="55" width="33.5703125" style="1" customWidth="1"/>
+    <col min="56" max="56" width="8.140625" style="1" customWidth="1"/>
+    <col min="57" max="80" width="8.140625" style="6" customWidth="1"/>
+    <col min="81" max="106" width="6.28515625" style="6" customWidth="1"/>
+    <col min="107" max="16384" width="8.5703125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:56" ht="15" customHeight="1">
@@ -27072,34 +28096,34 @@
       <c r="BD1" s="6"/>
     </row>
     <row r="2" spans="2:56" ht="60.6" customHeight="1">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="103" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
       <c r="AO2" s="3"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -27123,32 +28147,32 @@
       <c r="BD3" s="6"/>
     </row>
     <row r="4" spans="2:56" ht="33.6" customHeight="1">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="80"/>
-      <c r="Y4" s="91" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="Y4" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="80"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="104"/>
       <c r="AO4" s="3"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -27376,11 +28400,11 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="92" t="s">
+      <c r="Y11" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="94"/>
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="118"/>
       <c r="AO11" s="3"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -27424,34 +28448,34 @@
       <c r="BC12" s="6"/>
       <c r="BD12" s="6"/>
     </row>
-    <row r="13" spans="2:56" ht="24.9" customHeight="1" thickBot="1">
-      <c r="B13" s="81" t="s">
+    <row r="13" spans="2:56" ht="24.95" customHeight="1" thickBot="1">
+      <c r="B13" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
       <c r="U13" s="60"/>
-      <c r="Y13" s="81" t="s">
+      <c r="Y13" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="80"/>
-      <c r="AA13" s="80"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="104"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -27459,27 +28483,27 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:56" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="106" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-      <c r="S14" s="83"/>
-      <c r="T14" s="84"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="108"/>
       <c r="U14" s="3"/>
       <c r="Y14" s="61" t="s">
         <v>31</v>
@@ -27496,25 +28520,25 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:56" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="87"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="111"/>
       <c r="U15" s="3"/>
       <c r="Y15" s="62" t="s">
         <v>32</v>
@@ -27531,25 +28555,25 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="87"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="111"/>
       <c r="U16" s="3"/>
       <c r="Y16" s="62" t="s">
         <v>47</v>
@@ -27565,25 +28589,25 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="87"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="111"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="62" t="s">
         <v>39</v>
@@ -27599,25 +28623,25 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="18" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="87"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="T18" s="111"/>
       <c r="U18" s="3"/>
       <c r="Y18" s="62" t="s">
         <v>35</v>
@@ -27633,25 +28657,25 @@
       <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="87"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="110"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="111"/>
       <c r="U19" s="3"/>
       <c r="Y19" s="62" t="s">
         <v>42</v>
@@ -27667,25 +28691,25 @@
       <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="87"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="110"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="111"/>
       <c r="U20" s="3"/>
       <c r="Y20" s="62" t="s">
         <v>48</v>
@@ -27699,25 +28723,25 @@
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="87"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="111"/>
       <c r="U21" s="3"/>
       <c r="Y21" s="62" t="s">
         <v>49</v>
@@ -27733,25 +28757,25 @@
       <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="87"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="111"/>
       <c r="U22" s="3"/>
       <c r="Y22" s="62" t="s">
         <v>50</v>
@@ -27768,25 +28792,25 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="87"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="111"/>
       <c r="U23" s="3"/>
       <c r="Y23" s="62" t="s">
         <v>51</v>
@@ -27803,25 +28827,25 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="87"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="111"/>
       <c r="U24" s="3"/>
       <c r="Y24" s="62" t="s">
         <v>52</v>
@@ -27838,25 +28862,25 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="87"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="111"/>
       <c r="U25" s="3"/>
       <c r="Y25" s="62" t="s">
         <v>53</v>
@@ -27871,25 +28895,25 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="87"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="111"/>
       <c r="U26" s="3"/>
       <c r="Y26" s="62" t="s">
         <v>105</v>
@@ -27909,25 +28933,25 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="87"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="111"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -27946,25 +28970,25 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:56" ht="47.25" customHeight="1">
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="90"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="113"/>
+      <c r="O28" s="113"/>
+      <c r="P28" s="113"/>
+      <c r="Q28" s="113"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="114"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -27975,10 +28999,10 @@
       <c r="AC28" s="63"/>
       <c r="AD28" s="63"/>
       <c r="AE28" s="64"/>
-      <c r="AF28" s="78"/>
-      <c r="AG28" s="78"/>
-      <c r="AH28" s="78"/>
-      <c r="AI28" s="78"/>
+      <c r="AF28" s="102"/>
+      <c r="AG28" s="102"/>
+      <c r="AH28" s="102"/>
+      <c r="AI28" s="102"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
     </row>
@@ -28027,34 +29051,34 @@
       <c r="BD29" s="6"/>
     </row>
     <row r="30" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="99"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="99"/>
-      <c r="T30" s="99"/>
-      <c r="U30" s="99"/>
-      <c r="V30" s="99"/>
-      <c r="W30" s="99"/>
-      <c r="X30" s="99"/>
-      <c r="Y30" s="99"/>
-      <c r="Z30" s="99"/>
-      <c r="AA30" s="100"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="83"/>
+      <c r="V30" s="83"/>
+      <c r="W30" s="83"/>
+      <c r="X30" s="83"/>
+      <c r="Y30" s="83"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="84"/>
       <c r="AC30" s="63"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="64"/>
@@ -28117,29 +29141,29 @@
       <c r="E33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="101" t="s">
+      <c r="G33" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="102"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="102"/>
-      <c r="AA33" s="103"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="86"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="86"/>
+      <c r="U33" s="86"/>
+      <c r="V33" s="86"/>
+      <c r="W33" s="86"/>
+      <c r="X33" s="86"/>
+      <c r="Y33" s="86"/>
+      <c r="Z33" s="86"/>
+      <c r="AA33" s="87"/>
       <c r="AC33" s="63"/>
       <c r="AD33" s="63"/>
       <c r="AE33" s="64"/>
@@ -28162,29 +29186,29 @@
         <v>29</v>
       </c>
       <c r="F34" s="36"/>
-      <c r="G34" s="104" t="s">
+      <c r="G34" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
-      <c r="O34" s="105"/>
-      <c r="P34" s="105"/>
-      <c r="Q34" s="105"/>
-      <c r="R34" s="105"/>
-      <c r="S34" s="105"/>
-      <c r="T34" s="105"/>
-      <c r="U34" s="105"/>
-      <c r="V34" s="105"/>
-      <c r="W34" s="105"/>
-      <c r="X34" s="105"/>
-      <c r="Y34" s="105"/>
-      <c r="Z34" s="105"/>
-      <c r="AA34" s="106"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="89"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="89"/>
+      <c r="U34" s="89"/>
+      <c r="V34" s="89"/>
+      <c r="W34" s="89"/>
+      <c r="X34" s="89"/>
+      <c r="Y34" s="89"/>
+      <c r="Z34" s="89"/>
+      <c r="AA34" s="90"/>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="64"/>
@@ -28193,7 +29217,7 @@
       <c r="BC34" s="6"/>
       <c r="BD34" s="6"/>
     </row>
-    <row r="35" spans="2:116" ht="33.9" customHeight="1">
+    <row r="35" spans="2:116" ht="33.950000000000003" customHeight="1">
       <c r="B35" s="14" t="s">
         <v>21</v>
       </c>
@@ -28207,29 +29231,29 @@
         <v>51</v>
       </c>
       <c r="F35" s="36"/>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="108"/>
-      <c r="S35" s="108"/>
-      <c r="T35" s="108"/>
-      <c r="U35" s="108"/>
-      <c r="V35" s="108"/>
-      <c r="W35" s="108"/>
-      <c r="X35" s="108"/>
-      <c r="Y35" s="108"/>
-      <c r="Z35" s="108"/>
-      <c r="AA35" s="109"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="93"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
@@ -28252,29 +29276,29 @@
         <v>95</v>
       </c>
       <c r="F36" s="36"/>
-      <c r="G36" s="110" t="s">
+      <c r="G36" s="94" t="s">
         <v>301</v>
       </c>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="111"/>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111"/>
-      <c r="U36" s="111"/>
-      <c r="V36" s="111"/>
-      <c r="W36" s="111"/>
-      <c r="X36" s="111"/>
-      <c r="Y36" s="111"/>
-      <c r="Z36" s="111"/>
-      <c r="AA36" s="112"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="T36" s="95"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="W36" s="95"/>
+      <c r="X36" s="95"/>
+      <c r="Y36" s="95"/>
+      <c r="Z36" s="95"/>
+      <c r="AA36" s="96"/>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="64"/>
@@ -28316,7 +29340,7 @@
       <c r="BC38" s="6"/>
       <c r="BD38" s="6"/>
     </row>
-    <row r="39" spans="2:116" ht="28.2">
+    <row r="39" spans="2:116" ht="27.75">
       <c r="B39" s="28" t="s">
         <v>1</v>
       </c>
@@ -28607,7 +29631,7 @@
       <c r="BC45" s="6"/>
       <c r="BD45" s="6"/>
     </row>
-    <row r="46" spans="2:116" ht="15" thickTop="1">
+    <row r="46" spans="2:116" ht="15.75" thickTop="1">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -28654,7 +29678,7 @@
       <c r="BC46" s="6"/>
       <c r="BD46" s="6"/>
     </row>
-    <row r="47" spans="2:116" ht="23.4">
+    <row r="47" spans="2:116" ht="23.25">
       <c r="B47" s="14" t="s">
         <v>7</v>
       </c>
@@ -28760,7 +29784,7 @@
       <c r="BC48" s="6"/>
       <c r="BD48" s="6"/>
     </row>
-    <row r="49" spans="2:56" ht="23.4">
+    <row r="49" spans="2:56" ht="23.25">
       <c r="B49" s="17">
         <v>1</v>
       </c>
@@ -28819,7 +29843,7 @@
       <c r="BC49" s="6"/>
       <c r="BD49" s="6"/>
     </row>
-    <row r="50" spans="2:56" ht="23.4">
+    <row r="50" spans="2:56" ht="23.25">
       <c r="B50" s="17">
         <f>B49+1</f>
         <v>2</v>
@@ -28886,7 +29910,7 @@
       <c r="BC50" s="6"/>
       <c r="BD50" s="6"/>
     </row>
-    <row r="51" spans="2:56" ht="23.4">
+    <row r="51" spans="2:56" ht="23.25">
       <c r="B51" s="17">
         <f>B50+1</f>
         <v>3</v>
@@ -28953,7 +29977,7 @@
       <c r="BC51" s="6"/>
       <c r="BD51" s="6"/>
     </row>
-    <row r="52" spans="2:56" ht="23.4">
+    <row r="52" spans="2:56" ht="23.25">
       <c r="B52" s="17">
         <f t="shared" ref="B52:B58" si="0">B51+1</f>
         <v>4</v>
@@ -29020,7 +30044,7 @@
       <c r="BC52" s="6"/>
       <c r="BD52" s="6"/>
     </row>
-    <row r="53" spans="2:56" ht="23.4">
+    <row r="53" spans="2:56" ht="23.25">
       <c r="B53" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -29087,7 +30111,7 @@
       <c r="BC53" s="6"/>
       <c r="BD53" s="6"/>
     </row>
-    <row r="54" spans="2:56" ht="23.4">
+    <row r="54" spans="2:56" ht="23.25">
       <c r="B54" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -29154,7 +30178,7 @@
       <c r="BC54" s="6"/>
       <c r="BD54" s="6"/>
     </row>
-    <row r="55" spans="2:56" ht="23.4">
+    <row r="55" spans="2:56" ht="23.25">
       <c r="B55" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -29221,7 +30245,7 @@
       <c r="BC55" s="6"/>
       <c r="BD55" s="6"/>
     </row>
-    <row r="56" spans="2:56" ht="23.4">
+    <row r="56" spans="2:56" ht="23.25">
       <c r="B56" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -29288,7 +30312,7 @@
       <c r="BC56" s="6"/>
       <c r="BD56" s="6"/>
     </row>
-    <row r="57" spans="2:56" ht="23.4">
+    <row r="57" spans="2:56" ht="23.25">
       <c r="B57" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -29355,7 +30379,7 @@
       <c r="BC57" s="6"/>
       <c r="BD57" s="6"/>
     </row>
-    <row r="58" spans="2:56" ht="23.4">
+    <row r="58" spans="2:56" ht="23.25">
       <c r="B58" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -29457,7 +30481,7 @@
       <c r="BC59" s="6"/>
       <c r="BD59" s="6"/>
     </row>
-    <row r="60" spans="2:56" ht="23.4">
+    <row r="60" spans="2:56" ht="23.25">
       <c r="B60" s="17" t="s">
         <v>30</v>
       </c>
@@ -29536,7 +30560,7 @@
       <c r="BC61" s="6"/>
       <c r="BD61" s="6"/>
     </row>
-    <row r="62" spans="2:56" ht="15" thickBot="1">
+    <row r="62" spans="2:56" ht="15.75" thickBot="1">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -29610,7 +30634,7 @@
       <c r="BC63" s="6"/>
       <c r="BD63" s="6"/>
     </row>
-    <row r="64" spans="2:56" ht="15" thickTop="1">
+    <row r="64" spans="2:56" ht="15.75" thickTop="1">
       <c r="B64" s="5"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -29682,7 +30706,7 @@
       <c r="BC65" s="6"/>
       <c r="BD65" s="6"/>
     </row>
-    <row r="66" spans="2:56" ht="15" thickBot="1">
+    <row r="66" spans="2:56" ht="15.75" thickBot="1">
       <c r="B66" s="20"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -29730,7 +30754,7 @@
       <c r="BC66" s="6"/>
       <c r="BD66" s="6"/>
     </row>
-    <row r="67" spans="2:56" ht="24.9" customHeight="1" thickTop="1" thickBot="1">
+    <row r="67" spans="2:56" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="B67" s="19" t="s">
         <v>2</v>
       </c>
@@ -29743,20 +30767,20 @@
       <c r="E67" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="101" t="s">
+      <c r="G67" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="102"/>
-      <c r="I67" s="102"/>
-      <c r="J67" s="102"/>
-      <c r="K67" s="102"/>
-      <c r="L67" s="102"/>
-      <c r="M67" s="102"/>
-      <c r="N67" s="102"/>
-      <c r="O67" s="102"/>
-      <c r="P67" s="102"/>
-      <c r="Q67" s="102"/>
-      <c r="R67" s="103"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="86"/>
+      <c r="J67" s="86"/>
+      <c r="K67" s="86"/>
+      <c r="L67" s="86"/>
+      <c r="M67" s="86"/>
+      <c r="N67" s="86"/>
+      <c r="O67" s="86"/>
+      <c r="P67" s="86"/>
+      <c r="Q67" s="86"/>
+      <c r="R67" s="87"/>
       <c r="S67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -29795,7 +30819,7 @@
       <c r="BC67" s="6"/>
       <c r="BD67" s="6"/>
     </row>
-    <row r="68" spans="2:56" ht="15" thickTop="1">
+    <row r="68" spans="2:56" ht="15.75" thickTop="1">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -31181,7 +32205,7 @@
       <c r="BC90" s="6"/>
       <c r="BD90" s="6"/>
     </row>
-    <row r="91" spans="2:56" ht="23.4">
+    <row r="91" spans="2:56" ht="23.25">
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="D91" s="13"/>
@@ -31227,7 +32251,7 @@
       <c r="BC91" s="6"/>
       <c r="BD91" s="6"/>
     </row>
-    <row r="92" spans="2:56" ht="23.4">
+    <row r="92" spans="2:56" ht="31.5">
       <c r="B92" s="17" t="s">
         <v>26</v>
       </c>
@@ -31282,7 +32306,7 @@
       <c r="BC92" s="6"/>
       <c r="BD92" s="6"/>
     </row>
-    <row r="93" spans="2:56" ht="23.4">
+    <row r="93" spans="2:56" ht="23.25">
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
       <c r="D93" s="13"/>
@@ -31328,7 +32352,7 @@
       <c r="BC93" s="6"/>
       <c r="BD93" s="6"/>
     </row>
-    <row r="94" spans="2:56" ht="15" thickBot="1">
+    <row r="94" spans="2:56" ht="15.75" thickBot="1">
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -31373,7 +32397,7 @@
       <c r="BC94" s="6"/>
       <c r="BD94" s="6"/>
     </row>
-    <row r="95" spans="2:56" ht="19.2" thickTop="1" thickBot="1">
+    <row r="95" spans="2:56" ht="20.25" thickTop="1" thickBot="1">
       <c r="B95" s="21" t="s">
         <v>13</v>
       </c>
@@ -31425,7 +32449,7 @@
       <c r="BC95" s="6"/>
       <c r="BD95" s="6"/>
     </row>
-    <row r="96" spans="2:56" ht="15" thickTop="1">
+    <row r="96" spans="2:56" ht="15.75" thickTop="1">
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -31735,7 +32759,7 @@
       <c r="BC102" s="6"/>
       <c r="BD102" s="6"/>
     </row>
-    <row r="103" spans="2:56" ht="15" thickBot="1">
+    <row r="103" spans="2:56" ht="15.75" thickBot="1">
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -31796,34 +32820,34 @@
       <c r="E104" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="115" t="s">
+      <c r="G104" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="116"/>
-      <c r="I104" s="116"/>
-      <c r="J104" s="116"/>
-      <c r="K104" s="116"/>
-      <c r="L104" s="116"/>
-      <c r="M104" s="116"/>
-      <c r="N104" s="116"/>
-      <c r="O104" s="116"/>
-      <c r="P104" s="116"/>
-      <c r="Q104" s="116"/>
-      <c r="R104" s="116"/>
-      <c r="S104" s="116"/>
-      <c r="T104" s="116"/>
-      <c r="U104" s="116"/>
-      <c r="V104" s="116"/>
-      <c r="W104" s="116"/>
-      <c r="X104" s="116"/>
-      <c r="Y104" s="116"/>
-      <c r="Z104" s="116"/>
-      <c r="AA104" s="116"/>
-      <c r="AB104" s="116"/>
-      <c r="AC104" s="116"/>
-      <c r="AD104" s="116"/>
-      <c r="AE104" s="116"/>
-      <c r="AF104" s="117"/>
+      <c r="H104" s="100"/>
+      <c r="I104" s="100"/>
+      <c r="J104" s="100"/>
+      <c r="K104" s="100"/>
+      <c r="L104" s="100"/>
+      <c r="M104" s="100"/>
+      <c r="N104" s="100"/>
+      <c r="O104" s="100"/>
+      <c r="P104" s="100"/>
+      <c r="Q104" s="100"/>
+      <c r="R104" s="100"/>
+      <c r="S104" s="100"/>
+      <c r="T104" s="100"/>
+      <c r="U104" s="100"/>
+      <c r="V104" s="100"/>
+      <c r="W104" s="100"/>
+      <c r="X104" s="100"/>
+      <c r="Y104" s="100"/>
+      <c r="Z104" s="100"/>
+      <c r="AA104" s="100"/>
+      <c r="AB104" s="100"/>
+      <c r="AC104" s="100"/>
+      <c r="AD104" s="100"/>
+      <c r="AE104" s="100"/>
+      <c r="AF104" s="101"/>
       <c r="AG104" s="6"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
@@ -31849,7 +32873,7 @@
       <c r="BC104" s="6"/>
       <c r="BD104" s="6"/>
     </row>
-    <row r="105" spans="2:56" ht="15" thickTop="1">
+    <row r="105" spans="2:56" ht="15.75" thickTop="1">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -31894,7 +32918,7 @@
       <c r="BC105" s="6"/>
       <c r="BD105" s="6"/>
     </row>
-    <row r="106" spans="2:56" ht="23.4">
+    <row r="106" spans="2:56" ht="23.25">
       <c r="B106" s="17" t="s">
         <v>9</v>
       </c>
@@ -31964,7 +32988,7 @@
       <c r="BC107" s="6"/>
       <c r="BD107" s="6"/>
     </row>
-    <row r="108" spans="2:56" ht="23.4">
+    <row r="108" spans="2:56" ht="23.25">
       <c r="B108" s="17">
         <v>31</v>
       </c>
@@ -32010,7 +33034,7 @@
       <c r="BC108" s="6"/>
       <c r="BD108" s="6"/>
     </row>
-    <row r="109" spans="2:56" ht="23.4">
+    <row r="109" spans="2:56" ht="23.25">
       <c r="B109" s="17">
         <f t="shared" ref="B109:B127" si="2">B108+1</f>
         <v>32</v>
@@ -32057,7 +33081,7 @@
       <c r="BC109" s="6"/>
       <c r="BD109" s="6"/>
     </row>
-    <row r="110" spans="2:56" ht="23.4">
+    <row r="110" spans="2:56" ht="23.25">
       <c r="B110" s="17">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -32104,7 +33128,7 @@
       <c r="BC110" s="6"/>
       <c r="BD110" s="6"/>
     </row>
-    <row r="111" spans="2:56" ht="23.4">
+    <row r="111" spans="2:56" ht="23.25">
       <c r="B111" s="17">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -32151,7 +33175,7 @@
       <c r="BC111" s="6"/>
       <c r="BD111" s="6"/>
     </row>
-    <row r="112" spans="2:56" ht="23.4">
+    <row r="112" spans="2:56" ht="23.25">
       <c r="B112" s="17">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -32198,7 +33222,7 @@
       <c r="BC112" s="6"/>
       <c r="BD112" s="6"/>
     </row>
-    <row r="113" spans="2:56" ht="23.4">
+    <row r="113" spans="2:56" ht="23.25">
       <c r="B113" s="17">
         <f>B112+1</f>
         <v>36</v>
@@ -32245,7 +33269,7 @@
       <c r="BC113" s="6"/>
       <c r="BD113" s="6"/>
     </row>
-    <row r="114" spans="2:56" ht="23.4">
+    <row r="114" spans="2:56" ht="23.25">
       <c r="B114" s="17">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -32292,7 +33316,7 @@
       <c r="BC114" s="6"/>
       <c r="BD114" s="6"/>
     </row>
-    <row r="115" spans="2:56" ht="23.4">
+    <row r="115" spans="2:56" ht="23.25">
       <c r="B115" s="17">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -32339,7 +33363,7 @@
       <c r="BC115" s="6"/>
       <c r="BD115" s="6"/>
     </row>
-    <row r="116" spans="2:56" ht="23.4">
+    <row r="116" spans="2:56" ht="23.25">
       <c r="B116" s="17">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -32386,7 +33410,7 @@
       <c r="BC116" s="6"/>
       <c r="BD116" s="6"/>
     </row>
-    <row r="117" spans="2:56" ht="23.4">
+    <row r="117" spans="2:56" ht="23.25">
       <c r="B117" s="17">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -32433,7 +33457,7 @@
       <c r="BC117" s="6"/>
       <c r="BD117" s="6"/>
     </row>
-    <row r="118" spans="2:56" ht="23.4">
+    <row r="118" spans="2:56" ht="23.25">
       <c r="B118" s="17">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -32480,7 +33504,7 @@
       <c r="BC118" s="6"/>
       <c r="BD118" s="6"/>
     </row>
-    <row r="119" spans="2:56" ht="23.4">
+    <row r="119" spans="2:56" ht="23.25">
       <c r="B119" s="17">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -32527,7 +33551,7 @@
       <c r="BC119" s="6"/>
       <c r="BD119" s="6"/>
     </row>
-    <row r="120" spans="2:56" ht="23.4">
+    <row r="120" spans="2:56" ht="23.25">
       <c r="B120" s="17">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -32574,7 +33598,7 @@
       <c r="BC120" s="6"/>
       <c r="BD120" s="6"/>
     </row>
-    <row r="121" spans="2:56" ht="23.4">
+    <row r="121" spans="2:56" ht="23.25">
       <c r="B121" s="17">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -32621,7 +33645,7 @@
       <c r="BC121" s="6"/>
       <c r="BD121" s="6"/>
     </row>
-    <row r="122" spans="2:56" ht="23.4">
+    <row r="122" spans="2:56" ht="23.25">
       <c r="B122" s="17">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -32668,7 +33692,7 @@
       <c r="BC122" s="6"/>
       <c r="BD122" s="6"/>
     </row>
-    <row r="123" spans="2:56" ht="23.4">
+    <row r="123" spans="2:56" ht="23.25">
       <c r="B123" s="17">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -32715,7 +33739,7 @@
       <c r="BC123" s="6"/>
       <c r="BD123" s="6"/>
     </row>
-    <row r="124" spans="2:56" ht="23.4">
+    <row r="124" spans="2:56" ht="23.25">
       <c r="B124" s="17">
         <f t="shared" si="2"/>
         <v>47</v>
@@ -32762,7 +33786,7 @@
       <c r="BC124" s="6"/>
       <c r="BD124" s="6"/>
     </row>
-    <row r="125" spans="2:56" ht="23.4">
+    <row r="125" spans="2:56" ht="23.25">
       <c r="B125" s="17">
         <f t="shared" si="2"/>
         <v>48</v>
@@ -32809,7 +33833,7 @@
       <c r="BC125" s="6"/>
       <c r="BD125" s="6"/>
     </row>
-    <row r="126" spans="2:56" ht="23.4">
+    <row r="126" spans="2:56" ht="23.25">
       <c r="B126" s="17">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -32856,7 +33880,7 @@
       <c r="BC126" s="6"/>
       <c r="BD126" s="6"/>
     </row>
-    <row r="127" spans="2:56" ht="23.4">
+    <row r="127" spans="2:56" ht="23.25">
       <c r="B127" s="17">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -32916,7 +33940,7 @@
       <c r="BC128" s="6"/>
       <c r="BD128" s="6"/>
     </row>
-    <row r="129" spans="2:56" ht="23.4">
+    <row r="129" spans="2:56" ht="31.5">
       <c r="B129" s="17" t="s">
         <v>26</v>
       </c>
@@ -32950,7 +33974,7 @@
       <c r="BC130" s="6"/>
       <c r="BD130" s="6"/>
     </row>
-    <row r="131" spans="2:56" ht="15" thickBot="1">
+    <row r="131" spans="2:56" ht="15.75" thickBot="1">
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -32963,7 +33987,7 @@
       <c r="BC131" s="6"/>
       <c r="BD131" s="6"/>
     </row>
-    <row r="132" spans="2:56" ht="19.2" thickTop="1" thickBot="1">
+    <row r="132" spans="2:56" ht="20.25" thickTop="1" thickBot="1">
       <c r="B132" s="22" t="s">
         <v>14</v>
       </c>
@@ -33015,7 +34039,7 @@
       <c r="BC132" s="6"/>
       <c r="BD132" s="6"/>
     </row>
-    <row r="133" spans="2:56" ht="15" thickTop="1">
+    <row r="133" spans="2:56" ht="15.75" thickTop="1">
       <c r="B133" s="5"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -33475,7 +34499,7 @@
       <c r="BC142" s="6"/>
       <c r="BD142" s="6"/>
     </row>
-    <row r="143" spans="2:56" ht="15" thickBot="1">
+    <row r="143" spans="2:56" ht="15.75" thickBot="1">
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -33539,47 +34563,47 @@
       <c r="G144" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="95" t="s">
+      <c r="I144" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="J144" s="96"/>
-      <c r="K144" s="96"/>
-      <c r="L144" s="96"/>
-      <c r="M144" s="96"/>
-      <c r="N144" s="96"/>
-      <c r="O144" s="96"/>
-      <c r="P144" s="96"/>
-      <c r="Q144" s="96"/>
-      <c r="R144" s="96"/>
-      <c r="S144" s="96"/>
-      <c r="T144" s="96"/>
-      <c r="U144" s="96"/>
-      <c r="V144" s="96"/>
-      <c r="W144" s="96"/>
-      <c r="X144" s="96"/>
-      <c r="Y144" s="96"/>
-      <c r="Z144" s="96"/>
-      <c r="AA144" s="96"/>
-      <c r="AB144" s="96"/>
-      <c r="AC144" s="96"/>
-      <c r="AD144" s="96"/>
-      <c r="AE144" s="96"/>
-      <c r="AF144" s="96"/>
-      <c r="AG144" s="96"/>
-      <c r="AH144" s="96"/>
-      <c r="AI144" s="96"/>
-      <c r="AJ144" s="96"/>
-      <c r="AK144" s="96"/>
-      <c r="AL144" s="96"/>
-      <c r="AM144" s="96"/>
-      <c r="AN144" s="96"/>
-      <c r="AO144" s="96"/>
-      <c r="AP144" s="96"/>
-      <c r="AQ144" s="96"/>
-      <c r="AR144" s="96"/>
-      <c r="AS144" s="96"/>
-      <c r="AT144" s="96"/>
-      <c r="AU144" s="97"/>
+      <c r="J144" s="80"/>
+      <c r="K144" s="80"/>
+      <c r="L144" s="80"/>
+      <c r="M144" s="80"/>
+      <c r="N144" s="80"/>
+      <c r="O144" s="80"/>
+      <c r="P144" s="80"/>
+      <c r="Q144" s="80"/>
+      <c r="R144" s="80"/>
+      <c r="S144" s="80"/>
+      <c r="T144" s="80"/>
+      <c r="U144" s="80"/>
+      <c r="V144" s="80"/>
+      <c r="W144" s="80"/>
+      <c r="X144" s="80"/>
+      <c r="Y144" s="80"/>
+      <c r="Z144" s="80"/>
+      <c r="AA144" s="80"/>
+      <c r="AB144" s="80"/>
+      <c r="AC144" s="80"/>
+      <c r="AD144" s="80"/>
+      <c r="AE144" s="80"/>
+      <c r="AF144" s="80"/>
+      <c r="AG144" s="80"/>
+      <c r="AH144" s="80"/>
+      <c r="AI144" s="80"/>
+      <c r="AJ144" s="80"/>
+      <c r="AK144" s="80"/>
+      <c r="AL144" s="80"/>
+      <c r="AM144" s="80"/>
+      <c r="AN144" s="80"/>
+      <c r="AO144" s="80"/>
+      <c r="AP144" s="80"/>
+      <c r="AQ144" s="80"/>
+      <c r="AR144" s="80"/>
+      <c r="AS144" s="80"/>
+      <c r="AT144" s="80"/>
+      <c r="AU144" s="81"/>
       <c r="AV144" s="6"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="6"/>
@@ -33590,7 +34614,7 @@
       <c r="BC144" s="6"/>
       <c r="BD144" s="6"/>
     </row>
-    <row r="145" spans="2:56" ht="15" thickTop="1">
+    <row r="145" spans="2:56" ht="15.75" thickTop="1">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -33635,7 +34659,7 @@
       <c r="BC145" s="6"/>
       <c r="BD145" s="6"/>
     </row>
-    <row r="146" spans="2:56" ht="23.4">
+    <row r="146" spans="2:56" ht="23.25">
       <c r="B146" s="17" t="s">
         <v>28</v>
       </c>
@@ -33738,7 +34762,7 @@
       <c r="BC147" s="6"/>
       <c r="BD147" s="6"/>
     </row>
-    <row r="148" spans="2:56" ht="23.4">
+    <row r="148" spans="2:56" ht="23.25">
       <c r="B148" s="17">
         <v>51</v>
       </c>
@@ -33801,7 +34825,7 @@
       <c r="BC148" s="6"/>
       <c r="BD148" s="6"/>
     </row>
-    <row r="149" spans="2:56" ht="23.4">
+    <row r="149" spans="2:56" ht="23.25">
       <c r="B149" s="17">
         <f t="shared" ref="B149:B167" si="3">B148+1</f>
         <v>52</v>
@@ -33865,7 +34889,7 @@
       <c r="BC149" s="6"/>
       <c r="BD149" s="6"/>
     </row>
-    <row r="150" spans="2:56" ht="23.4">
+    <row r="150" spans="2:56" ht="23.25">
       <c r="B150" s="17">
         <f t="shared" si="3"/>
         <v>53</v>
@@ -33929,7 +34953,7 @@
       <c r="BC150" s="6"/>
       <c r="BD150" s="6"/>
     </row>
-    <row r="151" spans="2:56" ht="23.4">
+    <row r="151" spans="2:56" ht="23.25">
       <c r="B151" s="17">
         <f t="shared" si="3"/>
         <v>54</v>
@@ -33993,7 +35017,7 @@
       <c r="BC151" s="6"/>
       <c r="BD151" s="6"/>
     </row>
-    <row r="152" spans="2:56" ht="23.4">
+    <row r="152" spans="2:56" ht="23.25">
       <c r="B152" s="17">
         <f t="shared" si="3"/>
         <v>55</v>
@@ -34057,7 +35081,7 @@
       <c r="BC152" s="6"/>
       <c r="BD152" s="6"/>
     </row>
-    <row r="153" spans="2:56" ht="23.4">
+    <row r="153" spans="2:56" ht="23.25">
       <c r="B153" s="17">
         <f t="shared" si="3"/>
         <v>56</v>
@@ -34121,7 +35145,7 @@
       <c r="BC153" s="6"/>
       <c r="BD153" s="6"/>
     </row>
-    <row r="154" spans="2:56" ht="23.4">
+    <row r="154" spans="2:56" ht="23.25">
       <c r="B154" s="17">
         <f t="shared" si="3"/>
         <v>57</v>
@@ -34185,7 +35209,7 @@
       <c r="BC154" s="6"/>
       <c r="BD154" s="6"/>
     </row>
-    <row r="155" spans="2:56" ht="23.4">
+    <row r="155" spans="2:56" ht="23.25">
       <c r="B155" s="17">
         <f t="shared" si="3"/>
         <v>58</v>
@@ -34249,7 +35273,7 @@
       <c r="BC155" s="6"/>
       <c r="BD155" s="6"/>
     </row>
-    <row r="156" spans="2:56" ht="23.4">
+    <row r="156" spans="2:56" ht="23.25">
       <c r="B156" s="17">
         <f t="shared" si="3"/>
         <v>59</v>
@@ -34313,7 +35337,7 @@
       <c r="BC156" s="6"/>
       <c r="BD156" s="6"/>
     </row>
-    <row r="157" spans="2:56" ht="23.4">
+    <row r="157" spans="2:56" ht="23.25">
       <c r="B157" s="17">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -34377,7 +35401,7 @@
       <c r="BC157" s="6"/>
       <c r="BD157" s="6"/>
     </row>
-    <row r="158" spans="2:56" ht="23.4">
+    <row r="158" spans="2:56" ht="23.25">
       <c r="B158" s="17">
         <f t="shared" si="3"/>
         <v>61</v>
@@ -34441,7 +35465,7 @@
       <c r="BC158" s="6"/>
       <c r="BD158" s="6"/>
     </row>
-    <row r="159" spans="2:56" ht="23.4">
+    <row r="159" spans="2:56" ht="23.25">
       <c r="B159" s="17">
         <f t="shared" si="3"/>
         <v>62</v>
@@ -34505,7 +35529,7 @@
       <c r="BC159" s="6"/>
       <c r="BD159" s="6"/>
     </row>
-    <row r="160" spans="2:56" ht="23.4">
+    <row r="160" spans="2:56" ht="23.25">
       <c r="B160" s="17">
         <f t="shared" si="3"/>
         <v>63</v>
@@ -34569,7 +35593,7 @@
       <c r="BC160" s="6"/>
       <c r="BD160" s="6"/>
     </row>
-    <row r="161" spans="2:56" ht="23.4">
+    <row r="161" spans="2:56" ht="23.25">
       <c r="B161" s="17">
         <f t="shared" si="3"/>
         <v>64</v>
@@ -34633,7 +35657,7 @@
       <c r="BC161" s="6"/>
       <c r="BD161" s="6"/>
     </row>
-    <row r="162" spans="2:56" ht="23.4">
+    <row r="162" spans="2:56" ht="23.25">
       <c r="B162" s="17">
         <f t="shared" si="3"/>
         <v>65</v>
@@ -34697,7 +35721,7 @@
       <c r="BC162" s="6"/>
       <c r="BD162" s="6"/>
     </row>
-    <row r="163" spans="2:56" ht="23.4">
+    <row r="163" spans="2:56" ht="23.25">
       <c r="B163" s="17">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -34761,7 +35785,7 @@
       <c r="BC163" s="6"/>
       <c r="BD163" s="6"/>
     </row>
-    <row r="164" spans="2:56" ht="23.4">
+    <row r="164" spans="2:56" ht="23.25">
       <c r="B164" s="17">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -34825,7 +35849,7 @@
       <c r="BC164" s="6"/>
       <c r="BD164" s="6"/>
     </row>
-    <row r="165" spans="2:56" ht="23.4">
+    <row r="165" spans="2:56" ht="23.25">
       <c r="B165" s="17">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -34889,7 +35913,7 @@
       <c r="BC165" s="6"/>
       <c r="BD165" s="6"/>
     </row>
-    <row r="166" spans="2:56" ht="23.4">
+    <row r="166" spans="2:56" ht="23.25">
       <c r="B166" s="17">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -34953,7 +35977,7 @@
       <c r="BC166" s="6"/>
       <c r="BD166" s="6"/>
     </row>
-    <row r="167" spans="2:56" ht="23.4">
+    <row r="167" spans="2:56" ht="23.25">
       <c r="B167" s="17">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -35030,7 +36054,7 @@
       <c r="BC168" s="6"/>
       <c r="BD168" s="6"/>
     </row>
-    <row r="169" spans="2:56" ht="23.4">
+    <row r="169" spans="2:56" ht="31.5">
       <c r="B169" s="17" t="s">
         <v>26</v>
       </c>
@@ -35064,7 +36088,7 @@
       <c r="BC170" s="6"/>
       <c r="BD170" s="6"/>
     </row>
-    <row r="171" spans="2:56" ht="15" thickBot="1">
+    <row r="171" spans="2:56" ht="15.75" thickBot="1">
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -35077,7 +36101,7 @@
       <c r="BC171" s="6"/>
       <c r="BD171" s="6"/>
     </row>
-    <row r="172" spans="2:56" ht="19.2" thickTop="1" thickBot="1">
+    <row r="172" spans="2:56" ht="20.25" thickTop="1" thickBot="1">
       <c r="B172" s="22" t="s">
         <v>16</v>
       </c>
@@ -35097,7 +36121,7 @@
       <c r="BC172" s="6"/>
       <c r="BD172" s="6"/>
     </row>
-    <row r="173" spans="2:56" ht="15" thickTop="1">
+    <row r="173" spans="2:56" ht="15.75" thickTop="1">
       <c r="B173" s="5"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -35167,7 +36191,7 @@
       <c r="BC177" s="6"/>
       <c r="BD177" s="6"/>
     </row>
-    <row r="178" spans="2:56" ht="15" thickBot="1">
+    <row r="178" spans="2:56" ht="15.75" thickBot="1">
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
@@ -35231,58 +36255,58 @@
       <c r="G179" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I179" s="95" t="s">
+      <c r="I179" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="J179" s="96"/>
-      <c r="K179" s="96"/>
-      <c r="L179" s="96"/>
-      <c r="M179" s="96"/>
-      <c r="N179" s="96"/>
-      <c r="O179" s="96"/>
-      <c r="P179" s="96"/>
-      <c r="Q179" s="96"/>
-      <c r="R179" s="96"/>
-      <c r="S179" s="96"/>
-      <c r="T179" s="96"/>
-      <c r="U179" s="96"/>
-      <c r="V179" s="96"/>
-      <c r="W179" s="96"/>
-      <c r="X179" s="96"/>
-      <c r="Y179" s="96"/>
-      <c r="Z179" s="96"/>
-      <c r="AA179" s="96"/>
-      <c r="AB179" s="96"/>
-      <c r="AC179" s="96"/>
-      <c r="AD179" s="96"/>
-      <c r="AE179" s="96"/>
-      <c r="AF179" s="96"/>
-      <c r="AG179" s="96"/>
-      <c r="AH179" s="96"/>
-      <c r="AI179" s="96"/>
-      <c r="AJ179" s="96"/>
-      <c r="AK179" s="96"/>
-      <c r="AL179" s="96"/>
-      <c r="AM179" s="96"/>
-      <c r="AN179" s="96"/>
-      <c r="AO179" s="96"/>
-      <c r="AP179" s="96"/>
-      <c r="AQ179" s="96"/>
-      <c r="AR179" s="96"/>
-      <c r="AS179" s="96"/>
-      <c r="AT179" s="96"/>
-      <c r="AU179" s="96"/>
-      <c r="AV179" s="96"/>
-      <c r="AW179" s="96"/>
-      <c r="AX179" s="96"/>
-      <c r="AY179" s="96"/>
-      <c r="AZ179" s="96"/>
-      <c r="BA179" s="96"/>
-      <c r="BB179" s="96"/>
-      <c r="BC179" s="97"/>
+      <c r="J179" s="80"/>
+      <c r="K179" s="80"/>
+      <c r="L179" s="80"/>
+      <c r="M179" s="80"/>
+      <c r="N179" s="80"/>
+      <c r="O179" s="80"/>
+      <c r="P179" s="80"/>
+      <c r="Q179" s="80"/>
+      <c r="R179" s="80"/>
+      <c r="S179" s="80"/>
+      <c r="T179" s="80"/>
+      <c r="U179" s="80"/>
+      <c r="V179" s="80"/>
+      <c r="W179" s="80"/>
+      <c r="X179" s="80"/>
+      <c r="Y179" s="80"/>
+      <c r="Z179" s="80"/>
+      <c r="AA179" s="80"/>
+      <c r="AB179" s="80"/>
+      <c r="AC179" s="80"/>
+      <c r="AD179" s="80"/>
+      <c r="AE179" s="80"/>
+      <c r="AF179" s="80"/>
+      <c r="AG179" s="80"/>
+      <c r="AH179" s="80"/>
+      <c r="AI179" s="80"/>
+      <c r="AJ179" s="80"/>
+      <c r="AK179" s="80"/>
+      <c r="AL179" s="80"/>
+      <c r="AM179" s="80"/>
+      <c r="AN179" s="80"/>
+      <c r="AO179" s="80"/>
+      <c r="AP179" s="80"/>
+      <c r="AQ179" s="80"/>
+      <c r="AR179" s="80"/>
+      <c r="AS179" s="80"/>
+      <c r="AT179" s="80"/>
+      <c r="AU179" s="80"/>
+      <c r="AV179" s="80"/>
+      <c r="AW179" s="80"/>
+      <c r="AX179" s="80"/>
+      <c r="AY179" s="80"/>
+      <c r="AZ179" s="80"/>
+      <c r="BA179" s="80"/>
+      <c r="BB179" s="80"/>
+      <c r="BC179" s="81"/>
       <c r="BD179" s="6"/>
     </row>
-    <row r="180" spans="2:56" ht="15" thickTop="1">
+    <row r="180" spans="2:56" ht="15.75" thickTop="1">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -35327,7 +36351,7 @@
       <c r="BC180" s="6"/>
       <c r="BD180" s="6"/>
     </row>
-    <row r="181" spans="2:56" ht="23.4">
+    <row r="181" spans="2:56" ht="23.25">
       <c r="B181" s="17" t="s">
         <v>27</v>
       </c>
@@ -35441,7 +36465,7 @@
       <c r="BC182" s="6"/>
       <c r="BD182" s="6"/>
     </row>
-    <row r="183" spans="2:56" ht="23.4">
+    <row r="183" spans="2:56" ht="23.25">
       <c r="B183" s="17">
         <v>71</v>
       </c>
@@ -35510,7 +36534,7 @@
       <c r="BC183" s="34"/>
       <c r="BD183" s="6"/>
     </row>
-    <row r="184" spans="2:56" ht="23.4">
+    <row r="184" spans="2:56" ht="23.25">
       <c r="B184" s="17">
         <f t="shared" ref="B184:B212" si="4">B183+1</f>
         <v>72</v>
@@ -35580,7 +36604,7 @@
       <c r="BC184" s="34"/>
       <c r="BD184" s="6"/>
     </row>
-    <row r="185" spans="2:56" ht="23.4">
+    <row r="185" spans="2:56" ht="23.25">
       <c r="B185" s="17">
         <f t="shared" si="4"/>
         <v>73</v>
@@ -35650,7 +36674,7 @@
       <c r="BC185" s="34"/>
       <c r="BD185" s="6"/>
     </row>
-    <row r="186" spans="2:56" ht="23.4">
+    <row r="186" spans="2:56" ht="23.25">
       <c r="B186" s="17">
         <f t="shared" si="4"/>
         <v>74</v>
@@ -35720,7 +36744,7 @@
       <c r="BC186" s="34"/>
       <c r="BD186" s="6"/>
     </row>
-    <row r="187" spans="2:56" ht="23.4">
+    <row r="187" spans="2:56" ht="23.25">
       <c r="B187" s="17">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -35790,7 +36814,7 @@
       <c r="BC187" s="34"/>
       <c r="BD187" s="6"/>
     </row>
-    <row r="188" spans="2:56" ht="23.4">
+    <row r="188" spans="2:56" ht="23.25">
       <c r="B188" s="17">
         <f t="shared" si="4"/>
         <v>76</v>
@@ -35860,7 +36884,7 @@
       <c r="BC188" s="34"/>
       <c r="BD188" s="6"/>
     </row>
-    <row r="189" spans="2:56" ht="23.4">
+    <row r="189" spans="2:56" ht="23.25">
       <c r="B189" s="17">
         <f t="shared" si="4"/>
         <v>77</v>
@@ -35930,7 +36954,7 @@
       <c r="BC189" s="34"/>
       <c r="BD189" s="6"/>
     </row>
-    <row r="190" spans="2:56" ht="23.4">
+    <row r="190" spans="2:56" ht="23.25">
       <c r="B190" s="17">
         <f t="shared" si="4"/>
         <v>78</v>
@@ -36000,7 +37024,7 @@
       <c r="BC190" s="34"/>
       <c r="BD190" s="6"/>
     </row>
-    <row r="191" spans="2:56" ht="23.4">
+    <row r="191" spans="2:56" ht="23.25">
       <c r="B191" s="17">
         <f t="shared" si="4"/>
         <v>79</v>
@@ -36070,7 +37094,7 @@
       <c r="BC191" s="34"/>
       <c r="BD191" s="6"/>
     </row>
-    <row r="192" spans="2:56" ht="23.4">
+    <row r="192" spans="2:56" ht="23.25">
       <c r="B192" s="17">
         <f t="shared" si="4"/>
         <v>80</v>
@@ -36140,7 +37164,7 @@
       <c r="BC192" s="34"/>
       <c r="BD192" s="6"/>
     </row>
-    <row r="193" spans="2:56" ht="23.4">
+    <row r="193" spans="2:56" ht="23.25">
       <c r="B193" s="17">
         <f t="shared" si="4"/>
         <v>81</v>
@@ -36210,7 +37234,7 @@
       <c r="BC193" s="34"/>
       <c r="BD193" s="6"/>
     </row>
-    <row r="194" spans="2:56" ht="23.4">
+    <row r="194" spans="2:56" ht="23.25">
       <c r="B194" s="17">
         <f t="shared" si="4"/>
         <v>82</v>
@@ -36280,7 +37304,7 @@
       <c r="BC194" s="34"/>
       <c r="BD194" s="6"/>
     </row>
-    <row r="195" spans="2:56" ht="23.4">
+    <row r="195" spans="2:56" ht="23.25">
       <c r="B195" s="17">
         <f t="shared" si="4"/>
         <v>83</v>
@@ -36350,7 +37374,7 @@
       <c r="BC195" s="34"/>
       <c r="BD195" s="6"/>
     </row>
-    <row r="196" spans="2:56" ht="23.4">
+    <row r="196" spans="2:56" ht="23.25">
       <c r="B196" s="17">
         <f t="shared" si="4"/>
         <v>84</v>
@@ -36420,7 +37444,7 @@
       <c r="BC196" s="34"/>
       <c r="BD196" s="6"/>
     </row>
-    <row r="197" spans="2:56" ht="23.4">
+    <row r="197" spans="2:56" ht="23.25">
       <c r="B197" s="17">
         <f t="shared" si="4"/>
         <v>85</v>
@@ -36490,7 +37514,7 @@
       <c r="BC197" s="34"/>
       <c r="BD197" s="6"/>
     </row>
-    <row r="198" spans="2:56" ht="23.4">
+    <row r="198" spans="2:56" ht="23.25">
       <c r="B198" s="17">
         <f t="shared" si="4"/>
         <v>86</v>
@@ -36560,7 +37584,7 @@
       <c r="BC198" s="34"/>
       <c r="BD198" s="6"/>
     </row>
-    <row r="199" spans="2:56" ht="23.4">
+    <row r="199" spans="2:56" ht="23.25">
       <c r="B199" s="17">
         <f t="shared" si="4"/>
         <v>87</v>
@@ -36630,7 +37654,7 @@
       <c r="BC199" s="34"/>
       <c r="BD199" s="6"/>
     </row>
-    <row r="200" spans="2:56" ht="23.4">
+    <row r="200" spans="2:56" ht="23.25">
       <c r="B200" s="17">
         <f t="shared" si="4"/>
         <v>88</v>
@@ -36700,7 +37724,7 @@
       <c r="BC200" s="34"/>
       <c r="BD200" s="6"/>
     </row>
-    <row r="201" spans="2:56" ht="23.4">
+    <row r="201" spans="2:56" ht="23.25">
       <c r="B201" s="17">
         <f t="shared" si="4"/>
         <v>89</v>
@@ -36770,7 +37794,7 @@
       <c r="BC201" s="34"/>
       <c r="BD201" s="6"/>
     </row>
-    <row r="202" spans="2:56" ht="23.4">
+    <row r="202" spans="2:56" ht="23.25">
       <c r="B202" s="17">
         <f t="shared" si="4"/>
         <v>90</v>
@@ -36840,7 +37864,7 @@
       <c r="BC202" s="34"/>
       <c r="BD202" s="6"/>
     </row>
-    <row r="203" spans="2:56" ht="23.4">
+    <row r="203" spans="2:56" ht="23.25">
       <c r="B203" s="17">
         <f t="shared" si="4"/>
         <v>91</v>
@@ -36910,7 +37934,7 @@
       <c r="BC203" s="34"/>
       <c r="BD203" s="6"/>
     </row>
-    <row r="204" spans="2:56" ht="23.4">
+    <row r="204" spans="2:56" ht="23.25">
       <c r="B204" s="17">
         <f t="shared" si="4"/>
         <v>92</v>
@@ -36980,7 +38004,7 @@
       <c r="BC204" s="34"/>
       <c r="BD204" s="6"/>
     </row>
-    <row r="205" spans="2:56" ht="23.4">
+    <row r="205" spans="2:56" ht="23.25">
       <c r="B205" s="17">
         <f t="shared" si="4"/>
         <v>93</v>
@@ -37050,7 +38074,7 @@
       <c r="BC205" s="34"/>
       <c r="BD205" s="6"/>
     </row>
-    <row r="206" spans="2:56" ht="23.4">
+    <row r="206" spans="2:56" ht="23.25">
       <c r="B206" s="17">
         <f t="shared" si="4"/>
         <v>94</v>
@@ -37120,7 +38144,7 @@
       <c r="BC206" s="34"/>
       <c r="BD206" s="6"/>
     </row>
-    <row r="207" spans="2:56" ht="23.4">
+    <row r="207" spans="2:56" ht="23.25">
       <c r="B207" s="17">
         <f t="shared" si="4"/>
         <v>95</v>
@@ -37190,7 +38214,7 @@
       <c r="BC207" s="34"/>
       <c r="BD207" s="6"/>
     </row>
-    <row r="208" spans="2:56" ht="23.4">
+    <row r="208" spans="2:56" ht="23.25">
       <c r="B208" s="17">
         <f t="shared" si="4"/>
         <v>96</v>
@@ -37260,7 +38284,7 @@
       <c r="BC208" s="34"/>
       <c r="BD208" s="6"/>
     </row>
-    <row r="209" spans="2:56" ht="23.4">
+    <row r="209" spans="2:56" ht="23.25">
       <c r="B209" s="17">
         <f t="shared" si="4"/>
         <v>97</v>
@@ -37330,7 +38354,7 @@
       <c r="BC209" s="34"/>
       <c r="BD209" s="6"/>
     </row>
-    <row r="210" spans="2:56" ht="23.4">
+    <row r="210" spans="2:56" ht="23.25">
       <c r="B210" s="17">
         <f t="shared" si="4"/>
         <v>98</v>
@@ -37400,7 +38424,7 @@
       <c r="BC210" s="34"/>
       <c r="BD210" s="6"/>
     </row>
-    <row r="211" spans="2:56" ht="23.4">
+    <row r="211" spans="2:56" ht="23.25">
       <c r="B211" s="17">
         <f t="shared" si="4"/>
         <v>99</v>
@@ -37470,7 +38494,7 @@
       <c r="BC211" s="34"/>
       <c r="BD211" s="6"/>
     </row>
-    <row r="212" spans="2:56" ht="23.4">
+    <row r="212" spans="2:56" ht="23.25">
       <c r="B212" s="17">
         <f t="shared" si="4"/>
         <v>100</v>
@@ -37550,7 +38574,7 @@
       <c r="BC213" s="6"/>
       <c r="BD213" s="6"/>
     </row>
-    <row r="214" spans="2:56" ht="23.4">
+    <row r="214" spans="2:56" ht="31.5">
       <c r="B214" s="17" t="s">
         <v>26</v>
       </c>
@@ -37595,12 +38619,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:AA2"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="G36:AA36"/>
+    <mergeCell ref="G67:R67"/>
+    <mergeCell ref="I179:BC179"/>
+    <mergeCell ref="I144:AU144"/>
+    <mergeCell ref="G104:AF104"/>
     <mergeCell ref="AF28:AG28"/>
     <mergeCell ref="AH28:AI28"/>
     <mergeCell ref="B30:AA30"/>
@@ -37608,11 +38631,12 @@
     <mergeCell ref="G35:AA35"/>
     <mergeCell ref="G34:AA34"/>
     <mergeCell ref="B14:T28"/>
-    <mergeCell ref="G36:AA36"/>
-    <mergeCell ref="G67:R67"/>
-    <mergeCell ref="I179:BC179"/>
-    <mergeCell ref="I144:AU144"/>
-    <mergeCell ref="G104:AF104"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="Y13:AA13"/>
   </mergeCells>
   <conditionalFormatting sqref="Y15:AA26 AE26 AC27:AE39">
     <cfRule type="expression" dxfId="0" priority="16">

--- a/ExcelEsport/FMWC_Examples/What Is My Flight Number - Patrick Chatain - My Work.xlsx
+++ b/ExcelEsport/FMWC_Examples/What Is My Flight Number - Patrick Chatain - My Work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\ExcelEsport\FMWC_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D256E729-0053-47BE-A8A6-A8DBB8AF0E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AAAF90-1A25-4879-B3C4-02E1312AB863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="29" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2045,57 +2045,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2165,7 +2115,57 @@
     <xf numFmtId="3" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{C1B9BA85-4C62-429F-905A-EBA90D38020B}"/>
@@ -2723,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCF8115-0CC8-46F8-8E7E-E74BDD47BD6B}">
   <dimension ref="A1:AZ216"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView showGridLines="0" topLeftCell="A114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108:E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -2777,34 +2777,34 @@
       <c r="AZ1" s="6"/>
     </row>
     <row r="2" spans="2:52" ht="60.6" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
       <c r="AO2" s="3"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -2820,32 +2820,32 @@
       <c r="AZ3" s="6"/>
     </row>
     <row r="4" spans="2:52" ht="33.6" customHeight="1">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="Y4" s="93" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="Y4" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="82"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="106"/>
       <c r="AO4" s="3"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -3045,11 +3045,11 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="94" t="s">
+      <c r="Y11" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="96"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="120"/>
       <c r="AO11" s="3"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -3084,33 +3084,33 @@
       <c r="AZ12" s="6"/>
     </row>
     <row r="13" spans="2:52" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B13" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
+      <c r="B13" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
       <c r="U13" s="60"/>
-      <c r="Y13" s="83" t="s">
+      <c r="Y13" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -3118,27 +3118,27 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:52" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="108" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="86"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="110"/>
       <c r="U14" s="3"/>
       <c r="Y14" s="61" t="s">
         <v>31</v>
@@ -3158,25 +3158,25 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:52" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="89"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="112"/>
+      <c r="T15" s="113"/>
       <c r="U15" s="3"/>
       <c r="Y15" s="62" t="s">
         <v>32</v>
@@ -3196,25 +3196,25 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="89"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="113"/>
       <c r="U16" s="3"/>
       <c r="Y16" s="62" t="s">
         <v>47</v>
@@ -3233,25 +3233,25 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="89"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="113"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="62" t="s">
         <v>39</v>
@@ -3270,25 +3270,25 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="18" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="89"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="113"/>
       <c r="U18" s="3"/>
       <c r="Y18" s="62" t="s">
         <v>35</v>
@@ -3307,25 +3307,25 @@
       <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="89"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="113"/>
       <c r="U19" s="3"/>
       <c r="Y19" s="62" t="s">
         <v>42</v>
@@ -3344,25 +3344,25 @@
       <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="89"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="112"/>
+      <c r="S20" s="112"/>
+      <c r="T20" s="113"/>
       <c r="U20" s="3"/>
       <c r="Y20" s="62" t="s">
         <v>48</v>
@@ -3379,25 +3379,25 @@
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="89"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="113"/>
       <c r="U21" s="3"/>
       <c r="Y21" s="62" t="s">
         <v>49</v>
@@ -3416,25 +3416,25 @@
       <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="89"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="113"/>
       <c r="U22" s="3"/>
       <c r="Y22" s="62" t="s">
         <v>50</v>
@@ -3454,25 +3454,25 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="89"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="113"/>
       <c r="U23" s="3"/>
       <c r="Y23" s="62" t="s">
         <v>51</v>
@@ -3492,25 +3492,25 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="89"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="113"/>
       <c r="U24" s="3"/>
       <c r="Y24" s="62" t="s">
         <v>52</v>
@@ -3530,25 +3530,25 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="89"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="113"/>
       <c r="U25" s="3"/>
       <c r="Y25" s="62" t="s">
         <v>53</v>
@@ -3566,25 +3566,25 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="89"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="113"/>
       <c r="U26" s="3"/>
       <c r="Y26" s="62" t="s">
         <v>105</v>
@@ -3607,25 +3607,25 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="89"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="113"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -3644,25 +3644,25 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="47.25" customHeight="1">
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="92"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="115"/>
+      <c r="T28" s="116"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -3673,10 +3673,10 @@
       <c r="AC28" s="63"/>
       <c r="AD28" s="63"/>
       <c r="AE28" s="64"/>
-      <c r="AF28" s="80"/>
-      <c r="AG28" s="80"/>
-      <c r="AH28" s="80"/>
-      <c r="AI28" s="80"/>
+      <c r="AF28" s="104"/>
+      <c r="AG28" s="104"/>
+      <c r="AH28" s="104"/>
+      <c r="AI28" s="104"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
     </row>
@@ -3721,34 +3721,34 @@
       <c r="AZ29" s="6"/>
     </row>
     <row r="30" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="102"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="86"/>
       <c r="AC30" s="63"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="64"/>
@@ -3799,29 +3799,29 @@
       <c r="E33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="103" t="s">
+      <c r="G33" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="104"/>
-      <c r="X33" s="104"/>
-      <c r="Y33" s="104"/>
-      <c r="Z33" s="104"/>
-      <c r="AA33" s="105"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="89"/>
       <c r="AC33" s="63"/>
       <c r="AD33" s="63"/>
       <c r="AE33" s="64"/>
@@ -3841,29 +3841,29 @@
         <f>IF(AND(E34&lt;&gt;"",E34=Answers!E34),1,IF(ISBLANK(E34),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G34" s="106" t="s">
+      <c r="G34" s="90" t="s">
         <v>308</v>
       </c>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="107"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="107"/>
-      <c r="X34" s="107"/>
-      <c r="Y34" s="107"/>
-      <c r="Z34" s="107"/>
-      <c r="AA34" s="108"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="92"/>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="64"/>
@@ -3883,29 +3883,29 @@
         <f>IF(AND(E35&lt;&gt;"",E35=Answers!E35),1,IF(ISBLANK(E35),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G35" s="109" t="s">
+      <c r="G35" s="93" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="110"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="110"/>
-      <c r="W35" s="110"/>
-      <c r="X35" s="110"/>
-      <c r="Y35" s="110"/>
-      <c r="Z35" s="110"/>
-      <c r="AA35" s="111"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="95"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
@@ -3925,29 +3925,29 @@
         <f>IF(AND(E36&lt;&gt;"",E36=Answers!E36),1,IF(ISBLANK(E36),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G36" s="112" t="s">
+      <c r="G36" s="96" t="s">
         <v>309</v>
       </c>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="113"/>
-      <c r="S36" s="113"/>
-      <c r="T36" s="113"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="113"/>
-      <c r="X36" s="113"/>
-      <c r="Y36" s="113"/>
-      <c r="Z36" s="113"/>
-      <c r="AA36" s="114"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97"/>
+      <c r="S36" s="97"/>
+      <c r="T36" s="97"/>
+      <c r="U36" s="97"/>
+      <c r="V36" s="97"/>
+      <c r="W36" s="97"/>
+      <c r="X36" s="97"/>
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="97"/>
+      <c r="AA36" s="98"/>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="64"/>
@@ -4050,13 +4050,13 @@
       <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="116" t="s">
+      <c r="J41" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="116"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
       <c r="AS41" s="6"/>
       <c r="AT41" s="6"/>
       <c r="AU41" s="6"/>
@@ -4067,14 +4067,14 @@
       <c r="AZ41" s="6"/>
     </row>
     <row r="42" spans="2:52" ht="15" customHeight="1" thickTop="1">
-      <c r="J42" s="115" cm="1">
+      <c r="J42" s="99" cm="1">
         <f t="array" ref="J42">SUMPRODUCT(--(F34:F216=1),F34:F216,D34:D216)</f>
-        <v>220</v>
-      </c>
-      <c r="K42" s="115"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="115"/>
-      <c r="N42" s="115"/>
+        <v>420</v>
+      </c>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
       <c r="AS42" s="6"/>
       <c r="AT42" s="6"/>
       <c r="AU42" s="6"/>
@@ -4088,11 +4088,11 @@
       <c r="B43" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="115"/>
-      <c r="M43" s="115"/>
-      <c r="N43" s="115"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="99"/>
+      <c r="N43" s="99"/>
       <c r="AS43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
@@ -4105,11 +4105,11 @@
     <row r="44" spans="2:52" ht="15" customHeight="1" thickBot="1">
       <c r="B44" s="20"/>
       <c r="G44" s="27"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="115"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
       <c r="R44" s="6"/>
     </row>
     <row r="45" spans="2:52" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4130,11 +4130,11 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="115"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="115"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="99"/>
+      <c r="N45" s="99"/>
       <c r="R45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
@@ -5326,20 +5326,20 @@
       <c r="E67" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="103" t="s">
+      <c r="G67" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="104"/>
-      <c r="I67" s="104"/>
-      <c r="J67" s="104"/>
-      <c r="K67" s="104"/>
-      <c r="L67" s="104"/>
-      <c r="M67" s="104"/>
-      <c r="N67" s="104"/>
-      <c r="O67" s="104"/>
-      <c r="P67" s="104"/>
-      <c r="Q67" s="104"/>
-      <c r="R67" s="105"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="89"/>
       <c r="S67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -7382,35 +7382,35 @@
         <v>4</v>
       </c>
       <c r="E104" s="44"/>
-      <c r="G104" s="117" t="s">
+      <c r="G104" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="118"/>
-      <c r="I104" s="118"/>
-      <c r="J104" s="118"/>
-      <c r="K104" s="118"/>
-      <c r="L104" s="118"/>
-      <c r="M104" s="118"/>
-      <c r="N104" s="118"/>
-      <c r="O104" s="118"/>
-      <c r="P104" s="118"/>
-      <c r="Q104" s="118"/>
-      <c r="R104" s="118"/>
-      <c r="S104" s="118"/>
-      <c r="T104" s="118"/>
-      <c r="U104" s="118"/>
-      <c r="V104" s="118"/>
-      <c r="W104" s="118"/>
-      <c r="X104" s="118"/>
-      <c r="Y104" s="118"/>
-      <c r="Z104" s="118"/>
-      <c r="AA104" s="118"/>
-      <c r="AB104" s="118"/>
-      <c r="AC104" s="118"/>
-      <c r="AD104" s="118"/>
-      <c r="AE104" s="118"/>
-      <c r="AF104" s="118"/>
-      <c r="AG104" s="119"/>
+      <c r="H104" s="102"/>
+      <c r="I104" s="102"/>
+      <c r="J104" s="102"/>
+      <c r="K104" s="102"/>
+      <c r="L104" s="102"/>
+      <c r="M104" s="102"/>
+      <c r="N104" s="102"/>
+      <c r="O104" s="102"/>
+      <c r="P104" s="102"/>
+      <c r="Q104" s="102"/>
+      <c r="R104" s="102"/>
+      <c r="S104" s="102"/>
+      <c r="T104" s="102"/>
+      <c r="U104" s="102"/>
+      <c r="V104" s="102"/>
+      <c r="W104" s="102"/>
+      <c r="X104" s="102"/>
+      <c r="Y104" s="102"/>
+      <c r="Z104" s="102"/>
+      <c r="AA104" s="102"/>
+      <c r="AB104" s="102"/>
+      <c r="AC104" s="102"/>
+      <c r="AD104" s="102"/>
+      <c r="AE104" s="102"/>
+      <c r="AF104" s="102"/>
+      <c r="AG104" s="103"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
       <c r="AJ104" s="6"/>
@@ -7551,10 +7551,12 @@
       <c r="D108" s="18">
         <v>10</v>
       </c>
-      <c r="E108" s="30"/>
+      <c r="E108" s="30">
+        <v>75</v>
+      </c>
       <c r="F108" s="36">
         <f>IF(AND(E108&lt;&gt;"",E108=Answers!E108),1,IF(ISBLANK(E108),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="32" t="s">
         <v>214</v>
@@ -7597,10 +7599,12 @@
       <c r="D109" s="18">
         <v>10</v>
       </c>
-      <c r="E109" s="30"/>
+      <c r="E109" s="30">
+        <v>107</v>
+      </c>
       <c r="F109" s="36">
         <f>IF(AND(E109&lt;&gt;"",E109=Answers!E109),1,IF(ISBLANK(E109),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" s="32" t="s">
         <v>196</v>
@@ -7643,10 +7647,12 @@
       <c r="D110" s="18">
         <v>10</v>
       </c>
-      <c r="E110" s="30"/>
+      <c r="E110" s="30">
+        <v>128</v>
+      </c>
       <c r="F110" s="36">
         <f>IF(AND(E110&lt;&gt;"",E110=Answers!E110),1,IF(ISBLANK(E110),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" s="32" t="s">
         <v>197</v>
@@ -7689,10 +7695,12 @@
       <c r="D111" s="18">
         <v>10</v>
       </c>
-      <c r="E111" s="30"/>
+      <c r="E111" s="30">
+        <v>107</v>
+      </c>
       <c r="F111" s="36">
         <f>IF(AND(E111&lt;&gt;"",E111=Answers!E111),1,IF(ISBLANK(E111),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" s="32" t="s">
         <v>198</v>
@@ -7735,10 +7743,12 @@
       <c r="D112" s="18">
         <v>10</v>
       </c>
-      <c r="E112" s="30"/>
+      <c r="E112" s="30">
+        <v>99</v>
+      </c>
       <c r="F112" s="36">
         <f>IF(AND(E112&lt;&gt;"",E112=Answers!E112),1,IF(ISBLANK(E112),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" s="32" t="s">
         <v>199</v>
@@ -7781,10 +7791,12 @@
       <c r="D113" s="18">
         <v>10</v>
       </c>
-      <c r="E113" s="30"/>
+      <c r="E113" s="30">
+        <v>97</v>
+      </c>
       <c r="F113" s="36">
         <f>IF(AND(E113&lt;&gt;"",E113=Answers!E113),1,IF(ISBLANK(E113),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" s="32" t="s">
         <v>200</v>
@@ -7827,10 +7839,12 @@
       <c r="D114" s="18">
         <v>10</v>
       </c>
-      <c r="E114" s="30"/>
+      <c r="E114" s="30">
+        <v>69</v>
+      </c>
       <c r="F114" s="36">
         <f>IF(AND(E114&lt;&gt;"",E114=Answers!E114),1,IF(ISBLANK(E114),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" s="32" t="s">
         <v>215</v>
@@ -7873,10 +7887,12 @@
       <c r="D115" s="18">
         <v>10</v>
       </c>
-      <c r="E115" s="30"/>
+      <c r="E115" s="30">
+        <v>117</v>
+      </c>
       <c r="F115" s="36">
         <f>IF(AND(E115&lt;&gt;"",E115=Answers!E115),1,IF(ISBLANK(E115),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="32" t="s">
         <v>201</v>
@@ -7919,10 +7935,12 @@
       <c r="D116" s="18">
         <v>10</v>
       </c>
-      <c r="E116" s="30"/>
+      <c r="E116" s="30">
+        <v>83</v>
+      </c>
       <c r="F116" s="36">
         <f>IF(AND(E116&lt;&gt;"",E116=Answers!E116),1,IF(ISBLANK(E116),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="32" t="s">
         <v>202</v>
@@ -7965,10 +7983,12 @@
       <c r="D117" s="18">
         <v>10</v>
       </c>
-      <c r="E117" s="30"/>
+      <c r="E117" s="30">
+        <v>102</v>
+      </c>
       <c r="F117" s="36">
         <f>IF(AND(E117&lt;&gt;"",E117=Answers!E117),1,IF(ISBLANK(E117),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="32" t="s">
         <v>203</v>
@@ -8011,10 +8031,12 @@
       <c r="D118" s="18">
         <v>10</v>
       </c>
-      <c r="E118" s="30"/>
+      <c r="E118" s="30">
+        <v>138</v>
+      </c>
       <c r="F118" s="36">
         <f>IF(AND(E118&lt;&gt;"",E118=Answers!E118),1,IF(ISBLANK(E118),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" s="32" t="s">
         <v>204</v>
@@ -8057,10 +8079,12 @@
       <c r="D119" s="18">
         <v>10</v>
       </c>
-      <c r="E119" s="30"/>
+      <c r="E119" s="30">
+        <v>113</v>
+      </c>
       <c r="F119" s="36">
         <f>IF(AND(E119&lt;&gt;"",E119=Answers!E119),1,IF(ISBLANK(E119),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="32" t="s">
         <v>205</v>
@@ -8103,10 +8127,12 @@
       <c r="D120" s="18">
         <v>10</v>
       </c>
-      <c r="E120" s="30"/>
+      <c r="E120" s="30">
+        <v>89</v>
+      </c>
       <c r="F120" s="36">
         <f>IF(AND(E120&lt;&gt;"",E120=Answers!E120),1,IF(ISBLANK(E120),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" s="32" t="s">
         <v>206</v>
@@ -8149,10 +8175,12 @@
       <c r="D121" s="18">
         <v>10</v>
       </c>
-      <c r="E121" s="30"/>
+      <c r="E121" s="30">
+        <v>97</v>
+      </c>
       <c r="F121" s="36">
         <f>IF(AND(E121&lt;&gt;"",E121=Answers!E121),1,IF(ISBLANK(E121),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" s="32" t="s">
         <v>207</v>
@@ -8195,10 +8223,12 @@
       <c r="D122" s="18">
         <v>10</v>
       </c>
-      <c r="E122" s="30"/>
+      <c r="E122" s="30">
+        <v>107</v>
+      </c>
       <c r="F122" s="36">
         <f>IF(AND(E122&lt;&gt;"",E122=Answers!E122),1,IF(ISBLANK(E122),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="32" t="s">
         <v>208</v>
@@ -8241,10 +8271,12 @@
       <c r="D123" s="18">
         <v>10</v>
       </c>
-      <c r="E123" s="30"/>
+      <c r="E123" s="30">
+        <v>89</v>
+      </c>
       <c r="F123" s="36">
         <f>IF(AND(E123&lt;&gt;"",E123=Answers!E123),1,IF(ISBLANK(E123),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="32" t="s">
         <v>209</v>
@@ -8287,10 +8319,12 @@
       <c r="D124" s="18">
         <v>10</v>
       </c>
-      <c r="E124" s="30"/>
+      <c r="E124" s="30">
+        <v>75</v>
+      </c>
       <c r="F124" s="36">
         <f>IF(AND(E124&lt;&gt;"",E124=Answers!E124),1,IF(ISBLANK(E124),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="32" t="s">
         <v>213</v>
@@ -8333,10 +8367,12 @@
       <c r="D125" s="18">
         <v>10</v>
       </c>
-      <c r="E125" s="30"/>
+      <c r="E125" s="30">
+        <v>90</v>
+      </c>
       <c r="F125" s="36">
         <f>IF(AND(E125&lt;&gt;"",E125=Answers!E125),1,IF(ISBLANK(E125),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" s="32" t="s">
         <v>210</v>
@@ -8379,10 +8415,12 @@
       <c r="D126" s="18">
         <v>10</v>
       </c>
-      <c r="E126" s="30"/>
+      <c r="E126" s="30">
+        <v>118</v>
+      </c>
       <c r="F126" s="36">
         <f>IF(AND(E126&lt;&gt;"",E126=Answers!E126),1,IF(ISBLANK(E126),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="32" t="s">
         <v>211</v>
@@ -8425,10 +8463,12 @@
       <c r="D127" s="18">
         <v>10</v>
       </c>
-      <c r="E127" s="30"/>
+      <c r="E127" s="30">
+        <v>112</v>
+      </c>
       <c r="F127" s="36">
         <f>IF(AND(E127&lt;&gt;"",E127=Answers!E127),1,IF(ISBLANK(E127),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="32" t="s">
         <v>212</v>
@@ -8485,11 +8525,11 @@
       </c>
       <c r="E129" s="30">
         <f>SUM(E108:E127)</f>
-        <v>0</v>
+        <v>2012</v>
       </c>
       <c r="F129" s="36">
         <f>IF(AND(E129&lt;&gt;"",E129=Answers!E129),1,IF(ISBLANK(E129),0,-1))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S129" s="6"/>
       <c r="T129" s="6"/>
@@ -9046,48 +9086,48 @@
       <c r="G144" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="97" t="s">
+      <c r="I144" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="J144" s="98"/>
-      <c r="K144" s="98"/>
-      <c r="L144" s="98"/>
-      <c r="M144" s="98"/>
-      <c r="N144" s="98"/>
-      <c r="O144" s="98"/>
-      <c r="P144" s="98"/>
-      <c r="Q144" s="98"/>
-      <c r="R144" s="98"/>
-      <c r="S144" s="98"/>
-      <c r="T144" s="98"/>
-      <c r="U144" s="98"/>
-      <c r="V144" s="98"/>
-      <c r="W144" s="98"/>
-      <c r="X144" s="98"/>
-      <c r="Y144" s="98"/>
-      <c r="Z144" s="98"/>
-      <c r="AA144" s="98"/>
-      <c r="AB144" s="98"/>
-      <c r="AC144" s="98"/>
-      <c r="AD144" s="98"/>
-      <c r="AE144" s="98"/>
-      <c r="AF144" s="98"/>
-      <c r="AG144" s="98"/>
-      <c r="AH144" s="98"/>
-      <c r="AI144" s="98"/>
-      <c r="AJ144" s="98"/>
-      <c r="AK144" s="98"/>
-      <c r="AL144" s="98"/>
-      <c r="AM144" s="98"/>
-      <c r="AN144" s="98"/>
-      <c r="AO144" s="98"/>
-      <c r="AP144" s="98"/>
-      <c r="AQ144" s="98"/>
-      <c r="AR144" s="98"/>
-      <c r="AS144" s="98"/>
-      <c r="AT144" s="98"/>
-      <c r="AU144" s="98"/>
-      <c r="AV144" s="99"/>
+      <c r="J144" s="82"/>
+      <c r="K144" s="82"/>
+      <c r="L144" s="82"/>
+      <c r="M144" s="82"/>
+      <c r="N144" s="82"/>
+      <c r="O144" s="82"/>
+      <c r="P144" s="82"/>
+      <c r="Q144" s="82"/>
+      <c r="R144" s="82"/>
+      <c r="S144" s="82"/>
+      <c r="T144" s="82"/>
+      <c r="U144" s="82"/>
+      <c r="V144" s="82"/>
+      <c r="W144" s="82"/>
+      <c r="X144" s="82"/>
+      <c r="Y144" s="82"/>
+      <c r="Z144" s="82"/>
+      <c r="AA144" s="82"/>
+      <c r="AB144" s="82"/>
+      <c r="AC144" s="82"/>
+      <c r="AD144" s="82"/>
+      <c r="AE144" s="82"/>
+      <c r="AF144" s="82"/>
+      <c r="AG144" s="82"/>
+      <c r="AH144" s="82"/>
+      <c r="AI144" s="82"/>
+      <c r="AJ144" s="82"/>
+      <c r="AK144" s="82"/>
+      <c r="AL144" s="82"/>
+      <c r="AM144" s="82"/>
+      <c r="AN144" s="82"/>
+      <c r="AO144" s="82"/>
+      <c r="AP144" s="82"/>
+      <c r="AQ144" s="82"/>
+      <c r="AR144" s="82"/>
+      <c r="AS144" s="82"/>
+      <c r="AT144" s="82"/>
+      <c r="AU144" s="82"/>
+      <c r="AV144" s="83"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="6"/>
       <c r="AY144" s="6"/>
@@ -10678,52 +10718,52 @@
       <c r="G179" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I179" s="97" t="s">
+      <c r="I179" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="J179" s="98"/>
-      <c r="K179" s="98"/>
-      <c r="L179" s="98"/>
-      <c r="M179" s="98"/>
-      <c r="N179" s="98"/>
-      <c r="O179" s="98"/>
-      <c r="P179" s="98"/>
-      <c r="Q179" s="98"/>
-      <c r="R179" s="98"/>
-      <c r="S179" s="98"/>
-      <c r="T179" s="98"/>
-      <c r="U179" s="98"/>
-      <c r="V179" s="98"/>
-      <c r="W179" s="98"/>
-      <c r="X179" s="98"/>
-      <c r="Y179" s="98"/>
-      <c r="Z179" s="98"/>
-      <c r="AA179" s="98"/>
-      <c r="AB179" s="98"/>
-      <c r="AC179" s="98"/>
-      <c r="AD179" s="98"/>
-      <c r="AE179" s="98"/>
-      <c r="AF179" s="98"/>
-      <c r="AG179" s="98"/>
-      <c r="AH179" s="98"/>
-      <c r="AI179" s="98"/>
-      <c r="AJ179" s="98"/>
-      <c r="AK179" s="98"/>
-      <c r="AL179" s="98"/>
-      <c r="AM179" s="98"/>
-      <c r="AN179" s="98"/>
-      <c r="AO179" s="98"/>
-      <c r="AP179" s="98"/>
-      <c r="AQ179" s="98"/>
-      <c r="AR179" s="98"/>
-      <c r="AS179" s="98"/>
-      <c r="AT179" s="98"/>
-      <c r="AU179" s="98"/>
-      <c r="AV179" s="98"/>
-      <c r="AW179" s="98"/>
-      <c r="AX179" s="98"/>
-      <c r="AY179" s="98"/>
-      <c r="AZ179" s="99"/>
+      <c r="J179" s="82"/>
+      <c r="K179" s="82"/>
+      <c r="L179" s="82"/>
+      <c r="M179" s="82"/>
+      <c r="N179" s="82"/>
+      <c r="O179" s="82"/>
+      <c r="P179" s="82"/>
+      <c r="Q179" s="82"/>
+      <c r="R179" s="82"/>
+      <c r="S179" s="82"/>
+      <c r="T179" s="82"/>
+      <c r="U179" s="82"/>
+      <c r="V179" s="82"/>
+      <c r="W179" s="82"/>
+      <c r="X179" s="82"/>
+      <c r="Y179" s="82"/>
+      <c r="Z179" s="82"/>
+      <c r="AA179" s="82"/>
+      <c r="AB179" s="82"/>
+      <c r="AC179" s="82"/>
+      <c r="AD179" s="82"/>
+      <c r="AE179" s="82"/>
+      <c r="AF179" s="82"/>
+      <c r="AG179" s="82"/>
+      <c r="AH179" s="82"/>
+      <c r="AI179" s="82"/>
+      <c r="AJ179" s="82"/>
+      <c r="AK179" s="82"/>
+      <c r="AL179" s="82"/>
+      <c r="AM179" s="82"/>
+      <c r="AN179" s="82"/>
+      <c r="AO179" s="82"/>
+      <c r="AP179" s="82"/>
+      <c r="AQ179" s="82"/>
+      <c r="AR179" s="82"/>
+      <c r="AS179" s="82"/>
+      <c r="AT179" s="82"/>
+      <c r="AU179" s="82"/>
+      <c r="AV179" s="82"/>
+      <c r="AW179" s="82"/>
+      <c r="AX179" s="82"/>
+      <c r="AY179" s="82"/>
+      <c r="AZ179" s="83"/>
     </row>
     <row r="180" spans="2:52" ht="15.75" thickTop="1">
       <c r="B180" s="1"/>
@@ -12927,6 +12967,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="B14:T28"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y11:AA11"/>
     <mergeCell ref="I179:AZ179"/>
     <mergeCell ref="B30:AA30"/>
     <mergeCell ref="G33:AA33"/>
@@ -12938,15 +12987,6 @@
     <mergeCell ref="J41:N41"/>
     <mergeCell ref="G104:AG104"/>
     <mergeCell ref="I144:AV144"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="B2:AA2"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="B14:T28"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y11:AA11"/>
   </mergeCells>
   <conditionalFormatting sqref="Y15:AA26 AE26 AC27:AE39">
     <cfRule type="expression" dxfId="3" priority="18">
@@ -13273,8 +13313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF1246F-240F-4F65-8DBE-618A3738E125}">
   <dimension ref="A1:U1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -13318,6 +13358,10 @@
       <c r="I3" s="79">
         <v>0</v>
       </c>
+      <c r="M3" s="79">
+        <f>I43</f>
+        <v>107</v>
+      </c>
       <c r="S3" s="79" t="s">
         <v>325</v>
       </c>
@@ -13344,13 +13388,20 @@
       <c r="G4" s="79">
         <v>1</v>
       </c>
-      <c r="H4" s="120">
+      <c r="H4" s="80">
         <f>--OR(F4:G4)</f>
         <v>1</v>
       </c>
       <c r="I4" s="79">
-        <f>IF(H4=1,_xlfn.XLOOKUP(I3+1,_nSevens,_nSevens,,1),I3+1)</f>
+        <f t="shared" ref="I4:I43" si="0">IF(H4=1,_xlfn.XLOOKUP(I3+1,_nSevens,_nSevens,,1),I3+1)</f>
         <v>7</v>
+      </c>
+      <c r="L4" s="79">
+        <v>31</v>
+      </c>
+      <c r="M4" s="79">
+        <f t="dataTable" ref="M4:M23" dt2D="0" dtr="0" r1="A1"/>
+        <v>75</v>
       </c>
       <c r="R4" s="79" cm="1">
         <f t="array" ref="R4:R1003">_xlfn.SEQUENCE(1000)</f>
@@ -13382,13 +13433,19 @@
       <c r="G5" s="79">
         <v>0</v>
       </c>
-      <c r="H5" s="120">
-        <f t="shared" ref="H5:H43" si="0">--OR(F5:G5)</f>
+      <c r="H5" s="80">
+        <f t="shared" ref="H5:H43" si="1">--OR(F5:G5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="79">
-        <f>IF(H5=1,_xlfn.XLOOKUP(I4+1,_nSevens,_nSevens,,1),I4+1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
+      </c>
+      <c r="L5" s="79">
+        <v>32</v>
+      </c>
+      <c r="M5" s="79">
+        <v>107</v>
       </c>
       <c r="R5" s="79">
         <v>2</v>
@@ -13417,13 +13474,19 @@
       <c r="G6" s="79">
         <v>0</v>
       </c>
-      <c r="H6" s="120">
+      <c r="H6" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="79">
-        <f>IF(H6=1,_xlfn.XLOOKUP(I5+1,_nSevens,_nSevens,,1),I5+1)</f>
         <v>9</v>
+      </c>
+      <c r="L6" s="79">
+        <v>33</v>
+      </c>
+      <c r="M6" s="79">
+        <v>128</v>
       </c>
       <c r="R6" s="79">
         <v>3</v>
@@ -13452,13 +13515,19 @@
       <c r="G7" s="79">
         <v>0</v>
       </c>
-      <c r="H7" s="120">
+      <c r="H7" s="80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="79">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="79">
-        <f>IF(H7=1,_xlfn.XLOOKUP(I6+1,_nSevens,_nSevens,,1),I6+1)</f>
         <v>17</v>
+      </c>
+      <c r="L7" s="79">
+        <v>34</v>
+      </c>
+      <c r="M7" s="79">
+        <v>107</v>
       </c>
       <c r="R7" s="79">
         <v>4</v>
@@ -13487,13 +13556,19 @@
       <c r="G8" s="79">
         <v>1</v>
       </c>
-      <c r="H8" s="120">
+      <c r="H8" s="80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="79">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="79">
-        <f>IF(H8=1,_xlfn.XLOOKUP(I7+1,_nSevens,_nSevens,,1),I7+1)</f>
         <v>27</v>
+      </c>
+      <c r="L8" s="79">
+        <v>35</v>
+      </c>
+      <c r="M8" s="79">
+        <v>99</v>
       </c>
       <c r="R8" s="79">
         <v>5</v>
@@ -13522,13 +13597,19 @@
       <c r="G9" s="79">
         <v>0</v>
       </c>
-      <c r="H9" s="120">
+      <c r="H9" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="79">
-        <f>IF(H9=1,_xlfn.XLOOKUP(I8+1,_nSevens,_nSevens,,1),I8+1)</f>
         <v>28</v>
+      </c>
+      <c r="L9" s="79">
+        <v>36</v>
+      </c>
+      <c r="M9" s="79">
+        <v>97</v>
       </c>
       <c r="R9" s="79">
         <v>6</v>
@@ -13557,13 +13638,19 @@
       <c r="G10" s="79">
         <v>0</v>
       </c>
-      <c r="H10" s="120">
+      <c r="H10" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="79">
-        <f>IF(H10=1,_xlfn.XLOOKUP(I9+1,_nSevens,_nSevens,,1),I9+1)</f>
         <v>29</v>
+      </c>
+      <c r="L10" s="79">
+        <v>37</v>
+      </c>
+      <c r="M10" s="79">
+        <v>69</v>
       </c>
       <c r="R10" s="79">
         <v>7</v>
@@ -13592,13 +13679,19 @@
       <c r="G11" s="79">
         <v>0</v>
       </c>
-      <c r="H11" s="120">
+      <c r="H11" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="79">
-        <f>IF(H11=1,_xlfn.XLOOKUP(I10+1,_nSevens,_nSevens,,1),I10+1)</f>
         <v>30</v>
+      </c>
+      <c r="L11" s="79">
+        <v>38</v>
+      </c>
+      <c r="M11" s="79">
+        <v>117</v>
       </c>
       <c r="R11" s="79">
         <v>8</v>
@@ -13627,13 +13720,19 @@
       <c r="G12" s="79">
         <v>0</v>
       </c>
-      <c r="H12" s="120">
+      <c r="H12" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="79">
-        <f>IF(H12=1,_xlfn.XLOOKUP(I11+1,_nSevens,_nSevens,,1),I11+1)</f>
         <v>31</v>
+      </c>
+      <c r="L12" s="79">
+        <v>39</v>
+      </c>
+      <c r="M12" s="79">
+        <v>83</v>
       </c>
       <c r="R12" s="79">
         <v>9</v>
@@ -13662,13 +13761,19 @@
       <c r="G13" s="79">
         <v>0</v>
       </c>
-      <c r="H13" s="120">
+      <c r="H13" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="79">
-        <f>IF(H13=1,_xlfn.XLOOKUP(I12+1,_nSevens,_nSevens,,1),I12+1)</f>
         <v>32</v>
+      </c>
+      <c r="L13" s="79">
+        <v>40</v>
+      </c>
+      <c r="M13" s="79">
+        <v>102</v>
       </c>
       <c r="R13" s="79">
         <v>10</v>
@@ -13697,13 +13802,19 @@
       <c r="G14" s="79">
         <v>0</v>
       </c>
-      <c r="H14" s="120">
+      <c r="H14" s="80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="79">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I14" s="79">
-        <f>IF(H14=1,_xlfn.XLOOKUP(I13+1,_nSevens,_nSevens,,1),I13+1)</f>
         <v>37</v>
+      </c>
+      <c r="L14" s="79">
+        <v>41</v>
+      </c>
+      <c r="M14" s="79">
+        <v>138</v>
       </c>
       <c r="R14" s="79">
         <v>11</v>
@@ -13732,13 +13843,19 @@
       <c r="G15" s="79">
         <v>0</v>
       </c>
-      <c r="H15" s="120">
+      <c r="H15" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="79">
-        <f>IF(H15=1,_xlfn.XLOOKUP(I14+1,_nSevens,_nSevens,,1),I14+1)</f>
         <v>38</v>
+      </c>
+      <c r="L15" s="79">
+        <v>42</v>
+      </c>
+      <c r="M15" s="79">
+        <v>113</v>
       </c>
       <c r="R15" s="79">
         <v>12</v>
@@ -13767,13 +13884,19 @@
       <c r="G16" s="79">
         <v>0</v>
       </c>
-      <c r="H16" s="120">
+      <c r="H16" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="79">
-        <f>IF(H16=1,_xlfn.XLOOKUP(I15+1,_nSevens,_nSevens,,1),I15+1)</f>
         <v>39</v>
+      </c>
+      <c r="L16" s="79">
+        <v>43</v>
+      </c>
+      <c r="M16" s="79">
+        <v>89</v>
       </c>
       <c r="R16" s="79">
         <v>13</v>
@@ -13802,13 +13925,19 @@
       <c r="G17" s="79">
         <v>0</v>
       </c>
-      <c r="H17" s="120">
+      <c r="H17" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="79">
-        <f>IF(H17=1,_xlfn.XLOOKUP(I16+1,_nSevens,_nSevens,,1),I16+1)</f>
         <v>40</v>
+      </c>
+      <c r="L17" s="79">
+        <v>44</v>
+      </c>
+      <c r="M17" s="79">
+        <v>97</v>
       </c>
       <c r="R17" s="79">
         <v>14</v>
@@ -13837,13 +13966,19 @@
       <c r="G18" s="79">
         <v>0</v>
       </c>
-      <c r="H18" s="120">
+      <c r="H18" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="79">
-        <f>IF(H18=1,_xlfn.XLOOKUP(I17+1,_nSevens,_nSevens,,1),I17+1)</f>
         <v>41</v>
+      </c>
+      <c r="L18" s="79">
+        <v>45</v>
+      </c>
+      <c r="M18" s="79">
+        <v>107</v>
       </c>
       <c r="R18" s="79">
         <v>15</v>
@@ -13872,13 +14007,19 @@
       <c r="G19" s="79">
         <v>0</v>
       </c>
-      <c r="H19" s="120">
+      <c r="H19" s="80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="79">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I19" s="79">
-        <f>IF(H19=1,_xlfn.XLOOKUP(I18+1,_nSevens,_nSevens,,1),I18+1)</f>
         <v>47</v>
+      </c>
+      <c r="L19" s="79">
+        <v>46</v>
+      </c>
+      <c r="M19" s="79">
+        <v>89</v>
       </c>
       <c r="R19" s="79">
         <v>16</v>
@@ -13907,13 +14048,19 @@
       <c r="G20" s="79">
         <v>0</v>
       </c>
-      <c r="H20" s="120">
+      <c r="H20" s="80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="79">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I20" s="79">
-        <f>IF(H20=1,_xlfn.XLOOKUP(I19+1,_nSevens,_nSevens,,1),I19+1)</f>
         <v>57</v>
+      </c>
+      <c r="L20" s="79">
+        <v>47</v>
+      </c>
+      <c r="M20" s="79">
+        <v>75</v>
       </c>
       <c r="R20" s="79">
         <v>17</v>
@@ -13942,13 +14089,19 @@
       <c r="G21" s="79">
         <v>0</v>
       </c>
-      <c r="H21" s="120">
+      <c r="H21" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="79">
-        <f>IF(H21=1,_xlfn.XLOOKUP(I20+1,_nSevens,_nSevens,,1),I20+1)</f>
         <v>58</v>
+      </c>
+      <c r="L21" s="79">
+        <v>48</v>
+      </c>
+      <c r="M21" s="79">
+        <v>90</v>
       </c>
       <c r="R21" s="79">
         <v>18</v>
@@ -13977,13 +14130,19 @@
       <c r="G22" s="79">
         <v>0</v>
       </c>
-      <c r="H22" s="120">
+      <c r="H22" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="79">
-        <f>IF(H22=1,_xlfn.XLOOKUP(I21+1,_nSevens,_nSevens,,1),I21+1)</f>
         <v>59</v>
+      </c>
+      <c r="L22" s="79">
+        <v>49</v>
+      </c>
+      <c r="M22" s="79">
+        <v>118</v>
       </c>
       <c r="R22" s="79">
         <v>19</v>
@@ -14012,13 +14171,19 @@
       <c r="G23" s="79">
         <v>0</v>
       </c>
-      <c r="H23" s="120">
+      <c r="H23" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="79">
-        <f>IF(H23=1,_xlfn.XLOOKUP(I22+1,_nSevens,_nSevens,,1),I22+1)</f>
         <v>60</v>
+      </c>
+      <c r="L23" s="79">
+        <v>50</v>
+      </c>
+      <c r="M23" s="79">
+        <v>112</v>
       </c>
       <c r="R23" s="79">
         <v>20</v>
@@ -14047,12 +14212,12 @@
       <c r="G24" s="79">
         <v>1</v>
       </c>
-      <c r="H24" s="120">
+      <c r="H24" s="80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="79">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="79">
-        <f>IF(H24=1,_xlfn.XLOOKUP(I23+1,_nSevens,_nSevens,,1),I23+1)</f>
         <v>67</v>
       </c>
       <c r="R24" s="79">
@@ -14082,12 +14247,12 @@
       <c r="G25" s="79">
         <v>0</v>
       </c>
-      <c r="H25" s="120">
+      <c r="H25" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="79">
-        <f>IF(H25=1,_xlfn.XLOOKUP(I24+1,_nSevens,_nSevens,,1),I24+1)</f>
         <v>68</v>
       </c>
       <c r="R25" s="79">
@@ -14117,12 +14282,12 @@
       <c r="G26" s="79">
         <v>0</v>
       </c>
-      <c r="H26" s="120">
+      <c r="H26" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="79">
-        <f>IF(H26=1,_xlfn.XLOOKUP(I25+1,_nSevens,_nSevens,,1),I25+1)</f>
         <v>69</v>
       </c>
       <c r="R26" s="79">
@@ -14152,12 +14317,12 @@
       <c r="G27" s="79">
         <v>0</v>
       </c>
-      <c r="H27" s="120">
+      <c r="H27" s="80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="79">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I27" s="79">
-        <f>IF(H27=1,_xlfn.XLOOKUP(I26+1,_nSevens,_nSevens,,1),I26+1)</f>
         <v>70</v>
       </c>
       <c r="R27" s="79">
@@ -14187,12 +14352,12 @@
       <c r="G28" s="79">
         <v>0</v>
       </c>
-      <c r="H28" s="120">
+      <c r="H28" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="79">
-        <f>IF(H28=1,_xlfn.XLOOKUP(I27+1,_nSevens,_nSevens,,1),I27+1)</f>
         <v>71</v>
       </c>
       <c r="R28" s="79">
@@ -14222,12 +14387,12 @@
       <c r="G29" s="79">
         <v>1</v>
       </c>
-      <c r="H29" s="120">
+      <c r="H29" s="80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="79">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I29" s="79">
-        <f>IF(H29=1,_xlfn.XLOOKUP(I28+1,_nSevens,_nSevens,,1),I28+1)</f>
         <v>72</v>
       </c>
       <c r="R29" s="79">
@@ -14257,12 +14422,12 @@
       <c r="G30" s="79">
         <v>0</v>
       </c>
-      <c r="H30" s="120">
+      <c r="H30" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="79">
-        <f>IF(H30=1,_xlfn.XLOOKUP(I29+1,_nSevens,_nSevens,,1),I29+1)</f>
         <v>73</v>
       </c>
       <c r="R30" s="79">
@@ -14292,12 +14457,12 @@
       <c r="G31" s="79">
         <v>0</v>
       </c>
-      <c r="H31" s="120">
+      <c r="H31" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="79">
-        <f>IF(H31=1,_xlfn.XLOOKUP(I30+1,_nSevens,_nSevens,,1),I30+1)</f>
         <v>74</v>
       </c>
       <c r="R31" s="79">
@@ -14327,12 +14492,12 @@
       <c r="G32" s="79">
         <v>0</v>
       </c>
-      <c r="H32" s="120">
+      <c r="H32" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="79">
-        <f>IF(H32=1,_xlfn.XLOOKUP(I31+1,_nSevens,_nSevens,,1),I31+1)</f>
         <v>75</v>
       </c>
       <c r="R32" s="79">
@@ -14362,12 +14527,12 @@
       <c r="G33" s="79">
         <v>0</v>
       </c>
-      <c r="H33" s="120">
+      <c r="H33" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="79">
-        <f>IF(H33=1,_xlfn.XLOOKUP(I32+1,_nSevens,_nSevens,,1),I32+1)</f>
         <v>76</v>
       </c>
       <c r="R33" s="79">
@@ -14397,12 +14562,12 @@
       <c r="G34" s="79">
         <v>0</v>
       </c>
-      <c r="H34" s="120">
+      <c r="H34" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="79">
-        <f>IF(H34=1,_xlfn.XLOOKUP(I33+1,_nSevens,_nSevens,,1),I33+1)</f>
         <v>77</v>
       </c>
       <c r="R34" s="79">
@@ -14432,12 +14597,12 @@
       <c r="G35" s="79">
         <v>0</v>
       </c>
-      <c r="H35" s="120">
+      <c r="H35" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="79">
-        <f>IF(H35=1,_xlfn.XLOOKUP(I34+1,_nSevens,_nSevens,,1),I34+1)</f>
         <v>78</v>
       </c>
       <c r="R35" s="79">
@@ -14467,12 +14632,12 @@
       <c r="G36" s="79">
         <v>0</v>
       </c>
-      <c r="H36" s="120">
+      <c r="H36" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="79">
-        <f>IF(H36=1,_xlfn.XLOOKUP(I35+1,_nSevens,_nSevens,,1),I35+1)</f>
         <v>79</v>
       </c>
       <c r="R36" s="79">
@@ -14502,12 +14667,12 @@
       <c r="G37" s="79">
         <v>0</v>
       </c>
-      <c r="H37" s="120">
+      <c r="H37" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="79">
-        <f>IF(H37=1,_xlfn.XLOOKUP(I36+1,_nSevens,_nSevens,,1),I36+1)</f>
         <v>80</v>
       </c>
       <c r="R37" s="79">
@@ -14537,12 +14702,12 @@
       <c r="G38" s="79">
         <v>1</v>
       </c>
-      <c r="H38" s="120">
+      <c r="H38" s="80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="79">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I38" s="79">
-        <f>IF(H38=1,_xlfn.XLOOKUP(I37+1,_nSevens,_nSevens,,1),I37+1)</f>
         <v>87</v>
       </c>
       <c r="R38" s="79">
@@ -14572,12 +14737,12 @@
       <c r="G39" s="79">
         <v>0</v>
       </c>
-      <c r="H39" s="120">
+      <c r="H39" s="80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I39" s="79">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I39" s="79">
-        <f>IF(H39=1,_xlfn.XLOOKUP(I38+1,_nSevens,_nSevens,,1),I38+1)</f>
         <v>97</v>
       </c>
       <c r="R39" s="79">
@@ -14607,12 +14772,12 @@
       <c r="G40" s="79">
         <v>0</v>
       </c>
-      <c r="H40" s="120">
+      <c r="H40" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="79">
-        <f>IF(H40=1,_xlfn.XLOOKUP(I39+1,_nSevens,_nSevens,,1),I39+1)</f>
         <v>98</v>
       </c>
       <c r="R40" s="79">
@@ -14642,12 +14807,12 @@
       <c r="G41" s="79">
         <v>0</v>
       </c>
-      <c r="H41" s="120">
+      <c r="H41" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="79">
-        <f>IF(H41=1,_xlfn.XLOOKUP(I40+1,_nSevens,_nSevens,,1),I40+1)</f>
         <v>99</v>
       </c>
       <c r="R41" s="79">
@@ -14677,12 +14842,12 @@
       <c r="G42" s="79">
         <v>0</v>
       </c>
-      <c r="H42" s="120">
+      <c r="H42" s="80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="79">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="79">
-        <f>IF(H42=1,_xlfn.XLOOKUP(I41+1,_nSevens,_nSevens,,1),I41+1)</f>
         <v>100</v>
       </c>
       <c r="R42" s="79">
@@ -14712,12 +14877,12 @@
       <c r="G43" s="79">
         <v>0</v>
       </c>
-      <c r="H43" s="120">
+      <c r="H43" s="80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="79">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I43" s="79">
-        <f>IF(H43=1,_xlfn.XLOOKUP(I42+1,_nSevens,_nSevens,,1),I42+1)</f>
         <v>107</v>
       </c>
       <c r="R43" s="79">
@@ -23105,6 +23270,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37012,34 +37178,34 @@
       <c r="BD1" s="6"/>
     </row>
     <row r="2" spans="2:56" ht="60.6" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
       <c r="AO2" s="3"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -37063,32 +37229,32 @@
       <c r="BD3" s="6"/>
     </row>
     <row r="4" spans="2:56" ht="33.6" customHeight="1">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="Y4" s="93" t="s">
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="Y4" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="82"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="106"/>
       <c r="AO4" s="3"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -37316,11 +37482,11 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="94" t="s">
+      <c r="Y11" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="96"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="120"/>
       <c r="AO11" s="3"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -37365,33 +37531,33 @@
       <c r="BD12" s="6"/>
     </row>
     <row r="13" spans="2:56" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B13" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
+      <c r="B13" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="106"/>
+      <c r="M13" s="106"/>
+      <c r="N13" s="106"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="106"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
       <c r="U13" s="60"/>
-      <c r="Y13" s="83" t="s">
+      <c r="Y13" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="106"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -37399,27 +37565,27 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:56" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="108" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="86"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
+      <c r="T14" s="110"/>
       <c r="U14" s="3"/>
       <c r="Y14" s="61" t="s">
         <v>31</v>
@@ -37436,25 +37602,25 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:56" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="89"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
+      <c r="O15" s="112"/>
+      <c r="P15" s="112"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="112"/>
+      <c r="T15" s="113"/>
       <c r="U15" s="3"/>
       <c r="Y15" s="62" t="s">
         <v>32</v>
@@ -37471,25 +37637,25 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="89"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="112"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="113"/>
       <c r="U16" s="3"/>
       <c r="Y16" s="62" t="s">
         <v>47</v>
@@ -37505,25 +37671,25 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="89"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
+      <c r="O17" s="112"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="112"/>
+      <c r="S17" s="112"/>
+      <c r="T17" s="113"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="62" t="s">
         <v>39</v>
@@ -37539,25 +37705,25 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="18" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="89"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="113"/>
       <c r="U18" s="3"/>
       <c r="Y18" s="62" t="s">
         <v>35</v>
@@ -37573,25 +37739,25 @@
       <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="89"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="112"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="112"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="113"/>
       <c r="U19" s="3"/>
       <c r="Y19" s="62" t="s">
         <v>42</v>
@@ -37607,25 +37773,25 @@
       <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="89"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="112"/>
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="112"/>
+      <c r="S20" s="112"/>
+      <c r="T20" s="113"/>
       <c r="U20" s="3"/>
       <c r="Y20" s="62" t="s">
         <v>48</v>
@@ -37639,25 +37805,25 @@
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
-      <c r="K21" s="88"/>
-      <c r="L21" s="88"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="89"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="112"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="112"/>
+      <c r="S21" s="112"/>
+      <c r="T21" s="113"/>
       <c r="U21" s="3"/>
       <c r="Y21" s="62" t="s">
         <v>49</v>
@@ -37673,25 +37839,25 @@
       <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="89"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="113"/>
       <c r="U22" s="3"/>
       <c r="Y22" s="62" t="s">
         <v>50</v>
@@ -37708,25 +37874,25 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="89"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="113"/>
       <c r="U23" s="3"/>
       <c r="Y23" s="62" t="s">
         <v>51</v>
@@ -37743,25 +37909,25 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="89"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="113"/>
       <c r="U24" s="3"/>
       <c r="Y24" s="62" t="s">
         <v>52</v>
@@ -37778,25 +37944,25 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="89"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="113"/>
       <c r="U25" s="3"/>
       <c r="Y25" s="62" t="s">
         <v>53</v>
@@ -37811,25 +37977,25 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="89"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="112"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="113"/>
       <c r="U26" s="3"/>
       <c r="Y26" s="62" t="s">
         <v>105</v>
@@ -37849,25 +38015,25 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="89"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="113"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -37886,25 +38052,25 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:56" ht="47.25" customHeight="1">
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="92"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="115"/>
+      <c r="T28" s="116"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -37915,10 +38081,10 @@
       <c r="AC28" s="63"/>
       <c r="AD28" s="63"/>
       <c r="AE28" s="64"/>
-      <c r="AF28" s="80"/>
-      <c r="AG28" s="80"/>
-      <c r="AH28" s="80"/>
-      <c r="AI28" s="80"/>
+      <c r="AF28" s="104"/>
+      <c r="AG28" s="104"/>
+      <c r="AH28" s="104"/>
+      <c r="AI28" s="104"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
     </row>
@@ -37967,34 +38133,34 @@
       <c r="BD29" s="6"/>
     </row>
     <row r="30" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="101"/>
-      <c r="O30" s="101"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-      <c r="W30" s="101"/>
-      <c r="X30" s="101"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="102"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="86"/>
       <c r="AC30" s="63"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="64"/>
@@ -38057,29 +38223,29 @@
       <c r="E33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="103" t="s">
+      <c r="G33" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="104"/>
-      <c r="U33" s="104"/>
-      <c r="V33" s="104"/>
-      <c r="W33" s="104"/>
-      <c r="X33" s="104"/>
-      <c r="Y33" s="104"/>
-      <c r="Z33" s="104"/>
-      <c r="AA33" s="105"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="89"/>
       <c r="AC33" s="63"/>
       <c r="AD33" s="63"/>
       <c r="AE33" s="64"/>
@@ -38102,29 +38268,29 @@
         <v>29</v>
       </c>
       <c r="F34" s="36"/>
-      <c r="G34" s="106" t="s">
+      <c r="G34" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="107"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="107"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="107"/>
-      <c r="X34" s="107"/>
-      <c r="Y34" s="107"/>
-      <c r="Z34" s="107"/>
-      <c r="AA34" s="108"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="91"/>
+      <c r="T34" s="91"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="92"/>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="64"/>
@@ -38147,29 +38313,29 @@
         <v>51</v>
       </c>
       <c r="F35" s="36"/>
-      <c r="G35" s="109" t="s">
+      <c r="G35" s="93" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="110"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="110"/>
-      <c r="W35" s="110"/>
-      <c r="X35" s="110"/>
-      <c r="Y35" s="110"/>
-      <c r="Z35" s="110"/>
-      <c r="AA35" s="111"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="95"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
@@ -38192,29 +38358,29 @@
         <v>95</v>
       </c>
       <c r="F36" s="36"/>
-      <c r="G36" s="112" t="s">
+      <c r="G36" s="96" t="s">
         <v>301</v>
       </c>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="113"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="113"/>
-      <c r="R36" s="113"/>
-      <c r="S36" s="113"/>
-      <c r="T36" s="113"/>
-      <c r="U36" s="113"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="113"/>
-      <c r="X36" s="113"/>
-      <c r="Y36" s="113"/>
-      <c r="Z36" s="113"/>
-      <c r="AA36" s="114"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97"/>
+      <c r="S36" s="97"/>
+      <c r="T36" s="97"/>
+      <c r="U36" s="97"/>
+      <c r="V36" s="97"/>
+      <c r="W36" s="97"/>
+      <c r="X36" s="97"/>
+      <c r="Y36" s="97"/>
+      <c r="Z36" s="97"/>
+      <c r="AA36" s="98"/>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="64"/>
@@ -39683,20 +39849,20 @@
       <c r="E67" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="103" t="s">
+      <c r="G67" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="104"/>
-      <c r="I67" s="104"/>
-      <c r="J67" s="104"/>
-      <c r="K67" s="104"/>
-      <c r="L67" s="104"/>
-      <c r="M67" s="104"/>
-      <c r="N67" s="104"/>
-      <c r="O67" s="104"/>
-      <c r="P67" s="104"/>
-      <c r="Q67" s="104"/>
-      <c r="R67" s="105"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="89"/>
       <c r="S67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -41736,34 +41902,34 @@
       <c r="E104" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="117" t="s">
+      <c r="G104" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="118"/>
-      <c r="I104" s="118"/>
-      <c r="J104" s="118"/>
-      <c r="K104" s="118"/>
-      <c r="L104" s="118"/>
-      <c r="M104" s="118"/>
-      <c r="N104" s="118"/>
-      <c r="O104" s="118"/>
-      <c r="P104" s="118"/>
-      <c r="Q104" s="118"/>
-      <c r="R104" s="118"/>
-      <c r="S104" s="118"/>
-      <c r="T104" s="118"/>
-      <c r="U104" s="118"/>
-      <c r="V104" s="118"/>
-      <c r="W104" s="118"/>
-      <c r="X104" s="118"/>
-      <c r="Y104" s="118"/>
-      <c r="Z104" s="118"/>
-      <c r="AA104" s="118"/>
-      <c r="AB104" s="118"/>
-      <c r="AC104" s="118"/>
-      <c r="AD104" s="118"/>
-      <c r="AE104" s="118"/>
-      <c r="AF104" s="119"/>
+      <c r="H104" s="102"/>
+      <c r="I104" s="102"/>
+      <c r="J104" s="102"/>
+      <c r="K104" s="102"/>
+      <c r="L104" s="102"/>
+      <c r="M104" s="102"/>
+      <c r="N104" s="102"/>
+      <c r="O104" s="102"/>
+      <c r="P104" s="102"/>
+      <c r="Q104" s="102"/>
+      <c r="R104" s="102"/>
+      <c r="S104" s="102"/>
+      <c r="T104" s="102"/>
+      <c r="U104" s="102"/>
+      <c r="V104" s="102"/>
+      <c r="W104" s="102"/>
+      <c r="X104" s="102"/>
+      <c r="Y104" s="102"/>
+      <c r="Z104" s="102"/>
+      <c r="AA104" s="102"/>
+      <c r="AB104" s="102"/>
+      <c r="AC104" s="102"/>
+      <c r="AD104" s="102"/>
+      <c r="AE104" s="102"/>
+      <c r="AF104" s="103"/>
       <c r="AG104" s="6"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
@@ -43479,47 +43645,47 @@
       <c r="G144" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="97" t="s">
+      <c r="I144" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="J144" s="98"/>
-      <c r="K144" s="98"/>
-      <c r="L144" s="98"/>
-      <c r="M144" s="98"/>
-      <c r="N144" s="98"/>
-      <c r="O144" s="98"/>
-      <c r="P144" s="98"/>
-      <c r="Q144" s="98"/>
-      <c r="R144" s="98"/>
-      <c r="S144" s="98"/>
-      <c r="T144" s="98"/>
-      <c r="U144" s="98"/>
-      <c r="V144" s="98"/>
-      <c r="W144" s="98"/>
-      <c r="X144" s="98"/>
-      <c r="Y144" s="98"/>
-      <c r="Z144" s="98"/>
-      <c r="AA144" s="98"/>
-      <c r="AB144" s="98"/>
-      <c r="AC144" s="98"/>
-      <c r="AD144" s="98"/>
-      <c r="AE144" s="98"/>
-      <c r="AF144" s="98"/>
-      <c r="AG144" s="98"/>
-      <c r="AH144" s="98"/>
-      <c r="AI144" s="98"/>
-      <c r="AJ144" s="98"/>
-      <c r="AK144" s="98"/>
-      <c r="AL144" s="98"/>
-      <c r="AM144" s="98"/>
-      <c r="AN144" s="98"/>
-      <c r="AO144" s="98"/>
-      <c r="AP144" s="98"/>
-      <c r="AQ144" s="98"/>
-      <c r="AR144" s="98"/>
-      <c r="AS144" s="98"/>
-      <c r="AT144" s="98"/>
-      <c r="AU144" s="99"/>
+      <c r="J144" s="82"/>
+      <c r="K144" s="82"/>
+      <c r="L144" s="82"/>
+      <c r="M144" s="82"/>
+      <c r="N144" s="82"/>
+      <c r="O144" s="82"/>
+      <c r="P144" s="82"/>
+      <c r="Q144" s="82"/>
+      <c r="R144" s="82"/>
+      <c r="S144" s="82"/>
+      <c r="T144" s="82"/>
+      <c r="U144" s="82"/>
+      <c r="V144" s="82"/>
+      <c r="W144" s="82"/>
+      <c r="X144" s="82"/>
+      <c r="Y144" s="82"/>
+      <c r="Z144" s="82"/>
+      <c r="AA144" s="82"/>
+      <c r="AB144" s="82"/>
+      <c r="AC144" s="82"/>
+      <c r="AD144" s="82"/>
+      <c r="AE144" s="82"/>
+      <c r="AF144" s="82"/>
+      <c r="AG144" s="82"/>
+      <c r="AH144" s="82"/>
+      <c r="AI144" s="82"/>
+      <c r="AJ144" s="82"/>
+      <c r="AK144" s="82"/>
+      <c r="AL144" s="82"/>
+      <c r="AM144" s="82"/>
+      <c r="AN144" s="82"/>
+      <c r="AO144" s="82"/>
+      <c r="AP144" s="82"/>
+      <c r="AQ144" s="82"/>
+      <c r="AR144" s="82"/>
+      <c r="AS144" s="82"/>
+      <c r="AT144" s="82"/>
+      <c r="AU144" s="83"/>
       <c r="AV144" s="6"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="6"/>
@@ -45171,55 +45337,55 @@
       <c r="G179" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I179" s="97" t="s">
+      <c r="I179" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="J179" s="98"/>
-      <c r="K179" s="98"/>
-      <c r="L179" s="98"/>
-      <c r="M179" s="98"/>
-      <c r="N179" s="98"/>
-      <c r="O179" s="98"/>
-      <c r="P179" s="98"/>
-      <c r="Q179" s="98"/>
-      <c r="R179" s="98"/>
-      <c r="S179" s="98"/>
-      <c r="T179" s="98"/>
-      <c r="U179" s="98"/>
-      <c r="V179" s="98"/>
-      <c r="W179" s="98"/>
-      <c r="X179" s="98"/>
-      <c r="Y179" s="98"/>
-      <c r="Z179" s="98"/>
-      <c r="AA179" s="98"/>
-      <c r="AB179" s="98"/>
-      <c r="AC179" s="98"/>
-      <c r="AD179" s="98"/>
-      <c r="AE179" s="98"/>
-      <c r="AF179" s="98"/>
-      <c r="AG179" s="98"/>
-      <c r="AH179" s="98"/>
-      <c r="AI179" s="98"/>
-      <c r="AJ179" s="98"/>
-      <c r="AK179" s="98"/>
-      <c r="AL179" s="98"/>
-      <c r="AM179" s="98"/>
-      <c r="AN179" s="98"/>
-      <c r="AO179" s="98"/>
-      <c r="AP179" s="98"/>
-      <c r="AQ179" s="98"/>
-      <c r="AR179" s="98"/>
-      <c r="AS179" s="98"/>
-      <c r="AT179" s="98"/>
-      <c r="AU179" s="98"/>
-      <c r="AV179" s="98"/>
-      <c r="AW179" s="98"/>
-      <c r="AX179" s="98"/>
-      <c r="AY179" s="98"/>
-      <c r="AZ179" s="98"/>
-      <c r="BA179" s="98"/>
-      <c r="BB179" s="98"/>
-      <c r="BC179" s="99"/>
+      <c r="J179" s="82"/>
+      <c r="K179" s="82"/>
+      <c r="L179" s="82"/>
+      <c r="M179" s="82"/>
+      <c r="N179" s="82"/>
+      <c r="O179" s="82"/>
+      <c r="P179" s="82"/>
+      <c r="Q179" s="82"/>
+      <c r="R179" s="82"/>
+      <c r="S179" s="82"/>
+      <c r="T179" s="82"/>
+      <c r="U179" s="82"/>
+      <c r="V179" s="82"/>
+      <c r="W179" s="82"/>
+      <c r="X179" s="82"/>
+      <c r="Y179" s="82"/>
+      <c r="Z179" s="82"/>
+      <c r="AA179" s="82"/>
+      <c r="AB179" s="82"/>
+      <c r="AC179" s="82"/>
+      <c r="AD179" s="82"/>
+      <c r="AE179" s="82"/>
+      <c r="AF179" s="82"/>
+      <c r="AG179" s="82"/>
+      <c r="AH179" s="82"/>
+      <c r="AI179" s="82"/>
+      <c r="AJ179" s="82"/>
+      <c r="AK179" s="82"/>
+      <c r="AL179" s="82"/>
+      <c r="AM179" s="82"/>
+      <c r="AN179" s="82"/>
+      <c r="AO179" s="82"/>
+      <c r="AP179" s="82"/>
+      <c r="AQ179" s="82"/>
+      <c r="AR179" s="82"/>
+      <c r="AS179" s="82"/>
+      <c r="AT179" s="82"/>
+      <c r="AU179" s="82"/>
+      <c r="AV179" s="82"/>
+      <c r="AW179" s="82"/>
+      <c r="AX179" s="82"/>
+      <c r="AY179" s="82"/>
+      <c r="AZ179" s="82"/>
+      <c r="BA179" s="82"/>
+      <c r="BB179" s="82"/>
+      <c r="BC179" s="83"/>
       <c r="BD179" s="6"/>
     </row>
     <row r="180" spans="2:56" ht="15.75" thickTop="1">
@@ -47535,12 +47701,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:AA2"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="G36:AA36"/>
+    <mergeCell ref="G67:R67"/>
+    <mergeCell ref="I179:BC179"/>
+    <mergeCell ref="I144:AU144"/>
+    <mergeCell ref="G104:AF104"/>
     <mergeCell ref="AF28:AG28"/>
     <mergeCell ref="AH28:AI28"/>
     <mergeCell ref="B30:AA30"/>
@@ -47548,11 +47713,12 @@
     <mergeCell ref="G35:AA35"/>
     <mergeCell ref="G34:AA34"/>
     <mergeCell ref="B14:T28"/>
-    <mergeCell ref="G36:AA36"/>
-    <mergeCell ref="G67:R67"/>
-    <mergeCell ref="I179:BC179"/>
-    <mergeCell ref="I144:AU144"/>
-    <mergeCell ref="G104:AF104"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="Y13:AA13"/>
   </mergeCells>
   <conditionalFormatting sqref="Y15:AA26 AE26 AC27:AE39">
     <cfRule type="expression" dxfId="0" priority="16">

--- a/ExcelEsport/FMWC_Examples/What Is My Flight Number - Patrick Chatain - My Work.xlsx
+++ b/ExcelEsport/FMWC_Examples/What Is My Flight Number - Patrick Chatain - My Work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\ExcelEsport\FMWC_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AAAF90-1A25-4879-B3C4-02E1312AB863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C622A2C-0EE6-459D-87EC-85CB7DD2BDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="29" r:id="rId1"/>
@@ -2046,6 +2046,57 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2114,57 +2165,6 @@
     </xf>
     <xf numFmtId="3" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2723,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCF8115-0CC8-46F8-8E7E-E74BDD47BD6B}">
   <dimension ref="A1:AZ216"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A114" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108:E127"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:AA35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -2777,34 +2777,34 @@
       <c r="AZ1" s="6"/>
     </row>
     <row r="2" spans="2:52" ht="60.6" customHeight="1">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="82" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
       <c r="AO2" s="3"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -2820,32 +2820,32 @@
       <c r="AZ3" s="6"/>
     </row>
     <row r="4" spans="2:52" ht="33.6" customHeight="1">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="Y4" s="117" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="Y4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="106"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="83"/>
       <c r="AO4" s="3"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -3045,11 +3045,11 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="118" t="s">
+      <c r="Y11" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="120"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="97"/>
       <c r="AO11" s="3"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -3084,33 +3084,33 @@
       <c r="AZ12" s="6"/>
     </row>
     <row r="13" spans="2:52" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B13" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
+      <c r="B13" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
       <c r="U13" s="60"/>
-      <c r="Y13" s="107" t="s">
+      <c r="Y13" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -3118,27 +3118,27 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:52" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="85" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="110"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="87"/>
       <c r="U14" s="3"/>
       <c r="Y14" s="61" t="s">
         <v>31</v>
@@ -3158,25 +3158,25 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:52" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B15" s="111"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="112"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="112"/>
-      <c r="T15" s="113"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="90"/>
       <c r="U15" s="3"/>
       <c r="Y15" s="62" t="s">
         <v>32</v>
@@ -3196,25 +3196,25 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B16" s="111"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="113"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="90"/>
       <c r="U16" s="3"/>
       <c r="Y16" s="62" t="s">
         <v>47</v>
@@ -3233,25 +3233,25 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B17" s="111"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="113"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="90"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="62" t="s">
         <v>39</v>
@@ -3270,25 +3270,25 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="18" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B18" s="111"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="113"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="90"/>
       <c r="U18" s="3"/>
       <c r="Y18" s="62" t="s">
         <v>35</v>
@@ -3307,25 +3307,25 @@
       <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="113"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="90"/>
       <c r="U19" s="3"/>
       <c r="Y19" s="62" t="s">
         <v>42</v>
@@ -3344,25 +3344,25 @@
       <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="112"/>
-      <c r="S20" s="112"/>
-      <c r="T20" s="113"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="90"/>
       <c r="U20" s="3"/>
       <c r="Y20" s="62" t="s">
         <v>48</v>
@@ -3379,25 +3379,25 @@
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="113"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="90"/>
       <c r="U21" s="3"/>
       <c r="Y21" s="62" t="s">
         <v>49</v>
@@ -3416,25 +3416,25 @@
       <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="113"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="90"/>
       <c r="U22" s="3"/>
       <c r="Y22" s="62" t="s">
         <v>50</v>
@@ -3454,25 +3454,25 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B23" s="111"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="113"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="90"/>
       <c r="U23" s="3"/>
       <c r="Y23" s="62" t="s">
         <v>51</v>
@@ -3492,25 +3492,25 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="113"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="90"/>
       <c r="U24" s="3"/>
       <c r="Y24" s="62" t="s">
         <v>52</v>
@@ -3530,25 +3530,25 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B25" s="111"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="113"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="90"/>
       <c r="U25" s="3"/>
       <c r="Y25" s="62" t="s">
         <v>53</v>
@@ -3566,25 +3566,25 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="113"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="90"/>
       <c r="U26" s="3"/>
       <c r="Y26" s="62" t="s">
         <v>105</v>
@@ -3607,25 +3607,25 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="113"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="90"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -3644,25 +3644,25 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="47.25" customHeight="1">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="115"/>
-      <c r="R28" s="115"/>
-      <c r="S28" s="115"/>
-      <c r="T28" s="116"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="93"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -3673,10 +3673,10 @@
       <c r="AC28" s="63"/>
       <c r="AD28" s="63"/>
       <c r="AE28" s="64"/>
-      <c r="AF28" s="104"/>
-      <c r="AG28" s="104"/>
-      <c r="AH28" s="104"/>
-      <c r="AI28" s="104"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="81"/>
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="81"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
     </row>
@@ -3721,34 +3721,34 @@
       <c r="AZ29" s="6"/>
     </row>
     <row r="30" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
-      <c r="W30" s="85"/>
-      <c r="X30" s="85"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="86"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="103"/>
       <c r="AC30" s="63"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="64"/>
@@ -3799,29 +3799,29 @@
       <c r="E33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="87" t="s">
+      <c r="G33" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="88"/>
-      <c r="Y33" s="88"/>
-      <c r="Z33" s="88"/>
-      <c r="AA33" s="89"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="105"/>
+      <c r="W33" s="105"/>
+      <c r="X33" s="105"/>
+      <c r="Y33" s="105"/>
+      <c r="Z33" s="105"/>
+      <c r="AA33" s="106"/>
       <c r="AC33" s="63"/>
       <c r="AD33" s="63"/>
       <c r="AE33" s="64"/>
@@ -3836,34 +3836,37 @@
       <c r="D34" s="16">
         <v>50</v>
       </c>
-      <c r="E34" s="30"/>
+      <c r="E34" s="30">
+        <f>12*11-ROWS(_nOrigin)</f>
+        <v>29</v>
+      </c>
       <c r="F34" s="36">
         <f>IF(AND(E34&lt;&gt;"",E34=Answers!E34),1,IF(ISBLANK(E34),0,-1))</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="91"/>
-      <c r="X34" s="91"/>
-      <c r="Y34" s="91"/>
-      <c r="Z34" s="91"/>
-      <c r="AA34" s="92"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="108"/>
+      <c r="U34" s="108"/>
+      <c r="V34" s="108"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="108"/>
+      <c r="Y34" s="108"/>
+      <c r="Z34" s="108"/>
+      <c r="AA34" s="109"/>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="64"/>
@@ -3883,29 +3886,29 @@
         <f>IF(AND(E35&lt;&gt;"",E35=Answers!E35),1,IF(ISBLANK(E35),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G35" s="93" t="s">
+      <c r="G35" s="110" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="95"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="111"/>
+      <c r="W35" s="111"/>
+      <c r="X35" s="111"/>
+      <c r="Y35" s="111"/>
+      <c r="Z35" s="111"/>
+      <c r="AA35" s="112"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
@@ -3925,29 +3928,29 @@
         <f>IF(AND(E36&lt;&gt;"",E36=Answers!E36),1,IF(ISBLANK(E36),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G36" s="96" t="s">
+      <c r="G36" s="113" t="s">
         <v>309</v>
       </c>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97"/>
-      <c r="S36" s="97"/>
-      <c r="T36" s="97"/>
-      <c r="U36" s="97"/>
-      <c r="V36" s="97"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="98"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="114"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="114"/>
+      <c r="U36" s="114"/>
+      <c r="V36" s="114"/>
+      <c r="W36" s="114"/>
+      <c r="X36" s="114"/>
+      <c r="Y36" s="114"/>
+      <c r="Z36" s="114"/>
+      <c r="AA36" s="115"/>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="64"/>
@@ -4050,13 +4053,13 @@
       <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="100" t="s">
+      <c r="J41" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="117"/>
+      <c r="N41" s="117"/>
       <c r="AS41" s="6"/>
       <c r="AT41" s="6"/>
       <c r="AU41" s="6"/>
@@ -4067,14 +4070,14 @@
       <c r="AZ41" s="6"/>
     </row>
     <row r="42" spans="2:52" ht="15" customHeight="1" thickTop="1">
-      <c r="J42" s="99" cm="1">
+      <c r="J42" s="116" cm="1">
         <f t="array" ref="J42">SUMPRODUCT(--(F34:F216=1),F34:F216,D34:D216)</f>
-        <v>420</v>
-      </c>
-      <c r="K42" s="99"/>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="99"/>
+        <v>470</v>
+      </c>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
       <c r="AS42" s="6"/>
       <c r="AT42" s="6"/>
       <c r="AU42" s="6"/>
@@ -4088,11 +4091,11 @@
       <c r="B43" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="99"/>
-      <c r="N43" s="99"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
       <c r="AS43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
@@ -4105,11 +4108,11 @@
     <row r="44" spans="2:52" ht="15" customHeight="1" thickBot="1">
       <c r="B44" s="20"/>
       <c r="G44" s="27"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="99"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="116"/>
       <c r="R44" s="6"/>
     </row>
     <row r="45" spans="2:52" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4130,11 +4133,11 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="99"/>
-      <c r="M45" s="99"/>
-      <c r="N45" s="99"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="116"/>
       <c r="R45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
@@ -5326,20 +5329,20 @@
       <c r="E67" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="87" t="s">
+      <c r="G67" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="88"/>
-      <c r="M67" s="88"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="88"/>
-      <c r="P67" s="88"/>
-      <c r="Q67" s="88"/>
-      <c r="R67" s="89"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="105"/>
+      <c r="K67" s="105"/>
+      <c r="L67" s="105"/>
+      <c r="M67" s="105"/>
+      <c r="N67" s="105"/>
+      <c r="O67" s="105"/>
+      <c r="P67" s="105"/>
+      <c r="Q67" s="105"/>
+      <c r="R67" s="106"/>
       <c r="S67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -7382,35 +7385,35 @@
         <v>4</v>
       </c>
       <c r="E104" s="44"/>
-      <c r="G104" s="101" t="s">
+      <c r="G104" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="102"/>
-      <c r="I104" s="102"/>
-      <c r="J104" s="102"/>
-      <c r="K104" s="102"/>
-      <c r="L104" s="102"/>
-      <c r="M104" s="102"/>
-      <c r="N104" s="102"/>
-      <c r="O104" s="102"/>
-      <c r="P104" s="102"/>
-      <c r="Q104" s="102"/>
-      <c r="R104" s="102"/>
-      <c r="S104" s="102"/>
-      <c r="T104" s="102"/>
-      <c r="U104" s="102"/>
-      <c r="V104" s="102"/>
-      <c r="W104" s="102"/>
-      <c r="X104" s="102"/>
-      <c r="Y104" s="102"/>
-      <c r="Z104" s="102"/>
-      <c r="AA104" s="102"/>
-      <c r="AB104" s="102"/>
-      <c r="AC104" s="102"/>
-      <c r="AD104" s="102"/>
-      <c r="AE104" s="102"/>
-      <c r="AF104" s="102"/>
-      <c r="AG104" s="103"/>
+      <c r="H104" s="119"/>
+      <c r="I104" s="119"/>
+      <c r="J104" s="119"/>
+      <c r="K104" s="119"/>
+      <c r="L104" s="119"/>
+      <c r="M104" s="119"/>
+      <c r="N104" s="119"/>
+      <c r="O104" s="119"/>
+      <c r="P104" s="119"/>
+      <c r="Q104" s="119"/>
+      <c r="R104" s="119"/>
+      <c r="S104" s="119"/>
+      <c r="T104" s="119"/>
+      <c r="U104" s="119"/>
+      <c r="V104" s="119"/>
+      <c r="W104" s="119"/>
+      <c r="X104" s="119"/>
+      <c r="Y104" s="119"/>
+      <c r="Z104" s="119"/>
+      <c r="AA104" s="119"/>
+      <c r="AB104" s="119"/>
+      <c r="AC104" s="119"/>
+      <c r="AD104" s="119"/>
+      <c r="AE104" s="119"/>
+      <c r="AF104" s="119"/>
+      <c r="AG104" s="120"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
       <c r="AJ104" s="6"/>
@@ -9086,48 +9089,48 @@
       <c r="G144" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="81" t="s">
+      <c r="I144" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="J144" s="82"/>
-      <c r="K144" s="82"/>
-      <c r="L144" s="82"/>
-      <c r="M144" s="82"/>
-      <c r="N144" s="82"/>
-      <c r="O144" s="82"/>
-      <c r="P144" s="82"/>
-      <c r="Q144" s="82"/>
-      <c r="R144" s="82"/>
-      <c r="S144" s="82"/>
-      <c r="T144" s="82"/>
-      <c r="U144" s="82"/>
-      <c r="V144" s="82"/>
-      <c r="W144" s="82"/>
-      <c r="X144" s="82"/>
-      <c r="Y144" s="82"/>
-      <c r="Z144" s="82"/>
-      <c r="AA144" s="82"/>
-      <c r="AB144" s="82"/>
-      <c r="AC144" s="82"/>
-      <c r="AD144" s="82"/>
-      <c r="AE144" s="82"/>
-      <c r="AF144" s="82"/>
-      <c r="AG144" s="82"/>
-      <c r="AH144" s="82"/>
-      <c r="AI144" s="82"/>
-      <c r="AJ144" s="82"/>
-      <c r="AK144" s="82"/>
-      <c r="AL144" s="82"/>
-      <c r="AM144" s="82"/>
-      <c r="AN144" s="82"/>
-      <c r="AO144" s="82"/>
-      <c r="AP144" s="82"/>
-      <c r="AQ144" s="82"/>
-      <c r="AR144" s="82"/>
-      <c r="AS144" s="82"/>
-      <c r="AT144" s="82"/>
-      <c r="AU144" s="82"/>
-      <c r="AV144" s="83"/>
+      <c r="J144" s="99"/>
+      <c r="K144" s="99"/>
+      <c r="L144" s="99"/>
+      <c r="M144" s="99"/>
+      <c r="N144" s="99"/>
+      <c r="O144" s="99"/>
+      <c r="P144" s="99"/>
+      <c r="Q144" s="99"/>
+      <c r="R144" s="99"/>
+      <c r="S144" s="99"/>
+      <c r="T144" s="99"/>
+      <c r="U144" s="99"/>
+      <c r="V144" s="99"/>
+      <c r="W144" s="99"/>
+      <c r="X144" s="99"/>
+      <c r="Y144" s="99"/>
+      <c r="Z144" s="99"/>
+      <c r="AA144" s="99"/>
+      <c r="AB144" s="99"/>
+      <c r="AC144" s="99"/>
+      <c r="AD144" s="99"/>
+      <c r="AE144" s="99"/>
+      <c r="AF144" s="99"/>
+      <c r="AG144" s="99"/>
+      <c r="AH144" s="99"/>
+      <c r="AI144" s="99"/>
+      <c r="AJ144" s="99"/>
+      <c r="AK144" s="99"/>
+      <c r="AL144" s="99"/>
+      <c r="AM144" s="99"/>
+      <c r="AN144" s="99"/>
+      <c r="AO144" s="99"/>
+      <c r="AP144" s="99"/>
+      <c r="AQ144" s="99"/>
+      <c r="AR144" s="99"/>
+      <c r="AS144" s="99"/>
+      <c r="AT144" s="99"/>
+      <c r="AU144" s="99"/>
+      <c r="AV144" s="100"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="6"/>
       <c r="AY144" s="6"/>
@@ -10718,52 +10721,52 @@
       <c r="G179" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I179" s="81" t="s">
+      <c r="I179" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="J179" s="82"/>
-      <c r="K179" s="82"/>
-      <c r="L179" s="82"/>
-      <c r="M179" s="82"/>
-      <c r="N179" s="82"/>
-      <c r="O179" s="82"/>
-      <c r="P179" s="82"/>
-      <c r="Q179" s="82"/>
-      <c r="R179" s="82"/>
-      <c r="S179" s="82"/>
-      <c r="T179" s="82"/>
-      <c r="U179" s="82"/>
-      <c r="V179" s="82"/>
-      <c r="W179" s="82"/>
-      <c r="X179" s="82"/>
-      <c r="Y179" s="82"/>
-      <c r="Z179" s="82"/>
-      <c r="AA179" s="82"/>
-      <c r="AB179" s="82"/>
-      <c r="AC179" s="82"/>
-      <c r="AD179" s="82"/>
-      <c r="AE179" s="82"/>
-      <c r="AF179" s="82"/>
-      <c r="AG179" s="82"/>
-      <c r="AH179" s="82"/>
-      <c r="AI179" s="82"/>
-      <c r="AJ179" s="82"/>
-      <c r="AK179" s="82"/>
-      <c r="AL179" s="82"/>
-      <c r="AM179" s="82"/>
-      <c r="AN179" s="82"/>
-      <c r="AO179" s="82"/>
-      <c r="AP179" s="82"/>
-      <c r="AQ179" s="82"/>
-      <c r="AR179" s="82"/>
-      <c r="AS179" s="82"/>
-      <c r="AT179" s="82"/>
-      <c r="AU179" s="82"/>
-      <c r="AV179" s="82"/>
-      <c r="AW179" s="82"/>
-      <c r="AX179" s="82"/>
-      <c r="AY179" s="82"/>
-      <c r="AZ179" s="83"/>
+      <c r="J179" s="99"/>
+      <c r="K179" s="99"/>
+      <c r="L179" s="99"/>
+      <c r="M179" s="99"/>
+      <c r="N179" s="99"/>
+      <c r="O179" s="99"/>
+      <c r="P179" s="99"/>
+      <c r="Q179" s="99"/>
+      <c r="R179" s="99"/>
+      <c r="S179" s="99"/>
+      <c r="T179" s="99"/>
+      <c r="U179" s="99"/>
+      <c r="V179" s="99"/>
+      <c r="W179" s="99"/>
+      <c r="X179" s="99"/>
+      <c r="Y179" s="99"/>
+      <c r="Z179" s="99"/>
+      <c r="AA179" s="99"/>
+      <c r="AB179" s="99"/>
+      <c r="AC179" s="99"/>
+      <c r="AD179" s="99"/>
+      <c r="AE179" s="99"/>
+      <c r="AF179" s="99"/>
+      <c r="AG179" s="99"/>
+      <c r="AH179" s="99"/>
+      <c r="AI179" s="99"/>
+      <c r="AJ179" s="99"/>
+      <c r="AK179" s="99"/>
+      <c r="AL179" s="99"/>
+      <c r="AM179" s="99"/>
+      <c r="AN179" s="99"/>
+      <c r="AO179" s="99"/>
+      <c r="AP179" s="99"/>
+      <c r="AQ179" s="99"/>
+      <c r="AR179" s="99"/>
+      <c r="AS179" s="99"/>
+      <c r="AT179" s="99"/>
+      <c r="AU179" s="99"/>
+      <c r="AV179" s="99"/>
+      <c r="AW179" s="99"/>
+      <c r="AX179" s="99"/>
+      <c r="AY179" s="99"/>
+      <c r="AZ179" s="100"/>
     </row>
     <row r="180" spans="2:52" ht="15.75" thickTop="1">
       <c r="B180" s="1"/>
@@ -12967,15 +12970,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="B2:AA2"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="B14:T28"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y11:AA11"/>
     <mergeCell ref="I179:AZ179"/>
     <mergeCell ref="B30:AA30"/>
     <mergeCell ref="G33:AA33"/>
@@ -12987,6 +12981,15 @@
     <mergeCell ref="J41:N41"/>
     <mergeCell ref="G104:AG104"/>
     <mergeCell ref="I144:AV144"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="B14:T28"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y11:AA11"/>
   </mergeCells>
   <conditionalFormatting sqref="Y15:AA26 AE26 AC27:AE39">
     <cfRule type="expression" dxfId="3" priority="18">
@@ -13313,7 +13316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF1246F-240F-4F65-8DBE-618A3738E125}">
   <dimension ref="A1:U1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -23278,7 +23281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1463E2-8F2B-4D23-B0F5-2E2A75D6AE1A}">
   <dimension ref="A1:DD369"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G104"/>
     </sheetView>
   </sheetViews>
@@ -37178,34 +37181,34 @@
       <c r="BD1" s="6"/>
     </row>
     <row r="2" spans="2:56" ht="60.6" customHeight="1">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="82" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="82"/>
       <c r="AO2" s="3"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -37229,32 +37232,32 @@
       <c r="BD3" s="6"/>
     </row>
     <row r="4" spans="2:56" ht="33.6" customHeight="1">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="Y4" s="117" t="s">
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="Y4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="106"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="83"/>
       <c r="AO4" s="3"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -37482,11 +37485,11 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="118" t="s">
+      <c r="Y11" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="120"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="97"/>
       <c r="AO11" s="3"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -37531,33 +37534,33 @@
       <c r="BD12" s="6"/>
     </row>
     <row r="13" spans="2:56" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B13" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="106"/>
-      <c r="T13" s="106"/>
+      <c r="B13" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="83"/>
+      <c r="T13" s="83"/>
       <c r="U13" s="60"/>
-      <c r="Y13" s="107" t="s">
+      <c r="Y13" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="83"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -37565,27 +37568,27 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:56" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="85" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="110"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="86"/>
+      <c r="S14" s="86"/>
+      <c r="T14" s="87"/>
       <c r="U14" s="3"/>
       <c r="Y14" s="61" t="s">
         <v>31</v>
@@ -37602,25 +37605,25 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:56" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B15" s="111"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="112"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="112"/>
-      <c r="S15" s="112"/>
-      <c r="T15" s="113"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="90"/>
       <c r="U15" s="3"/>
       <c r="Y15" s="62" t="s">
         <v>32</v>
@@ -37637,25 +37640,25 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B16" s="111"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="112"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="113"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="90"/>
       <c r="U16" s="3"/>
       <c r="Y16" s="62" t="s">
         <v>47</v>
@@ -37671,25 +37674,25 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B17" s="111"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="113"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="90"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="62" t="s">
         <v>39</v>
@@ -37705,25 +37708,25 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="18" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B18" s="111"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="113"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="90"/>
       <c r="U18" s="3"/>
       <c r="Y18" s="62" t="s">
         <v>35</v>
@@ -37739,25 +37742,25 @@
       <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="112"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="113"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="90"/>
       <c r="U19" s="3"/>
       <c r="Y19" s="62" t="s">
         <v>42</v>
@@ -37773,25 +37776,25 @@
       <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="112"/>
-      <c r="S20" s="112"/>
-      <c r="T20" s="113"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="90"/>
       <c r="U20" s="3"/>
       <c r="Y20" s="62" t="s">
         <v>48</v>
@@ -37805,25 +37808,25 @@
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="113"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="90"/>
       <c r="U21" s="3"/>
       <c r="Y21" s="62" t="s">
         <v>49</v>
@@ -37839,25 +37842,25 @@
       <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B22" s="111"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="112"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="113"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="90"/>
       <c r="U22" s="3"/>
       <c r="Y22" s="62" t="s">
         <v>50</v>
@@ -37874,25 +37877,25 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B23" s="111"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="113"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="90"/>
       <c r="U23" s="3"/>
       <c r="Y23" s="62" t="s">
         <v>51</v>
@@ -37909,25 +37912,25 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B24" s="111"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="113"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="89"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="90"/>
       <c r="U24" s="3"/>
       <c r="Y24" s="62" t="s">
         <v>52</v>
@@ -37944,25 +37947,25 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B25" s="111"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="113"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="90"/>
       <c r="U25" s="3"/>
       <c r="Y25" s="62" t="s">
         <v>53</v>
@@ -37977,25 +37980,25 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B26" s="111"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="112"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="113"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="90"/>
       <c r="U26" s="3"/>
       <c r="Y26" s="62" t="s">
         <v>105</v>
@@ -38015,25 +38018,25 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B27" s="111"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="113"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="90"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -38052,25 +38055,25 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:56" ht="47.25" customHeight="1">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="115"/>
-      <c r="R28" s="115"/>
-      <c r="S28" s="115"/>
-      <c r="T28" s="116"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="92"/>
+      <c r="Q28" s="92"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="93"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -38081,10 +38084,10 @@
       <c r="AC28" s="63"/>
       <c r="AD28" s="63"/>
       <c r="AE28" s="64"/>
-      <c r="AF28" s="104"/>
-      <c r="AG28" s="104"/>
-      <c r="AH28" s="104"/>
-      <c r="AI28" s="104"/>
+      <c r="AF28" s="81"/>
+      <c r="AG28" s="81"/>
+      <c r="AH28" s="81"/>
+      <c r="AI28" s="81"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
     </row>
@@ -38133,34 +38136,34 @@
       <c r="BD29" s="6"/>
     </row>
     <row r="30" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
-      <c r="W30" s="85"/>
-      <c r="X30" s="85"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="86"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="103"/>
       <c r="AC30" s="63"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="64"/>
@@ -38223,29 +38226,29 @@
       <c r="E33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="87" t="s">
+      <c r="G33" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="88"/>
-      <c r="Y33" s="88"/>
-      <c r="Z33" s="88"/>
-      <c r="AA33" s="89"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="105"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="105"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="105"/>
+      <c r="W33" s="105"/>
+      <c r="X33" s="105"/>
+      <c r="Y33" s="105"/>
+      <c r="Z33" s="105"/>
+      <c r="AA33" s="106"/>
       <c r="AC33" s="63"/>
       <c r="AD33" s="63"/>
       <c r="AE33" s="64"/>
@@ -38268,29 +38271,29 @@
         <v>29</v>
       </c>
       <c r="F34" s="36"/>
-      <c r="G34" s="90" t="s">
+      <c r="G34" s="107" t="s">
         <v>302</v>
       </c>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="91"/>
-      <c r="X34" s="91"/>
-      <c r="Y34" s="91"/>
-      <c r="Z34" s="91"/>
-      <c r="AA34" s="92"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="108"/>
+      <c r="Q34" s="108"/>
+      <c r="R34" s="108"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="108"/>
+      <c r="U34" s="108"/>
+      <c r="V34" s="108"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="108"/>
+      <c r="Y34" s="108"/>
+      <c r="Z34" s="108"/>
+      <c r="AA34" s="109"/>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="64"/>
@@ -38313,29 +38316,29 @@
         <v>51</v>
       </c>
       <c r="F35" s="36"/>
-      <c r="G35" s="93" t="s">
+      <c r="G35" s="110" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="95"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="111"/>
+      <c r="W35" s="111"/>
+      <c r="X35" s="111"/>
+      <c r="Y35" s="111"/>
+      <c r="Z35" s="111"/>
+      <c r="AA35" s="112"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
@@ -38358,29 +38361,29 @@
         <v>95</v>
       </c>
       <c r="F36" s="36"/>
-      <c r="G36" s="96" t="s">
+      <c r="G36" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97"/>
-      <c r="S36" s="97"/>
-      <c r="T36" s="97"/>
-      <c r="U36" s="97"/>
-      <c r="V36" s="97"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="98"/>
+      <c r="H36" s="114"/>
+      <c r="I36" s="114"/>
+      <c r="J36" s="114"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
+      <c r="O36" s="114"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="114"/>
+      <c r="R36" s="114"/>
+      <c r="S36" s="114"/>
+      <c r="T36" s="114"/>
+      <c r="U36" s="114"/>
+      <c r="V36" s="114"/>
+      <c r="W36" s="114"/>
+      <c r="X36" s="114"/>
+      <c r="Y36" s="114"/>
+      <c r="Z36" s="114"/>
+      <c r="AA36" s="115"/>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="64"/>
@@ -39849,20 +39852,20 @@
       <c r="E67" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="87" t="s">
+      <c r="G67" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="88"/>
-      <c r="M67" s="88"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="88"/>
-      <c r="P67" s="88"/>
-      <c r="Q67" s="88"/>
-      <c r="R67" s="89"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="105"/>
+      <c r="K67" s="105"/>
+      <c r="L67" s="105"/>
+      <c r="M67" s="105"/>
+      <c r="N67" s="105"/>
+      <c r="O67" s="105"/>
+      <c r="P67" s="105"/>
+      <c r="Q67" s="105"/>
+      <c r="R67" s="106"/>
       <c r="S67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -41902,34 +41905,34 @@
       <c r="E104" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="101" t="s">
+      <c r="G104" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="102"/>
-      <c r="I104" s="102"/>
-      <c r="J104" s="102"/>
-      <c r="K104" s="102"/>
-      <c r="L104" s="102"/>
-      <c r="M104" s="102"/>
-      <c r="N104" s="102"/>
-      <c r="O104" s="102"/>
-      <c r="P104" s="102"/>
-      <c r="Q104" s="102"/>
-      <c r="R104" s="102"/>
-      <c r="S104" s="102"/>
-      <c r="T104" s="102"/>
-      <c r="U104" s="102"/>
-      <c r="V104" s="102"/>
-      <c r="W104" s="102"/>
-      <c r="X104" s="102"/>
-      <c r="Y104" s="102"/>
-      <c r="Z104" s="102"/>
-      <c r="AA104" s="102"/>
-      <c r="AB104" s="102"/>
-      <c r="AC104" s="102"/>
-      <c r="AD104" s="102"/>
-      <c r="AE104" s="102"/>
-      <c r="AF104" s="103"/>
+      <c r="H104" s="119"/>
+      <c r="I104" s="119"/>
+      <c r="J104" s="119"/>
+      <c r="K104" s="119"/>
+      <c r="L104" s="119"/>
+      <c r="M104" s="119"/>
+      <c r="N104" s="119"/>
+      <c r="O104" s="119"/>
+      <c r="P104" s="119"/>
+      <c r="Q104" s="119"/>
+      <c r="R104" s="119"/>
+      <c r="S104" s="119"/>
+      <c r="T104" s="119"/>
+      <c r="U104" s="119"/>
+      <c r="V104" s="119"/>
+      <c r="W104" s="119"/>
+      <c r="X104" s="119"/>
+      <c r="Y104" s="119"/>
+      <c r="Z104" s="119"/>
+      <c r="AA104" s="119"/>
+      <c r="AB104" s="119"/>
+      <c r="AC104" s="119"/>
+      <c r="AD104" s="119"/>
+      <c r="AE104" s="119"/>
+      <c r="AF104" s="120"/>
       <c r="AG104" s="6"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
@@ -43645,47 +43648,47 @@
       <c r="G144" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="81" t="s">
+      <c r="I144" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="J144" s="82"/>
-      <c r="K144" s="82"/>
-      <c r="L144" s="82"/>
-      <c r="M144" s="82"/>
-      <c r="N144" s="82"/>
-      <c r="O144" s="82"/>
-      <c r="P144" s="82"/>
-      <c r="Q144" s="82"/>
-      <c r="R144" s="82"/>
-      <c r="S144" s="82"/>
-      <c r="T144" s="82"/>
-      <c r="U144" s="82"/>
-      <c r="V144" s="82"/>
-      <c r="W144" s="82"/>
-      <c r="X144" s="82"/>
-      <c r="Y144" s="82"/>
-      <c r="Z144" s="82"/>
-      <c r="AA144" s="82"/>
-      <c r="AB144" s="82"/>
-      <c r="AC144" s="82"/>
-      <c r="AD144" s="82"/>
-      <c r="AE144" s="82"/>
-      <c r="AF144" s="82"/>
-      <c r="AG144" s="82"/>
-      <c r="AH144" s="82"/>
-      <c r="AI144" s="82"/>
-      <c r="AJ144" s="82"/>
-      <c r="AK144" s="82"/>
-      <c r="AL144" s="82"/>
-      <c r="AM144" s="82"/>
-      <c r="AN144" s="82"/>
-      <c r="AO144" s="82"/>
-      <c r="AP144" s="82"/>
-      <c r="AQ144" s="82"/>
-      <c r="AR144" s="82"/>
-      <c r="AS144" s="82"/>
-      <c r="AT144" s="82"/>
-      <c r="AU144" s="83"/>
+      <c r="J144" s="99"/>
+      <c r="K144" s="99"/>
+      <c r="L144" s="99"/>
+      <c r="M144" s="99"/>
+      <c r="N144" s="99"/>
+      <c r="O144" s="99"/>
+      <c r="P144" s="99"/>
+      <c r="Q144" s="99"/>
+      <c r="R144" s="99"/>
+      <c r="S144" s="99"/>
+      <c r="T144" s="99"/>
+      <c r="U144" s="99"/>
+      <c r="V144" s="99"/>
+      <c r="W144" s="99"/>
+      <c r="X144" s="99"/>
+      <c r="Y144" s="99"/>
+      <c r="Z144" s="99"/>
+      <c r="AA144" s="99"/>
+      <c r="AB144" s="99"/>
+      <c r="AC144" s="99"/>
+      <c r="AD144" s="99"/>
+      <c r="AE144" s="99"/>
+      <c r="AF144" s="99"/>
+      <c r="AG144" s="99"/>
+      <c r="AH144" s="99"/>
+      <c r="AI144" s="99"/>
+      <c r="AJ144" s="99"/>
+      <c r="AK144" s="99"/>
+      <c r="AL144" s="99"/>
+      <c r="AM144" s="99"/>
+      <c r="AN144" s="99"/>
+      <c r="AO144" s="99"/>
+      <c r="AP144" s="99"/>
+      <c r="AQ144" s="99"/>
+      <c r="AR144" s="99"/>
+      <c r="AS144" s="99"/>
+      <c r="AT144" s="99"/>
+      <c r="AU144" s="100"/>
       <c r="AV144" s="6"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="6"/>
@@ -45337,55 +45340,55 @@
       <c r="G179" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I179" s="81" t="s">
+      <c r="I179" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="J179" s="82"/>
-      <c r="K179" s="82"/>
-      <c r="L179" s="82"/>
-      <c r="M179" s="82"/>
-      <c r="N179" s="82"/>
-      <c r="O179" s="82"/>
-      <c r="P179" s="82"/>
-      <c r="Q179" s="82"/>
-      <c r="R179" s="82"/>
-      <c r="S179" s="82"/>
-      <c r="T179" s="82"/>
-      <c r="U179" s="82"/>
-      <c r="V179" s="82"/>
-      <c r="W179" s="82"/>
-      <c r="X179" s="82"/>
-      <c r="Y179" s="82"/>
-      <c r="Z179" s="82"/>
-      <c r="AA179" s="82"/>
-      <c r="AB179" s="82"/>
-      <c r="AC179" s="82"/>
-      <c r="AD179" s="82"/>
-      <c r="AE179" s="82"/>
-      <c r="AF179" s="82"/>
-      <c r="AG179" s="82"/>
-      <c r="AH179" s="82"/>
-      <c r="AI179" s="82"/>
-      <c r="AJ179" s="82"/>
-      <c r="AK179" s="82"/>
-      <c r="AL179" s="82"/>
-      <c r="AM179" s="82"/>
-      <c r="AN179" s="82"/>
-      <c r="AO179" s="82"/>
-      <c r="AP179" s="82"/>
-      <c r="AQ179" s="82"/>
-      <c r="AR179" s="82"/>
-      <c r="AS179" s="82"/>
-      <c r="AT179" s="82"/>
-      <c r="AU179" s="82"/>
-      <c r="AV179" s="82"/>
-      <c r="AW179" s="82"/>
-      <c r="AX179" s="82"/>
-      <c r="AY179" s="82"/>
-      <c r="AZ179" s="82"/>
-      <c r="BA179" s="82"/>
-      <c r="BB179" s="82"/>
-      <c r="BC179" s="83"/>
+      <c r="J179" s="99"/>
+      <c r="K179" s="99"/>
+      <c r="L179" s="99"/>
+      <c r="M179" s="99"/>
+      <c r="N179" s="99"/>
+      <c r="O179" s="99"/>
+      <c r="P179" s="99"/>
+      <c r="Q179" s="99"/>
+      <c r="R179" s="99"/>
+      <c r="S179" s="99"/>
+      <c r="T179" s="99"/>
+      <c r="U179" s="99"/>
+      <c r="V179" s="99"/>
+      <c r="W179" s="99"/>
+      <c r="X179" s="99"/>
+      <c r="Y179" s="99"/>
+      <c r="Z179" s="99"/>
+      <c r="AA179" s="99"/>
+      <c r="AB179" s="99"/>
+      <c r="AC179" s="99"/>
+      <c r="AD179" s="99"/>
+      <c r="AE179" s="99"/>
+      <c r="AF179" s="99"/>
+      <c r="AG179" s="99"/>
+      <c r="AH179" s="99"/>
+      <c r="AI179" s="99"/>
+      <c r="AJ179" s="99"/>
+      <c r="AK179" s="99"/>
+      <c r="AL179" s="99"/>
+      <c r="AM179" s="99"/>
+      <c r="AN179" s="99"/>
+      <c r="AO179" s="99"/>
+      <c r="AP179" s="99"/>
+      <c r="AQ179" s="99"/>
+      <c r="AR179" s="99"/>
+      <c r="AS179" s="99"/>
+      <c r="AT179" s="99"/>
+      <c r="AU179" s="99"/>
+      <c r="AV179" s="99"/>
+      <c r="AW179" s="99"/>
+      <c r="AX179" s="99"/>
+      <c r="AY179" s="99"/>
+      <c r="AZ179" s="99"/>
+      <c r="BA179" s="99"/>
+      <c r="BB179" s="99"/>
+      <c r="BC179" s="100"/>
       <c r="BD179" s="6"/>
     </row>
     <row r="180" spans="2:56" ht="15.75" thickTop="1">
@@ -47701,11 +47704,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G36:AA36"/>
-    <mergeCell ref="G67:R67"/>
-    <mergeCell ref="I179:BC179"/>
-    <mergeCell ref="I144:AU144"/>
-    <mergeCell ref="G104:AF104"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="Y13:AA13"/>
     <mergeCell ref="AF28:AG28"/>
     <mergeCell ref="AH28:AI28"/>
     <mergeCell ref="B30:AA30"/>
@@ -47713,12 +47717,11 @@
     <mergeCell ref="G35:AA35"/>
     <mergeCell ref="G34:AA34"/>
     <mergeCell ref="B14:T28"/>
-    <mergeCell ref="B2:AA2"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="G36:AA36"/>
+    <mergeCell ref="G67:R67"/>
+    <mergeCell ref="I179:BC179"/>
+    <mergeCell ref="I144:AU144"/>
+    <mergeCell ref="G104:AF104"/>
   </mergeCells>
   <conditionalFormatting sqref="Y15:AA26 AE26 AC27:AE39">
     <cfRule type="expression" dxfId="0" priority="16">

--- a/ExcelEsport/FMWC_Examples/What Is My Flight Number - Patrick Chatain - My Work.xlsx
+++ b/ExcelEsport/FMWC_Examples/What Is My Flight Number - Patrick Chatain - My Work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\ExcelEsport\FMWC_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93203680-F86C-4A39-B45D-D443FCBF2DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E80DFA-8F73-4AD8-BD64-3F5C0657BA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
   </bookViews>
@@ -23,8 +23,9 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_nCanada">#REF!</definedName>
-    <definedName name="_nCity">#REF!</definedName>
+    <definedName name="_nCanada">Case!$AB$15:$AB$26</definedName>
+    <definedName name="_nCity">Case!$Y$15:$Y$26</definedName>
+    <definedName name="_nCode">Case!$Z$15:$Z$26</definedName>
     <definedName name="_nDestination">'Flight Routes'!$C$2:$C$104</definedName>
     <definedName name="_nDistance">'Flight Routes'!$F$2:$F$104</definedName>
     <definedName name="_nIATA">#REF!</definedName>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="330">
   <si>
     <t>Instructions</t>
   </si>
@@ -2079,56 +2080,11 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2199,11 +2155,56 @@
     <xf numFmtId="3" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2466,12 +2467,14 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Case"/>
       <sheetName val="Flight Routes"/>
       <sheetName val="Answers"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="34">
           <cell r="E34">
             <v>29</v>
@@ -3342,8 +3345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B840F547-97A4-4023-9D52-57A423820E20}">
   <dimension ref="A1:AZ216"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4"/>
@@ -3357,14 +3360,12 @@
     <col min="7" max="7" width="18.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.5546875" style="1" customWidth="1"/>
-    <col min="10" max="20" width="8.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" style="1" customWidth="1"/>
-    <col min="22" max="24" width="3.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="16.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="16.88671875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.44140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5546875" style="1" customWidth="1"/>
+    <col min="10" max="19" width="8.88671875" style="1" customWidth="1"/>
+    <col min="20" max="24" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.5546875" style="1" customWidth="1"/>
     <col min="31" max="31" width="26.109375" style="1" customWidth="1"/>
     <col min="32" max="51" width="16.21875" style="1" customWidth="1"/>
@@ -3396,34 +3397,34 @@
       <c r="AZ1" s="6"/>
     </row>
     <row r="2" spans="2:52" ht="60.6" customHeight="1">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="111" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
       <c r="AO2" s="3"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -3439,32 +3440,32 @@
       <c r="AZ3" s="6"/>
     </row>
     <row r="4" spans="2:52" ht="33.6" customHeight="1">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="Y4" s="98" t="s">
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="Y4" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="87"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="112"/>
       <c r="AO4" s="3"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -3664,11 +3665,11 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="99" t="s">
+      <c r="Y11" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="101"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="126"/>
       <c r="AO11" s="3"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -3703,33 +3704,33 @@
       <c r="AZ12" s="6"/>
     </row>
     <row r="13" spans="2:52" ht="24.9" customHeight="1" thickBot="1">
-      <c r="B13" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
+      <c r="B13" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="112"/>
       <c r="U13" s="60"/>
-      <c r="Y13" s="88" t="s">
+      <c r="Y13" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="112"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -3737,27 +3738,27 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:52" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="114" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="91"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="116"/>
       <c r="U14" s="3"/>
       <c r="Y14" s="61" t="s">
         <v>31</v>
@@ -3774,25 +3775,25 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:52" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="94"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="119"/>
       <c r="U15" s="3"/>
       <c r="Y15" s="62" t="s">
         <v>32</v>
@@ -3802,6 +3803,9 @@
       </c>
       <c r="AA15" s="62" t="s">
         <v>76</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1</v>
       </c>
       <c r="AF15" s="55"/>
       <c r="AG15" s="56"/>
@@ -3809,25 +3813,25 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="94"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="119"/>
       <c r="U16" s="3"/>
       <c r="Y16" s="62" t="s">
         <v>47</v>
@@ -3838,30 +3842,33 @@
       <c r="AA16" s="62" t="s">
         <v>77</v>
       </c>
+      <c r="AB16" s="1">
+        <v>1</v>
+      </c>
       <c r="AG16" s="54"/>
       <c r="AH16" s="54"/>
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="94"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="119"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="62" t="s">
         <v>39</v>
@@ -3872,30 +3879,33 @@
       <c r="AA17" s="62" t="s">
         <v>79</v>
       </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
       <c r="AG17" s="54"/>
       <c r="AH17" s="54"/>
       <c r="AP17" s="3"/>
     </row>
     <row r="18" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="94"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="119"/>
       <c r="U18" s="3"/>
       <c r="Y18" s="62" t="s">
         <v>35</v>
@@ -3906,30 +3916,33 @@
       <c r="AA18" s="62" t="s">
         <v>75</v>
       </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
       <c r="AG18" s="54"/>
       <c r="AH18" s="54"/>
       <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="94"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="119"/>
       <c r="U19" s="3"/>
       <c r="Y19" s="62" t="s">
         <v>42</v>
@@ -3940,30 +3953,33 @@
       <c r="AA19" s="62" t="s">
         <v>78</v>
       </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
       <c r="AG19" s="54"/>
       <c r="AH19" s="54"/>
       <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="94"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="119"/>
       <c r="U20" s="3"/>
       <c r="Y20" s="62" t="s">
         <v>48</v>
@@ -3974,28 +3990,31 @@
       <c r="AA20" s="62" t="s">
         <v>83</v>
       </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="94"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="119"/>
       <c r="U21" s="3"/>
       <c r="Y21" s="62" t="s">
         <v>49</v>
@@ -4006,30 +4025,33 @@
       <c r="AA21" s="62" t="s">
         <v>80</v>
       </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
       <c r="AG21" s="54"/>
       <c r="AH21" s="54"/>
       <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="94"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="119"/>
       <c r="U22" s="3"/>
       <c r="Y22" s="62" t="s">
         <v>50</v>
@@ -4039,6 +4061,9 @@
       </c>
       <c r="AA22" s="62" t="s">
         <v>81</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
       </c>
       <c r="AG22" s="54"/>
       <c r="AH22" s="54"/>
@@ -4046,25 +4071,25 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="94"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="119"/>
       <c r="U23" s="3"/>
       <c r="Y23" s="62" t="s">
         <v>51</v>
@@ -4074,6 +4099,9 @@
       </c>
       <c r="AA23" s="62" t="s">
         <v>82</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
       </c>
       <c r="AG23" s="54"/>
       <c r="AH23" s="54"/>
@@ -4081,25 +4109,25 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="94"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="119"/>
       <c r="U24" s="3"/>
       <c r="Y24" s="62" t="s">
         <v>52</v>
@@ -4109,6 +4137,9 @@
       </c>
       <c r="AA24" s="62" t="s">
         <v>73</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
       </c>
       <c r="AG24" s="54"/>
       <c r="AH24" s="54"/>
@@ -4116,25 +4147,25 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="94"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="119"/>
       <c r="U25" s="3"/>
       <c r="Y25" s="62" t="s">
         <v>53</v>
@@ -4145,29 +4176,32 @@
       <c r="AA25" s="62" t="s">
         <v>74</v>
       </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
       <c r="AO25" s="3"/>
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="94"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="119"/>
       <c r="U26" s="3"/>
       <c r="Y26" s="62" t="s">
         <v>105</v>
@@ -4177,6 +4211,9 @@
       </c>
       <c r="AA26" s="62" t="s">
         <v>104</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0</v>
       </c>
       <c r="AE26" s="64"/>
       <c r="AF26" s="2"/>
@@ -4187,25 +4224,25 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="94"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="118"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="119"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -4224,25 +4261,25 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="47.25" customHeight="1">
-      <c r="B28" s="95"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="97"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="122"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -4253,10 +4290,10 @@
       <c r="AC28" s="63"/>
       <c r="AD28" s="63"/>
       <c r="AE28" s="64"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="85"/>
-      <c r="AH28" s="85"/>
-      <c r="AI28" s="85"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="110"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
     </row>
@@ -4301,34 +4338,34 @@
       <c r="AZ29" s="6"/>
     </row>
     <row r="30" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="106"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="106"/>
-      <c r="AA30" s="107"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="92"/>
       <c r="AC30" s="63"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="64"/>
@@ -4379,29 +4416,29 @@
       <c r="E33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="108" t="s">
+      <c r="G33" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="109"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109"/>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="110"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="95"/>
       <c r="AC33" s="63"/>
       <c r="AD33" s="63"/>
       <c r="AE33" s="64"/>
@@ -4421,29 +4458,29 @@
         <f>IF(AND(E34&lt;&gt;"",E34=[1]Answers!E34),1,IF(ISBLANK(E34),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G34" s="111" t="s">
+      <c r="G34" s="96" t="s">
         <v>308</v>
       </c>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="112"/>
-      <c r="S34" s="112"/>
-      <c r="T34" s="112"/>
-      <c r="U34" s="112"/>
-      <c r="V34" s="112"/>
-      <c r="W34" s="112"/>
-      <c r="X34" s="112"/>
-      <c r="Y34" s="112"/>
-      <c r="Z34" s="112"/>
-      <c r="AA34" s="113"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="98"/>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="64"/>
@@ -4463,29 +4500,29 @@
         <f>IF(AND(E35&lt;&gt;"",E35=[1]Answers!E35),1,IF(ISBLANK(E35),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G35" s="114" t="s">
+      <c r="G35" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="115"/>
-      <c r="P35" s="115"/>
-      <c r="Q35" s="115"/>
-      <c r="R35" s="115"/>
-      <c r="S35" s="115"/>
-      <c r="T35" s="115"/>
-      <c r="U35" s="115"/>
-      <c r="V35" s="115"/>
-      <c r="W35" s="115"/>
-      <c r="X35" s="115"/>
-      <c r="Y35" s="115"/>
-      <c r="Z35" s="115"/>
-      <c r="AA35" s="116"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="101"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
@@ -4505,29 +4542,29 @@
         <f>IF(AND(E36&lt;&gt;"",E36=[1]Answers!E36),1,IF(ISBLANK(E36),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G36" s="117" t="s">
+      <c r="G36" s="102" t="s">
         <v>309</v>
       </c>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="118"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="118"/>
-      <c r="P36" s="118"/>
-      <c r="Q36" s="118"/>
-      <c r="R36" s="118"/>
-      <c r="S36" s="118"/>
-      <c r="T36" s="118"/>
-      <c r="U36" s="118"/>
-      <c r="V36" s="118"/>
-      <c r="W36" s="118"/>
-      <c r="X36" s="118"/>
-      <c r="Y36" s="118"/>
-      <c r="Z36" s="118"/>
-      <c r="AA36" s="119"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="103"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="103"/>
+      <c r="V36" s="103"/>
+      <c r="W36" s="103"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="103"/>
+      <c r="AA36" s="104"/>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="64"/>
@@ -4561,13 +4598,13 @@
       <c r="B39" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
@@ -4630,13 +4667,13 @@
       <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="121" t="s">
+      <c r="J41" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="121"/>
-      <c r="L41" s="121"/>
-      <c r="M41" s="121"/>
-      <c r="N41" s="121"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="106"/>
+      <c r="M41" s="106"/>
+      <c r="N41" s="106"/>
       <c r="AS41" s="6"/>
       <c r="AT41" s="6"/>
       <c r="AU41" s="6"/>
@@ -4647,14 +4684,14 @@
       <c r="AZ41" s="6"/>
     </row>
     <row r="42" spans="2:52" ht="15" customHeight="1" thickTop="1">
-      <c r="J42" s="120" cm="1">
+      <c r="J42" s="105" cm="1">
         <f t="array" ref="J42">SUMPRODUCT(--(F34:F216=1),F34:F216,D34:D216)</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120"/>
-      <c r="N42" s="120"/>
+        <v>420</v>
+      </c>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
       <c r="AS42" s="6"/>
       <c r="AT42" s="6"/>
       <c r="AU42" s="6"/>
@@ -4668,11 +4705,11 @@
       <c r="B43" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
       <c r="AS43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
@@ -4685,11 +4722,11 @@
     <row r="44" spans="2:52" ht="15" customHeight="1" thickBot="1">
       <c r="B44" s="20"/>
       <c r="G44" s="27"/>
-      <c r="J44" s="120"/>
-      <c r="K44" s="120"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="120"/>
-      <c r="N44" s="120"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="105"/>
       <c r="R44" s="6"/>
     </row>
     <row r="45" spans="2:52" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4710,11 +4747,11 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="120"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="120"/>
-      <c r="N45" s="120"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
       <c r="R45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
@@ -4806,7 +4843,10 @@
         <v>44</v>
       </c>
       <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="I47" s="6" t="str">
+        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G47,"-"),_nCode,_nCity)</f>
+        <v>Toronto</v>
+      </c>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
@@ -4849,7 +4889,10 @@
       <c r="D48" s="1"/>
       <c r="E48" s="39"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="I48" s="6" t="e">
+        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G48,"-"),_nCode,_nCity)</f>
+        <v>#N/A</v>
+      </c>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
@@ -4896,16 +4939,21 @@
       <c r="D49" s="18">
         <v>6</v>
       </c>
-      <c r="E49" s="30"/>
+      <c r="E49" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="F49" s="36">
         <f>IF(AND(E49&lt;&gt;"",E49=[1]Answers!E49),1,IF(ISBLANK(E49),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>165</v>
       </c>
       <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="I49" s="6" t="str">
+        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G49,"-"),_nCode,_nCity)</f>
+        <v>Lisbon</v>
+      </c>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
@@ -4944,7 +4992,7 @@
     </row>
     <row r="50" spans="2:52" ht="23.4">
       <c r="B50" s="17">
-        <f>B49+1</f>
+        <f t="shared" ref="B50:B58" si="0">B49+1</f>
         <v>2</v>
       </c>
       <c r="C50" s="17">
@@ -4953,16 +5001,21 @@
       <c r="D50" s="18">
         <v>6</v>
       </c>
-      <c r="E50" s="30"/>
+      <c r="E50" s="30" t="s">
+        <v>50</v>
+      </c>
       <c r="F50" s="36">
         <f>IF(AND(E50&lt;&gt;"",E50=[1]Answers!E50),1,IF(ISBLANK(E50),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>173</v>
       </c>
       <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="I50" s="6" t="str">
+        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G50,"-"),_nCode,_nCity)</f>
+        <v>Los Angeles</v>
+      </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="M50" s="6"/>
@@ -5008,7 +5061,7 @@
     </row>
     <row r="51" spans="2:52" ht="23.4">
       <c r="B51" s="17">
-        <f>B50+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C51" s="17">
@@ -5017,16 +5070,21 @@
       <c r="D51" s="18">
         <v>6</v>
       </c>
-      <c r="E51" s="30"/>
+      <c r="E51" s="30" t="s">
+        <v>48</v>
+      </c>
       <c r="F51" s="36">
         <f>IF(AND(E51&lt;&gt;"",E51=[1]Answers!E51),1,IF(ISBLANK(E51),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>174</v>
       </c>
       <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="I51" s="6" t="str">
+        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G51,"-"),_nCode,_nCity)</f>
+        <v>Madrid</v>
+      </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="M51" s="6"/>
@@ -5072,7 +5130,7 @@
     </row>
     <row r="52" spans="2:52" ht="23.4">
       <c r="B52" s="17">
-        <f>B51+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C52" s="17">
@@ -5081,16 +5139,21 @@
       <c r="D52" s="18">
         <v>6</v>
       </c>
-      <c r="E52" s="30"/>
+      <c r="E52" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="F52" s="36">
         <f>IF(AND(E52&lt;&gt;"",E52=[1]Answers!E52),1,IF(ISBLANK(E52),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>166</v>
       </c>
       <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="I52" s="6" t="str">
+        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G52,"-"),_nCode,_nCity)</f>
+        <v>London</v>
+      </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="M52" s="6"/>
@@ -5136,7 +5199,7 @@
     </row>
     <row r="53" spans="2:52" ht="23.4">
       <c r="B53" s="17">
-        <f>B52+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C53" s="17">
@@ -5145,16 +5208,21 @@
       <c r="D53" s="18">
         <v>6</v>
       </c>
-      <c r="E53" s="30"/>
+      <c r="E53" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="F53" s="36">
         <f>IF(AND(E53&lt;&gt;"",E53=[1]Answers!E53),1,IF(ISBLANK(E53),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>167</v>
       </c>
       <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="I53" s="6" t="str">
+        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G53,"-"),_nCode,_nCity)</f>
+        <v>Montreal</v>
+      </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="M53" s="6"/>
@@ -5200,7 +5268,7 @@
     </row>
     <row r="54" spans="2:52" ht="23.4">
       <c r="B54" s="17">
-        <f>B53+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C54" s="17">
@@ -5209,16 +5277,21 @@
       <c r="D54" s="18">
         <v>6</v>
       </c>
-      <c r="E54" s="30"/>
+      <c r="E54" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="F54" s="36">
         <f>IF(AND(E54&lt;&gt;"",E54=[1]Answers!E54),1,IF(ISBLANK(E54),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>168</v>
       </c>
       <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="I54" s="6" t="str">
+        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G54,"-"),_nCode,_nCity)</f>
+        <v>Bogota</v>
+      </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="M54" s="6"/>
@@ -5264,7 +5337,7 @@
     </row>
     <row r="55" spans="2:52" ht="23.4">
       <c r="B55" s="17">
-        <f>B54+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C55" s="17">
@@ -5273,16 +5346,21 @@
       <c r="D55" s="18">
         <v>6</v>
       </c>
-      <c r="E55" s="30"/>
+      <c r="E55" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="F55" s="36">
         <f>IF(AND(E55&lt;&gt;"",E55=[1]Answers!E55),1,IF(ISBLANK(E55),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>169</v>
       </c>
       <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="I55" s="6" t="str">
+        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G55,"-"),_nCode,_nCity)</f>
+        <v>Buenos Aires</v>
+      </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="M55" s="6"/>
@@ -5328,7 +5406,7 @@
     </row>
     <row r="56" spans="2:52" ht="23.4">
       <c r="B56" s="17">
-        <f>B55+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C56" s="17">
@@ -5337,16 +5415,21 @@
       <c r="D56" s="18">
         <v>6</v>
       </c>
-      <c r="E56" s="30"/>
+      <c r="E56" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="F56" s="36">
         <f>IF(AND(E56&lt;&gt;"",E56=[1]Answers!E56),1,IF(ISBLANK(E56),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="38" t="s">
         <v>170</v>
       </c>
       <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="I56" s="6" t="str">
+        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G56,"-"),_nCode,_nCity)</f>
+        <v>Cape Town</v>
+      </c>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="M56" s="6"/>
@@ -5392,7 +5475,7 @@
     </row>
     <row r="57" spans="2:52" ht="23.4">
       <c r="B57" s="17">
-        <f>B56+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C57" s="17">
@@ -5401,16 +5484,21 @@
       <c r="D57" s="18">
         <v>6</v>
       </c>
-      <c r="E57" s="30"/>
+      <c r="E57" s="30" t="s">
+        <v>42</v>
+      </c>
       <c r="F57" s="36">
         <f>IF(AND(E57&lt;&gt;"",E57=[1]Answers!E57),1,IF(ISBLANK(E57),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>171</v>
       </c>
       <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="I57" s="6" t="str">
+        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G57,"-"),_nCode,_nCity)</f>
+        <v>Lisbon</v>
+      </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="M57" s="6"/>
@@ -5456,7 +5544,7 @@
     </row>
     <row r="58" spans="2:52" ht="23.4">
       <c r="B58" s="17">
-        <f>B57+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C58" s="17">
@@ -5465,16 +5553,21 @@
       <c r="D58" s="18">
         <v>6</v>
       </c>
-      <c r="E58" s="30"/>
+      <c r="E58" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="F58" s="36">
         <f>IF(AND(E58&lt;&gt;"",E58=[1]Answers!E58),1,IF(ISBLANK(E58),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>172</v>
       </c>
       <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="I58" s="6" t="str">
+        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G58,"-"),_nCode,_nCity)</f>
+        <v>Buenos Aires</v>
+      </c>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="M58" s="6"/>
@@ -5561,11 +5654,11 @@
       </c>
       <c r="E60" s="30" cm="1">
         <f t="array" ref="E60">IFERROR(_xlfn.REDUCE(0,E49:E58,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlpm.a+CODE(MID(_xlpm.v,4,1)))),0)</f>
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="F60" s="36">
         <f>IF(AND(E60&lt;&gt;"",E60=[1]Answers!E60),1,IF(ISBLANK(E60),0,-1))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB60" s="6"/>
       <c r="AC60" s="6"/>
@@ -5811,20 +5904,20 @@
       <c r="E67" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="108" t="s">
+      <c r="G67" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="109"/>
-      <c r="I67" s="109"/>
-      <c r="J67" s="109"/>
-      <c r="K67" s="109"/>
-      <c r="L67" s="109"/>
-      <c r="M67" s="109"/>
-      <c r="N67" s="109"/>
-      <c r="O67" s="109"/>
-      <c r="P67" s="109"/>
-      <c r="Q67" s="109"/>
-      <c r="R67" s="110"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="94"/>
+      <c r="J67" s="94"/>
+      <c r="K67" s="94"/>
+      <c r="L67" s="94"/>
+      <c r="M67" s="94"/>
+      <c r="N67" s="94"/>
+      <c r="O67" s="94"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="95"/>
       <c r="S67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -5910,6 +6003,10 @@
       <c r="Q69" s="33"/>
       <c r="R69" s="34"/>
       <c r="S69" s="6"/>
+      <c r="T69" s="1" cm="1">
+        <f t="array" ref="T69">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G69,";"),_nRoutes,_nDistance))</f>
+        <v>85328</v>
+      </c>
       <c r="AE69" s="7"/>
       <c r="AF69" s="7"/>
       <c r="AG69" s="7"/>
@@ -5940,6 +6037,10 @@
       <c r="E70" s="39"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
+      <c r="T70" s="1" t="e" cm="1">
+        <f t="array" ref="T70">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G70,";"),_nRoutes,_nDistance))</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="U70" s="7"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
@@ -5983,10 +6084,12 @@
       <c r="D71" s="18">
         <v>8</v>
       </c>
-      <c r="E71" s="30"/>
+      <c r="E71" s="30">
+        <v>64958</v>
+      </c>
       <c r="F71" s="36">
         <f>IF(AND(E71&lt;&gt;"",E71=[1]Answers!E71),1,IF(ISBLANK(E71),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="32" t="s">
         <v>176</v>
@@ -6002,6 +6105,10 @@
       <c r="P71" s="33"/>
       <c r="Q71" s="33"/>
       <c r="R71" s="34"/>
+      <c r="T71" s="1" cm="1">
+        <f t="array" ref="T71">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G71,";"),_nRoutes,_nDistance))</f>
+        <v>64958</v>
+      </c>
       <c r="AE71" s="7"/>
       <c r="AO71" s="6"/>
       <c r="AP71" s="6"/>
@@ -6018,7 +6125,7 @@
     </row>
     <row r="72" spans="2:52" ht="25.5" customHeight="1">
       <c r="B72" s="17">
-        <f>B71+1</f>
+        <f t="shared" ref="B72:B90" si="1">B71+1</f>
         <v>12</v>
       </c>
       <c r="C72" s="17">
@@ -6027,10 +6134,12 @@
       <c r="D72" s="18">
         <v>8</v>
       </c>
-      <c r="E72" s="30"/>
+      <c r="E72" s="30">
+        <v>79970</v>
+      </c>
       <c r="F72" s="36">
         <f>IF(AND(E72&lt;&gt;"",E72=[1]Answers!E72),1,IF(ISBLANK(E72),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="32" t="s">
         <v>177</v>
@@ -6047,6 +6156,10 @@
       <c r="Q72" s="33"/>
       <c r="R72" s="34"/>
       <c r="S72" s="6"/>
+      <c r="T72" s="1" cm="1">
+        <f t="array" ref="T72">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G72,";"),_nRoutes,_nDistance))</f>
+        <v>79970</v>
+      </c>
       <c r="U72" s="6"/>
       <c r="AE72" s="7"/>
       <c r="AN72" s="6"/>
@@ -6065,7 +6178,7 @@
     </row>
     <row r="73" spans="2:52" ht="25.5" customHeight="1">
       <c r="B73" s="17">
-        <f>B72+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C73" s="17">
@@ -6074,10 +6187,12 @@
       <c r="D73" s="18">
         <v>8</v>
       </c>
-      <c r="E73" s="30"/>
+      <c r="E73" s="30">
+        <v>73858</v>
+      </c>
       <c r="F73" s="36">
         <f>IF(AND(E73&lt;&gt;"",E73=[1]Answers!E73),1,IF(ISBLANK(E73),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="32" t="s">
         <v>178</v>
@@ -6094,6 +6209,10 @@
       <c r="Q73" s="33"/>
       <c r="R73" s="34"/>
       <c r="S73" s="6"/>
+      <c r="T73" s="1" cm="1">
+        <f t="array" ref="T73">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G73,";"),_nRoutes,_nDistance))</f>
+        <v>73858</v>
+      </c>
       <c r="AE73" s="7"/>
       <c r="AN73" s="6"/>
       <c r="AO73" s="6"/>
@@ -6111,7 +6230,7 @@
     </row>
     <row r="74" spans="2:52" ht="25.5" customHeight="1">
       <c r="B74" s="17">
-        <f>B73+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C74" s="17">
@@ -6120,10 +6239,12 @@
       <c r="D74" s="18">
         <v>8</v>
       </c>
-      <c r="E74" s="30"/>
+      <c r="E74" s="30">
+        <v>77444</v>
+      </c>
       <c r="F74" s="36">
         <f>IF(AND(E74&lt;&gt;"",E74=[1]Answers!E74),1,IF(ISBLANK(E74),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="32" t="s">
         <v>179</v>
@@ -6140,6 +6261,10 @@
       <c r="Q74" s="33"/>
       <c r="R74" s="34"/>
       <c r="S74" s="6"/>
+      <c r="T74" s="1" cm="1">
+        <f t="array" ref="T74">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G74,";"),_nRoutes,_nDistance))</f>
+        <v>77444</v>
+      </c>
       <c r="AE74" s="7"/>
       <c r="AN74" s="6"/>
       <c r="AO74" s="6"/>
@@ -6157,7 +6282,7 @@
     </row>
     <row r="75" spans="2:52" ht="25.5" customHeight="1">
       <c r="B75" s="17">
-        <f>B74+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C75" s="17">
@@ -6166,10 +6291,12 @@
       <c r="D75" s="18">
         <v>8</v>
       </c>
-      <c r="E75" s="30"/>
+      <c r="E75" s="30">
+        <v>79092</v>
+      </c>
       <c r="F75" s="36">
         <f>IF(AND(E75&lt;&gt;"",E75=[1]Answers!E75),1,IF(ISBLANK(E75),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="32" t="s">
         <v>180</v>
@@ -6186,6 +6313,10 @@
       <c r="Q75" s="33"/>
       <c r="R75" s="34"/>
       <c r="S75" s="6"/>
+      <c r="T75" s="1" cm="1">
+        <f t="array" ref="T75">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G75,";"),_nRoutes,_nDistance))</f>
+        <v>79092</v>
+      </c>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
@@ -6221,7 +6352,7 @@
     </row>
     <row r="76" spans="2:52" ht="25.5" customHeight="1">
       <c r="B76" s="17">
-        <f>B75+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C76" s="17">
@@ -6230,10 +6361,12 @@
       <c r="D76" s="18">
         <v>8</v>
       </c>
-      <c r="E76" s="30"/>
+      <c r="E76" s="30">
+        <v>93957</v>
+      </c>
       <c r="F76" s="36">
         <f>IF(AND(E76&lt;&gt;"",E76=[1]Answers!E76),1,IF(ISBLANK(E76),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="32" t="s">
         <v>181</v>
@@ -6250,6 +6383,10 @@
       <c r="Q76" s="33"/>
       <c r="R76" s="34"/>
       <c r="S76" s="6"/>
+      <c r="T76" s="1" cm="1">
+        <f t="array" ref="T76">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G76,";"),_nRoutes,_nDistance))</f>
+        <v>93957</v>
+      </c>
       <c r="V76" s="7"/>
       <c r="W76" s="7"/>
       <c r="X76" s="7"/>
@@ -6284,7 +6421,7 @@
     </row>
     <row r="77" spans="2:52" ht="25.5" customHeight="1">
       <c r="B77" s="17">
-        <f>B76+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C77" s="17">
@@ -6293,10 +6430,12 @@
       <c r="D77" s="18">
         <v>8</v>
       </c>
-      <c r="E77" s="30"/>
+      <c r="E77" s="30">
+        <v>74320</v>
+      </c>
       <c r="F77" s="36">
         <f>IF(AND(E77&lt;&gt;"",E77=[1]Answers!E77),1,IF(ISBLANK(E77),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" s="32" t="s">
         <v>182</v>
@@ -6313,6 +6452,10 @@
       <c r="Q77" s="33"/>
       <c r="R77" s="34"/>
       <c r="S77" s="6"/>
+      <c r="T77" s="1" cm="1">
+        <f t="array" ref="T77">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G77,";"),_nRoutes,_nDistance))</f>
+        <v>74320</v>
+      </c>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
@@ -6348,7 +6491,7 @@
     </row>
     <row r="78" spans="2:52" ht="25.5" customHeight="1">
       <c r="B78" s="17">
-        <f>B77+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C78" s="17">
@@ -6357,10 +6500,12 @@
       <c r="D78" s="18">
         <v>8</v>
       </c>
-      <c r="E78" s="30"/>
+      <c r="E78" s="30">
+        <v>66179</v>
+      </c>
       <c r="F78" s="36">
         <f>IF(AND(E78&lt;&gt;"",E78=[1]Answers!E78),1,IF(ISBLANK(E78),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" s="32" t="s">
         <v>195</v>
@@ -6377,6 +6522,10 @@
       <c r="Q78" s="33"/>
       <c r="R78" s="34"/>
       <c r="S78" s="6"/>
+      <c r="T78" s="1" cm="1">
+        <f t="array" ref="T78">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G78,";"),_nRoutes,_nDistance))</f>
+        <v>66179</v>
+      </c>
       <c r="U78" s="7"/>
       <c r="V78" s="7"/>
       <c r="W78" s="7"/>
@@ -6412,7 +6561,7 @@
     </row>
     <row r="79" spans="2:52" ht="25.5" customHeight="1">
       <c r="B79" s="17">
-        <f>B78+1</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C79" s="17">
@@ -6421,10 +6570,12 @@
       <c r="D79" s="18">
         <v>8</v>
       </c>
-      <c r="E79" s="30"/>
+      <c r="E79" s="30">
+        <v>81610</v>
+      </c>
       <c r="F79" s="36">
         <f>IF(AND(E79&lt;&gt;"",E79=[1]Answers!E79),1,IF(ISBLANK(E79),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" s="32" t="s">
         <v>183</v>
@@ -6441,6 +6592,10 @@
       <c r="Q79" s="33"/>
       <c r="R79" s="34"/>
       <c r="S79" s="6"/>
+      <c r="T79" s="1" cm="1">
+        <f t="array" ref="T79">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G79,";"),_nRoutes,_nDistance))</f>
+        <v>81610</v>
+      </c>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
@@ -6476,7 +6631,7 @@
     </row>
     <row r="80" spans="2:52" ht="25.5" customHeight="1">
       <c r="B80" s="17">
-        <f>B79+1</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C80" s="17">
@@ -6485,10 +6640,12 @@
       <c r="D80" s="18">
         <v>8</v>
       </c>
-      <c r="E80" s="30"/>
+      <c r="E80" s="30">
+        <v>81476</v>
+      </c>
       <c r="F80" s="36">
         <f>IF(AND(E80&lt;&gt;"",E80=[1]Answers!E80),1,IF(ISBLANK(E80),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="32" t="s">
         <v>184</v>
@@ -6505,6 +6662,10 @@
       <c r="Q80" s="33"/>
       <c r="R80" s="34"/>
       <c r="S80" s="6"/>
+      <c r="T80" s="1" cm="1">
+        <f t="array" ref="T80">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G80,";"),_nRoutes,_nDistance))</f>
+        <v>81476</v>
+      </c>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
       <c r="W80" s="7"/>
@@ -6540,7 +6701,7 @@
     </row>
     <row r="81" spans="2:52" ht="25.5" customHeight="1">
       <c r="B81" s="17">
-        <f>B80+1</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C81" s="17">
@@ -6549,10 +6710,12 @@
       <c r="D81" s="18">
         <v>8</v>
       </c>
-      <c r="E81" s="30"/>
+      <c r="E81" s="30">
+        <v>71758</v>
+      </c>
       <c r="F81" s="36">
         <f>IF(AND(E81&lt;&gt;"",E81=[1]Answers!E81),1,IF(ISBLANK(E81),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="32" t="s">
         <v>185</v>
@@ -6569,6 +6732,10 @@
       <c r="Q81" s="33"/>
       <c r="R81" s="34"/>
       <c r="S81" s="6"/>
+      <c r="T81" s="1" cm="1">
+        <f t="array" ref="T81">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G81,";"),_nRoutes,_nDistance))</f>
+        <v>71758</v>
+      </c>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
       <c r="W81" s="7"/>
@@ -6604,7 +6771,7 @@
     </row>
     <row r="82" spans="2:52" ht="25.5" customHeight="1">
       <c r="B82" s="17">
-        <f>B81+1</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C82" s="17">
@@ -6613,10 +6780,12 @@
       <c r="D82" s="18">
         <v>8</v>
       </c>
-      <c r="E82" s="30"/>
+      <c r="E82" s="30">
+        <v>78104</v>
+      </c>
       <c r="F82" s="36">
         <f>IF(AND(E82&lt;&gt;"",E82=[1]Answers!E82),1,IF(ISBLANK(E82),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="32" t="s">
         <v>186</v>
@@ -6633,6 +6802,10 @@
       <c r="Q82" s="33"/>
       <c r="R82" s="34"/>
       <c r="S82" s="6"/>
+      <c r="T82" s="1" cm="1">
+        <f t="array" ref="T82">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G82,";"),_nRoutes,_nDistance))</f>
+        <v>78104</v>
+      </c>
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
       <c r="W82" s="7"/>
@@ -6668,7 +6841,7 @@
     </row>
     <row r="83" spans="2:52" ht="25.5" customHeight="1">
       <c r="B83" s="17">
-        <f>B82+1</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C83" s="17">
@@ -6677,10 +6850,12 @@
       <c r="D83" s="18">
         <v>8</v>
       </c>
-      <c r="E83" s="30"/>
+      <c r="E83" s="30">
+        <v>80854</v>
+      </c>
       <c r="F83" s="36">
         <f>IF(AND(E83&lt;&gt;"",E83=[1]Answers!E83),1,IF(ISBLANK(E83),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="32" t="s">
         <v>187</v>
@@ -6697,6 +6872,10 @@
       <c r="Q83" s="33"/>
       <c r="R83" s="34"/>
       <c r="S83" s="6"/>
+      <c r="T83" s="1" cm="1">
+        <f t="array" ref="T83">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G83,";"),_nRoutes,_nDistance))</f>
+        <v>80854</v>
+      </c>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
@@ -6732,7 +6911,7 @@
     </row>
     <row r="84" spans="2:52" ht="25.5" customHeight="1">
       <c r="B84" s="17">
-        <f>B83+1</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C84" s="17">
@@ -6741,10 +6920,12 @@
       <c r="D84" s="18">
         <v>8</v>
       </c>
-      <c r="E84" s="30"/>
+      <c r="E84" s="30">
+        <v>104324</v>
+      </c>
       <c r="F84" s="36">
         <f>IF(AND(E84&lt;&gt;"",E84=[1]Answers!E84),1,IF(ISBLANK(E84),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="32" t="s">
         <v>188</v>
@@ -6761,6 +6942,10 @@
       <c r="Q84" s="33"/>
       <c r="R84" s="34"/>
       <c r="S84" s="6"/>
+      <c r="T84" s="1" cm="1">
+        <f t="array" ref="T84">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G84,";"),_nRoutes,_nDistance))</f>
+        <v>104324</v>
+      </c>
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7"/>
@@ -6796,7 +6981,7 @@
     </row>
     <row r="85" spans="2:52" ht="25.5" customHeight="1">
       <c r="B85" s="17">
-        <f>B84+1</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C85" s="17">
@@ -6805,10 +6990,12 @@
       <c r="D85" s="18">
         <v>8</v>
       </c>
-      <c r="E85" s="30"/>
+      <c r="E85" s="30">
+        <v>82947</v>
+      </c>
       <c r="F85" s="36">
         <f>IF(AND(E85&lt;&gt;"",E85=[1]Answers!E85),1,IF(ISBLANK(E85),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="32" t="s">
         <v>189</v>
@@ -6825,6 +7012,10 @@
       <c r="Q85" s="33"/>
       <c r="R85" s="34"/>
       <c r="S85" s="6"/>
+      <c r="T85" s="1" cm="1">
+        <f t="array" ref="T85">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G85,";"),_nRoutes,_nDistance))</f>
+        <v>82947</v>
+      </c>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
       <c r="W85" s="7"/>
@@ -6860,7 +7051,7 @@
     </row>
     <row r="86" spans="2:52" ht="25.5" customHeight="1">
       <c r="B86" s="17">
-        <f>B85+1</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C86" s="17">
@@ -6869,10 +7060,12 @@
       <c r="D86" s="18">
         <v>8</v>
       </c>
-      <c r="E86" s="30"/>
+      <c r="E86" s="30">
+        <v>96384</v>
+      </c>
       <c r="F86" s="36">
         <f>IF(AND(E86&lt;&gt;"",E86=[1]Answers!E86),1,IF(ISBLANK(E86),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="32" t="s">
         <v>190</v>
@@ -6889,6 +7082,10 @@
       <c r="Q86" s="33"/>
       <c r="R86" s="34"/>
       <c r="S86" s="6"/>
+      <c r="T86" s="1" cm="1">
+        <f t="array" ref="T86">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G86,";"),_nRoutes,_nDistance))</f>
+        <v>96384</v>
+      </c>
       <c r="U86" s="7"/>
       <c r="V86" s="7"/>
       <c r="W86" s="7"/>
@@ -6924,7 +7121,7 @@
     </row>
     <row r="87" spans="2:52" ht="25.5" customHeight="1">
       <c r="B87" s="17">
-        <f>B86+1</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C87" s="17">
@@ -6933,10 +7130,12 @@
       <c r="D87" s="18">
         <v>8</v>
       </c>
-      <c r="E87" s="30"/>
+      <c r="E87" s="30">
+        <v>72089</v>
+      </c>
       <c r="F87" s="36">
         <f>IF(AND(E87&lt;&gt;"",E87=[1]Answers!E87),1,IF(ISBLANK(E87),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="32" t="s">
         <v>191</v>
@@ -6953,6 +7152,10 @@
       <c r="Q87" s="33"/>
       <c r="R87" s="34"/>
       <c r="S87" s="6"/>
+      <c r="T87" s="1" cm="1">
+        <f t="array" ref="T87">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G87,";"),_nRoutes,_nDistance))</f>
+        <v>72089</v>
+      </c>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
       <c r="W87" s="7"/>
@@ -6988,7 +7191,7 @@
     </row>
     <row r="88" spans="2:52" ht="25.5" customHeight="1">
       <c r="B88" s="17">
-        <f>B87+1</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C88" s="17">
@@ -6997,10 +7200,12 @@
       <c r="D88" s="18">
         <v>8</v>
       </c>
-      <c r="E88" s="30"/>
+      <c r="E88" s="30">
+        <v>89050</v>
+      </c>
       <c r="F88" s="36">
         <f>IF(AND(E88&lt;&gt;"",E88=[1]Answers!E88),1,IF(ISBLANK(E88),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" s="32" t="s">
         <v>192</v>
@@ -7017,6 +7222,10 @@
       <c r="Q88" s="33"/>
       <c r="R88" s="34"/>
       <c r="S88" s="6"/>
+      <c r="T88" s="1" cm="1">
+        <f t="array" ref="T88">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G88,";"),_nRoutes,_nDistance))</f>
+        <v>89050</v>
+      </c>
       <c r="U88" s="7"/>
       <c r="V88" s="7"/>
       <c r="W88" s="7"/>
@@ -7052,7 +7261,7 @@
     </row>
     <row r="89" spans="2:52" ht="25.5" customHeight="1">
       <c r="B89" s="17">
-        <f>B88+1</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C89" s="17">
@@ -7061,10 +7270,12 @@
       <c r="D89" s="18">
         <v>8</v>
       </c>
-      <c r="E89" s="30"/>
+      <c r="E89" s="30">
+        <v>100153</v>
+      </c>
       <c r="F89" s="36">
         <f>IF(AND(E89&lt;&gt;"",E89=[1]Answers!E89),1,IF(ISBLANK(E89),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89" s="32" t="s">
         <v>193</v>
@@ -7081,6 +7292,10 @@
       <c r="Q89" s="33"/>
       <c r="R89" s="34"/>
       <c r="S89" s="6"/>
+      <c r="T89" s="1" cm="1">
+        <f t="array" ref="T89">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G89,";"),_nRoutes,_nDistance))</f>
+        <v>100153</v>
+      </c>
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
       <c r="W89" s="7"/>
@@ -7116,7 +7331,7 @@
     </row>
     <row r="90" spans="2:52" ht="25.5" customHeight="1">
       <c r="B90" s="17">
-        <f>B89+1</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C90" s="17">
@@ -7125,10 +7340,12 @@
       <c r="D90" s="18">
         <v>8</v>
       </c>
-      <c r="E90" s="30"/>
+      <c r="E90" s="30">
+        <v>88615</v>
+      </c>
       <c r="F90" s="36">
         <f>IF(AND(E90&lt;&gt;"",E90=[1]Answers!E90),1,IF(ISBLANK(E90),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="32" t="s">
         <v>194</v>
@@ -7145,6 +7362,10 @@
       <c r="Q90" s="33"/>
       <c r="R90" s="34"/>
       <c r="S90" s="6"/>
+      <c r="T90" s="1" cm="1">
+        <f t="array" ref="T90">SUM(_xlfn.XLOOKUP(_xlfn.TEXTSPLIT(G90,";"),_nRoutes,_nDistance))</f>
+        <v>88615</v>
+      </c>
       <c r="U90" s="7"/>
       <c r="V90" s="7"/>
       <c r="W90" s="7"/>
@@ -7232,11 +7453,11 @@
       </c>
       <c r="E92" s="30">
         <f>SUM(E71:E90)</f>
-        <v>0</v>
+        <v>1637142</v>
       </c>
       <c r="F92" s="36">
         <f>IF(AND(E92&lt;&gt;"",E92=[1]Answers!E92),1,IF(ISBLANK(E92),0,-1))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L92" s="26"/>
       <c r="R92" s="26"/>
@@ -7743,35 +7964,35 @@
         <v>4</v>
       </c>
       <c r="E104" s="44"/>
-      <c r="G104" s="122" t="s">
+      <c r="G104" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="123"/>
-      <c r="I104" s="123"/>
-      <c r="J104" s="123"/>
-      <c r="K104" s="123"/>
-      <c r="L104" s="123"/>
-      <c r="M104" s="123"/>
-      <c r="N104" s="123"/>
-      <c r="O104" s="123"/>
-      <c r="P104" s="123"/>
-      <c r="Q104" s="123"/>
-      <c r="R104" s="123"/>
-      <c r="S104" s="123"/>
-      <c r="T104" s="123"/>
-      <c r="U104" s="123"/>
-      <c r="V104" s="123"/>
-      <c r="W104" s="123"/>
-      <c r="X104" s="123"/>
-      <c r="Y104" s="123"/>
-      <c r="Z104" s="123"/>
-      <c r="AA104" s="123"/>
-      <c r="AB104" s="123"/>
-      <c r="AC104" s="123"/>
-      <c r="AD104" s="123"/>
-      <c r="AE104" s="123"/>
-      <c r="AF104" s="123"/>
-      <c r="AG104" s="124"/>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
+      <c r="J104" s="108"/>
+      <c r="K104" s="108"/>
+      <c r="L104" s="108"/>
+      <c r="M104" s="108"/>
+      <c r="N104" s="108"/>
+      <c r="O104" s="108"/>
+      <c r="P104" s="108"/>
+      <c r="Q104" s="108"/>
+      <c r="R104" s="108"/>
+      <c r="S104" s="108"/>
+      <c r="T104" s="108"/>
+      <c r="U104" s="108"/>
+      <c r="V104" s="108"/>
+      <c r="W104" s="108"/>
+      <c r="X104" s="108"/>
+      <c r="Y104" s="108"/>
+      <c r="Z104" s="108"/>
+      <c r="AA104" s="108"/>
+      <c r="AB104" s="108"/>
+      <c r="AC104" s="108"/>
+      <c r="AD104" s="108"/>
+      <c r="AE104" s="108"/>
+      <c r="AF104" s="108"/>
+      <c r="AG104" s="109"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
       <c r="AJ104" s="6"/>
@@ -7912,10 +8133,12 @@
       <c r="D108" s="18">
         <v>10</v>
       </c>
-      <c r="E108" s="30"/>
+      <c r="E108" s="30">
+        <v>75</v>
+      </c>
       <c r="F108" s="36">
         <f>IF(AND(E108&lt;&gt;"",E108=[1]Answers!E108),1,IF(ISBLANK(E108),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="32" t="s">
         <v>214</v>
@@ -7949,7 +8172,7 @@
     </row>
     <row r="109" spans="2:52" ht="23.4">
       <c r="B109" s="17">
-        <f>B108+1</f>
+        <f t="shared" ref="B109:B127" si="2">B108+1</f>
         <v>32</v>
       </c>
       <c r="C109" s="17">
@@ -7958,10 +8181,12 @@
       <c r="D109" s="18">
         <v>10</v>
       </c>
-      <c r="E109" s="30"/>
+      <c r="E109" s="30">
+        <v>107</v>
+      </c>
       <c r="F109" s="36">
         <f>IF(AND(E109&lt;&gt;"",E109=[1]Answers!E109),1,IF(ISBLANK(E109),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" s="32" t="s">
         <v>196</v>
@@ -7995,7 +8220,7 @@
     </row>
     <row r="110" spans="2:52" ht="23.4">
       <c r="B110" s="17">
-        <f>B109+1</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="C110" s="17">
@@ -8004,10 +8229,12 @@
       <c r="D110" s="18">
         <v>10</v>
       </c>
-      <c r="E110" s="30"/>
+      <c r="E110" s="30">
+        <v>128</v>
+      </c>
       <c r="F110" s="36">
         <f>IF(AND(E110&lt;&gt;"",E110=[1]Answers!E110),1,IF(ISBLANK(E110),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" s="32" t="s">
         <v>197</v>
@@ -8041,7 +8268,7 @@
     </row>
     <row r="111" spans="2:52" ht="23.4">
       <c r="B111" s="17">
-        <f>B110+1</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="C111" s="17">
@@ -8050,10 +8277,12 @@
       <c r="D111" s="18">
         <v>10</v>
       </c>
-      <c r="E111" s="30"/>
+      <c r="E111" s="30">
+        <v>107</v>
+      </c>
       <c r="F111" s="36">
         <f>IF(AND(E111&lt;&gt;"",E111=[1]Answers!E111),1,IF(ISBLANK(E111),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" s="32" t="s">
         <v>198</v>
@@ -8087,7 +8316,7 @@
     </row>
     <row r="112" spans="2:52" ht="23.4">
       <c r="B112" s="17">
-        <f>B111+1</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="C112" s="17">
@@ -8096,10 +8325,12 @@
       <c r="D112" s="18">
         <v>10</v>
       </c>
-      <c r="E112" s="30"/>
+      <c r="E112" s="30">
+        <v>99</v>
+      </c>
       <c r="F112" s="36">
         <f>IF(AND(E112&lt;&gt;"",E112=[1]Answers!E112),1,IF(ISBLANK(E112),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" s="32" t="s">
         <v>199</v>
@@ -8133,7 +8364,7 @@
     </row>
     <row r="113" spans="2:33" ht="23.4">
       <c r="B113" s="17">
-        <f>B112+1</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="C113" s="17">
@@ -8142,10 +8373,12 @@
       <c r="D113" s="18">
         <v>10</v>
       </c>
-      <c r="E113" s="30"/>
+      <c r="E113" s="30">
+        <v>97</v>
+      </c>
       <c r="F113" s="36">
         <f>IF(AND(E113&lt;&gt;"",E113=[1]Answers!E113),1,IF(ISBLANK(E113),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" s="32" t="s">
         <v>200</v>
@@ -8179,7 +8412,7 @@
     </row>
     <row r="114" spans="2:33" ht="23.4">
       <c r="B114" s="17">
-        <f>B113+1</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="C114" s="17">
@@ -8188,10 +8421,12 @@
       <c r="D114" s="18">
         <v>10</v>
       </c>
-      <c r="E114" s="30"/>
+      <c r="E114" s="30">
+        <v>69</v>
+      </c>
       <c r="F114" s="36">
         <f>IF(AND(E114&lt;&gt;"",E114=[1]Answers!E114),1,IF(ISBLANK(E114),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" s="32" t="s">
         <v>215</v>
@@ -8225,7 +8460,7 @@
     </row>
     <row r="115" spans="2:33" ht="23.4">
       <c r="B115" s="17">
-        <f>B114+1</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="C115" s="17">
@@ -8234,10 +8469,12 @@
       <c r="D115" s="18">
         <v>10</v>
       </c>
-      <c r="E115" s="30"/>
+      <c r="E115" s="30">
+        <v>117</v>
+      </c>
       <c r="F115" s="36">
         <f>IF(AND(E115&lt;&gt;"",E115=[1]Answers!E115),1,IF(ISBLANK(E115),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115" s="32" t="s">
         <v>201</v>
@@ -8271,7 +8508,7 @@
     </row>
     <row r="116" spans="2:33" ht="23.4">
       <c r="B116" s="17">
-        <f>B115+1</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="C116" s="17">
@@ -8280,10 +8517,12 @@
       <c r="D116" s="18">
         <v>10</v>
       </c>
-      <c r="E116" s="30"/>
+      <c r="E116" s="30">
+        <v>83</v>
+      </c>
       <c r="F116" s="36">
         <f>IF(AND(E116&lt;&gt;"",E116=[1]Answers!E116),1,IF(ISBLANK(E116),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="32" t="s">
         <v>202</v>
@@ -8317,7 +8556,7 @@
     </row>
     <row r="117" spans="2:33" ht="23.4">
       <c r="B117" s="17">
-        <f>B116+1</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="C117" s="17">
@@ -8326,10 +8565,12 @@
       <c r="D117" s="18">
         <v>10</v>
       </c>
-      <c r="E117" s="30"/>
+      <c r="E117" s="30">
+        <v>102</v>
+      </c>
       <c r="F117" s="36">
         <f>IF(AND(E117&lt;&gt;"",E117=[1]Answers!E117),1,IF(ISBLANK(E117),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="32" t="s">
         <v>203</v>
@@ -8363,7 +8604,7 @@
     </row>
     <row r="118" spans="2:33" ht="23.4">
       <c r="B118" s="17">
-        <f>B117+1</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="C118" s="17">
@@ -8372,10 +8613,12 @@
       <c r="D118" s="18">
         <v>10</v>
       </c>
-      <c r="E118" s="30"/>
+      <c r="E118" s="30">
+        <v>138</v>
+      </c>
       <c r="F118" s="36">
         <f>IF(AND(E118&lt;&gt;"",E118=[1]Answers!E118),1,IF(ISBLANK(E118),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118" s="32" t="s">
         <v>204</v>
@@ -8409,7 +8652,7 @@
     </row>
     <row r="119" spans="2:33" ht="23.4">
       <c r="B119" s="17">
-        <f>B118+1</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="C119" s="17">
@@ -8418,10 +8661,12 @@
       <c r="D119" s="18">
         <v>10</v>
       </c>
-      <c r="E119" s="30"/>
+      <c r="E119" s="30">
+        <v>113</v>
+      </c>
       <c r="F119" s="36">
         <f>IF(AND(E119&lt;&gt;"",E119=[1]Answers!E119),1,IF(ISBLANK(E119),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" s="32" t="s">
         <v>205</v>
@@ -8455,7 +8700,7 @@
     </row>
     <row r="120" spans="2:33" ht="23.4">
       <c r="B120" s="17">
-        <f>B119+1</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="C120" s="17">
@@ -8464,10 +8709,12 @@
       <c r="D120" s="18">
         <v>10</v>
       </c>
-      <c r="E120" s="30"/>
+      <c r="E120" s="30">
+        <v>89</v>
+      </c>
       <c r="F120" s="36">
         <f>IF(AND(E120&lt;&gt;"",E120=[1]Answers!E120),1,IF(ISBLANK(E120),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" s="32" t="s">
         <v>206</v>
@@ -8501,7 +8748,7 @@
     </row>
     <row r="121" spans="2:33" ht="23.4">
       <c r="B121" s="17">
-        <f>B120+1</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="C121" s="17">
@@ -8510,10 +8757,12 @@
       <c r="D121" s="18">
         <v>10</v>
       </c>
-      <c r="E121" s="30"/>
+      <c r="E121" s="30">
+        <v>97</v>
+      </c>
       <c r="F121" s="36">
         <f>IF(AND(E121&lt;&gt;"",E121=[1]Answers!E121),1,IF(ISBLANK(E121),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" s="32" t="s">
         <v>207</v>
@@ -8547,7 +8796,7 @@
     </row>
     <row r="122" spans="2:33" ht="23.4">
       <c r="B122" s="17">
-        <f>B121+1</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="C122" s="17">
@@ -8556,10 +8805,12 @@
       <c r="D122" s="18">
         <v>10</v>
       </c>
-      <c r="E122" s="30"/>
+      <c r="E122" s="30">
+        <v>107</v>
+      </c>
       <c r="F122" s="36">
         <f>IF(AND(E122&lt;&gt;"",E122=[1]Answers!E122),1,IF(ISBLANK(E122),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" s="32" t="s">
         <v>208</v>
@@ -8593,7 +8844,7 @@
     </row>
     <row r="123" spans="2:33" ht="23.4">
       <c r="B123" s="17">
-        <f>B122+1</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="C123" s="17">
@@ -8602,10 +8853,12 @@
       <c r="D123" s="18">
         <v>10</v>
       </c>
-      <c r="E123" s="30"/>
+      <c r="E123" s="30">
+        <v>89</v>
+      </c>
       <c r="F123" s="36">
         <f>IF(AND(E123&lt;&gt;"",E123=[1]Answers!E123),1,IF(ISBLANK(E123),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="32" t="s">
         <v>209</v>
@@ -8639,7 +8892,7 @@
     </row>
     <row r="124" spans="2:33" ht="23.4">
       <c r="B124" s="17">
-        <f>B123+1</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="C124" s="17">
@@ -8648,10 +8901,12 @@
       <c r="D124" s="18">
         <v>10</v>
       </c>
-      <c r="E124" s="30"/>
+      <c r="E124" s="30">
+        <v>75</v>
+      </c>
       <c r="F124" s="36">
         <f>IF(AND(E124&lt;&gt;"",E124=[1]Answers!E124),1,IF(ISBLANK(E124),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" s="32" t="s">
         <v>213</v>
@@ -8685,7 +8940,7 @@
     </row>
     <row r="125" spans="2:33" ht="23.4">
       <c r="B125" s="17">
-        <f>B124+1</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="C125" s="17">
@@ -8694,10 +8949,12 @@
       <c r="D125" s="18">
         <v>10</v>
       </c>
-      <c r="E125" s="30"/>
+      <c r="E125" s="30">
+        <v>90</v>
+      </c>
       <c r="F125" s="36">
         <f>IF(AND(E125&lt;&gt;"",E125=[1]Answers!E125),1,IF(ISBLANK(E125),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" s="32" t="s">
         <v>210</v>
@@ -8731,7 +8988,7 @@
     </row>
     <row r="126" spans="2:33" ht="23.4">
       <c r="B126" s="17">
-        <f>B125+1</f>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="C126" s="17">
@@ -8740,10 +8997,12 @@
       <c r="D126" s="18">
         <v>10</v>
       </c>
-      <c r="E126" s="30"/>
+      <c r="E126" s="30">
+        <v>118</v>
+      </c>
       <c r="F126" s="36">
         <f>IF(AND(E126&lt;&gt;"",E126=[1]Answers!E126),1,IF(ISBLANK(E126),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" s="32" t="s">
         <v>211</v>
@@ -8777,7 +9036,7 @@
     </row>
     <row r="127" spans="2:33" ht="23.4">
       <c r="B127" s="17">
-        <f>B126+1</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="C127" s="17">
@@ -8786,10 +9045,12 @@
       <c r="D127" s="18">
         <v>10</v>
       </c>
-      <c r="E127" s="30"/>
+      <c r="E127" s="30">
+        <v>112</v>
+      </c>
       <c r="F127" s="36">
         <f>IF(AND(E127&lt;&gt;"",E127=[1]Answers!E127),1,IF(ISBLANK(E127),0,-1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="32" t="s">
         <v>212</v>
@@ -8846,11 +9107,11 @@
       </c>
       <c r="E129" s="30">
         <f>SUM(E108:E127)</f>
-        <v>0</v>
+        <v>2012</v>
       </c>
       <c r="F129" s="36">
         <f>IF(AND(E129&lt;&gt;"",E129=[1]Answers!E129),1,IF(ISBLANK(E129),0,-1))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S129" s="6"/>
       <c r="T129" s="6"/>
@@ -9407,48 +9668,48 @@
       <c r="G144" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="102" t="s">
+      <c r="I144" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="J144" s="103"/>
-      <c r="K144" s="103"/>
-      <c r="L144" s="103"/>
-      <c r="M144" s="103"/>
-      <c r="N144" s="103"/>
-      <c r="O144" s="103"/>
-      <c r="P144" s="103"/>
-      <c r="Q144" s="103"/>
-      <c r="R144" s="103"/>
-      <c r="S144" s="103"/>
-      <c r="T144" s="103"/>
-      <c r="U144" s="103"/>
-      <c r="V144" s="103"/>
-      <c r="W144" s="103"/>
-      <c r="X144" s="103"/>
-      <c r="Y144" s="103"/>
-      <c r="Z144" s="103"/>
-      <c r="AA144" s="103"/>
-      <c r="AB144" s="103"/>
-      <c r="AC144" s="103"/>
-      <c r="AD144" s="103"/>
-      <c r="AE144" s="103"/>
-      <c r="AF144" s="103"/>
-      <c r="AG144" s="103"/>
-      <c r="AH144" s="103"/>
-      <c r="AI144" s="103"/>
-      <c r="AJ144" s="103"/>
-      <c r="AK144" s="103"/>
-      <c r="AL144" s="103"/>
-      <c r="AM144" s="103"/>
-      <c r="AN144" s="103"/>
-      <c r="AO144" s="103"/>
-      <c r="AP144" s="103"/>
-      <c r="AQ144" s="103"/>
-      <c r="AR144" s="103"/>
-      <c r="AS144" s="103"/>
-      <c r="AT144" s="103"/>
-      <c r="AU144" s="103"/>
-      <c r="AV144" s="104"/>
+      <c r="J144" s="88"/>
+      <c r="K144" s="88"/>
+      <c r="L144" s="88"/>
+      <c r="M144" s="88"/>
+      <c r="N144" s="88"/>
+      <c r="O144" s="88"/>
+      <c r="P144" s="88"/>
+      <c r="Q144" s="88"/>
+      <c r="R144" s="88"/>
+      <c r="S144" s="88"/>
+      <c r="T144" s="88"/>
+      <c r="U144" s="88"/>
+      <c r="V144" s="88"/>
+      <c r="W144" s="88"/>
+      <c r="X144" s="88"/>
+      <c r="Y144" s="88"/>
+      <c r="Z144" s="88"/>
+      <c r="AA144" s="88"/>
+      <c r="AB144" s="88"/>
+      <c r="AC144" s="88"/>
+      <c r="AD144" s="88"/>
+      <c r="AE144" s="88"/>
+      <c r="AF144" s="88"/>
+      <c r="AG144" s="88"/>
+      <c r="AH144" s="88"/>
+      <c r="AI144" s="88"/>
+      <c r="AJ144" s="88"/>
+      <c r="AK144" s="88"/>
+      <c r="AL144" s="88"/>
+      <c r="AM144" s="88"/>
+      <c r="AN144" s="88"/>
+      <c r="AO144" s="88"/>
+      <c r="AP144" s="88"/>
+      <c r="AQ144" s="88"/>
+      <c r="AR144" s="88"/>
+      <c r="AS144" s="88"/>
+      <c r="AT144" s="88"/>
+      <c r="AU144" s="88"/>
+      <c r="AV144" s="89"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="6"/>
       <c r="AY144" s="6"/>
@@ -9660,7 +9921,7 @@
     </row>
     <row r="149" spans="2:52" ht="23.4">
       <c r="B149" s="17">
-        <f>B148+1</f>
+        <f t="shared" ref="B149:B167" si="3">B148+1</f>
         <v>52</v>
       </c>
       <c r="C149" s="17">
@@ -9723,7 +9984,7 @@
     </row>
     <row r="150" spans="2:52" ht="23.4">
       <c r="B150" s="17">
-        <f>B149+1</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="C150" s="17">
@@ -9786,7 +10047,7 @@
     </row>
     <row r="151" spans="2:52" ht="23.4">
       <c r="B151" s="17">
-        <f>B150+1</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="C151" s="17">
@@ -9849,7 +10110,7 @@
     </row>
     <row r="152" spans="2:52" ht="23.4">
       <c r="B152" s="17">
-        <f>B151+1</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="C152" s="17">
@@ -9912,7 +10173,7 @@
     </row>
     <row r="153" spans="2:52" ht="23.4">
       <c r="B153" s="17">
-        <f>B152+1</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="C153" s="17">
@@ -9975,7 +10236,7 @@
     </row>
     <row r="154" spans="2:52" ht="23.4">
       <c r="B154" s="17">
-        <f>B153+1</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="C154" s="17">
@@ -10038,7 +10299,7 @@
     </row>
     <row r="155" spans="2:52" ht="23.4">
       <c r="B155" s="17">
-        <f>B154+1</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="C155" s="17">
@@ -10101,7 +10362,7 @@
     </row>
     <row r="156" spans="2:52" ht="23.4">
       <c r="B156" s="17">
-        <f>B155+1</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="C156" s="17">
@@ -10164,7 +10425,7 @@
     </row>
     <row r="157" spans="2:52" ht="23.4">
       <c r="B157" s="17">
-        <f>B156+1</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="C157" s="17">
@@ -10227,7 +10488,7 @@
     </row>
     <row r="158" spans="2:52" ht="23.4">
       <c r="B158" s="17">
-        <f>B157+1</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="C158" s="17">
@@ -10290,7 +10551,7 @@
     </row>
     <row r="159" spans="2:52" ht="23.4">
       <c r="B159" s="17">
-        <f>B158+1</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="C159" s="17">
@@ -10353,7 +10614,7 @@
     </row>
     <row r="160" spans="2:52" ht="23.4">
       <c r="B160" s="17">
-        <f>B159+1</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="C160" s="17">
@@ -10416,7 +10677,7 @@
     </row>
     <row r="161" spans="2:48" ht="23.4">
       <c r="B161" s="17">
-        <f>B160+1</f>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="C161" s="17">
@@ -10479,7 +10740,7 @@
     </row>
     <row r="162" spans="2:48" ht="23.4">
       <c r="B162" s="17">
-        <f>B161+1</f>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="C162" s="17">
@@ -10542,7 +10803,7 @@
     </row>
     <row r="163" spans="2:48" ht="23.4">
       <c r="B163" s="17">
-        <f>B162+1</f>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="C163" s="17">
@@ -10605,7 +10866,7 @@
     </row>
     <row r="164" spans="2:48" ht="23.4">
       <c r="B164" s="17">
-        <f>B163+1</f>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="C164" s="17">
@@ -10668,7 +10929,7 @@
     </row>
     <row r="165" spans="2:48" ht="23.4">
       <c r="B165" s="17">
-        <f>B164+1</f>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="C165" s="17">
@@ -10731,7 +10992,7 @@
     </row>
     <row r="166" spans="2:48" ht="23.4">
       <c r="B166" s="17">
-        <f>B165+1</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="C166" s="17">
@@ -10794,7 +11055,7 @@
     </row>
     <row r="167" spans="2:48" ht="23.4">
       <c r="B167" s="17">
-        <f>B166+1</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="C167" s="17">
@@ -11039,52 +11300,52 @@
       <c r="G179" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I179" s="102" t="s">
+      <c r="I179" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="J179" s="103"/>
-      <c r="K179" s="103"/>
-      <c r="L179" s="103"/>
-      <c r="M179" s="103"/>
-      <c r="N179" s="103"/>
-      <c r="O179" s="103"/>
-      <c r="P179" s="103"/>
-      <c r="Q179" s="103"/>
-      <c r="R179" s="103"/>
-      <c r="S179" s="103"/>
-      <c r="T179" s="103"/>
-      <c r="U179" s="103"/>
-      <c r="V179" s="103"/>
-      <c r="W179" s="103"/>
-      <c r="X179" s="103"/>
-      <c r="Y179" s="103"/>
-      <c r="Z179" s="103"/>
-      <c r="AA179" s="103"/>
-      <c r="AB179" s="103"/>
-      <c r="AC179" s="103"/>
-      <c r="AD179" s="103"/>
-      <c r="AE179" s="103"/>
-      <c r="AF179" s="103"/>
-      <c r="AG179" s="103"/>
-      <c r="AH179" s="103"/>
-      <c r="AI179" s="103"/>
-      <c r="AJ179" s="103"/>
-      <c r="AK179" s="103"/>
-      <c r="AL179" s="103"/>
-      <c r="AM179" s="103"/>
-      <c r="AN179" s="103"/>
-      <c r="AO179" s="103"/>
-      <c r="AP179" s="103"/>
-      <c r="AQ179" s="103"/>
-      <c r="AR179" s="103"/>
-      <c r="AS179" s="103"/>
-      <c r="AT179" s="103"/>
-      <c r="AU179" s="103"/>
-      <c r="AV179" s="103"/>
-      <c r="AW179" s="103"/>
-      <c r="AX179" s="103"/>
-      <c r="AY179" s="103"/>
-      <c r="AZ179" s="104"/>
+      <c r="J179" s="88"/>
+      <c r="K179" s="88"/>
+      <c r="L179" s="88"/>
+      <c r="M179" s="88"/>
+      <c r="N179" s="88"/>
+      <c r="O179" s="88"/>
+      <c r="P179" s="88"/>
+      <c r="Q179" s="88"/>
+      <c r="R179" s="88"/>
+      <c r="S179" s="88"/>
+      <c r="T179" s="88"/>
+      <c r="U179" s="88"/>
+      <c r="V179" s="88"/>
+      <c r="W179" s="88"/>
+      <c r="X179" s="88"/>
+      <c r="Y179" s="88"/>
+      <c r="Z179" s="88"/>
+      <c r="AA179" s="88"/>
+      <c r="AB179" s="88"/>
+      <c r="AC179" s="88"/>
+      <c r="AD179" s="88"/>
+      <c r="AE179" s="88"/>
+      <c r="AF179" s="88"/>
+      <c r="AG179" s="88"/>
+      <c r="AH179" s="88"/>
+      <c r="AI179" s="88"/>
+      <c r="AJ179" s="88"/>
+      <c r="AK179" s="88"/>
+      <c r="AL179" s="88"/>
+      <c r="AM179" s="88"/>
+      <c r="AN179" s="88"/>
+      <c r="AO179" s="88"/>
+      <c r="AP179" s="88"/>
+      <c r="AQ179" s="88"/>
+      <c r="AR179" s="88"/>
+      <c r="AS179" s="88"/>
+      <c r="AT179" s="88"/>
+      <c r="AU179" s="88"/>
+      <c r="AV179" s="88"/>
+      <c r="AW179" s="88"/>
+      <c r="AX179" s="88"/>
+      <c r="AY179" s="88"/>
+      <c r="AZ179" s="89"/>
     </row>
     <row r="180" spans="2:52" ht="15" thickTop="1">
       <c r="B180" s="1"/>
@@ -11304,7 +11565,7 @@
     </row>
     <row r="184" spans="2:52" ht="23.4">
       <c r="B184" s="17">
-        <f>B183+1</f>
+        <f t="shared" ref="B184:B212" si="4">B183+1</f>
         <v>72</v>
       </c>
       <c r="C184" s="17">
@@ -11371,7 +11632,7 @@
     </row>
     <row r="185" spans="2:52" ht="23.4">
       <c r="B185" s="17">
-        <f>B184+1</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="C185" s="17">
@@ -11438,7 +11699,7 @@
     </row>
     <row r="186" spans="2:52" ht="23.4">
       <c r="B186" s="17">
-        <f>B185+1</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="C186" s="17">
@@ -11505,7 +11766,7 @@
     </row>
     <row r="187" spans="2:52" ht="23.4">
       <c r="B187" s="17">
-        <f>B186+1</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="C187" s="17">
@@ -11572,7 +11833,7 @@
     </row>
     <row r="188" spans="2:52" ht="23.4">
       <c r="B188" s="17">
-        <f>B187+1</f>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="C188" s="17">
@@ -11639,7 +11900,7 @@
     </row>
     <row r="189" spans="2:52" ht="23.4">
       <c r="B189" s="17">
-        <f>B188+1</f>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="C189" s="17">
@@ -11706,7 +11967,7 @@
     </row>
     <row r="190" spans="2:52" ht="23.4">
       <c r="B190" s="17">
-        <f>B189+1</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="C190" s="17">
@@ -11773,7 +12034,7 @@
     </row>
     <row r="191" spans="2:52" ht="23.4">
       <c r="B191" s="17">
-        <f>B190+1</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="C191" s="17">
@@ -11840,7 +12101,7 @@
     </row>
     <row r="192" spans="2:52" ht="23.4">
       <c r="B192" s="17">
-        <f>B191+1</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="C192" s="17">
@@ -11907,7 +12168,7 @@
     </row>
     <row r="193" spans="2:52" ht="23.4">
       <c r="B193" s="17">
-        <f>B192+1</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="C193" s="17">
@@ -11974,7 +12235,7 @@
     </row>
     <row r="194" spans="2:52" ht="23.4">
       <c r="B194" s="17">
-        <f>B193+1</f>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="C194" s="17">
@@ -12041,7 +12302,7 @@
     </row>
     <row r="195" spans="2:52" ht="23.4">
       <c r="B195" s="17">
-        <f>B194+1</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="C195" s="17">
@@ -12108,7 +12369,7 @@
     </row>
     <row r="196" spans="2:52" ht="23.4">
       <c r="B196" s="17">
-        <f>B195+1</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="C196" s="17">
@@ -12175,7 +12436,7 @@
     </row>
     <row r="197" spans="2:52" ht="23.4">
       <c r="B197" s="17">
-        <f>B196+1</f>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="C197" s="17">
@@ -12242,7 +12503,7 @@
     </row>
     <row r="198" spans="2:52" ht="23.4">
       <c r="B198" s="17">
-        <f>B197+1</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="C198" s="17">
@@ -12309,7 +12570,7 @@
     </row>
     <row r="199" spans="2:52" ht="23.4">
       <c r="B199" s="17">
-        <f>B198+1</f>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="C199" s="17">
@@ -12376,7 +12637,7 @@
     </row>
     <row r="200" spans="2:52" ht="23.4">
       <c r="B200" s="17">
-        <f>B199+1</f>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="C200" s="17">
@@ -12443,7 +12704,7 @@
     </row>
     <row r="201" spans="2:52" ht="23.4">
       <c r="B201" s="17">
-        <f>B200+1</f>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="C201" s="17">
@@ -12510,7 +12771,7 @@
     </row>
     <row r="202" spans="2:52" ht="23.4">
       <c r="B202" s="17">
-        <f>B201+1</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="C202" s="17">
@@ -12577,7 +12838,7 @@
     </row>
     <row r="203" spans="2:52" ht="23.4">
       <c r="B203" s="17">
-        <f>B202+1</f>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="C203" s="17">
@@ -12644,7 +12905,7 @@
     </row>
     <row r="204" spans="2:52" ht="23.4">
       <c r="B204" s="17">
-        <f>B203+1</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="C204" s="17">
@@ -12711,7 +12972,7 @@
     </row>
     <row r="205" spans="2:52" ht="23.4">
       <c r="B205" s="17">
-        <f>B204+1</f>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="C205" s="17">
@@ -12778,7 +13039,7 @@
     </row>
     <row r="206" spans="2:52" ht="23.4">
       <c r="B206" s="17">
-        <f>B205+1</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="C206" s="17">
@@ -12845,7 +13106,7 @@
     </row>
     <row r="207" spans="2:52" ht="23.4">
       <c r="B207" s="17">
-        <f>B206+1</f>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="C207" s="17">
@@ -12912,7 +13173,7 @@
     </row>
     <row r="208" spans="2:52" ht="23.4">
       <c r="B208" s="17">
-        <f>B207+1</f>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="C208" s="17">
@@ -12979,7 +13240,7 @@
     </row>
     <row r="209" spans="2:52" ht="23.4">
       <c r="B209" s="17">
-        <f>B208+1</f>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="C209" s="17">
@@ -13046,7 +13307,7 @@
     </row>
     <row r="210" spans="2:52" ht="23.4">
       <c r="B210" s="17">
-        <f>B209+1</f>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="C210" s="17">
@@ -13113,7 +13374,7 @@
     </row>
     <row r="211" spans="2:52" ht="23.4">
       <c r="B211" s="17">
-        <f>B210+1</f>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="C211" s="17">
@@ -13180,7 +13441,7 @@
     </row>
     <row r="212" spans="2:52" ht="23.4">
       <c r="B212" s="17">
-        <f>B211+1</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="C212" s="17">
@@ -13288,6 +13549,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="B14:T28"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y11:AA11"/>
     <mergeCell ref="I144:AV144"/>
     <mergeCell ref="I179:AZ179"/>
     <mergeCell ref="B30:AA30"/>
@@ -13299,15 +13569,6 @@
     <mergeCell ref="J42:N45"/>
     <mergeCell ref="J41:N41"/>
     <mergeCell ref="G104:AG104"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="B2:AA2"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="B14:T28"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y11:AA11"/>
   </mergeCells>
   <conditionalFormatting sqref="Y15:AA26 AE26 AC27:AE39">
     <cfRule type="expression" dxfId="4" priority="16">
@@ -28042,7 +28303,7 @@
   <dimension ref="A1:U1003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="M4" sqref="M4:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -28054,9 +28315,9 @@
       <c r="A1" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="79" t="e">
-        <f>_xlfn.XLOOKUP(A1,#REF!,#REF!)</f>
-        <v>#REF!</v>
+      <c r="C1" s="79" t="str">
+        <f>_xlfn.XLOOKUP(A1,Case!B106:B127,Case!G106:G127)</f>
+        <v>LAS-YUL;SYD-LON;LAX-LAS;YUL-MAD;LON-YUL;LAX-EZE;LAS-SYD;LON-BOG;BOG-CPT;LAS-CPT;YUL-RIX;CPT-BOG;BOG-LAS;LIS-BOG;CPT-LAS;YUL-LAX;YYZ-LON;LAX-CPT;LIS-MAD;LIS-SYD;CPT-YYZ;EZE-SYD;LIS-LAX;YYZ-CPT;CPT-EZE;LAX-YUL;BOG-RIX;SYD-BOG;LON-MAD;LAX-LIS;BOG-SYD;LIS-CPT;EZE-LAX;LAS-LON;RIX-YYZ;YUL-LIS;MAD-LAX;MAD-RIX;LAX-MAD;YYZ-LAX</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -28086,9 +28347,9 @@
       <c r="I3" s="79">
         <v>0</v>
       </c>
-      <c r="M3" s="79" t="e">
+      <c r="M3" s="79">
         <f>I43</f>
-        <v>#VALUE!</v>
+        <v>107</v>
       </c>
       <c r="S3" s="79" t="s">
         <v>324</v>
@@ -28098,35 +28359,38 @@
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="C4" s="79" t="e" cm="1">
-        <f t="array" ref="C4">_xlfn.TEXTSPLIT(C1,,";")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" s="79" t="e" cm="1">
-        <f t="array" ref="D4">_xlfn.TEXTSPLIT(C4,"-")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F4" s="79" t="e" cm="1">
-        <f t="array" ref="F4:G43">_xlfn.XLOOKUP(D4:E43,_nIATA,_nCanada)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G4" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H4" s="80" t="e">
+      <c r="C4" s="79" t="str" cm="1">
+        <f t="array" ref="C4:C43">_xlfn.TEXTSPLIT(C1,,";")</f>
+        <v>LAS-YUL</v>
+      </c>
+      <c r="D4" s="79" t="str" cm="1">
+        <f t="array" ref="D4:E4">_xlfn.TEXTSPLIT(C4,"-")</f>
+        <v>LAS</v>
+      </c>
+      <c r="E4" s="79" t="str">
+        <v>YUL</v>
+      </c>
+      <c r="F4" s="79" cm="1">
+        <f t="array" ref="F4:G43">_xlfn.XLOOKUP(D4:E43,_nCode,_nCanada)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="79">
+        <v>1</v>
+      </c>
+      <c r="H4" s="80">
         <f>--OR(F4:G4)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I4" s="79" t="e">
+        <v>1</v>
+      </c>
+      <c r="I4" s="79">
         <f t="shared" ref="I4:I43" si="0">IF(H4=1,_xlfn.XLOOKUP(I3+1,_nSevens,_nSevens,,1),I3+1)</f>
-        <v>#REF!</v>
+        <v>7</v>
       </c>
       <c r="L4" s="79">
         <v>31</v>
       </c>
-      <c r="M4" s="79" t="e">
+      <c r="M4" s="79">
         <f t="dataTable" ref="M4:M23" dt2D="0" dtr="0" r1="A1"/>
-        <v>#VALUE!</v>
+        <v>75</v>
       </c>
       <c r="R4" s="79" cm="1">
         <f t="array" ref="R4:R1003">_xlfn.SEQUENCE(1000)</f>
@@ -28142,29 +28406,35 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="D5" s="79" t="e" cm="1">
-        <f t="array" ref="D5">_xlfn.TEXTSPLIT(C5,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H5" s="80" t="e">
+      <c r="C5" s="79" t="str">
+        <v>SYD-LON</v>
+      </c>
+      <c r="D5" s="79" t="str" cm="1">
+        <f t="array" ref="D5:E5">_xlfn.TEXTSPLIT(C5,"-")</f>
+        <v>SYD</v>
+      </c>
+      <c r="E5" s="79" t="str">
+        <v>LON</v>
+      </c>
+      <c r="F5" s="79">
+        <v>0</v>
+      </c>
+      <c r="G5" s="79">
+        <v>0</v>
+      </c>
+      <c r="H5" s="80">
         <f t="shared" ref="H5:H43" si="1">--OR(F5:G5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I5" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I5" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="L5" s="79">
         <v>32</v>
       </c>
-      <c r="M5" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M5" s="79">
+        <v>107</v>
       </c>
       <c r="R5" s="79">
         <v>2</v>
@@ -28177,29 +28447,35 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="D6" s="79" t="e" cm="1">
-        <f t="array" ref="D6">_xlfn.TEXTSPLIT(C6,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F6" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="80" t="e">
+      <c r="C6" s="79" t="str">
+        <v>LAX-LAS</v>
+      </c>
+      <c r="D6" s="79" t="str" cm="1">
+        <f t="array" ref="D6:E6">_xlfn.TEXTSPLIT(C6,"-")</f>
+        <v>LAX</v>
+      </c>
+      <c r="E6" s="79" t="str">
+        <v>LAS</v>
+      </c>
+      <c r="F6" s="79">
+        <v>0</v>
+      </c>
+      <c r="G6" s="79">
+        <v>0</v>
+      </c>
+      <c r="H6" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I6" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>9</v>
       </c>
       <c r="L6" s="79">
         <v>33</v>
       </c>
-      <c r="M6" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M6" s="79">
+        <v>128</v>
       </c>
       <c r="R6" s="79">
         <v>3</v>
@@ -28212,29 +28488,35 @@
       </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="D7" s="79" t="e" cm="1">
-        <f t="array" ref="D7">_xlfn.TEXTSPLIT(C7,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="80" t="e">
+      <c r="C7" s="79" t="str">
+        <v>YUL-MAD</v>
+      </c>
+      <c r="D7" s="79" t="str" cm="1">
+        <f t="array" ref="D7:E7">_xlfn.TEXTSPLIT(C7,"-")</f>
+        <v>YUL</v>
+      </c>
+      <c r="E7" s="79" t="str">
+        <v>MAD</v>
+      </c>
+      <c r="F7" s="79">
+        <v>1</v>
+      </c>
+      <c r="G7" s="79">
+        <v>0</v>
+      </c>
+      <c r="H7" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" s="79" t="e">
+        <v>1</v>
+      </c>
+      <c r="I7" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>17</v>
       </c>
       <c r="L7" s="79">
         <v>34</v>
       </c>
-      <c r="M7" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M7" s="79">
+        <v>107</v>
       </c>
       <c r="R7" s="79">
         <v>4</v>
@@ -28247,29 +28529,35 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="D8" s="79" t="e" cm="1">
-        <f t="array" ref="D8">_xlfn.TEXTSPLIT(C8,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F8" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G8" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="80" t="e">
+      <c r="C8" s="79" t="str">
+        <v>LON-YUL</v>
+      </c>
+      <c r="D8" s="79" t="str" cm="1">
+        <f t="array" ref="D8:E8">_xlfn.TEXTSPLIT(C8,"-")</f>
+        <v>LON</v>
+      </c>
+      <c r="E8" s="79" t="str">
+        <v>YUL</v>
+      </c>
+      <c r="F8" s="79">
+        <v>0</v>
+      </c>
+      <c r="G8" s="79">
+        <v>1</v>
+      </c>
+      <c r="H8" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I8" s="79" t="e">
+        <v>1</v>
+      </c>
+      <c r="I8" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>27</v>
       </c>
       <c r="L8" s="79">
         <v>35</v>
       </c>
-      <c r="M8" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M8" s="79">
+        <v>99</v>
       </c>
       <c r="R8" s="79">
         <v>5</v>
@@ -28282,29 +28570,35 @@
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="D9" s="79" t="e" cm="1">
-        <f t="array" ref="D9">_xlfn.TEXTSPLIT(C9,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G9" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="80" t="e">
+      <c r="C9" s="79" t="str">
+        <v>LAX-EZE</v>
+      </c>
+      <c r="D9" s="79" t="str" cm="1">
+        <f t="array" ref="D9:E9">_xlfn.TEXTSPLIT(C9,"-")</f>
+        <v>LAX</v>
+      </c>
+      <c r="E9" s="79" t="str">
+        <v>EZE</v>
+      </c>
+      <c r="F9" s="79">
+        <v>0</v>
+      </c>
+      <c r="G9" s="79">
+        <v>0</v>
+      </c>
+      <c r="H9" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I9" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I9" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>28</v>
       </c>
       <c r="L9" s="79">
         <v>36</v>
       </c>
-      <c r="M9" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M9" s="79">
+        <v>97</v>
       </c>
       <c r="R9" s="79">
         <v>6</v>
@@ -28317,29 +28611,35 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="D10" s="79" t="e" cm="1">
-        <f t="array" ref="D10">_xlfn.TEXTSPLIT(C10,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F10" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G10" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="80" t="e">
+      <c r="C10" s="79" t="str">
+        <v>LAS-SYD</v>
+      </c>
+      <c r="D10" s="79" t="str" cm="1">
+        <f t="array" ref="D10:E10">_xlfn.TEXTSPLIT(C10,"-")</f>
+        <v>LAS</v>
+      </c>
+      <c r="E10" s="79" t="str">
+        <v>SYD</v>
+      </c>
+      <c r="F10" s="79">
+        <v>0</v>
+      </c>
+      <c r="G10" s="79">
+        <v>0</v>
+      </c>
+      <c r="H10" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I10" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I10" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>29</v>
       </c>
       <c r="L10" s="79">
         <v>37</v>
       </c>
-      <c r="M10" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M10" s="79">
+        <v>69</v>
       </c>
       <c r="R10" s="79">
         <v>7</v>
@@ -28352,29 +28652,35 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="D11" s="79" t="e" cm="1">
-        <f t="array" ref="D11">_xlfn.TEXTSPLIT(C11,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F11" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="80" t="e">
+      <c r="C11" s="79" t="str">
+        <v>LON-BOG</v>
+      </c>
+      <c r="D11" s="79" t="str" cm="1">
+        <f t="array" ref="D11:E11">_xlfn.TEXTSPLIT(C11,"-")</f>
+        <v>LON</v>
+      </c>
+      <c r="E11" s="79" t="str">
+        <v>BOG</v>
+      </c>
+      <c r="F11" s="79">
+        <v>0</v>
+      </c>
+      <c r="G11" s="79">
+        <v>0</v>
+      </c>
+      <c r="H11" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I11" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>30</v>
       </c>
       <c r="L11" s="79">
         <v>38</v>
       </c>
-      <c r="M11" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M11" s="79">
+        <v>117</v>
       </c>
       <c r="R11" s="79">
         <v>8</v>
@@ -28387,29 +28693,35 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="D12" s="79" t="e" cm="1">
-        <f t="array" ref="D12">_xlfn.TEXTSPLIT(C12,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F12" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G12" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="80" t="e">
+      <c r="C12" s="79" t="str">
+        <v>BOG-CPT</v>
+      </c>
+      <c r="D12" s="79" t="str" cm="1">
+        <f t="array" ref="D12:E12">_xlfn.TEXTSPLIT(C12,"-")</f>
+        <v>BOG</v>
+      </c>
+      <c r="E12" s="79" t="str">
+        <v>CPT</v>
+      </c>
+      <c r="F12" s="79">
+        <v>0</v>
+      </c>
+      <c r="G12" s="79">
+        <v>0</v>
+      </c>
+      <c r="H12" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I12" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>31</v>
       </c>
       <c r="L12" s="79">
         <v>39</v>
       </c>
-      <c r="M12" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M12" s="79">
+        <v>83</v>
       </c>
       <c r="R12" s="79">
         <v>9</v>
@@ -28422,29 +28734,35 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="D13" s="79" t="e" cm="1">
-        <f t="array" ref="D13">_xlfn.TEXTSPLIT(C13,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="80" t="e">
+      <c r="C13" s="79" t="str">
+        <v>LAS-CPT</v>
+      </c>
+      <c r="D13" s="79" t="str" cm="1">
+        <f t="array" ref="D13:E13">_xlfn.TEXTSPLIT(C13,"-")</f>
+        <v>LAS</v>
+      </c>
+      <c r="E13" s="79" t="str">
+        <v>CPT</v>
+      </c>
+      <c r="F13" s="79">
+        <v>0</v>
+      </c>
+      <c r="G13" s="79">
+        <v>0</v>
+      </c>
+      <c r="H13" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I13" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>32</v>
       </c>
       <c r="L13" s="79">
         <v>40</v>
       </c>
-      <c r="M13" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M13" s="79">
+        <v>102</v>
       </c>
       <c r="R13" s="79">
         <v>10</v>
@@ -28457,29 +28775,35 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="D14" s="79" t="e" cm="1">
-        <f t="array" ref="D14">_xlfn.TEXTSPLIT(C14,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G14" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="80" t="e">
+      <c r="C14" s="79" t="str">
+        <v>YUL-RIX</v>
+      </c>
+      <c r="D14" s="79" t="str" cm="1">
+        <f t="array" ref="D14:E14">_xlfn.TEXTSPLIT(C14,"-")</f>
+        <v>YUL</v>
+      </c>
+      <c r="E14" s="79" t="str">
+        <v>RIX</v>
+      </c>
+      <c r="F14" s="79">
+        <v>1</v>
+      </c>
+      <c r="G14" s="79">
+        <v>0</v>
+      </c>
+      <c r="H14" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I14" s="79" t="e">
+        <v>1</v>
+      </c>
+      <c r="I14" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>37</v>
       </c>
       <c r="L14" s="79">
         <v>41</v>
       </c>
-      <c r="M14" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M14" s="79">
+        <v>138</v>
       </c>
       <c r="R14" s="79">
         <v>11</v>
@@ -28492,29 +28816,35 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="D15" s="79" t="e" cm="1">
-        <f t="array" ref="D15">_xlfn.TEXTSPLIT(C15,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G15" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="80" t="e">
+      <c r="C15" s="79" t="str">
+        <v>CPT-BOG</v>
+      </c>
+      <c r="D15" s="79" t="str" cm="1">
+        <f t="array" ref="D15:E15">_xlfn.TEXTSPLIT(C15,"-")</f>
+        <v>CPT</v>
+      </c>
+      <c r="E15" s="79" t="str">
+        <v>BOG</v>
+      </c>
+      <c r="F15" s="79">
+        <v>0</v>
+      </c>
+      <c r="G15" s="79">
+        <v>0</v>
+      </c>
+      <c r="H15" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I15" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I15" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>38</v>
       </c>
       <c r="L15" s="79">
         <v>42</v>
       </c>
-      <c r="M15" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M15" s="79">
+        <v>113</v>
       </c>
       <c r="R15" s="79">
         <v>12</v>
@@ -28527,29 +28857,35 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="D16" s="79" t="e" cm="1">
-        <f t="array" ref="D16">_xlfn.TEXTSPLIT(C16,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G16" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="80" t="e">
+      <c r="C16" s="79" t="str">
+        <v>BOG-LAS</v>
+      </c>
+      <c r="D16" s="79" t="str" cm="1">
+        <f t="array" ref="D16:E16">_xlfn.TEXTSPLIT(C16,"-")</f>
+        <v>BOG</v>
+      </c>
+      <c r="E16" s="79" t="str">
+        <v>LAS</v>
+      </c>
+      <c r="F16" s="79">
+        <v>0</v>
+      </c>
+      <c r="G16" s="79">
+        <v>0</v>
+      </c>
+      <c r="H16" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I16" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I16" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>39</v>
       </c>
       <c r="L16" s="79">
         <v>43</v>
       </c>
-      <c r="M16" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M16" s="79">
+        <v>89</v>
       </c>
       <c r="R16" s="79">
         <v>13</v>
@@ -28561,30 +28897,36 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="4:21">
-      <c r="D17" s="79" t="e" cm="1">
-        <f t="array" ref="D17">_xlfn.TEXTSPLIT(C17,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G17" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="80" t="e">
+    <row r="17" spans="3:21">
+      <c r="C17" s="79" t="str">
+        <v>LIS-BOG</v>
+      </c>
+      <c r="D17" s="79" t="str" cm="1">
+        <f t="array" ref="D17:E17">_xlfn.TEXTSPLIT(C17,"-")</f>
+        <v>LIS</v>
+      </c>
+      <c r="E17" s="79" t="str">
+        <v>BOG</v>
+      </c>
+      <c r="F17" s="79">
+        <v>0</v>
+      </c>
+      <c r="G17" s="79">
+        <v>0</v>
+      </c>
+      <c r="H17" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I17" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I17" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>40</v>
       </c>
       <c r="L17" s="79">
         <v>44</v>
       </c>
-      <c r="M17" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M17" s="79">
+        <v>97</v>
       </c>
       <c r="R17" s="79">
         <v>14</v>
@@ -28596,30 +28938,36 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="4:21">
-      <c r="D18" s="79" t="e" cm="1">
-        <f t="array" ref="D18">_xlfn.TEXTSPLIT(C18,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G18" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H18" s="80" t="e">
+    <row r="18" spans="3:21">
+      <c r="C18" s="79" t="str">
+        <v>CPT-LAS</v>
+      </c>
+      <c r="D18" s="79" t="str" cm="1">
+        <f t="array" ref="D18:E18">_xlfn.TEXTSPLIT(C18,"-")</f>
+        <v>CPT</v>
+      </c>
+      <c r="E18" s="79" t="str">
+        <v>LAS</v>
+      </c>
+      <c r="F18" s="79">
+        <v>0</v>
+      </c>
+      <c r="G18" s="79">
+        <v>0</v>
+      </c>
+      <c r="H18" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I18" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I18" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>41</v>
       </c>
       <c r="L18" s="79">
         <v>45</v>
       </c>
-      <c r="M18" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M18" s="79">
+        <v>107</v>
       </c>
       <c r="R18" s="79">
         <v>15</v>
@@ -28631,30 +28979,36 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="4:21">
-      <c r="D19" s="79" t="e" cm="1">
-        <f t="array" ref="D19">_xlfn.TEXTSPLIT(C19,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G19" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H19" s="80" t="e">
+    <row r="19" spans="3:21">
+      <c r="C19" s="79" t="str">
+        <v>YUL-LAX</v>
+      </c>
+      <c r="D19" s="79" t="str" cm="1">
+        <f t="array" ref="D19:E19">_xlfn.TEXTSPLIT(C19,"-")</f>
+        <v>YUL</v>
+      </c>
+      <c r="E19" s="79" t="str">
+        <v>LAX</v>
+      </c>
+      <c r="F19" s="79">
+        <v>1</v>
+      </c>
+      <c r="G19" s="79">
+        <v>0</v>
+      </c>
+      <c r="H19" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I19" s="79" t="e">
+        <v>1</v>
+      </c>
+      <c r="I19" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>47</v>
       </c>
       <c r="L19" s="79">
         <v>46</v>
       </c>
-      <c r="M19" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M19" s="79">
+        <v>89</v>
       </c>
       <c r="R19" s="79">
         <v>16</v>
@@ -28666,30 +29020,36 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="4:21">
-      <c r="D20" s="79" t="e" cm="1">
-        <f t="array" ref="D20">_xlfn.TEXTSPLIT(C20,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G20" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H20" s="80" t="e">
+    <row r="20" spans="3:21">
+      <c r="C20" s="79" t="str">
+        <v>YYZ-LON</v>
+      </c>
+      <c r="D20" s="79" t="str" cm="1">
+        <f t="array" ref="D20:E20">_xlfn.TEXTSPLIT(C20,"-")</f>
+        <v>YYZ</v>
+      </c>
+      <c r="E20" s="79" t="str">
+        <v>LON</v>
+      </c>
+      <c r="F20" s="79">
+        <v>1</v>
+      </c>
+      <c r="G20" s="79">
+        <v>0</v>
+      </c>
+      <c r="H20" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I20" s="79" t="e">
+        <v>1</v>
+      </c>
+      <c r="I20" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>57</v>
       </c>
       <c r="L20" s="79">
         <v>47</v>
       </c>
-      <c r="M20" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M20" s="79">
+        <v>75</v>
       </c>
       <c r="R20" s="79">
         <v>17</v>
@@ -28701,30 +29061,36 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="4:21">
-      <c r="D21" s="79" t="e" cm="1">
-        <f t="array" ref="D21">_xlfn.TEXTSPLIT(C21,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G21" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H21" s="80" t="e">
+    <row r="21" spans="3:21">
+      <c r="C21" s="79" t="str">
+        <v>LAX-CPT</v>
+      </c>
+      <c r="D21" s="79" t="str" cm="1">
+        <f t="array" ref="D21:E21">_xlfn.TEXTSPLIT(C21,"-")</f>
+        <v>LAX</v>
+      </c>
+      <c r="E21" s="79" t="str">
+        <v>CPT</v>
+      </c>
+      <c r="F21" s="79">
+        <v>0</v>
+      </c>
+      <c r="G21" s="79">
+        <v>0</v>
+      </c>
+      <c r="H21" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I21" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I21" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>58</v>
       </c>
       <c r="L21" s="79">
         <v>48</v>
       </c>
-      <c r="M21" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M21" s="79">
+        <v>90</v>
       </c>
       <c r="R21" s="79">
         <v>18</v>
@@ -28736,30 +29102,36 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="4:21">
-      <c r="D22" s="79" t="e" cm="1">
-        <f t="array" ref="D22">_xlfn.TEXTSPLIT(C22,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F22" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G22" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H22" s="80" t="e">
+    <row r="22" spans="3:21">
+      <c r="C22" s="79" t="str">
+        <v>LIS-MAD</v>
+      </c>
+      <c r="D22" s="79" t="str" cm="1">
+        <f t="array" ref="D22:E22">_xlfn.TEXTSPLIT(C22,"-")</f>
+        <v>LIS</v>
+      </c>
+      <c r="E22" s="79" t="str">
+        <v>MAD</v>
+      </c>
+      <c r="F22" s="79">
+        <v>0</v>
+      </c>
+      <c r="G22" s="79">
+        <v>0</v>
+      </c>
+      <c r="H22" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I22" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I22" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>59</v>
       </c>
       <c r="L22" s="79">
         <v>49</v>
       </c>
-      <c r="M22" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M22" s="79">
+        <v>118</v>
       </c>
       <c r="R22" s="79">
         <v>19</v>
@@ -28771,30 +29143,36 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="4:21">
-      <c r="D23" s="79" t="e" cm="1">
-        <f t="array" ref="D23">_xlfn.TEXTSPLIT(C23,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F23" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G23" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H23" s="80" t="e">
+    <row r="23" spans="3:21">
+      <c r="C23" s="79" t="str">
+        <v>LIS-SYD</v>
+      </c>
+      <c r="D23" s="79" t="str" cm="1">
+        <f t="array" ref="D23:E23">_xlfn.TEXTSPLIT(C23,"-")</f>
+        <v>LIS</v>
+      </c>
+      <c r="E23" s="79" t="str">
+        <v>SYD</v>
+      </c>
+      <c r="F23" s="79">
+        <v>0</v>
+      </c>
+      <c r="G23" s="79">
+        <v>0</v>
+      </c>
+      <c r="H23" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I23" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I23" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>60</v>
       </c>
       <c r="L23" s="79">
         <v>50</v>
       </c>
-      <c r="M23" s="79" t="e">
-        <v>#VALUE!</v>
+      <c r="M23" s="79">
+        <v>112</v>
       </c>
       <c r="R23" s="79">
         <v>20</v>
@@ -28806,24 +29184,30 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="4:21">
-      <c r="D24" s="79" t="e" cm="1">
-        <f t="array" ref="D24">_xlfn.TEXTSPLIT(C24,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G24" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H24" s="80" t="e">
+    <row r="24" spans="3:21">
+      <c r="C24" s="79" t="str">
+        <v>CPT-YYZ</v>
+      </c>
+      <c r="D24" s="79" t="str" cm="1">
+        <f t="array" ref="D24:E24">_xlfn.TEXTSPLIT(C24,"-")</f>
+        <v>CPT</v>
+      </c>
+      <c r="E24" s="79" t="str">
+        <v>YYZ</v>
+      </c>
+      <c r="F24" s="79">
+        <v>0</v>
+      </c>
+      <c r="G24" s="79">
+        <v>1</v>
+      </c>
+      <c r="H24" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I24" s="79" t="e">
+        <v>1</v>
+      </c>
+      <c r="I24" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>67</v>
       </c>
       <c r="R24" s="79">
         <v>21</v>
@@ -28835,24 +29219,30 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="4:21">
-      <c r="D25" s="79" t="e" cm="1">
-        <f t="array" ref="D25">_xlfn.TEXTSPLIT(C25,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F25" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G25" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H25" s="80" t="e">
+    <row r="25" spans="3:21">
+      <c r="C25" s="79" t="str">
+        <v>EZE-SYD</v>
+      </c>
+      <c r="D25" s="79" t="str" cm="1">
+        <f t="array" ref="D25:E25">_xlfn.TEXTSPLIT(C25,"-")</f>
+        <v>EZE</v>
+      </c>
+      <c r="E25" s="79" t="str">
+        <v>SYD</v>
+      </c>
+      <c r="F25" s="79">
+        <v>0</v>
+      </c>
+      <c r="G25" s="79">
+        <v>0</v>
+      </c>
+      <c r="H25" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I25" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I25" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>68</v>
       </c>
       <c r="R25" s="79">
         <v>22</v>
@@ -28864,24 +29254,30 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="4:21">
-      <c r="D26" s="79" t="e" cm="1">
-        <f t="array" ref="D26">_xlfn.TEXTSPLIT(C26,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G26" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H26" s="80" t="e">
+    <row r="26" spans="3:21">
+      <c r="C26" s="79" t="str">
+        <v>LIS-LAX</v>
+      </c>
+      <c r="D26" s="79" t="str" cm="1">
+        <f t="array" ref="D26:E26">_xlfn.TEXTSPLIT(C26,"-")</f>
+        <v>LIS</v>
+      </c>
+      <c r="E26" s="79" t="str">
+        <v>LAX</v>
+      </c>
+      <c r="F26" s="79">
+        <v>0</v>
+      </c>
+      <c r="G26" s="79">
+        <v>0</v>
+      </c>
+      <c r="H26" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I26" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I26" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>69</v>
       </c>
       <c r="R26" s="79">
         <v>23</v>
@@ -28893,24 +29289,30 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="4:21">
-      <c r="D27" s="79" t="e" cm="1">
-        <f t="array" ref="D27">_xlfn.TEXTSPLIT(C27,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G27" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H27" s="80" t="e">
+    <row r="27" spans="3:21">
+      <c r="C27" s="79" t="str">
+        <v>YYZ-CPT</v>
+      </c>
+      <c r="D27" s="79" t="str" cm="1">
+        <f t="array" ref="D27:E27">_xlfn.TEXTSPLIT(C27,"-")</f>
+        <v>YYZ</v>
+      </c>
+      <c r="E27" s="79" t="str">
+        <v>CPT</v>
+      </c>
+      <c r="F27" s="79">
+        <v>1</v>
+      </c>
+      <c r="G27" s="79">
+        <v>0</v>
+      </c>
+      <c r="H27" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I27" s="79" t="e">
+        <v>1</v>
+      </c>
+      <c r="I27" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>70</v>
       </c>
       <c r="R27" s="79">
         <v>24</v>
@@ -28922,24 +29324,30 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="4:21">
-      <c r="D28" s="79" t="e" cm="1">
-        <f t="array" ref="D28">_xlfn.TEXTSPLIT(C28,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="80" t="e">
+    <row r="28" spans="3:21">
+      <c r="C28" s="79" t="str">
+        <v>CPT-EZE</v>
+      </c>
+      <c r="D28" s="79" t="str" cm="1">
+        <f t="array" ref="D28:E28">_xlfn.TEXTSPLIT(C28,"-")</f>
+        <v>CPT</v>
+      </c>
+      <c r="E28" s="79" t="str">
+        <v>EZE</v>
+      </c>
+      <c r="F28" s="79">
+        <v>0</v>
+      </c>
+      <c r="G28" s="79">
+        <v>0</v>
+      </c>
+      <c r="H28" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I28" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I28" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>71</v>
       </c>
       <c r="R28" s="79">
         <v>25</v>
@@ -28951,24 +29359,30 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="4:21">
-      <c r="D29" s="79" t="e" cm="1">
-        <f t="array" ref="D29">_xlfn.TEXTSPLIT(C29,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H29" s="80" t="e">
+    <row r="29" spans="3:21">
+      <c r="C29" s="79" t="str">
+        <v>LAX-YUL</v>
+      </c>
+      <c r="D29" s="79" t="str" cm="1">
+        <f t="array" ref="D29:E29">_xlfn.TEXTSPLIT(C29,"-")</f>
+        <v>LAX</v>
+      </c>
+      <c r="E29" s="79" t="str">
+        <v>YUL</v>
+      </c>
+      <c r="F29" s="79">
+        <v>0</v>
+      </c>
+      <c r="G29" s="79">
+        <v>1</v>
+      </c>
+      <c r="H29" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="79" t="e">
+        <v>1</v>
+      </c>
+      <c r="I29" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>72</v>
       </c>
       <c r="R29" s="79">
         <v>26</v>
@@ -28980,24 +29394,30 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="4:21">
-      <c r="D30" s="79" t="e" cm="1">
-        <f t="array" ref="D30">_xlfn.TEXTSPLIT(C30,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G30" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H30" s="80" t="e">
+    <row r="30" spans="3:21">
+      <c r="C30" s="79" t="str">
+        <v>BOG-RIX</v>
+      </c>
+      <c r="D30" s="79" t="str" cm="1">
+        <f t="array" ref="D30:E30">_xlfn.TEXTSPLIT(C30,"-")</f>
+        <v>BOG</v>
+      </c>
+      <c r="E30" s="79" t="str">
+        <v>RIX</v>
+      </c>
+      <c r="F30" s="79">
+        <v>0</v>
+      </c>
+      <c r="G30" s="79">
+        <v>0</v>
+      </c>
+      <c r="H30" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I30" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>73</v>
       </c>
       <c r="R30" s="79">
         <v>27</v>
@@ -29009,24 +29429,30 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="4:21">
-      <c r="D31" s="79" t="e" cm="1">
-        <f t="array" ref="D31">_xlfn.TEXTSPLIT(C31,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H31" s="80" t="e">
+    <row r="31" spans="3:21">
+      <c r="C31" s="79" t="str">
+        <v>SYD-BOG</v>
+      </c>
+      <c r="D31" s="79" t="str" cm="1">
+        <f t="array" ref="D31:E31">_xlfn.TEXTSPLIT(C31,"-")</f>
+        <v>SYD</v>
+      </c>
+      <c r="E31" s="79" t="str">
+        <v>BOG</v>
+      </c>
+      <c r="F31" s="79">
+        <v>0</v>
+      </c>
+      <c r="G31" s="79">
+        <v>0</v>
+      </c>
+      <c r="H31" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I31" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>74</v>
       </c>
       <c r="R31" s="79">
         <v>28</v>
@@ -29038,24 +29464,30 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="4:21">
-      <c r="D32" s="79" t="e" cm="1">
-        <f t="array" ref="D32">_xlfn.TEXTSPLIT(C32,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F32" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H32" s="80" t="e">
+    <row r="32" spans="3:21">
+      <c r="C32" s="79" t="str">
+        <v>LON-MAD</v>
+      </c>
+      <c r="D32" s="79" t="str" cm="1">
+        <f t="array" ref="D32:E32">_xlfn.TEXTSPLIT(C32,"-")</f>
+        <v>LON</v>
+      </c>
+      <c r="E32" s="79" t="str">
+        <v>MAD</v>
+      </c>
+      <c r="F32" s="79">
+        <v>0</v>
+      </c>
+      <c r="G32" s="79">
+        <v>0</v>
+      </c>
+      <c r="H32" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I32" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>75</v>
       </c>
       <c r="R32" s="79">
         <v>29</v>
@@ -29067,24 +29499,30 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="4:21">
-      <c r="D33" s="79" t="e" cm="1">
-        <f t="array" ref="D33">_xlfn.TEXTSPLIT(C33,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F33" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G33" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H33" s="80" t="e">
+    <row r="33" spans="3:21">
+      <c r="C33" s="79" t="str">
+        <v>LAX-LIS</v>
+      </c>
+      <c r="D33" s="79" t="str" cm="1">
+        <f t="array" ref="D33:E33">_xlfn.TEXTSPLIT(C33,"-")</f>
+        <v>LAX</v>
+      </c>
+      <c r="E33" s="79" t="str">
+        <v>LIS</v>
+      </c>
+      <c r="F33" s="79">
+        <v>0</v>
+      </c>
+      <c r="G33" s="79">
+        <v>0</v>
+      </c>
+      <c r="H33" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I33" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>76</v>
       </c>
       <c r="R33" s="79">
         <v>30</v>
@@ -29096,24 +29534,30 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="4:21">
-      <c r="D34" s="79" t="e" cm="1">
-        <f t="array" ref="D34">_xlfn.TEXTSPLIT(C34,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F34" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G34" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H34" s="80" t="e">
+    <row r="34" spans="3:21">
+      <c r="C34" s="79" t="str">
+        <v>BOG-SYD</v>
+      </c>
+      <c r="D34" s="79" t="str" cm="1">
+        <f t="array" ref="D34:E34">_xlfn.TEXTSPLIT(C34,"-")</f>
+        <v>BOG</v>
+      </c>
+      <c r="E34" s="79" t="str">
+        <v>SYD</v>
+      </c>
+      <c r="F34" s="79">
+        <v>0</v>
+      </c>
+      <c r="G34" s="79">
+        <v>0</v>
+      </c>
+      <c r="H34" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I34" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I34" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>77</v>
       </c>
       <c r="R34" s="79">
         <v>31</v>
@@ -29125,24 +29569,30 @@
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="4:21">
-      <c r="D35" s="79" t="e" cm="1">
-        <f t="array" ref="D35">_xlfn.TEXTSPLIT(C35,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F35" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G35" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H35" s="80" t="e">
+    <row r="35" spans="3:21">
+      <c r="C35" s="79" t="str">
+        <v>LIS-CPT</v>
+      </c>
+      <c r="D35" s="79" t="str" cm="1">
+        <f t="array" ref="D35:E35">_xlfn.TEXTSPLIT(C35,"-")</f>
+        <v>LIS</v>
+      </c>
+      <c r="E35" s="79" t="str">
+        <v>CPT</v>
+      </c>
+      <c r="F35" s="79">
+        <v>0</v>
+      </c>
+      <c r="G35" s="79">
+        <v>0</v>
+      </c>
+      <c r="H35" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I35" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I35" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>78</v>
       </c>
       <c r="R35" s="79">
         <v>32</v>
@@ -29154,24 +29604,30 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="4:21">
-      <c r="D36" s="79" t="e" cm="1">
-        <f t="array" ref="D36">_xlfn.TEXTSPLIT(C36,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F36" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G36" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H36" s="80" t="e">
+    <row r="36" spans="3:21">
+      <c r="C36" s="79" t="str">
+        <v>EZE-LAX</v>
+      </c>
+      <c r="D36" s="79" t="str" cm="1">
+        <f t="array" ref="D36:E36">_xlfn.TEXTSPLIT(C36,"-")</f>
+        <v>EZE</v>
+      </c>
+      <c r="E36" s="79" t="str">
+        <v>LAX</v>
+      </c>
+      <c r="F36" s="79">
+        <v>0</v>
+      </c>
+      <c r="G36" s="79">
+        <v>0</v>
+      </c>
+      <c r="H36" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I36" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I36" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>79</v>
       </c>
       <c r="R36" s="79">
         <v>33</v>
@@ -29183,24 +29639,30 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="4:21">
-      <c r="D37" s="79" t="e" cm="1">
-        <f t="array" ref="D37">_xlfn.TEXTSPLIT(C37,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F37" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G37" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H37" s="80" t="e">
+    <row r="37" spans="3:21">
+      <c r="C37" s="79" t="str">
+        <v>LAS-LON</v>
+      </c>
+      <c r="D37" s="79" t="str" cm="1">
+        <f t="array" ref="D37:E37">_xlfn.TEXTSPLIT(C37,"-")</f>
+        <v>LAS</v>
+      </c>
+      <c r="E37" s="79" t="str">
+        <v>LON</v>
+      </c>
+      <c r="F37" s="79">
+        <v>0</v>
+      </c>
+      <c r="G37" s="79">
+        <v>0</v>
+      </c>
+      <c r="H37" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I37" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I37" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>80</v>
       </c>
       <c r="R37" s="79">
         <v>34</v>
@@ -29212,24 +29674,30 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="4:21">
-      <c r="D38" s="79" t="e" cm="1">
-        <f t="array" ref="D38">_xlfn.TEXTSPLIT(C38,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F38" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G38" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H38" s="80" t="e">
+    <row r="38" spans="3:21">
+      <c r="C38" s="79" t="str">
+        <v>RIX-YYZ</v>
+      </c>
+      <c r="D38" s="79" t="str" cm="1">
+        <f t="array" ref="D38:E38">_xlfn.TEXTSPLIT(C38,"-")</f>
+        <v>RIX</v>
+      </c>
+      <c r="E38" s="79" t="str">
+        <v>YYZ</v>
+      </c>
+      <c r="F38" s="79">
+        <v>0</v>
+      </c>
+      <c r="G38" s="79">
+        <v>1</v>
+      </c>
+      <c r="H38" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I38" s="79" t="e">
+        <v>1</v>
+      </c>
+      <c r="I38" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>87</v>
       </c>
       <c r="R38" s="79">
         <v>35</v>
@@ -29241,24 +29709,30 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="4:21">
-      <c r="D39" s="79" t="e" cm="1">
-        <f t="array" ref="D39">_xlfn.TEXTSPLIT(C39,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F39" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G39" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H39" s="80" t="e">
+    <row r="39" spans="3:21">
+      <c r="C39" s="79" t="str">
+        <v>YUL-LIS</v>
+      </c>
+      <c r="D39" s="79" t="str" cm="1">
+        <f t="array" ref="D39:E39">_xlfn.TEXTSPLIT(C39,"-")</f>
+        <v>YUL</v>
+      </c>
+      <c r="E39" s="79" t="str">
+        <v>LIS</v>
+      </c>
+      <c r="F39" s="79">
+        <v>1</v>
+      </c>
+      <c r="G39" s="79">
+        <v>0</v>
+      </c>
+      <c r="H39" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I39" s="79" t="e">
+        <v>1</v>
+      </c>
+      <c r="I39" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>97</v>
       </c>
       <c r="R39" s="79">
         <v>36</v>
@@ -29270,24 +29744,30 @@
         <v>179</v>
       </c>
     </row>
-    <row r="40" spans="4:21">
-      <c r="D40" s="79" t="e" cm="1">
-        <f t="array" ref="D40">_xlfn.TEXTSPLIT(C40,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G40" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H40" s="80" t="e">
+    <row r="40" spans="3:21">
+      <c r="C40" s="79" t="str">
+        <v>MAD-LAX</v>
+      </c>
+      <c r="D40" s="79" t="str" cm="1">
+        <f t="array" ref="D40:E40">_xlfn.TEXTSPLIT(C40,"-")</f>
+        <v>MAD</v>
+      </c>
+      <c r="E40" s="79" t="str">
+        <v>LAX</v>
+      </c>
+      <c r="F40" s="79">
+        <v>0</v>
+      </c>
+      <c r="G40" s="79">
+        <v>0</v>
+      </c>
+      <c r="H40" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I40" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I40" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>98</v>
       </c>
       <c r="R40" s="79">
         <v>37</v>
@@ -29299,24 +29779,30 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="4:21">
-      <c r="D41" s="79" t="e" cm="1">
-        <f t="array" ref="D41">_xlfn.TEXTSPLIT(C41,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F41" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H41" s="80" t="e">
+    <row r="41" spans="3:21">
+      <c r="C41" s="79" t="str">
+        <v>MAD-RIX</v>
+      </c>
+      <c r="D41" s="79" t="str" cm="1">
+        <f t="array" ref="D41:E41">_xlfn.TEXTSPLIT(C41,"-")</f>
+        <v>MAD</v>
+      </c>
+      <c r="E41" s="79" t="str">
+        <v>RIX</v>
+      </c>
+      <c r="F41" s="79">
+        <v>0</v>
+      </c>
+      <c r="G41" s="79">
+        <v>0</v>
+      </c>
+      <c r="H41" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I41" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I41" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>99</v>
       </c>
       <c r="R41" s="79">
         <v>38</v>
@@ -29328,24 +29814,30 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="4:21">
-      <c r="D42" s="79" t="e" cm="1">
-        <f t="array" ref="D42">_xlfn.TEXTSPLIT(C42,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F42" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G42" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H42" s="80" t="e">
+    <row r="42" spans="3:21">
+      <c r="C42" s="79" t="str">
+        <v>LAX-MAD</v>
+      </c>
+      <c r="D42" s="79" t="str" cm="1">
+        <f t="array" ref="D42:E42">_xlfn.TEXTSPLIT(C42,"-")</f>
+        <v>LAX</v>
+      </c>
+      <c r="E42" s="79" t="str">
+        <v>MAD</v>
+      </c>
+      <c r="F42" s="79">
+        <v>0</v>
+      </c>
+      <c r="G42" s="79">
+        <v>0</v>
+      </c>
+      <c r="H42" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I42" s="79" t="e">
+        <v>0</v>
+      </c>
+      <c r="I42" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>100</v>
       </c>
       <c r="R42" s="79">
         <v>39</v>
@@ -29357,24 +29849,30 @@
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="4:21">
-      <c r="D43" s="79" t="e" cm="1">
-        <f t="array" ref="D43">_xlfn.TEXTSPLIT(C43,"-")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F43" s="79" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="G43" s="79" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="H43" s="80" t="e">
+    <row r="43" spans="3:21">
+      <c r="C43" s="79" t="str">
+        <v>YYZ-LAX</v>
+      </c>
+      <c r="D43" s="79" t="str" cm="1">
+        <f t="array" ref="D43:E43">_xlfn.TEXTSPLIT(C43,"-")</f>
+        <v>YYZ</v>
+      </c>
+      <c r="E43" s="79" t="str">
+        <v>LAX</v>
+      </c>
+      <c r="F43" s="79">
+        <v>1</v>
+      </c>
+      <c r="G43" s="79">
+        <v>0</v>
+      </c>
+      <c r="H43" s="80">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I43" s="79" t="e">
+        <v>1</v>
+      </c>
+      <c r="I43" s="79">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>107</v>
       </c>
       <c r="R43" s="79">
         <v>40</v>
@@ -29386,7 +29884,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="4:21">
+    <row r="44" spans="3:21">
       <c r="R44" s="79">
         <v>41</v>
       </c>
@@ -29397,7 +29895,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="4:21">
+    <row r="45" spans="3:21">
       <c r="R45" s="79">
         <v>42</v>
       </c>
@@ -29408,7 +29906,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="4:21">
+    <row r="46" spans="3:21">
       <c r="R46" s="79">
         <v>43</v>
       </c>
@@ -29419,7 +29917,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="4:21">
+    <row r="47" spans="3:21">
       <c r="R47" s="79">
         <v>44</v>
       </c>
@@ -29430,7 +29928,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="4:21">
+    <row r="48" spans="3:21">
       <c r="R48" s="79">
         <v>45</v>
       </c>
@@ -37769,8 +38267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1463E2-8F2B-4D23-B0F5-2E2A75D6AE1A}">
   <dimension ref="A1:DD369"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G104"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -37829,9 +38327,9 @@
         <f>SUBSTITUTE(D2,"km","")+0</f>
         <v>12750</v>
       </c>
-      <c r="G2" s="74" t="e" cm="1">
-        <f t="array" ref="G2">_xlfn.XLOOKUP(B2,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C2,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G2" s="74" t="str" cm="1">
+        <f t="array" ref="G2">_xlfn.XLOOKUP(B2,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C2,_nCity,_nCode))</f>
+        <v>EZE-RIX</v>
       </c>
       <c r="H2" s="74"/>
       <c r="I2" s="73"/>
@@ -37955,9 +38453,9 @@
         <f t="shared" ref="F3:F66" si="0">SUBSTITUTE(D3,"km","")+0</f>
         <v>1586</v>
       </c>
-      <c r="G3" s="74" t="e" cm="1">
-        <f t="array" ref="G3">_xlfn.XLOOKUP(B3,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C3,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G3" s="74" t="str" cm="1">
+        <f t="array" ref="G3">_xlfn.XLOOKUP(B3,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C3,_nCity,_nCode))</f>
+        <v>LIS-LON</v>
       </c>
       <c r="H3" s="74"/>
       <c r="I3" s="73"/>
@@ -38081,9 +38579,9 @@
         <f t="shared" si="0"/>
         <v>9598</v>
       </c>
-      <c r="G4" s="74" t="e" cm="1">
-        <f t="array" ref="G4">_xlfn.XLOOKUP(B4,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C4,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G4" s="74" t="str" cm="1">
+        <f t="array" ref="G4">_xlfn.XLOOKUP(B4,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C4,_nCity,_nCode))</f>
+        <v>LIS-EZE</v>
       </c>
       <c r="H4" s="74"/>
       <c r="I4" s="73"/>
@@ -38207,9 +38705,9 @@
         <f t="shared" si="0"/>
         <v>8756</v>
       </c>
-      <c r="G5" s="74" t="e" cm="1">
-        <f t="array" ref="G5">_xlfn.XLOOKUP(B5,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C5,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G5" s="74" t="str" cm="1">
+        <f t="array" ref="G5">_xlfn.XLOOKUP(B5,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C5,_nCity,_nCode))</f>
+        <v>LON-LAX</v>
       </c>
       <c r="H5" s="74"/>
       <c r="I5" s="73"/>
@@ -38333,9 +38831,9 @@
         <f t="shared" si="0"/>
         <v>6770</v>
       </c>
-      <c r="G6" s="74" t="e" cm="1">
-        <f t="array" ref="G6">_xlfn.XLOOKUP(B6,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C6,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G6" s="74" t="str" cm="1">
+        <f t="array" ref="G6">_xlfn.XLOOKUP(B6,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C6,_nCity,_nCode))</f>
+        <v>YYZ-RIX</v>
       </c>
       <c r="H6" s="74"/>
       <c r="I6" s="73"/>
@@ -38459,9 +38957,9 @@
         <f t="shared" si="0"/>
         <v>503</v>
       </c>
-      <c r="G7" s="74" t="e" cm="1">
-        <f t="array" ref="G7">_xlfn.XLOOKUP(B7,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C7,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G7" s="74" t="str" cm="1">
+        <f t="array" ref="G7">_xlfn.XLOOKUP(B7,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C7,_nCity,_nCode))</f>
+        <v>MAD-LIS</v>
       </c>
       <c r="H7" s="74"/>
       <c r="I7" s="73"/>
@@ -38585,9 +39083,9 @@
         <f t="shared" si="0"/>
         <v>9295</v>
       </c>
-      <c r="G8" s="74" t="e" cm="1">
-        <f t="array" ref="G8">_xlfn.XLOOKUP(B8,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C8,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G8" s="74" t="str" cm="1">
+        <f t="array" ref="G8">_xlfn.XLOOKUP(B8,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C8,_nCity,_nCode))</f>
+        <v>LAX-RIX</v>
       </c>
       <c r="H8" s="74"/>
       <c r="I8" s="73"/>
@@ -38711,9 +39209,9 @@
         <f t="shared" si="0"/>
         <v>8020</v>
       </c>
-      <c r="G9" s="74" t="e" cm="1">
-        <f t="array" ref="G9">_xlfn.XLOOKUP(B9,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C9,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G9" s="74" t="str" cm="1">
+        <f t="array" ref="G9">_xlfn.XLOOKUP(B9,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C9,_nCity,_nCode))</f>
+        <v>BOG-MAD</v>
       </c>
       <c r="H9" s="74"/>
       <c r="I9" s="73"/>
@@ -38837,9 +39335,9 @@
         <f t="shared" si="0"/>
         <v>506</v>
       </c>
-      <c r="G10" s="74" t="e" cm="1">
-        <f t="array" ref="G10">_xlfn.XLOOKUP(B10,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C10,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G10" s="74" t="str" cm="1">
+        <f t="array" ref="G10">_xlfn.XLOOKUP(B10,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C10,_nCity,_nCode))</f>
+        <v>YUL-YYZ</v>
       </c>
       <c r="H10" s="74"/>
       <c r="I10" s="73"/>
@@ -38963,9 +39461,9 @@
         <f t="shared" si="0"/>
         <v>4373</v>
       </c>
-      <c r="G11" s="74" t="e" cm="1">
-        <f t="array" ref="G11">_xlfn.XLOOKUP(B11,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C11,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G11" s="74" t="str" cm="1">
+        <f t="array" ref="G11">_xlfn.XLOOKUP(B11,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C11,_nCity,_nCode))</f>
+        <v>BOG-YYZ</v>
       </c>
       <c r="H11" s="74"/>
       <c r="I11" s="73"/>
@@ -39089,9 +39587,9 @@
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="G12" s="74" t="e" cm="1">
-        <f t="array" ref="G12">_xlfn.XLOOKUP(B12,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C12,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G12" s="74" t="str" cm="1">
+        <f t="array" ref="G12">_xlfn.XLOOKUP(B12,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C12,_nCity,_nCode))</f>
+        <v>YYZ-YUL</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="73"/>
@@ -39215,9 +39713,9 @@
         <f t="shared" si="0"/>
         <v>18177</v>
       </c>
-      <c r="G13" s="74" t="e" cm="1">
-        <f t="array" ref="G13">_xlfn.XLOOKUP(B13,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C13,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G13" s="74" t="str" cm="1">
+        <f t="array" ref="G13">_xlfn.XLOOKUP(B13,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C13,_nCity,_nCode))</f>
+        <v>SYD-LIS</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="73"/>
@@ -39341,9 +39839,9 @@
         <f t="shared" si="0"/>
         <v>8020</v>
       </c>
-      <c r="G14" s="74" t="e" cm="1">
-        <f t="array" ref="G14">_xlfn.XLOOKUP(B14,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C14,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G14" s="74" t="str" cm="1">
+        <f t="array" ref="G14">_xlfn.XLOOKUP(B14,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C14,_nCity,_nCode))</f>
+        <v>MAD-BOG</v>
       </c>
       <c r="H14" s="74"/>
       <c r="I14" s="73"/>
@@ -39467,9 +39965,9 @@
         <f t="shared" si="0"/>
         <v>11011</v>
       </c>
-      <c r="G15" s="74" t="e" cm="1">
-        <f t="array" ref="G15">_xlfn.XLOOKUP(B15,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C15,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G15" s="74" t="str" cm="1">
+        <f t="array" ref="G15">_xlfn.XLOOKUP(B15,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C15,_nCity,_nCode))</f>
+        <v>SYD-CPT</v>
       </c>
       <c r="H15" s="74"/>
       <c r="I15" s="73"/>
@@ -39593,9 +40091,9 @@
         <f t="shared" si="0"/>
         <v>4373</v>
       </c>
-      <c r="G16" s="74" t="e" cm="1">
-        <f t="array" ref="G16">_xlfn.XLOOKUP(B16,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C16,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G16" s="74" t="str" cm="1">
+        <f t="array" ref="G16">_xlfn.XLOOKUP(B16,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C16,_nCity,_nCode))</f>
+        <v>YYZ-BOG</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="73"/>
@@ -39719,9 +40217,9 @@
         <f t="shared" si="0"/>
         <v>12434</v>
       </c>
-      <c r="G17" s="74" t="e" cm="1">
-        <f t="array" ref="G17">_xlfn.XLOOKUP(B17,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C17,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G17" s="74" t="str" cm="1">
+        <f t="array" ref="G17">_xlfn.XLOOKUP(B17,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C17,_nCity,_nCode))</f>
+        <v>SYD-LAS</v>
       </c>
       <c r="H17" s="74"/>
       <c r="I17" s="73"/>
@@ -39845,9 +40343,9 @@
         <f t="shared" si="0"/>
         <v>5531</v>
       </c>
-      <c r="G18" s="74" t="e" cm="1">
-        <f t="array" ref="G18">_xlfn.XLOOKUP(B18,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C18,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G18" s="74" t="str" cm="1">
+        <f t="array" ref="G18">_xlfn.XLOOKUP(B18,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C18,_nCity,_nCode))</f>
+        <v>MAD-YUL</v>
       </c>
       <c r="H18" s="74"/>
       <c r="I18" s="73"/>
@@ -39971,9 +40469,9 @@
         <f t="shared" si="0"/>
         <v>9039</v>
       </c>
-      <c r="G19" s="74" t="e" cm="1">
-        <f t="array" ref="G19">_xlfn.XLOOKUP(B19,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C19,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G19" s="74" t="str" cm="1">
+        <f t="array" ref="G19">_xlfn.XLOOKUP(B19,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C19,_nCity,_nCode))</f>
+        <v>EZE-YUL</v>
       </c>
       <c r="H19" s="74"/>
       <c r="I19" s="73"/>
@@ -40097,9 +40595,9 @@
         <f t="shared" si="0"/>
         <v>12750</v>
       </c>
-      <c r="G20" s="74" t="e" cm="1">
-        <f t="array" ref="G20">_xlfn.XLOOKUP(B20,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C20,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G20" s="74" t="str" cm="1">
+        <f t="array" ref="G20">_xlfn.XLOOKUP(B20,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C20,_nCity,_nCode))</f>
+        <v>RIX-EZE</v>
       </c>
       <c r="H20" s="74"/>
       <c r="I20" s="73"/>
@@ -40223,9 +40721,9 @@
         <f t="shared" si="0"/>
         <v>16050</v>
       </c>
-      <c r="G21" s="74" t="e" cm="1">
-        <f t="array" ref="G21">_xlfn.XLOOKUP(B21,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C21,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G21" s="74" t="str" cm="1">
+        <f t="array" ref="G21">_xlfn.XLOOKUP(B21,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C21,_nCity,_nCode))</f>
+        <v>CPT-LAX</v>
       </c>
       <c r="H21" s="74"/>
       <c r="I21" s="73"/>
@@ -40349,9 +40847,9 @@
         <f t="shared" si="0"/>
         <v>11801</v>
       </c>
-      <c r="G22" s="74" t="e" cm="1">
-        <f t="array" ref="G22">_xlfn.XLOOKUP(B22,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C22,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G22" s="74" t="str" cm="1">
+        <f t="array" ref="G22">_xlfn.XLOOKUP(B22,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C22,_nCity,_nCode))</f>
+        <v>SYD-EZE</v>
       </c>
       <c r="H22" s="74"/>
       <c r="I22" s="73"/>
@@ -40475,9 +40973,9 @@
         <f t="shared" si="0"/>
         <v>4549</v>
       </c>
-      <c r="G23" s="74" t="e" cm="1">
-        <f t="array" ref="G23">_xlfn.XLOOKUP(B23,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C23,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G23" s="74" t="str" cm="1">
+        <f t="array" ref="G23">_xlfn.XLOOKUP(B23,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C23,_nCity,_nCode))</f>
+        <v>BOG-YUL</v>
       </c>
       <c r="H23" s="74"/>
       <c r="I23" s="73"/>
@@ -40601,9 +41099,9 @@
         <f t="shared" si="0"/>
         <v>3605</v>
       </c>
-      <c r="G24" s="74" t="e" cm="1">
-        <f t="array" ref="G24">_xlfn.XLOOKUP(B24,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C24,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G24" s="74" t="str" cm="1">
+        <f t="array" ref="G24">_xlfn.XLOOKUP(B24,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C24,_nCity,_nCode))</f>
+        <v>LAS-YUL</v>
       </c>
       <c r="H24" s="74"/>
       <c r="I24" s="73"/>
@@ -40727,9 +41225,9 @@
         <f t="shared" si="0"/>
         <v>16995</v>
       </c>
-      <c r="G25" s="74" t="e" cm="1">
-        <f t="array" ref="G25">_xlfn.XLOOKUP(B25,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C25,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G25" s="74" t="str" cm="1">
+        <f t="array" ref="G25">_xlfn.XLOOKUP(B25,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C25,_nCity,_nCode))</f>
+        <v>SYD-LON</v>
       </c>
       <c r="H25" s="74"/>
       <c r="I25" s="73"/>
@@ -40853,9 +41351,9 @@
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
-      <c r="G26" s="74" t="e" cm="1">
-        <f t="array" ref="G26">_xlfn.XLOOKUP(B26,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C26,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G26" s="74" t="str" cm="1">
+        <f t="array" ref="G26">_xlfn.XLOOKUP(B26,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C26,_nCity,_nCode))</f>
+        <v>LAX-LAS</v>
       </c>
       <c r="H26" s="74"/>
       <c r="I26" s="73"/>
@@ -40979,9 +41477,9 @@
         <f t="shared" si="0"/>
         <v>5531</v>
       </c>
-      <c r="G27" s="74" t="e" cm="1">
-        <f t="array" ref="G27">_xlfn.XLOOKUP(B27,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C27,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G27" s="74" t="str" cm="1">
+        <f t="array" ref="G27">_xlfn.XLOOKUP(B27,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C27,_nCity,_nCode))</f>
+        <v>YUL-MAD</v>
       </c>
       <c r="H27" s="74"/>
       <c r="I27" s="73"/>
@@ -41105,9 +41603,9 @@
         <f t="shared" si="0"/>
         <v>11127</v>
       </c>
-      <c r="G28" s="74" t="e" cm="1">
-        <f t="array" ref="G28">_xlfn.XLOOKUP(B28,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C28,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G28" s="74" t="str" cm="1">
+        <f t="array" ref="G28">_xlfn.XLOOKUP(B28,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C28,_nCity,_nCode))</f>
+        <v>LON-EZE</v>
       </c>
       <c r="H28" s="74"/>
       <c r="I28" s="73"/>
@@ -41231,9 +41729,9 @@
         <f t="shared" si="0"/>
         <v>5220</v>
       </c>
-      <c r="G29" s="74" t="e" cm="1">
-        <f t="array" ref="G29">_xlfn.XLOOKUP(B29,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C29,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G29" s="74" t="str" cm="1">
+        <f t="array" ref="G29">_xlfn.XLOOKUP(B29,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C29,_nCity,_nCode))</f>
+        <v>LON-YUL</v>
       </c>
       <c r="H29" s="74"/>
       <c r="I29" s="73"/>
@@ -41357,9 +41855,9 @@
         <f t="shared" si="0"/>
         <v>9853</v>
       </c>
-      <c r="G30" s="74" t="e" cm="1">
-        <f t="array" ref="G30">_xlfn.XLOOKUP(B30,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C30,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G30" s="74" t="str" cm="1">
+        <f t="array" ref="G30">_xlfn.XLOOKUP(B30,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C30,_nCity,_nCode))</f>
+        <v>LAX-EZE</v>
       </c>
       <c r="H30" s="74"/>
       <c r="I30" s="73"/>
@@ -41483,9 +41981,9 @@
         <f t="shared" si="0"/>
         <v>12434</v>
       </c>
-      <c r="G31" s="74" t="e" cm="1">
-        <f t="array" ref="G31">_xlfn.XLOOKUP(B31,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C31,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G31" s="74" t="str" cm="1">
+        <f t="array" ref="G31">_xlfn.XLOOKUP(B31,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C31,_nCity,_nCode))</f>
+        <v>LAS-SYD</v>
       </c>
       <c r="H31" s="74"/>
       <c r="I31" s="73"/>
@@ -41609,9 +42107,9 @@
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
-      <c r="G32" s="74" t="e" cm="1">
-        <f t="array" ref="G32">_xlfn.XLOOKUP(B32,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C32,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G32" s="74" t="str" cm="1">
+        <f t="array" ref="G32">_xlfn.XLOOKUP(B32,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C32,_nCity,_nCode))</f>
+        <v>LON-BOG</v>
       </c>
       <c r="H32" s="74"/>
       <c r="I32" s="73"/>
@@ -41735,9 +42233,9 @@
         <f t="shared" si="0"/>
         <v>15318</v>
       </c>
-      <c r="G33" s="74" t="e" cm="1">
-        <f t="array" ref="G33">_xlfn.XLOOKUP(B33,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C33,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G33" s="74" t="str" cm="1">
+        <f t="array" ref="G33">_xlfn.XLOOKUP(B33,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C33,_nCity,_nCode))</f>
+        <v>RIX-SYD</v>
       </c>
       <c r="H33" s="74"/>
       <c r="I33" s="73"/>
@@ -41861,9 +42359,9 @@
         <f t="shared" si="0"/>
         <v>12074</v>
       </c>
-      <c r="G34" s="74" t="e" cm="1">
-        <f t="array" ref="G34">_xlfn.XLOOKUP(B34,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C34,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G34" s="74" t="str" cm="1">
+        <f t="array" ref="G34">_xlfn.XLOOKUP(B34,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C34,_nCity,_nCode))</f>
+        <v>LAX-SYD</v>
       </c>
       <c r="H34" s="74"/>
       <c r="I34" s="73"/>
@@ -41987,9 +42485,9 @@
         <f t="shared" si="0"/>
         <v>2712</v>
       </c>
-      <c r="G35" s="74" t="e" cm="1">
-        <f t="array" ref="G35">_xlfn.XLOOKUP(B35,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C35,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G35" s="74" t="str" cm="1">
+        <f t="array" ref="G35">_xlfn.XLOOKUP(B35,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C35,_nCity,_nCode))</f>
+        <v>RIX-MAD</v>
       </c>
       <c r="H35" s="74"/>
       <c r="I35" s="73"/>
@@ -42113,9 +42611,9 @@
         <f t="shared" si="0"/>
         <v>10523</v>
       </c>
-      <c r="G36" s="74" t="e" cm="1">
-        <f t="array" ref="G36">_xlfn.XLOOKUP(B36,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C36,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G36" s="74" t="str" cm="1">
+        <f t="array" ref="G36">_xlfn.XLOOKUP(B36,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C36,_nCity,_nCode))</f>
+        <v>BOG-CPT</v>
       </c>
       <c r="H36" s="74"/>
       <c r="I36" s="73"/>
@@ -42239,9 +42737,9 @@
         <f t="shared" si="0"/>
         <v>15821</v>
       </c>
-      <c r="G37" s="74" t="e" cm="1">
-        <f t="array" ref="G37">_xlfn.XLOOKUP(B37,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C37,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G37" s="74" t="str" cm="1">
+        <f t="array" ref="G37">_xlfn.XLOOKUP(B37,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C37,_nCity,_nCode))</f>
+        <v>LAS-CPT</v>
       </c>
       <c r="H37" s="74"/>
       <c r="I37" s="73"/>
@@ -42365,9 +42863,9 @@
         <f t="shared" si="0"/>
         <v>6320</v>
       </c>
-      <c r="G38" s="74" t="e" cm="1">
-        <f t="array" ref="G38">_xlfn.XLOOKUP(B38,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C38,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G38" s="74" t="str" cm="1">
+        <f t="array" ref="G38">_xlfn.XLOOKUP(B38,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C38,_nCity,_nCode))</f>
+        <v>YUL-RIX</v>
       </c>
       <c r="H38" s="74"/>
       <c r="I38" s="73"/>
@@ -42491,9 +42989,9 @@
         <f t="shared" si="0"/>
         <v>10523</v>
       </c>
-      <c r="G39" s="74" t="e" cm="1">
-        <f t="array" ref="G39">_xlfn.XLOOKUP(B39,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C39,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G39" s="74" t="str" cm="1">
+        <f t="array" ref="G39">_xlfn.XLOOKUP(B39,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C39,_nCity,_nCode))</f>
+        <v>CPT-BOG</v>
       </c>
       <c r="H39" s="74"/>
       <c r="I39" s="73"/>
@@ -42617,9 +43115,9 @@
         <f t="shared" si="0"/>
         <v>8572</v>
       </c>
-      <c r="G40" s="74" t="e" cm="1">
-        <f t="array" ref="G40">_xlfn.XLOOKUP(B40,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C40,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G40" s="74" t="str" cm="1">
+        <f t="array" ref="G40">_xlfn.XLOOKUP(B40,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C40,_nCity,_nCode))</f>
+        <v>CPT-MAD</v>
       </c>
       <c r="H40" s="74"/>
       <c r="I40" s="73"/>
@@ -42743,9 +43241,9 @@
         <f t="shared" si="0"/>
         <v>5465</v>
       </c>
-      <c r="G41" s="74" t="e" cm="1">
-        <f t="array" ref="G41">_xlfn.XLOOKUP(B41,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C41,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G41" s="74" t="str" cm="1">
+        <f t="array" ref="G41">_xlfn.XLOOKUP(B41,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C41,_nCity,_nCode))</f>
+        <v>BOG-LAS</v>
       </c>
       <c r="H41" s="74"/>
       <c r="I41" s="73"/>
@@ -42869,9 +43367,9 @@
         <f t="shared" si="0"/>
         <v>7526</v>
       </c>
-      <c r="G42" s="74" t="e" cm="1">
-        <f t="array" ref="G42">_xlfn.XLOOKUP(B42,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C42,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G42" s="74" t="str" cm="1">
+        <f t="array" ref="G42">_xlfn.XLOOKUP(B42,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C42,_nCity,_nCode))</f>
+        <v>LIS-BOG</v>
       </c>
       <c r="H42" s="74"/>
       <c r="I42" s="73"/>
@@ -42995,9 +43493,9 @@
         <f t="shared" si="0"/>
         <v>15821</v>
       </c>
-      <c r="G43" s="74" t="e" cm="1">
-        <f t="array" ref="G43">_xlfn.XLOOKUP(B43,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C43,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G43" s="74" t="str" cm="1">
+        <f t="array" ref="G43">_xlfn.XLOOKUP(B43,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C43,_nCity,_nCode))</f>
+        <v>CPT-LAS</v>
       </c>
       <c r="H43" s="74"/>
       <c r="I43" s="73"/>
@@ -43121,9 +43619,9 @@
         <f t="shared" si="0"/>
         <v>3968</v>
       </c>
-      <c r="G44" s="74" t="e" cm="1">
-        <f t="array" ref="G44">_xlfn.XLOOKUP(B44,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C44,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G44" s="74" t="str" cm="1">
+        <f t="array" ref="G44">_xlfn.XLOOKUP(B44,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C44,_nCity,_nCode))</f>
+        <v>YUL-LAX</v>
       </c>
       <c r="H44" s="74"/>
       <c r="I44" s="73"/>
@@ -43247,9 +43745,9 @@
         <f t="shared" si="0"/>
         <v>5713</v>
       </c>
-      <c r="G45" s="74" t="e" cm="1">
-        <f t="array" ref="G45">_xlfn.XLOOKUP(B45,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C45,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G45" s="74" t="str" cm="1">
+        <f t="array" ref="G45">_xlfn.XLOOKUP(B45,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C45,_nCity,_nCode))</f>
+        <v>YYZ-LON</v>
       </c>
       <c r="H45" s="74"/>
       <c r="I45" s="73"/>
@@ -43373,9 +43871,9 @@
         <f t="shared" si="0"/>
         <v>16995</v>
       </c>
-      <c r="G46" s="74" t="e" cm="1">
-        <f t="array" ref="G46">_xlfn.XLOOKUP(B46,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C46,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G46" s="74" t="str" cm="1">
+        <f t="array" ref="G46">_xlfn.XLOOKUP(B46,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C46,_nCity,_nCode))</f>
+        <v>LON-SYD</v>
       </c>
       <c r="H46" s="74"/>
       <c r="I46" s="73"/>
@@ -43499,9 +43997,9 @@
         <f t="shared" si="0"/>
         <v>16050</v>
       </c>
-      <c r="G47" s="74" t="e" cm="1">
-        <f t="array" ref="G47">_xlfn.XLOOKUP(B47,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C47,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G47" s="74" t="str" cm="1">
+        <f t="array" ref="G47">_xlfn.XLOOKUP(B47,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C47,_nCity,_nCode))</f>
+        <v>LAX-CPT</v>
       </c>
       <c r="H47" s="74"/>
       <c r="I47" s="73"/>
@@ -43625,9 +44123,9 @@
         <f t="shared" si="0"/>
         <v>503</v>
       </c>
-      <c r="G48" s="74" t="e" cm="1">
-        <f t="array" ref="G48">_xlfn.XLOOKUP(B48,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C48,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G48" s="74" t="str" cm="1">
+        <f t="array" ref="G48">_xlfn.XLOOKUP(B48,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C48,_nCity,_nCode))</f>
+        <v>LIS-MAD</v>
       </c>
       <c r="H48" s="74"/>
       <c r="I48" s="73"/>
@@ -43751,9 +44249,9 @@
         <f t="shared" si="0"/>
         <v>4549</v>
       </c>
-      <c r="G49" s="74" t="e" cm="1">
-        <f t="array" ref="G49">_xlfn.XLOOKUP(B49,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C49,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G49" s="74" t="str" cm="1">
+        <f t="array" ref="G49">_xlfn.XLOOKUP(B49,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C49,_nCity,_nCode))</f>
+        <v>YUL-BOG</v>
       </c>
       <c r="H49" s="74"/>
       <c r="I49" s="73"/>
@@ -43877,9 +44375,9 @@
         <f t="shared" si="0"/>
         <v>18177</v>
       </c>
-      <c r="G50" s="74" t="e" cm="1">
-        <f t="array" ref="G50">_xlfn.XLOOKUP(B50,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C50,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G50" s="74" t="str" cm="1">
+        <f t="array" ref="G50">_xlfn.XLOOKUP(B50,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C50,_nCity,_nCode))</f>
+        <v>LIS-SYD</v>
       </c>
       <c r="H50" s="74"/>
       <c r="I50" s="73"/>
@@ -44003,9 +44501,9 @@
         <f t="shared" si="0"/>
         <v>13101</v>
       </c>
-      <c r="G51" s="74" t="e" cm="1">
-        <f t="array" ref="G51">_xlfn.XLOOKUP(B51,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C51,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G51" s="74" t="str" cm="1">
+        <f t="array" ref="G51">_xlfn.XLOOKUP(B51,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C51,_nCity,_nCode))</f>
+        <v>CPT-YYZ</v>
       </c>
       <c r="H51" s="74"/>
       <c r="I51" s="73"/>
@@ -44129,9 +44627,9 @@
         <f t="shared" si="0"/>
         <v>8572</v>
       </c>
-      <c r="G52" s="74" t="e" cm="1">
-        <f t="array" ref="G52">_xlfn.XLOOKUP(B52,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C52,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G52" s="74" t="str" cm="1">
+        <f t="array" ref="G52">_xlfn.XLOOKUP(B52,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C52,_nCity,_nCode))</f>
+        <v>MAD-CPT</v>
       </c>
       <c r="H52" s="74"/>
       <c r="I52" s="73"/>
@@ -44255,9 +44753,9 @@
         <f t="shared" si="0"/>
         <v>11801</v>
       </c>
-      <c r="G53" s="74" t="e" cm="1">
-        <f t="array" ref="G53">_xlfn.XLOOKUP(B53,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C53,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G53" s="74" t="str" cm="1">
+        <f t="array" ref="G53">_xlfn.XLOOKUP(B53,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C53,_nCity,_nCode))</f>
+        <v>EZE-SYD</v>
       </c>
       <c r="H53" s="74"/>
       <c r="I53" s="73"/>
@@ -44381,9 +44879,9 @@
         <f t="shared" si="0"/>
         <v>9122</v>
       </c>
-      <c r="G54" s="74" t="e" cm="1">
-        <f t="array" ref="G54">_xlfn.XLOOKUP(B54,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C54,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G54" s="74" t="str" cm="1">
+        <f t="array" ref="G54">_xlfn.XLOOKUP(B54,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C54,_nCity,_nCode))</f>
+        <v>LIS-LAX</v>
       </c>
       <c r="H54" s="74"/>
       <c r="I54" s="73"/>
@@ -44507,9 +45005,9 @@
         <f t="shared" si="0"/>
         <v>12756</v>
       </c>
-      <c r="G55" s="74" t="e" cm="1">
-        <f t="array" ref="G55">_xlfn.XLOOKUP(B55,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C55,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G55" s="74" t="str" cm="1">
+        <f t="array" ref="G55">_xlfn.XLOOKUP(B55,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C55,_nCity,_nCode))</f>
+        <v>CPT-YUL</v>
       </c>
       <c r="H55" s="74"/>
       <c r="I55" s="73"/>
@@ -44633,9 +45131,9 @@
         <f t="shared" si="0"/>
         <v>13101</v>
       </c>
-      <c r="G56" s="74" t="e" cm="1">
-        <f t="array" ref="G56">_xlfn.XLOOKUP(B56,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C56,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G56" s="74" t="str" cm="1">
+        <f t="array" ref="G56">_xlfn.XLOOKUP(B56,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C56,_nCity,_nCode))</f>
+        <v>YYZ-CPT</v>
       </c>
       <c r="H56" s="74"/>
       <c r="I56" s="73"/>
@@ -44759,9 +45257,9 @@
         <f t="shared" si="0"/>
         <v>6868</v>
       </c>
-      <c r="G57" s="74" t="e" cm="1">
-        <f t="array" ref="G57">_xlfn.XLOOKUP(B57,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C57,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G57" s="74" t="str" cm="1">
+        <f t="array" ref="G57">_xlfn.XLOOKUP(B57,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C57,_nCity,_nCode))</f>
+        <v>CPT-EZE</v>
       </c>
       <c r="H57" s="74"/>
       <c r="I57" s="73"/>
@@ -44885,9 +45383,9 @@
         <f t="shared" si="0"/>
         <v>5224</v>
       </c>
-      <c r="G58" s="74" t="e" cm="1">
-        <f t="array" ref="G58">_xlfn.XLOOKUP(B58,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C58,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G58" s="74" t="str" cm="1">
+        <f t="array" ref="G58">_xlfn.XLOOKUP(B58,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C58,_nCity,_nCode))</f>
+        <v>LIS-YUL</v>
       </c>
       <c r="H58" s="74"/>
       <c r="I58" s="73"/>
@@ -45011,9 +45509,9 @@
         <f t="shared" si="0"/>
         <v>3968</v>
       </c>
-      <c r="G59" s="74" t="e" cm="1">
-        <f t="array" ref="G59">_xlfn.XLOOKUP(B59,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C59,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G59" s="74" t="str" cm="1">
+        <f t="array" ref="G59">_xlfn.XLOOKUP(B59,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C59,_nCity,_nCode))</f>
+        <v>LAX-YUL</v>
       </c>
       <c r="H59" s="74"/>
       <c r="I59" s="73"/>
@@ -45137,9 +45635,9 @@
         <f t="shared" si="0"/>
         <v>10119</v>
       </c>
-      <c r="G60" s="74" t="e" cm="1">
-        <f t="array" ref="G60">_xlfn.XLOOKUP(B60,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C60,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G60" s="74" t="str" cm="1">
+        <f t="array" ref="G60">_xlfn.XLOOKUP(B60,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C60,_nCity,_nCode))</f>
+        <v>RIX-CPT</v>
       </c>
       <c r="H60" s="74"/>
       <c r="I60" s="73"/>
@@ -45263,9 +45761,9 @@
         <f t="shared" si="0"/>
         <v>10071</v>
       </c>
-      <c r="G61" s="74" t="e" cm="1">
-        <f t="array" ref="G61">_xlfn.XLOOKUP(B61,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C61,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G61" s="74" t="str" cm="1">
+        <f t="array" ref="G61">_xlfn.XLOOKUP(B61,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C61,_nCity,_nCode))</f>
+        <v>BOG-RIX</v>
       </c>
       <c r="H61" s="74"/>
       <c r="I61" s="73"/>
@@ -45389,9 +45887,9 @@
         <f t="shared" si="0"/>
         <v>14326</v>
       </c>
-      <c r="G62" s="74" t="e" cm="1">
-        <f t="array" ref="G62">_xlfn.XLOOKUP(B62,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C62,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G62" s="74" t="str" cm="1">
+        <f t="array" ref="G62">_xlfn.XLOOKUP(B62,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C62,_nCity,_nCode))</f>
+        <v>SYD-BOG</v>
       </c>
       <c r="H62" s="74"/>
       <c r="I62" s="73"/>
@@ -45515,9 +46013,9 @@
         <f t="shared" si="0"/>
         <v>1263</v>
       </c>
-      <c r="G63" s="74" t="e" cm="1">
-        <f t="array" ref="G63">_xlfn.XLOOKUP(B63,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C63,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G63" s="74" t="str" cm="1">
+        <f t="array" ref="G63">_xlfn.XLOOKUP(B63,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C63,_nCity,_nCode))</f>
+        <v>LON-MAD</v>
       </c>
       <c r="H63" s="74"/>
       <c r="I63" s="73"/>
@@ -45641,9 +46139,9 @@
         <f t="shared" si="0"/>
         <v>3152</v>
       </c>
-      <c r="G64" s="74" t="e" cm="1">
-        <f t="array" ref="G64">_xlfn.XLOOKUP(B64,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C64,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G64" s="74" t="str" cm="1">
+        <f t="array" ref="G64">_xlfn.XLOOKUP(B64,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C64,_nCity,_nCode))</f>
+        <v>RIX-LIS</v>
       </c>
       <c r="H64" s="74"/>
       <c r="I64" s="73"/>
@@ -45767,9 +46265,9 @@
         <f t="shared" si="0"/>
         <v>1677</v>
       </c>
-      <c r="G65" s="74" t="e" cm="1">
-        <f t="array" ref="G65">_xlfn.XLOOKUP(B65,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C65,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G65" s="74" t="str" cm="1">
+        <f t="array" ref="G65">_xlfn.XLOOKUP(B65,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C65,_nCity,_nCode))</f>
+        <v>LON-RIX</v>
       </c>
       <c r="H65" s="74"/>
       <c r="I65" s="73"/>
@@ -45893,9 +46391,9 @@
         <f t="shared" si="0"/>
         <v>9823</v>
       </c>
-      <c r="G66" s="74" t="e" cm="1">
-        <f t="array" ref="G66">_xlfn.XLOOKUP(B66,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C66,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G66" s="74" t="str" cm="1">
+        <f t="array" ref="G66">_xlfn.XLOOKUP(B66,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C66,_nCity,_nCode))</f>
+        <v>LAS-EZE</v>
       </c>
       <c r="H66" s="74"/>
       <c r="I66" s="73"/>
@@ -46019,9 +46517,9 @@
         <f t="shared" ref="F67:F104" si="1">SUBSTITUTE(D67,"km","")+0</f>
         <v>9122</v>
       </c>
-      <c r="G67" s="74" t="e" cm="1">
-        <f t="array" ref="G67">_xlfn.XLOOKUP(B67,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C67,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G67" s="74" t="str" cm="1">
+        <f t="array" ref="G67">_xlfn.XLOOKUP(B67,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C67,_nCity,_nCode))</f>
+        <v>LAX-LIS</v>
       </c>
       <c r="H67" s="74"/>
       <c r="I67" s="73"/>
@@ -46145,9 +46643,9 @@
         <f t="shared" si="1"/>
         <v>3135</v>
       </c>
-      <c r="G68" s="74" t="e" cm="1">
-        <f t="array" ref="G68">_xlfn.XLOOKUP(B68,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C68,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G68" s="74" t="str" cm="1">
+        <f t="array" ref="G68">_xlfn.XLOOKUP(B68,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C68,_nCity,_nCode))</f>
+        <v>LAS-YYZ</v>
       </c>
       <c r="H68" s="74"/>
       <c r="I68" s="73"/>
@@ -46271,9 +46769,9 @@
         <f t="shared" si="1"/>
         <v>14326</v>
       </c>
-      <c r="G69" s="74" t="e" cm="1">
-        <f t="array" ref="G69">_xlfn.XLOOKUP(B69,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C69,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G69" s="74" t="str" cm="1">
+        <f t="array" ref="G69">_xlfn.XLOOKUP(B69,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C69,_nCity,_nCode))</f>
+        <v>BOG-SYD</v>
       </c>
       <c r="H69" s="74"/>
       <c r="I69" s="73"/>
@@ -46397,9 +46895,9 @@
         <f t="shared" si="1"/>
         <v>1263</v>
       </c>
-      <c r="G70" s="74" t="e" cm="1">
-        <f t="array" ref="G70">_xlfn.XLOOKUP(B70,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C70,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G70" s="74" t="str" cm="1">
+        <f t="array" ref="G70">_xlfn.XLOOKUP(B70,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C70,_nCity,_nCode))</f>
+        <v>MAD-LON</v>
       </c>
       <c r="H70" s="74"/>
       <c r="I70" s="73"/>
@@ -46523,9 +47021,9 @@
         <f t="shared" si="1"/>
         <v>8562</v>
       </c>
-      <c r="G71" s="74" t="e" cm="1">
-        <f t="array" ref="G71">_xlfn.XLOOKUP(B71,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C71,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G71" s="74" t="str" cm="1">
+        <f t="array" ref="G71">_xlfn.XLOOKUP(B71,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C71,_nCity,_nCode))</f>
+        <v>LIS-CPT</v>
       </c>
       <c r="H71" s="74"/>
       <c r="I71" s="73"/>
@@ -46649,9 +47147,9 @@
         <f t="shared" si="1"/>
         <v>9853</v>
       </c>
-      <c r="G72" s="74" t="e" cm="1">
-        <f t="array" ref="G72">_xlfn.XLOOKUP(B72,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C72,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G72" s="74" t="str" cm="1">
+        <f t="array" ref="G72">_xlfn.XLOOKUP(B72,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C72,_nCity,_nCode))</f>
+        <v>EZE-LAX</v>
       </c>
       <c r="H72" s="74"/>
       <c r="I72" s="73"/>
@@ -46775,9 +47273,9 @@
         <f t="shared" si="1"/>
         <v>1677</v>
       </c>
-      <c r="G73" s="74" t="e" cm="1">
-        <f t="array" ref="G73">_xlfn.XLOOKUP(B73,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C73,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G73" s="74" t="str" cm="1">
+        <f t="array" ref="G73">_xlfn.XLOOKUP(B73,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C73,_nCity,_nCode))</f>
+        <v>RIX-LON</v>
       </c>
       <c r="H73" s="74"/>
       <c r="I73" s="73"/>
@@ -46901,9 +47399,9 @@
         <f t="shared" si="1"/>
         <v>8402</v>
       </c>
-      <c r="G74" s="74" t="e" cm="1">
-        <f t="array" ref="G74">_xlfn.XLOOKUP(B74,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C74,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G74" s="74" t="str" cm="1">
+        <f t="array" ref="G74">_xlfn.XLOOKUP(B74,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C74,_nCity,_nCode))</f>
+        <v>LAS-LON</v>
       </c>
       <c r="H74" s="74"/>
       <c r="I74" s="73"/>
@@ -47027,9 +47525,9 @@
         <f t="shared" si="1"/>
         <v>6770</v>
       </c>
-      <c r="G75" s="74" t="e" cm="1">
-        <f t="array" ref="G75">_xlfn.XLOOKUP(B75,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C75,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G75" s="74" t="str" cm="1">
+        <f t="array" ref="G75">_xlfn.XLOOKUP(B75,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C75,_nCity,_nCode))</f>
+        <v>RIX-YYZ</v>
       </c>
       <c r="H75" s="74"/>
       <c r="I75" s="73"/>
@@ -47153,9 +47651,9 @@
         <f t="shared" si="1"/>
         <v>5224</v>
       </c>
-      <c r="G76" s="74" t="e" cm="1">
-        <f t="array" ref="G76">_xlfn.XLOOKUP(B76,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C76,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G76" s="74" t="str" cm="1">
+        <f t="array" ref="G76">_xlfn.XLOOKUP(B76,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C76,_nCity,_nCode))</f>
+        <v>YUL-LIS</v>
       </c>
       <c r="H76" s="74"/>
       <c r="I76" s="73"/>
@@ -47279,9 +47777,9 @@
         <f t="shared" si="1"/>
         <v>9363</v>
       </c>
-      <c r="G77" s="74" t="e" cm="1">
-        <f t="array" ref="G77">_xlfn.XLOOKUP(B77,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C77,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G77" s="74" t="str" cm="1">
+        <f t="array" ref="G77">_xlfn.XLOOKUP(B77,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C77,_nCity,_nCode))</f>
+        <v>MAD-LAX</v>
       </c>
       <c r="H77" s="74"/>
       <c r="I77" s="73"/>
@@ -47405,9 +47903,9 @@
         <f t="shared" si="1"/>
         <v>2712</v>
       </c>
-      <c r="G78" s="74" t="e" cm="1">
-        <f t="array" ref="G78">_xlfn.XLOOKUP(B78,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C78,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G78" s="74" t="str" cm="1">
+        <f t="array" ref="G78">_xlfn.XLOOKUP(B78,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C78,_nCity,_nCode))</f>
+        <v>MAD-RIX</v>
       </c>
       <c r="H78" s="74"/>
       <c r="I78" s="73"/>
@@ -47531,9 +48029,9 @@
         <f t="shared" si="1"/>
         <v>9363</v>
       </c>
-      <c r="G79" s="74" t="e" cm="1">
-        <f t="array" ref="G79">_xlfn.XLOOKUP(B79,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C79,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G79" s="74" t="str" cm="1">
+        <f t="array" ref="G79">_xlfn.XLOOKUP(B79,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C79,_nCity,_nCode))</f>
+        <v>LAX-MAD</v>
       </c>
       <c r="H79" s="74"/>
       <c r="I79" s="73"/>
@@ -47657,9 +48155,9 @@
         <f t="shared" si="1"/>
         <v>3494</v>
       </c>
-      <c r="G80" s="74" t="e" cm="1">
-        <f t="array" ref="G80">_xlfn.XLOOKUP(B80,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C80,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G80" s="74" t="str" cm="1">
+        <f t="array" ref="G80">_xlfn.XLOOKUP(B80,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C80,_nCity,_nCode))</f>
+        <v>YYZ-LAX</v>
       </c>
       <c r="H80" s="74"/>
       <c r="I80" s="73"/>
@@ -47783,9 +48281,9 @@
         <f t="shared" si="1"/>
         <v>3152</v>
       </c>
-      <c r="G81" s="74" t="e" cm="1">
-        <f t="array" ref="G81">_xlfn.XLOOKUP(B81,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C81,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G81" s="74" t="str" cm="1">
+        <f t="array" ref="G81">_xlfn.XLOOKUP(B81,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C81,_nCity,_nCode))</f>
+        <v>LIS-RIX</v>
       </c>
       <c r="H81" s="74"/>
       <c r="I81" s="73"/>
@@ -47909,9 +48407,9 @@
         <f t="shared" si="1"/>
         <v>3135</v>
       </c>
-      <c r="G82" s="74" t="e" cm="1">
-        <f t="array" ref="G82">_xlfn.XLOOKUP(B82,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C82,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G82" s="74" t="str" cm="1">
+        <f t="array" ref="G82">_xlfn.XLOOKUP(B82,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C82,_nCity,_nCode))</f>
+        <v>YYZ-LAS</v>
       </c>
       <c r="H82" s="74"/>
       <c r="I82" s="73"/>
@@ -48035,9 +48533,9 @@
         <f t="shared" si="1"/>
         <v>5220</v>
       </c>
-      <c r="G83" s="74" t="e" cm="1">
-        <f t="array" ref="G83">_xlfn.XLOOKUP(B83,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C83,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G83" s="74" t="str" cm="1">
+        <f t="array" ref="G83">_xlfn.XLOOKUP(B83,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C83,_nCity,_nCode))</f>
+        <v>YUL-LON</v>
       </c>
       <c r="H83" s="74"/>
       <c r="I83" s="73"/>
@@ -48161,9 +48659,9 @@
         <f t="shared" si="1"/>
         <v>6868</v>
       </c>
-      <c r="G84" s="74" t="e" cm="1">
-        <f t="array" ref="G84">_xlfn.XLOOKUP(B84,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C84,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G84" s="74" t="str" cm="1">
+        <f t="array" ref="G84">_xlfn.XLOOKUP(B84,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C84,_nCity,_nCode))</f>
+        <v>EZE-CPT</v>
       </c>
       <c r="H84" s="74"/>
       <c r="I84" s="73"/>
@@ -48287,9 +48785,9 @@
         <f t="shared" si="1"/>
         <v>4660</v>
       </c>
-      <c r="G85" s="74" t="e" cm="1">
-        <f t="array" ref="G85">_xlfn.XLOOKUP(B85,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C85,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G85" s="74" t="str" cm="1">
+        <f t="array" ref="G85">_xlfn.XLOOKUP(B85,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C85,_nCity,_nCode))</f>
+        <v>EZE-BOG</v>
       </c>
       <c r="H85" s="74"/>
       <c r="I85" s="73"/>
@@ -48413,9 +48911,9 @@
         <f t="shared" si="1"/>
         <v>3695</v>
       </c>
-      <c r="G86" s="74" t="e" cm="1">
-        <f t="array" ref="G86">_xlfn.XLOOKUP(B86,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C86,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G86" s="74" t="str" cm="1">
+        <f t="array" ref="G86">_xlfn.XLOOKUP(B86,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C86,_nCity,_nCode))</f>
+        <v>YUL-LAS</v>
       </c>
       <c r="H86" s="74"/>
       <c r="I86" s="73"/>
@@ -48539,9 +49037,9 @@
         <f t="shared" si="1"/>
         <v>5605</v>
       </c>
-      <c r="G87" s="74" t="e" cm="1">
-        <f t="array" ref="G87">_xlfn.XLOOKUP(B87,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C87,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G87" s="74" t="str" cm="1">
+        <f t="array" ref="G87">_xlfn.XLOOKUP(B87,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C87,_nCity,_nCode))</f>
+        <v>BOG-LAX</v>
       </c>
       <c r="H87" s="74"/>
       <c r="I87" s="73"/>
@@ -48665,9 +49163,9 @@
         <f t="shared" si="1"/>
         <v>8756</v>
       </c>
-      <c r="G88" s="74" t="e" cm="1">
-        <f t="array" ref="G88">_xlfn.XLOOKUP(B88,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C88,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G88" s="74" t="str" cm="1">
+        <f t="array" ref="G88">_xlfn.XLOOKUP(B88,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C88,_nCity,_nCode))</f>
+        <v>LAX-LON</v>
       </c>
       <c r="H88" s="74"/>
       <c r="I88" s="73"/>
@@ -48791,9 +49289,9 @@
         <f t="shared" si="1"/>
         <v>5727</v>
       </c>
-      <c r="G89" s="74" t="e" cm="1">
-        <f t="array" ref="G89">_xlfn.XLOOKUP(B89,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C89,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G89" s="74" t="str" cm="1">
+        <f t="array" ref="G89">_xlfn.XLOOKUP(B89,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C89,_nCity,_nCode))</f>
+        <v>YYZ-LIS</v>
       </c>
       <c r="H89" s="74"/>
       <c r="I89" s="73"/>
@@ -48917,9 +49415,9 @@
         <f t="shared" si="1"/>
         <v>5465</v>
       </c>
-      <c r="G90" s="74" t="e" cm="1">
-        <f t="array" ref="G90">_xlfn.XLOOKUP(B90,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C90,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G90" s="74" t="str" cm="1">
+        <f t="array" ref="G90">_xlfn.XLOOKUP(B90,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C90,_nCity,_nCode))</f>
+        <v>LAS-BOG</v>
       </c>
       <c r="H90" s="74"/>
       <c r="I90" s="73"/>
@@ -49043,9 +49541,9 @@
         <f t="shared" si="1"/>
         <v>9823</v>
       </c>
-      <c r="G91" s="74" t="e" cm="1">
-        <f t="array" ref="G91">_xlfn.XLOOKUP(B91,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C91,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G91" s="74" t="str" cm="1">
+        <f t="array" ref="G91">_xlfn.XLOOKUP(B91,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C91,_nCity,_nCode))</f>
+        <v>EZE-LAS</v>
       </c>
       <c r="H91" s="74"/>
       <c r="I91" s="73"/>
@@ -49169,9 +49667,9 @@
         <f t="shared" si="1"/>
         <v>367</v>
       </c>
-      <c r="G92" s="74" t="e" cm="1">
-        <f t="array" ref="G92">_xlfn.XLOOKUP(B92,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C92,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G92" s="74" t="str" cm="1">
+        <f t="array" ref="G92">_xlfn.XLOOKUP(B92,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C92,_nCity,_nCode))</f>
+        <v>LAS-LAX</v>
       </c>
       <c r="H92" s="74"/>
       <c r="I92" s="73"/>
@@ -49295,9 +49793,9 @@
         <f t="shared" si="1"/>
         <v>10119</v>
       </c>
-      <c r="G93" s="74" t="e" cm="1">
-        <f t="array" ref="G93">_xlfn.XLOOKUP(B93,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C93,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G93" s="74" t="str" cm="1">
+        <f t="array" ref="G93">_xlfn.XLOOKUP(B93,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C93,_nCity,_nCode))</f>
+        <v>CPT-RIX</v>
       </c>
       <c r="H93" s="74"/>
       <c r="I93" s="74"/>
@@ -49421,9 +49919,9 @@
         <f t="shared" si="1"/>
         <v>4660</v>
       </c>
-      <c r="G94" s="74" t="e" cm="1">
-        <f t="array" ref="G94">_xlfn.XLOOKUP(B94,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C94,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G94" s="74" t="str" cm="1">
+        <f t="array" ref="G94">_xlfn.XLOOKUP(B94,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C94,_nCity,_nCode))</f>
+        <v>BOG-EZE</v>
       </c>
       <c r="H94" s="74"/>
       <c r="I94" s="74"/>
@@ -49547,9 +50045,9 @@
         <f t="shared" si="1"/>
         <v>8977</v>
       </c>
-      <c r="G95" s="74" t="e" cm="1">
-        <f t="array" ref="G95">_xlfn.XLOOKUP(B95,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C95,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G95" s="74" t="str" cm="1">
+        <f t="array" ref="G95">_xlfn.XLOOKUP(B95,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C95,_nCity,_nCode))</f>
+        <v>RIX-LAS</v>
       </c>
       <c r="H95" s="74"/>
       <c r="I95" s="74"/>
@@ -49673,9 +50171,9 @@
         <f t="shared" si="1"/>
         <v>3494</v>
       </c>
-      <c r="G96" s="74" t="e" cm="1">
-        <f t="array" ref="G96">_xlfn.XLOOKUP(B96,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C96,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G96" s="74" t="str" cm="1">
+        <f t="array" ref="G96">_xlfn.XLOOKUP(B96,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C96,_nCity,_nCode))</f>
+        <v>LAX-YYZ</v>
       </c>
       <c r="H96" s="74"/>
       <c r="I96" s="74"/>
@@ -49799,9 +50297,9 @@
         <f t="shared" si="1"/>
         <v>8755</v>
       </c>
-      <c r="G97" s="74" t="e" cm="1">
-        <f t="array" ref="G97">_xlfn.XLOOKUP(B97,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C97,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G97" s="74" t="str" cm="1">
+        <f t="array" ref="G97">_xlfn.XLOOKUP(B97,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C97,_nCity,_nCode))</f>
+        <v>LAS-LIS</v>
       </c>
       <c r="H97" s="74"/>
       <c r="I97" s="74"/>
@@ -49925,9 +50423,9 @@
         <f t="shared" si="1"/>
         <v>1586</v>
       </c>
-      <c r="G98" s="74" t="e" cm="1">
-        <f t="array" ref="G98">_xlfn.XLOOKUP(B98,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C98,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G98" s="74" t="str" cm="1">
+        <f t="array" ref="G98">_xlfn.XLOOKUP(B98,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C98,_nCity,_nCode))</f>
+        <v>LON-LIS</v>
       </c>
       <c r="H98" s="74"/>
       <c r="I98" s="74"/>
@@ -50051,9 +50549,9 @@
         <f t="shared" si="1"/>
         <v>8402</v>
       </c>
-      <c r="G99" s="74" t="e" cm="1">
-        <f t="array" ref="G99">_xlfn.XLOOKUP(B99,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C99,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G99" s="74" t="str" cm="1">
+        <f t="array" ref="G99">_xlfn.XLOOKUP(B99,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C99,_nCity,_nCode))</f>
+        <v>LON-LAS</v>
       </c>
       <c r="H99" s="74"/>
       <c r="I99" s="74"/>
@@ -50177,9 +50675,9 @@
         <f t="shared" si="1"/>
         <v>10045</v>
       </c>
-      <c r="G100" s="74" t="e" cm="1">
-        <f t="array" ref="G100">_xlfn.XLOOKUP(B100,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C100,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G100" s="74" t="str" cm="1">
+        <f t="array" ref="G100">_xlfn.XLOOKUP(B100,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C100,_nCity,_nCode))</f>
+        <v>MAD-EZE</v>
       </c>
       <c r="H100" s="74"/>
       <c r="I100" s="74"/>
@@ -50303,9 +50801,9 @@
         <f t="shared" si="1"/>
         <v>8997</v>
       </c>
-      <c r="G101" s="74" t="e" cm="1">
-        <f t="array" ref="G101">_xlfn.XLOOKUP(B101,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C101,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G101" s="74" t="str" cm="1">
+        <f t="array" ref="G101">_xlfn.XLOOKUP(B101,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C101,_nCity,_nCode))</f>
+        <v>LAS-MAD</v>
       </c>
       <c r="H101" s="74"/>
       <c r="I101" s="74"/>
@@ -50429,9 +50927,9 @@
         <f t="shared" si="1"/>
         <v>4373</v>
       </c>
-      <c r="G102" s="74" t="e" cm="1">
-        <f t="array" ref="G102">_xlfn.XLOOKUP(B102,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C102,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G102" s="74" t="str" cm="1">
+        <f t="array" ref="G102">_xlfn.XLOOKUP(B102,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C102,_nCity,_nCode))</f>
+        <v>CPT-LIS</v>
       </c>
       <c r="H102" s="74"/>
       <c r="I102" s="74"/>
@@ -50555,9 +51053,9 @@
         <f t="shared" si="1"/>
         <v>12756</v>
       </c>
-      <c r="G103" s="74" t="e" cm="1">
-        <f t="array" ref="G103">_xlfn.XLOOKUP(B103,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C103,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G103" s="74" t="str" cm="1">
+        <f t="array" ref="G103">_xlfn.XLOOKUP(B103,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C103,_nCity,_nCode))</f>
+        <v>YUL-CPT</v>
       </c>
       <c r="H103" s="74"/>
       <c r="I103" s="74"/>
@@ -50681,9 +51179,9 @@
         <f t="shared" si="1"/>
         <v>15568</v>
       </c>
-      <c r="G104" s="74" t="e" cm="1">
-        <f t="array" ref="G104">_xlfn.XLOOKUP(B104,_nCity,_nIATA&amp;"-"&amp;_xlfn.XLOOKUP(C104,_nCity,_nIATA))</f>
-        <v>#REF!</v>
+      <c r="G104" s="74" t="str" cm="1">
+        <f t="array" ref="G104">_xlfn.XLOOKUP(B104,_nCity,_nCode&amp;"-"&amp;_xlfn.XLOOKUP(C104,_nCity,_nCode))</f>
+        <v>YYZ-SYD</v>
       </c>
       <c r="H104" s="74"/>
       <c r="I104" s="74"/>
@@ -51669,34 +52167,34 @@
       <c r="BD1" s="6"/>
     </row>
     <row r="2" spans="2:56" ht="60.6" customHeight="1">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="111" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
       <c r="AO2" s="3"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -51720,32 +52218,32 @@
       <c r="BD3" s="6"/>
     </row>
     <row r="4" spans="2:56" ht="33.6" customHeight="1">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="Y4" s="98" t="s">
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="Y4" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="98"/>
-      <c r="AA4" s="87"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="112"/>
       <c r="AO4" s="3"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -51973,11 +52471,11 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="99" t="s">
+      <c r="Y11" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="101"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="126"/>
       <c r="AO11" s="3"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -52022,33 +52520,33 @@
       <c r="BD12" s="6"/>
     </row>
     <row r="13" spans="2:56" ht="24.9" customHeight="1" thickBot="1">
-      <c r="B13" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
+      <c r="B13" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="112"/>
       <c r="U13" s="60"/>
-      <c r="Y13" s="88" t="s">
+      <c r="Y13" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="112"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -52056,27 +52554,27 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:56" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="114" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="91"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="116"/>
       <c r="U14" s="3"/>
       <c r="Y14" s="61" t="s">
         <v>31</v>
@@ -52093,25 +52591,25 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:56" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B15" s="92"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="94"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="119"/>
       <c r="U15" s="3"/>
       <c r="Y15" s="62" t="s">
         <v>32</v>
@@ -52128,25 +52626,25 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B16" s="92"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="94"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="119"/>
       <c r="U16" s="3"/>
       <c r="Y16" s="62" t="s">
         <v>47</v>
@@ -52162,25 +52660,25 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="94"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="119"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="62" t="s">
         <v>39</v>
@@ -52196,25 +52694,25 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="18" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="94"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="119"/>
       <c r="U18" s="3"/>
       <c r="Y18" s="62" t="s">
         <v>35</v>
@@ -52230,25 +52728,25 @@
       <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="94"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="119"/>
       <c r="U19" s="3"/>
       <c r="Y19" s="62" t="s">
         <v>42</v>
@@ -52264,25 +52762,25 @@
       <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="94"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="119"/>
       <c r="U20" s="3"/>
       <c r="Y20" s="62" t="s">
         <v>48</v>
@@ -52296,25 +52794,25 @@
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="93"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="94"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="119"/>
       <c r="U21" s="3"/>
       <c r="Y21" s="62" t="s">
         <v>49</v>
@@ -52330,25 +52828,25 @@
       <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="94"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="119"/>
       <c r="U22" s="3"/>
       <c r="Y22" s="62" t="s">
         <v>50</v>
@@ -52365,25 +52863,25 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="93"/>
-      <c r="S23" s="93"/>
-      <c r="T23" s="94"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="119"/>
       <c r="U23" s="3"/>
       <c r="Y23" s="62" t="s">
         <v>51</v>
@@ -52400,25 +52898,25 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="93"/>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="94"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="119"/>
       <c r="U24" s="3"/>
       <c r="Y24" s="62" t="s">
         <v>52</v>
@@ -52435,25 +52933,25 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B25" s="92"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="94"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="119"/>
       <c r="U25" s="3"/>
       <c r="Y25" s="62" t="s">
         <v>53</v>
@@ -52468,25 +52966,25 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B26" s="92"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="94"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="119"/>
       <c r="U26" s="3"/>
       <c r="Y26" s="62" t="s">
         <v>105</v>
@@ -52506,25 +53004,25 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="94"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="118"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="119"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -52543,25 +53041,25 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:56" ht="47.25" customHeight="1">
-      <c r="B28" s="95"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="96"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="96"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="97"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="122"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -52572,10 +53070,10 @@
       <c r="AC28" s="63"/>
       <c r="AD28" s="63"/>
       <c r="AE28" s="64"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="85"/>
-      <c r="AH28" s="85"/>
-      <c r="AI28" s="85"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="110"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
     </row>
@@ -52624,34 +53122,34 @@
       <c r="BD29" s="6"/>
     </row>
     <row r="30" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="106"/>
-      <c r="P30" s="106"/>
-      <c r="Q30" s="106"/>
-      <c r="R30" s="106"/>
-      <c r="S30" s="106"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="106"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="106"/>
-      <c r="AA30" s="107"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="92"/>
       <c r="AC30" s="63"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="64"/>
@@ -52714,29 +53212,29 @@
       <c r="E33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="108" t="s">
+      <c r="G33" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="109"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109"/>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="110"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="95"/>
       <c r="AC33" s="63"/>
       <c r="AD33" s="63"/>
       <c r="AE33" s="64"/>
@@ -52759,29 +53257,29 @@
         <v>29</v>
       </c>
       <c r="F34" s="36"/>
-      <c r="G34" s="111" t="s">
+      <c r="G34" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="112"/>
-      <c r="N34" s="112"/>
-      <c r="O34" s="112"/>
-      <c r="P34" s="112"/>
-      <c r="Q34" s="112"/>
-      <c r="R34" s="112"/>
-      <c r="S34" s="112"/>
-      <c r="T34" s="112"/>
-      <c r="U34" s="112"/>
-      <c r="V34" s="112"/>
-      <c r="W34" s="112"/>
-      <c r="X34" s="112"/>
-      <c r="Y34" s="112"/>
-      <c r="Z34" s="112"/>
-      <c r="AA34" s="113"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="98"/>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="64"/>
@@ -52804,29 +53302,29 @@
         <v>51</v>
       </c>
       <c r="F35" s="36"/>
-      <c r="G35" s="114" t="s">
+      <c r="G35" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="115"/>
-      <c r="P35" s="115"/>
-      <c r="Q35" s="115"/>
-      <c r="R35" s="115"/>
-      <c r="S35" s="115"/>
-      <c r="T35" s="115"/>
-      <c r="U35" s="115"/>
-      <c r="V35" s="115"/>
-      <c r="W35" s="115"/>
-      <c r="X35" s="115"/>
-      <c r="Y35" s="115"/>
-      <c r="Z35" s="115"/>
-      <c r="AA35" s="116"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="101"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
@@ -52849,29 +53347,29 @@
         <v>95</v>
       </c>
       <c r="F36" s="36"/>
-      <c r="G36" s="117" t="s">
+      <c r="G36" s="102" t="s">
         <v>301</v>
       </c>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="118"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="118"/>
-      <c r="P36" s="118"/>
-      <c r="Q36" s="118"/>
-      <c r="R36" s="118"/>
-      <c r="S36" s="118"/>
-      <c r="T36" s="118"/>
-      <c r="U36" s="118"/>
-      <c r="V36" s="118"/>
-      <c r="W36" s="118"/>
-      <c r="X36" s="118"/>
-      <c r="Y36" s="118"/>
-      <c r="Z36" s="118"/>
-      <c r="AA36" s="119"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="103"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="103"/>
+      <c r="V36" s="103"/>
+      <c r="W36" s="103"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="103"/>
+      <c r="AA36" s="104"/>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="64"/>
@@ -54340,20 +54838,20 @@
       <c r="E67" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="108" t="s">
+      <c r="G67" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="109"/>
-      <c r="I67" s="109"/>
-      <c r="J67" s="109"/>
-      <c r="K67" s="109"/>
-      <c r="L67" s="109"/>
-      <c r="M67" s="109"/>
-      <c r="N67" s="109"/>
-      <c r="O67" s="109"/>
-      <c r="P67" s="109"/>
-      <c r="Q67" s="109"/>
-      <c r="R67" s="110"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="94"/>
+      <c r="J67" s="94"/>
+      <c r="K67" s="94"/>
+      <c r="L67" s="94"/>
+      <c r="M67" s="94"/>
+      <c r="N67" s="94"/>
+      <c r="O67" s="94"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="95"/>
       <c r="S67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -56393,34 +56891,34 @@
       <c r="E104" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="122" t="s">
+      <c r="G104" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="123"/>
-      <c r="I104" s="123"/>
-      <c r="J104" s="123"/>
-      <c r="K104" s="123"/>
-      <c r="L104" s="123"/>
-      <c r="M104" s="123"/>
-      <c r="N104" s="123"/>
-      <c r="O104" s="123"/>
-      <c r="P104" s="123"/>
-      <c r="Q104" s="123"/>
-      <c r="R104" s="123"/>
-      <c r="S104" s="123"/>
-      <c r="T104" s="123"/>
-      <c r="U104" s="123"/>
-      <c r="V104" s="123"/>
-      <c r="W104" s="123"/>
-      <c r="X104" s="123"/>
-      <c r="Y104" s="123"/>
-      <c r="Z104" s="123"/>
-      <c r="AA104" s="123"/>
-      <c r="AB104" s="123"/>
-      <c r="AC104" s="123"/>
-      <c r="AD104" s="123"/>
-      <c r="AE104" s="123"/>
-      <c r="AF104" s="124"/>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
+      <c r="J104" s="108"/>
+      <c r="K104" s="108"/>
+      <c r="L104" s="108"/>
+      <c r="M104" s="108"/>
+      <c r="N104" s="108"/>
+      <c r="O104" s="108"/>
+      <c r="P104" s="108"/>
+      <c r="Q104" s="108"/>
+      <c r="R104" s="108"/>
+      <c r="S104" s="108"/>
+      <c r="T104" s="108"/>
+      <c r="U104" s="108"/>
+      <c r="V104" s="108"/>
+      <c r="W104" s="108"/>
+      <c r="X104" s="108"/>
+      <c r="Y104" s="108"/>
+      <c r="Z104" s="108"/>
+      <c r="AA104" s="108"/>
+      <c r="AB104" s="108"/>
+      <c r="AC104" s="108"/>
+      <c r="AD104" s="108"/>
+      <c r="AE104" s="108"/>
+      <c r="AF104" s="109"/>
       <c r="AG104" s="6"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
@@ -58136,47 +58634,47 @@
       <c r="G144" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="102" t="s">
+      <c r="I144" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="J144" s="103"/>
-      <c r="K144" s="103"/>
-      <c r="L144" s="103"/>
-      <c r="M144" s="103"/>
-      <c r="N144" s="103"/>
-      <c r="O144" s="103"/>
-      <c r="P144" s="103"/>
-      <c r="Q144" s="103"/>
-      <c r="R144" s="103"/>
-      <c r="S144" s="103"/>
-      <c r="T144" s="103"/>
-      <c r="U144" s="103"/>
-      <c r="V144" s="103"/>
-      <c r="W144" s="103"/>
-      <c r="X144" s="103"/>
-      <c r="Y144" s="103"/>
-      <c r="Z144" s="103"/>
-      <c r="AA144" s="103"/>
-      <c r="AB144" s="103"/>
-      <c r="AC144" s="103"/>
-      <c r="AD144" s="103"/>
-      <c r="AE144" s="103"/>
-      <c r="AF144" s="103"/>
-      <c r="AG144" s="103"/>
-      <c r="AH144" s="103"/>
-      <c r="AI144" s="103"/>
-      <c r="AJ144" s="103"/>
-      <c r="AK144" s="103"/>
-      <c r="AL144" s="103"/>
-      <c r="AM144" s="103"/>
-      <c r="AN144" s="103"/>
-      <c r="AO144" s="103"/>
-      <c r="AP144" s="103"/>
-      <c r="AQ144" s="103"/>
-      <c r="AR144" s="103"/>
-      <c r="AS144" s="103"/>
-      <c r="AT144" s="103"/>
-      <c r="AU144" s="104"/>
+      <c r="J144" s="88"/>
+      <c r="K144" s="88"/>
+      <c r="L144" s="88"/>
+      <c r="M144" s="88"/>
+      <c r="N144" s="88"/>
+      <c r="O144" s="88"/>
+      <c r="P144" s="88"/>
+      <c r="Q144" s="88"/>
+      <c r="R144" s="88"/>
+      <c r="S144" s="88"/>
+      <c r="T144" s="88"/>
+      <c r="U144" s="88"/>
+      <c r="V144" s="88"/>
+      <c r="W144" s="88"/>
+      <c r="X144" s="88"/>
+      <c r="Y144" s="88"/>
+      <c r="Z144" s="88"/>
+      <c r="AA144" s="88"/>
+      <c r="AB144" s="88"/>
+      <c r="AC144" s="88"/>
+      <c r="AD144" s="88"/>
+      <c r="AE144" s="88"/>
+      <c r="AF144" s="88"/>
+      <c r="AG144" s="88"/>
+      <c r="AH144" s="88"/>
+      <c r="AI144" s="88"/>
+      <c r="AJ144" s="88"/>
+      <c r="AK144" s="88"/>
+      <c r="AL144" s="88"/>
+      <c r="AM144" s="88"/>
+      <c r="AN144" s="88"/>
+      <c r="AO144" s="88"/>
+      <c r="AP144" s="88"/>
+      <c r="AQ144" s="88"/>
+      <c r="AR144" s="88"/>
+      <c r="AS144" s="88"/>
+      <c r="AT144" s="88"/>
+      <c r="AU144" s="89"/>
       <c r="AV144" s="6"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="6"/>
@@ -59828,55 +60326,55 @@
       <c r="G179" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I179" s="102" t="s">
+      <c r="I179" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="J179" s="103"/>
-      <c r="K179" s="103"/>
-      <c r="L179" s="103"/>
-      <c r="M179" s="103"/>
-      <c r="N179" s="103"/>
-      <c r="O179" s="103"/>
-      <c r="P179" s="103"/>
-      <c r="Q179" s="103"/>
-      <c r="R179" s="103"/>
-      <c r="S179" s="103"/>
-      <c r="T179" s="103"/>
-      <c r="U179" s="103"/>
-      <c r="V179" s="103"/>
-      <c r="W179" s="103"/>
-      <c r="X179" s="103"/>
-      <c r="Y179" s="103"/>
-      <c r="Z179" s="103"/>
-      <c r="AA179" s="103"/>
-      <c r="AB179" s="103"/>
-      <c r="AC179" s="103"/>
-      <c r="AD179" s="103"/>
-      <c r="AE179" s="103"/>
-      <c r="AF179" s="103"/>
-      <c r="AG179" s="103"/>
-      <c r="AH179" s="103"/>
-      <c r="AI179" s="103"/>
-      <c r="AJ179" s="103"/>
-      <c r="AK179" s="103"/>
-      <c r="AL179" s="103"/>
-      <c r="AM179" s="103"/>
-      <c r="AN179" s="103"/>
-      <c r="AO179" s="103"/>
-      <c r="AP179" s="103"/>
-      <c r="AQ179" s="103"/>
-      <c r="AR179" s="103"/>
-      <c r="AS179" s="103"/>
-      <c r="AT179" s="103"/>
-      <c r="AU179" s="103"/>
-      <c r="AV179" s="103"/>
-      <c r="AW179" s="103"/>
-      <c r="AX179" s="103"/>
-      <c r="AY179" s="103"/>
-      <c r="AZ179" s="103"/>
-      <c r="BA179" s="103"/>
-      <c r="BB179" s="103"/>
-      <c r="BC179" s="104"/>
+      <c r="J179" s="88"/>
+      <c r="K179" s="88"/>
+      <c r="L179" s="88"/>
+      <c r="M179" s="88"/>
+      <c r="N179" s="88"/>
+      <c r="O179" s="88"/>
+      <c r="P179" s="88"/>
+      <c r="Q179" s="88"/>
+      <c r="R179" s="88"/>
+      <c r="S179" s="88"/>
+      <c r="T179" s="88"/>
+      <c r="U179" s="88"/>
+      <c r="V179" s="88"/>
+      <c r="W179" s="88"/>
+      <c r="X179" s="88"/>
+      <c r="Y179" s="88"/>
+      <c r="Z179" s="88"/>
+      <c r="AA179" s="88"/>
+      <c r="AB179" s="88"/>
+      <c r="AC179" s="88"/>
+      <c r="AD179" s="88"/>
+      <c r="AE179" s="88"/>
+      <c r="AF179" s="88"/>
+      <c r="AG179" s="88"/>
+      <c r="AH179" s="88"/>
+      <c r="AI179" s="88"/>
+      <c r="AJ179" s="88"/>
+      <c r="AK179" s="88"/>
+      <c r="AL179" s="88"/>
+      <c r="AM179" s="88"/>
+      <c r="AN179" s="88"/>
+      <c r="AO179" s="88"/>
+      <c r="AP179" s="88"/>
+      <c r="AQ179" s="88"/>
+      <c r="AR179" s="88"/>
+      <c r="AS179" s="88"/>
+      <c r="AT179" s="88"/>
+      <c r="AU179" s="88"/>
+      <c r="AV179" s="88"/>
+      <c r="AW179" s="88"/>
+      <c r="AX179" s="88"/>
+      <c r="AY179" s="88"/>
+      <c r="AZ179" s="88"/>
+      <c r="BA179" s="88"/>
+      <c r="BB179" s="88"/>
+      <c r="BC179" s="89"/>
       <c r="BD179" s="6"/>
     </row>
     <row r="180" spans="2:56" ht="15" thickTop="1">
@@ -62192,12 +62690,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:AA2"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="G36:AA36"/>
+    <mergeCell ref="G67:R67"/>
+    <mergeCell ref="I179:BC179"/>
+    <mergeCell ref="I144:AU144"/>
+    <mergeCell ref="G104:AF104"/>
     <mergeCell ref="AF28:AG28"/>
     <mergeCell ref="AH28:AI28"/>
     <mergeCell ref="B30:AA30"/>
@@ -62205,11 +62702,12 @@
     <mergeCell ref="G35:AA35"/>
     <mergeCell ref="G34:AA34"/>
     <mergeCell ref="B14:T28"/>
-    <mergeCell ref="G36:AA36"/>
-    <mergeCell ref="G67:R67"/>
-    <mergeCell ref="I179:BC179"/>
-    <mergeCell ref="I144:AU144"/>
-    <mergeCell ref="G104:AF104"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="Y13:AA13"/>
   </mergeCells>
   <conditionalFormatting sqref="Y15:AA26 AE26 AC27:AE39">
     <cfRule type="expression" dxfId="0" priority="16">

--- a/ExcelEsport/FMWC_Examples/What Is My Flight Number - Patrick Chatain - My Work.xlsx
+++ b/ExcelEsport/FMWC_Examples/What Is My Flight Number - Patrick Chatain - My Work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\ExcelEsport\FMWC_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E80DFA-8F73-4AD8-BD64-3F5C0657BA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D41DCE-8BD3-49C1-94F0-F309F2DF287C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2086,6 +2086,57 @@
     <xf numFmtId="3" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2154,57 +2205,6 @@
     </xf>
     <xf numFmtId="3" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3345,7 +3345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B840F547-97A4-4023-9D52-57A423820E20}">
   <dimension ref="A1:AZ216"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A123" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -3397,34 +3397,34 @@
       <c r="AZ1" s="6"/>
     </row>
     <row r="2" spans="2:52" ht="60.6" customHeight="1">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="88" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
       <c r="AO2" s="3"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -3440,32 +3440,32 @@
       <c r="AZ3" s="6"/>
     </row>
     <row r="4" spans="2:52" ht="33.6" customHeight="1">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="Y4" s="123" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="Y4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="112"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="89"/>
       <c r="AO4" s="3"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -3665,11 +3665,11 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="124" t="s">
+      <c r="Y11" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="126"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="103"/>
       <c r="AO11" s="3"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -3704,33 +3704,33 @@
       <c r="AZ12" s="6"/>
     </row>
     <row r="13" spans="2:52" ht="24.9" customHeight="1" thickBot="1">
-      <c r="B13" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
+      <c r="B13" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
       <c r="U13" s="60"/>
-      <c r="Y13" s="113" t="s">
+      <c r="Y13" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="112"/>
-      <c r="AA13" s="112"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -3738,27 +3738,27 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:52" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="91" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="115"/>
-      <c r="T14" s="116"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="93"/>
       <c r="U14" s="3"/>
       <c r="Y14" s="61" t="s">
         <v>31</v>
@@ -3775,25 +3775,25 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:52" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="119"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="96"/>
       <c r="U15" s="3"/>
       <c r="Y15" s="62" t="s">
         <v>32</v>
@@ -3813,25 +3813,25 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="119"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="96"/>
       <c r="U16" s="3"/>
       <c r="Y16" s="62" t="s">
         <v>47</v>
@@ -3850,25 +3850,25 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="119"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="96"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="62" t="s">
         <v>39</v>
@@ -3887,25 +3887,25 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="18" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="119"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="96"/>
       <c r="U18" s="3"/>
       <c r="Y18" s="62" t="s">
         <v>35</v>
@@ -3924,25 +3924,25 @@
       <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B19" s="117"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="119"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="96"/>
       <c r="U19" s="3"/>
       <c r="Y19" s="62" t="s">
         <v>42</v>
@@ -3961,25 +3961,25 @@
       <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B20" s="117"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="119"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="96"/>
       <c r="U20" s="3"/>
       <c r="Y20" s="62" t="s">
         <v>48</v>
@@ -3996,25 +3996,25 @@
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B21" s="117"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="119"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="96"/>
       <c r="U21" s="3"/>
       <c r="Y21" s="62" t="s">
         <v>49</v>
@@ -4033,25 +4033,25 @@
       <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="119"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="96"/>
       <c r="U22" s="3"/>
       <c r="Y22" s="62" t="s">
         <v>50</v>
@@ -4071,25 +4071,25 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="119"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="96"/>
       <c r="U23" s="3"/>
       <c r="Y23" s="62" t="s">
         <v>51</v>
@@ -4109,25 +4109,25 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B24" s="117"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="119"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="96"/>
       <c r="U24" s="3"/>
       <c r="Y24" s="62" t="s">
         <v>52</v>
@@ -4147,25 +4147,25 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B25" s="117"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="119"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="96"/>
       <c r="U25" s="3"/>
       <c r="Y25" s="62" t="s">
         <v>53</v>
@@ -4183,25 +4183,25 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="119"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="96"/>
       <c r="U26" s="3"/>
       <c r="Y26" s="62" t="s">
         <v>105</v>
@@ -4224,25 +4224,25 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="119"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="96"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -4261,25 +4261,25 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="47.25" customHeight="1">
-      <c r="B28" s="120"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="121"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="122"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="99"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -4290,10 +4290,10 @@
       <c r="AC28" s="63"/>
       <c r="AD28" s="63"/>
       <c r="AE28" s="64"/>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="110"/>
+      <c r="AF28" s="87"/>
+      <c r="AG28" s="87"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="87"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
     </row>
@@ -4338,34 +4338,34 @@
       <c r="AZ29" s="6"/>
     </row>
     <row r="30" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="91"/>
-      <c r="V30" s="91"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="92"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="108"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="108"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="108"/>
+      <c r="X30" s="108"/>
+      <c r="Y30" s="108"/>
+      <c r="Z30" s="108"/>
+      <c r="AA30" s="109"/>
       <c r="AC30" s="63"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="64"/>
@@ -4416,29 +4416,29 @@
       <c r="E33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="93" t="s">
+      <c r="G33" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="95"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+      <c r="AA33" s="112"/>
       <c r="AC33" s="63"/>
       <c r="AD33" s="63"/>
       <c r="AE33" s="64"/>
@@ -4458,29 +4458,29 @@
         <f>IF(AND(E34&lt;&gt;"",E34=[1]Answers!E34),1,IF(ISBLANK(E34),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G34" s="96" t="s">
+      <c r="G34" s="113" t="s">
         <v>308</v>
       </c>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="97"/>
-      <c r="S34" s="97"/>
-      <c r="T34" s="97"/>
-      <c r="U34" s="97"/>
-      <c r="V34" s="97"/>
-      <c r="W34" s="97"/>
-      <c r="X34" s="97"/>
-      <c r="Y34" s="97"/>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="98"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="114"/>
+      <c r="Z34" s="114"/>
+      <c r="AA34" s="115"/>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="64"/>
@@ -4500,29 +4500,29 @@
         <f>IF(AND(E35&lt;&gt;"",E35=[1]Answers!E35),1,IF(ISBLANK(E35),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G35" s="99" t="s">
+      <c r="G35" s="116" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="100"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="100"/>
-      <c r="T35" s="100"/>
-      <c r="U35" s="100"/>
-      <c r="V35" s="100"/>
-      <c r="W35" s="100"/>
-      <c r="X35" s="100"/>
-      <c r="Y35" s="100"/>
-      <c r="Z35" s="100"/>
-      <c r="AA35" s="101"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="117"/>
+      <c r="S35" s="117"/>
+      <c r="T35" s="117"/>
+      <c r="U35" s="117"/>
+      <c r="V35" s="117"/>
+      <c r="W35" s="117"/>
+      <c r="X35" s="117"/>
+      <c r="Y35" s="117"/>
+      <c r="Z35" s="117"/>
+      <c r="AA35" s="118"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
@@ -4542,29 +4542,29 @@
         <f>IF(AND(E36&lt;&gt;"",E36=[1]Answers!E36),1,IF(ISBLANK(E36),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G36" s="102" t="s">
+      <c r="G36" s="119" t="s">
         <v>309</v>
       </c>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="103"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="103"/>
-      <c r="AA36" s="104"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="120"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="120"/>
+      <c r="T36" s="120"/>
+      <c r="U36" s="120"/>
+      <c r="V36" s="120"/>
+      <c r="W36" s="120"/>
+      <c r="X36" s="120"/>
+      <c r="Y36" s="120"/>
+      <c r="Z36" s="120"/>
+      <c r="AA36" s="121"/>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="64"/>
@@ -4667,13 +4667,13 @@
       <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="106" t="s">
+      <c r="J41" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="106"/>
-      <c r="L41" s="106"/>
-      <c r="M41" s="106"/>
-      <c r="N41" s="106"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
       <c r="AS41" s="6"/>
       <c r="AT41" s="6"/>
       <c r="AU41" s="6"/>
@@ -4684,14 +4684,14 @@
       <c r="AZ41" s="6"/>
     </row>
     <row r="42" spans="2:52" ht="15" customHeight="1" thickTop="1">
-      <c r="J42" s="105" cm="1">
+      <c r="J42" s="122" cm="1">
         <f t="array" ref="J42">SUMPRODUCT(--(F34:F216=1),F34:F216,D34:D216)</f>
         <v>420</v>
       </c>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
-      <c r="N42" s="105"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="122"/>
+      <c r="M42" s="122"/>
+      <c r="N42" s="122"/>
       <c r="AS42" s="6"/>
       <c r="AT42" s="6"/>
       <c r="AU42" s="6"/>
@@ -4705,11 +4705,11 @@
       <c r="B43" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
-      <c r="N43" s="105"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
       <c r="AS43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
@@ -4722,11 +4722,11 @@
     <row r="44" spans="2:52" ht="15" customHeight="1" thickBot="1">
       <c r="B44" s="20"/>
       <c r="G44" s="27"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="105"/>
-      <c r="N44" s="105"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="122"/>
+      <c r="N44" s="122"/>
       <c r="R44" s="6"/>
     </row>
     <row r="45" spans="2:52" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4747,11 +4747,11 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="105"/>
-      <c r="N45" s="105"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="122"/>
+      <c r="M45" s="122"/>
+      <c r="N45" s="122"/>
       <c r="R45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
@@ -4844,7 +4844,7 @@
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6" t="str">
-        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G47,"-"),_nCode,_nCity)</f>
+        <f t="shared" ref="I47:I58" si="0">_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G47,"-"),_nCode,_nCity)</f>
         <v>Toronto</v>
       </c>
       <c r="R47" s="6"/>
@@ -4890,7 +4890,7 @@
       <c r="E48" s="39"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6" t="e">
-        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G48,"-"),_nCode,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="R48" s="6"/>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6" t="str">
-        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G49,"-"),_nCode,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Lisbon</v>
       </c>
       <c r="R49" s="6"/>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="50" spans="2:52" ht="23.4">
       <c r="B50" s="17">
-        <f t="shared" ref="B50:B58" si="0">B49+1</f>
+        <f t="shared" ref="B50:B58" si="1">B49+1</f>
         <v>2</v>
       </c>
       <c r="C50" s="17">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6" t="str">
-        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G50,"-"),_nCode,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Los Angeles</v>
       </c>
       <c r="J50" s="6"/>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="51" spans="2:52" ht="23.4">
       <c r="B51" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C51" s="17">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6" t="str">
-        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G51,"-"),_nCode,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Madrid</v>
       </c>
       <c r="J51" s="6"/>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="52" spans="2:52" ht="23.4">
       <c r="B52" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C52" s="17">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6" t="str">
-        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G52,"-"),_nCode,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>London</v>
       </c>
       <c r="J52" s="6"/>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="53" spans="2:52" ht="23.4">
       <c r="B53" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C53" s="17">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6" t="str">
-        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G53,"-"),_nCode,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Montreal</v>
       </c>
       <c r="J53" s="6"/>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="54" spans="2:52" ht="23.4">
       <c r="B54" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C54" s="17">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6" t="str">
-        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G54,"-"),_nCode,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Bogota</v>
       </c>
       <c r="J54" s="6"/>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="55" spans="2:52" ht="23.4">
       <c r="B55" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C55" s="17">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6" t="str">
-        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G55,"-"),_nCode,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Buenos Aires</v>
       </c>
       <c r="J55" s="6"/>
@@ -5406,7 +5406,7 @@
     </row>
     <row r="56" spans="2:52" ht="23.4">
       <c r="B56" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C56" s="17">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6" t="str">
-        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G56,"-"),_nCode,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Cape Town</v>
       </c>
       <c r="J56" s="6"/>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="57" spans="2:52" ht="23.4">
       <c r="B57" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C57" s="17">
@@ -5496,7 +5496,7 @@
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6" t="str">
-        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G57,"-"),_nCode,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Lisbon</v>
       </c>
       <c r="J57" s="6"/>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="58" spans="2:52" ht="23.4">
       <c r="B58" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C58" s="17">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6" t="str">
-        <f>_xlfn.XLOOKUP(_xlfn.TEXTBEFORE(G58,"-"),_nCode,_nCity)</f>
+        <f t="shared" si="0"/>
         <v>Buenos Aires</v>
       </c>
       <c r="J58" s="6"/>
@@ -5904,20 +5904,20 @@
       <c r="E67" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="93" t="s">
+      <c r="G67" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="94"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="94"/>
-      <c r="K67" s="94"/>
-      <c r="L67" s="94"/>
-      <c r="M67" s="94"/>
-      <c r="N67" s="94"/>
-      <c r="O67" s="94"/>
-      <c r="P67" s="94"/>
-      <c r="Q67" s="94"/>
-      <c r="R67" s="95"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="111"/>
+      <c r="K67" s="111"/>
+      <c r="L67" s="111"/>
+      <c r="M67" s="111"/>
+      <c r="N67" s="111"/>
+      <c r="O67" s="111"/>
+      <c r="P67" s="111"/>
+      <c r="Q67" s="111"/>
+      <c r="R67" s="112"/>
       <c r="S67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="72" spans="2:52" ht="25.5" customHeight="1">
       <c r="B72" s="17">
-        <f t="shared" ref="B72:B90" si="1">B71+1</f>
+        <f t="shared" ref="B72:B90" si="2">B71+1</f>
         <v>12</v>
       </c>
       <c r="C72" s="17">
@@ -6178,7 +6178,7 @@
     </row>
     <row r="73" spans="2:52" ht="25.5" customHeight="1">
       <c r="B73" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C73" s="17">
@@ -6230,7 +6230,7 @@
     </row>
     <row r="74" spans="2:52" ht="25.5" customHeight="1">
       <c r="B74" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C74" s="17">
@@ -6282,7 +6282,7 @@
     </row>
     <row r="75" spans="2:52" ht="25.5" customHeight="1">
       <c r="B75" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C75" s="17">
@@ -6352,7 +6352,7 @@
     </row>
     <row r="76" spans="2:52" ht="25.5" customHeight="1">
       <c r="B76" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C76" s="17">
@@ -6421,7 +6421,7 @@
     </row>
     <row r="77" spans="2:52" ht="25.5" customHeight="1">
       <c r="B77" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C77" s="17">
@@ -6491,7 +6491,7 @@
     </row>
     <row r="78" spans="2:52" ht="25.5" customHeight="1">
       <c r="B78" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C78" s="17">
@@ -6561,7 +6561,7 @@
     </row>
     <row r="79" spans="2:52" ht="25.5" customHeight="1">
       <c r="B79" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C79" s="17">
@@ -6631,7 +6631,7 @@
     </row>
     <row r="80" spans="2:52" ht="25.5" customHeight="1">
       <c r="B80" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C80" s="17">
@@ -6701,7 +6701,7 @@
     </row>
     <row r="81" spans="2:52" ht="25.5" customHeight="1">
       <c r="B81" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C81" s="17">
@@ -6771,7 +6771,7 @@
     </row>
     <row r="82" spans="2:52" ht="25.5" customHeight="1">
       <c r="B82" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="C82" s="17">
@@ -6841,7 +6841,7 @@
     </row>
     <row r="83" spans="2:52" ht="25.5" customHeight="1">
       <c r="B83" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="C83" s="17">
@@ -6911,7 +6911,7 @@
     </row>
     <row r="84" spans="2:52" ht="25.5" customHeight="1">
       <c r="B84" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C84" s="17">
@@ -6981,7 +6981,7 @@
     </row>
     <row r="85" spans="2:52" ht="25.5" customHeight="1">
       <c r="B85" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="C85" s="17">
@@ -7051,7 +7051,7 @@
     </row>
     <row r="86" spans="2:52" ht="25.5" customHeight="1">
       <c r="B86" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="C86" s="17">
@@ -7121,7 +7121,7 @@
     </row>
     <row r="87" spans="2:52" ht="25.5" customHeight="1">
       <c r="B87" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C87" s="17">
@@ -7191,7 +7191,7 @@
     </row>
     <row r="88" spans="2:52" ht="25.5" customHeight="1">
       <c r="B88" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="C88" s="17">
@@ -7261,7 +7261,7 @@
     </row>
     <row r="89" spans="2:52" ht="25.5" customHeight="1">
       <c r="B89" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="C89" s="17">
@@ -7331,7 +7331,7 @@
     </row>
     <row r="90" spans="2:52" ht="25.5" customHeight="1">
       <c r="B90" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="C90" s="17">
@@ -7964,35 +7964,35 @@
         <v>4</v>
       </c>
       <c r="E104" s="44"/>
-      <c r="G104" s="107" t="s">
+      <c r="G104" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="108"/>
-      <c r="I104" s="108"/>
-      <c r="J104" s="108"/>
-      <c r="K104" s="108"/>
-      <c r="L104" s="108"/>
-      <c r="M104" s="108"/>
-      <c r="N104" s="108"/>
-      <c r="O104" s="108"/>
-      <c r="P104" s="108"/>
-      <c r="Q104" s="108"/>
-      <c r="R104" s="108"/>
-      <c r="S104" s="108"/>
-      <c r="T104" s="108"/>
-      <c r="U104" s="108"/>
-      <c r="V104" s="108"/>
-      <c r="W104" s="108"/>
-      <c r="X104" s="108"/>
-      <c r="Y104" s="108"/>
-      <c r="Z104" s="108"/>
-      <c r="AA104" s="108"/>
-      <c r="AB104" s="108"/>
-      <c r="AC104" s="108"/>
-      <c r="AD104" s="108"/>
-      <c r="AE104" s="108"/>
-      <c r="AF104" s="108"/>
-      <c r="AG104" s="109"/>
+      <c r="H104" s="125"/>
+      <c r="I104" s="125"/>
+      <c r="J104" s="125"/>
+      <c r="K104" s="125"/>
+      <c r="L104" s="125"/>
+      <c r="M104" s="125"/>
+      <c r="N104" s="125"/>
+      <c r="O104" s="125"/>
+      <c r="P104" s="125"/>
+      <c r="Q104" s="125"/>
+      <c r="R104" s="125"/>
+      <c r="S104" s="125"/>
+      <c r="T104" s="125"/>
+      <c r="U104" s="125"/>
+      <c r="V104" s="125"/>
+      <c r="W104" s="125"/>
+      <c r="X104" s="125"/>
+      <c r="Y104" s="125"/>
+      <c r="Z104" s="125"/>
+      <c r="AA104" s="125"/>
+      <c r="AB104" s="125"/>
+      <c r="AC104" s="125"/>
+      <c r="AD104" s="125"/>
+      <c r="AE104" s="125"/>
+      <c r="AF104" s="125"/>
+      <c r="AG104" s="126"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
       <c r="AJ104" s="6"/>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="109" spans="2:52" ht="23.4">
       <c r="B109" s="17">
-        <f t="shared" ref="B109:B127" si="2">B108+1</f>
+        <f t="shared" ref="B109:B127" si="3">B108+1</f>
         <v>32</v>
       </c>
       <c r="C109" s="17">
@@ -8220,7 +8220,7 @@
     </row>
     <row r="110" spans="2:52" ht="23.4">
       <c r="B110" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="C110" s="17">
@@ -8268,7 +8268,7 @@
     </row>
     <row r="111" spans="2:52" ht="23.4">
       <c r="B111" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="C111" s="17">
@@ -8316,7 +8316,7 @@
     </row>
     <row r="112" spans="2:52" ht="23.4">
       <c r="B112" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="C112" s="17">
@@ -8364,7 +8364,7 @@
     </row>
     <row r="113" spans="2:33" ht="23.4">
       <c r="B113" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="C113" s="17">
@@ -8412,7 +8412,7 @@
     </row>
     <row r="114" spans="2:33" ht="23.4">
       <c r="B114" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="C114" s="17">
@@ -8460,7 +8460,7 @@
     </row>
     <row r="115" spans="2:33" ht="23.4">
       <c r="B115" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="C115" s="17">
@@ -8508,7 +8508,7 @@
     </row>
     <row r="116" spans="2:33" ht="23.4">
       <c r="B116" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="C116" s="17">
@@ -8556,7 +8556,7 @@
     </row>
     <row r="117" spans="2:33" ht="23.4">
       <c r="B117" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="C117" s="17">
@@ -8604,7 +8604,7 @@
     </row>
     <row r="118" spans="2:33" ht="23.4">
       <c r="B118" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="C118" s="17">
@@ -8652,7 +8652,7 @@
     </row>
     <row r="119" spans="2:33" ht="23.4">
       <c r="B119" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="C119" s="17">
@@ -8700,7 +8700,7 @@
     </row>
     <row r="120" spans="2:33" ht="23.4">
       <c r="B120" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="C120" s="17">
@@ -8748,7 +8748,7 @@
     </row>
     <row r="121" spans="2:33" ht="23.4">
       <c r="B121" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="C121" s="17">
@@ -8796,7 +8796,7 @@
     </row>
     <row r="122" spans="2:33" ht="23.4">
       <c r="B122" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="C122" s="17">
@@ -8844,7 +8844,7 @@
     </row>
     <row r="123" spans="2:33" ht="23.4">
       <c r="B123" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="C123" s="17">
@@ -8892,7 +8892,7 @@
     </row>
     <row r="124" spans="2:33" ht="23.4">
       <c r="B124" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="C124" s="17">
@@ -8940,7 +8940,7 @@
     </row>
     <row r="125" spans="2:33" ht="23.4">
       <c r="B125" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="C125" s="17">
@@ -8988,7 +8988,7 @@
     </row>
     <row r="126" spans="2:33" ht="23.4">
       <c r="B126" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="C126" s="17">
@@ -9036,7 +9036,7 @@
     </row>
     <row r="127" spans="2:33" ht="23.4">
       <c r="B127" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="C127" s="17">
@@ -9668,48 +9668,48 @@
       <c r="G144" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="87" t="s">
+      <c r="I144" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J144" s="88"/>
-      <c r="K144" s="88"/>
-      <c r="L144" s="88"/>
-      <c r="M144" s="88"/>
-      <c r="N144" s="88"/>
-      <c r="O144" s="88"/>
-      <c r="P144" s="88"/>
-      <c r="Q144" s="88"/>
-      <c r="R144" s="88"/>
-      <c r="S144" s="88"/>
-      <c r="T144" s="88"/>
-      <c r="U144" s="88"/>
-      <c r="V144" s="88"/>
-      <c r="W144" s="88"/>
-      <c r="X144" s="88"/>
-      <c r="Y144" s="88"/>
-      <c r="Z144" s="88"/>
-      <c r="AA144" s="88"/>
-      <c r="AB144" s="88"/>
-      <c r="AC144" s="88"/>
-      <c r="AD144" s="88"/>
-      <c r="AE144" s="88"/>
-      <c r="AF144" s="88"/>
-      <c r="AG144" s="88"/>
-      <c r="AH144" s="88"/>
-      <c r="AI144" s="88"/>
-      <c r="AJ144" s="88"/>
-      <c r="AK144" s="88"/>
-      <c r="AL144" s="88"/>
-      <c r="AM144" s="88"/>
-      <c r="AN144" s="88"/>
-      <c r="AO144" s="88"/>
-      <c r="AP144" s="88"/>
-      <c r="AQ144" s="88"/>
-      <c r="AR144" s="88"/>
-      <c r="AS144" s="88"/>
-      <c r="AT144" s="88"/>
-      <c r="AU144" s="88"/>
-      <c r="AV144" s="89"/>
+      <c r="J144" s="105"/>
+      <c r="K144" s="105"/>
+      <c r="L144" s="105"/>
+      <c r="M144" s="105"/>
+      <c r="N144" s="105"/>
+      <c r="O144" s="105"/>
+      <c r="P144" s="105"/>
+      <c r="Q144" s="105"/>
+      <c r="R144" s="105"/>
+      <c r="S144" s="105"/>
+      <c r="T144" s="105"/>
+      <c r="U144" s="105"/>
+      <c r="V144" s="105"/>
+      <c r="W144" s="105"/>
+      <c r="X144" s="105"/>
+      <c r="Y144" s="105"/>
+      <c r="Z144" s="105"/>
+      <c r="AA144" s="105"/>
+      <c r="AB144" s="105"/>
+      <c r="AC144" s="105"/>
+      <c r="AD144" s="105"/>
+      <c r="AE144" s="105"/>
+      <c r="AF144" s="105"/>
+      <c r="AG144" s="105"/>
+      <c r="AH144" s="105"/>
+      <c r="AI144" s="105"/>
+      <c r="AJ144" s="105"/>
+      <c r="AK144" s="105"/>
+      <c r="AL144" s="105"/>
+      <c r="AM144" s="105"/>
+      <c r="AN144" s="105"/>
+      <c r="AO144" s="105"/>
+      <c r="AP144" s="105"/>
+      <c r="AQ144" s="105"/>
+      <c r="AR144" s="105"/>
+      <c r="AS144" s="105"/>
+      <c r="AT144" s="105"/>
+      <c r="AU144" s="105"/>
+      <c r="AV144" s="106"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="6"/>
       <c r="AY144" s="6"/>
@@ -9921,7 +9921,7 @@
     </row>
     <row r="149" spans="2:52" ht="23.4">
       <c r="B149" s="17">
-        <f t="shared" ref="B149:B167" si="3">B148+1</f>
+        <f t="shared" ref="B149:B167" si="4">B148+1</f>
         <v>52</v>
       </c>
       <c r="C149" s="17">
@@ -9984,7 +9984,7 @@
     </row>
     <row r="150" spans="2:52" ht="23.4">
       <c r="B150" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="C150" s="17">
@@ -10047,7 +10047,7 @@
     </row>
     <row r="151" spans="2:52" ht="23.4">
       <c r="B151" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="C151" s="17">
@@ -10110,7 +10110,7 @@
     </row>
     <row r="152" spans="2:52" ht="23.4">
       <c r="B152" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="C152" s="17">
@@ -10173,7 +10173,7 @@
     </row>
     <row r="153" spans="2:52" ht="23.4">
       <c r="B153" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="C153" s="17">
@@ -10236,7 +10236,7 @@
     </row>
     <row r="154" spans="2:52" ht="23.4">
       <c r="B154" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="C154" s="17">
@@ -10299,7 +10299,7 @@
     </row>
     <row r="155" spans="2:52" ht="23.4">
       <c r="B155" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="C155" s="17">
@@ -10362,7 +10362,7 @@
     </row>
     <row r="156" spans="2:52" ht="23.4">
       <c r="B156" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="C156" s="17">
@@ -10425,7 +10425,7 @@
     </row>
     <row r="157" spans="2:52" ht="23.4">
       <c r="B157" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="C157" s="17">
@@ -10488,7 +10488,7 @@
     </row>
     <row r="158" spans="2:52" ht="23.4">
       <c r="B158" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="C158" s="17">
@@ -10551,7 +10551,7 @@
     </row>
     <row r="159" spans="2:52" ht="23.4">
       <c r="B159" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="C159" s="17">
@@ -10614,7 +10614,7 @@
     </row>
     <row r="160" spans="2:52" ht="23.4">
       <c r="B160" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="C160" s="17">
@@ -10677,7 +10677,7 @@
     </row>
     <row r="161" spans="2:48" ht="23.4">
       <c r="B161" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="C161" s="17">
@@ -10740,7 +10740,7 @@
     </row>
     <row r="162" spans="2:48" ht="23.4">
       <c r="B162" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="C162" s="17">
@@ -10803,7 +10803,7 @@
     </row>
     <row r="163" spans="2:48" ht="23.4">
       <c r="B163" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="C163" s="17">
@@ -10866,7 +10866,7 @@
     </row>
     <row r="164" spans="2:48" ht="23.4">
       <c r="B164" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="C164" s="17">
@@ -10929,7 +10929,7 @@
     </row>
     <row r="165" spans="2:48" ht="23.4">
       <c r="B165" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="C165" s="17">
@@ -10992,7 +10992,7 @@
     </row>
     <row r="166" spans="2:48" ht="23.4">
       <c r="B166" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="C166" s="17">
@@ -11055,7 +11055,7 @@
     </row>
     <row r="167" spans="2:48" ht="23.4">
       <c r="B167" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="C167" s="17">
@@ -11300,52 +11300,52 @@
       <c r="G179" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I179" s="87" t="s">
+      <c r="I179" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J179" s="88"/>
-      <c r="K179" s="88"/>
-      <c r="L179" s="88"/>
-      <c r="M179" s="88"/>
-      <c r="N179" s="88"/>
-      <c r="O179" s="88"/>
-      <c r="P179" s="88"/>
-      <c r="Q179" s="88"/>
-      <c r="R179" s="88"/>
-      <c r="S179" s="88"/>
-      <c r="T179" s="88"/>
-      <c r="U179" s="88"/>
-      <c r="V179" s="88"/>
-      <c r="W179" s="88"/>
-      <c r="X179" s="88"/>
-      <c r="Y179" s="88"/>
-      <c r="Z179" s="88"/>
-      <c r="AA179" s="88"/>
-      <c r="AB179" s="88"/>
-      <c r="AC179" s="88"/>
-      <c r="AD179" s="88"/>
-      <c r="AE179" s="88"/>
-      <c r="AF179" s="88"/>
-      <c r="AG179" s="88"/>
-      <c r="AH179" s="88"/>
-      <c r="AI179" s="88"/>
-      <c r="AJ179" s="88"/>
-      <c r="AK179" s="88"/>
-      <c r="AL179" s="88"/>
-      <c r="AM179" s="88"/>
-      <c r="AN179" s="88"/>
-      <c r="AO179" s="88"/>
-      <c r="AP179" s="88"/>
-      <c r="AQ179" s="88"/>
-      <c r="AR179" s="88"/>
-      <c r="AS179" s="88"/>
-      <c r="AT179" s="88"/>
-      <c r="AU179" s="88"/>
-      <c r="AV179" s="88"/>
-      <c r="AW179" s="88"/>
-      <c r="AX179" s="88"/>
-      <c r="AY179" s="88"/>
-      <c r="AZ179" s="89"/>
+      <c r="J179" s="105"/>
+      <c r="K179" s="105"/>
+      <c r="L179" s="105"/>
+      <c r="M179" s="105"/>
+      <c r="N179" s="105"/>
+      <c r="O179" s="105"/>
+      <c r="P179" s="105"/>
+      <c r="Q179" s="105"/>
+      <c r="R179" s="105"/>
+      <c r="S179" s="105"/>
+      <c r="T179" s="105"/>
+      <c r="U179" s="105"/>
+      <c r="V179" s="105"/>
+      <c r="W179" s="105"/>
+      <c r="X179" s="105"/>
+      <c r="Y179" s="105"/>
+      <c r="Z179" s="105"/>
+      <c r="AA179" s="105"/>
+      <c r="AB179" s="105"/>
+      <c r="AC179" s="105"/>
+      <c r="AD179" s="105"/>
+      <c r="AE179" s="105"/>
+      <c r="AF179" s="105"/>
+      <c r="AG179" s="105"/>
+      <c r="AH179" s="105"/>
+      <c r="AI179" s="105"/>
+      <c r="AJ179" s="105"/>
+      <c r="AK179" s="105"/>
+      <c r="AL179" s="105"/>
+      <c r="AM179" s="105"/>
+      <c r="AN179" s="105"/>
+      <c r="AO179" s="105"/>
+      <c r="AP179" s="105"/>
+      <c r="AQ179" s="105"/>
+      <c r="AR179" s="105"/>
+      <c r="AS179" s="105"/>
+      <c r="AT179" s="105"/>
+      <c r="AU179" s="105"/>
+      <c r="AV179" s="105"/>
+      <c r="AW179" s="105"/>
+      <c r="AX179" s="105"/>
+      <c r="AY179" s="105"/>
+      <c r="AZ179" s="106"/>
     </row>
     <row r="180" spans="2:52" ht="15" thickTop="1">
       <c r="B180" s="1"/>
@@ -11565,7 +11565,7 @@
     </row>
     <row r="184" spans="2:52" ht="23.4">
       <c r="B184" s="17">
-        <f t="shared" ref="B184:B212" si="4">B183+1</f>
+        <f t="shared" ref="B184:B212" si="5">B183+1</f>
         <v>72</v>
       </c>
       <c r="C184" s="17">
@@ -11632,7 +11632,7 @@
     </row>
     <row r="185" spans="2:52" ht="23.4">
       <c r="B185" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="C185" s="17">
@@ -11699,7 +11699,7 @@
     </row>
     <row r="186" spans="2:52" ht="23.4">
       <c r="B186" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="C186" s="17">
@@ -11766,7 +11766,7 @@
     </row>
     <row r="187" spans="2:52" ht="23.4">
       <c r="B187" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="C187" s="17">
@@ -11833,7 +11833,7 @@
     </row>
     <row r="188" spans="2:52" ht="23.4">
       <c r="B188" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="C188" s="17">
@@ -11900,7 +11900,7 @@
     </row>
     <row r="189" spans="2:52" ht="23.4">
       <c r="B189" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77</v>
       </c>
       <c r="C189" s="17">
@@ -11967,7 +11967,7 @@
     </row>
     <row r="190" spans="2:52" ht="23.4">
       <c r="B190" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78</v>
       </c>
       <c r="C190" s="17">
@@ -12034,7 +12034,7 @@
     </row>
     <row r="191" spans="2:52" ht="23.4">
       <c r="B191" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="C191" s="17">
@@ -12101,7 +12101,7 @@
     </row>
     <row r="192" spans="2:52" ht="23.4">
       <c r="B192" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="C192" s="17">
@@ -12168,7 +12168,7 @@
     </row>
     <row r="193" spans="2:52" ht="23.4">
       <c r="B193" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="C193" s="17">
@@ -12235,7 +12235,7 @@
     </row>
     <row r="194" spans="2:52" ht="23.4">
       <c r="B194" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
       <c r="C194" s="17">
@@ -12302,7 +12302,7 @@
     </row>
     <row r="195" spans="2:52" ht="23.4">
       <c r="B195" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="C195" s="17">
@@ -12369,7 +12369,7 @@
     </row>
     <row r="196" spans="2:52" ht="23.4">
       <c r="B196" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="C196" s="17">
@@ -12436,7 +12436,7 @@
     </row>
     <row r="197" spans="2:52" ht="23.4">
       <c r="B197" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="C197" s="17">
@@ -12503,7 +12503,7 @@
     </row>
     <row r="198" spans="2:52" ht="23.4">
       <c r="B198" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86</v>
       </c>
       <c r="C198" s="17">
@@ -12570,7 +12570,7 @@
     </row>
     <row r="199" spans="2:52" ht="23.4">
       <c r="B199" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="C199" s="17">
@@ -12637,7 +12637,7 @@
     </row>
     <row r="200" spans="2:52" ht="23.4">
       <c r="B200" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="C200" s="17">
@@ -12704,7 +12704,7 @@
     </row>
     <row r="201" spans="2:52" ht="23.4">
       <c r="B201" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="C201" s="17">
@@ -12771,7 +12771,7 @@
     </row>
     <row r="202" spans="2:52" ht="23.4">
       <c r="B202" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="C202" s="17">
@@ -12838,7 +12838,7 @@
     </row>
     <row r="203" spans="2:52" ht="23.4">
       <c r="B203" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="C203" s="17">
@@ -12905,7 +12905,7 @@
     </row>
     <row r="204" spans="2:52" ht="23.4">
       <c r="B204" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="C204" s="17">
@@ -12972,7 +12972,7 @@
     </row>
     <row r="205" spans="2:52" ht="23.4">
       <c r="B205" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="C205" s="17">
@@ -13039,7 +13039,7 @@
     </row>
     <row r="206" spans="2:52" ht="23.4">
       <c r="B206" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="C206" s="17">
@@ -13106,7 +13106,7 @@
     </row>
     <row r="207" spans="2:52" ht="23.4">
       <c r="B207" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="C207" s="17">
@@ -13173,7 +13173,7 @@
     </row>
     <row r="208" spans="2:52" ht="23.4">
       <c r="B208" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>96</v>
       </c>
       <c r="C208" s="17">
@@ -13240,7 +13240,7 @@
     </row>
     <row r="209" spans="2:52" ht="23.4">
       <c r="B209" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
       <c r="C209" s="17">
@@ -13307,7 +13307,7 @@
     </row>
     <row r="210" spans="2:52" ht="23.4">
       <c r="B210" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="C210" s="17">
@@ -13374,7 +13374,7 @@
     </row>
     <row r="211" spans="2:52" ht="23.4">
       <c r="B211" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="C211" s="17">
@@ -13441,7 +13441,7 @@
     </row>
     <row r="212" spans="2:52" ht="23.4">
       <c r="B212" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="C212" s="17">
@@ -13549,15 +13549,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="B2:AA2"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="B14:T28"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y11:AA11"/>
     <mergeCell ref="I144:AV144"/>
     <mergeCell ref="I179:AZ179"/>
     <mergeCell ref="B30:AA30"/>
@@ -13569,6 +13560,15 @@
     <mergeCell ref="J42:N45"/>
     <mergeCell ref="J41:N41"/>
     <mergeCell ref="G104:AG104"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="B14:T28"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y11:AA11"/>
   </mergeCells>
   <conditionalFormatting sqref="Y15:AA26 AE26 AC27:AE39">
     <cfRule type="expression" dxfId="4" priority="16">
@@ -52167,34 +52167,34 @@
       <c r="BD1" s="6"/>
     </row>
     <row r="2" spans="2:56" ht="60.6" customHeight="1">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="88" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
       <c r="AO2" s="3"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -52218,32 +52218,32 @@
       <c r="BD3" s="6"/>
     </row>
     <row r="4" spans="2:56" ht="33.6" customHeight="1">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="Y4" s="123" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="Y4" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="112"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="89"/>
       <c r="AO4" s="3"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -52471,11 +52471,11 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="124" t="s">
+      <c r="Y11" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="126"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="103"/>
       <c r="AO11" s="3"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -52520,33 +52520,33 @@
       <c r="BD12" s="6"/>
     </row>
     <row r="13" spans="2:56" ht="24.9" customHeight="1" thickBot="1">
-      <c r="B13" s="113" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
+      <c r="B13" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
       <c r="U13" s="60"/>
-      <c r="Y13" s="113" t="s">
+      <c r="Y13" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="112"/>
-      <c r="AA13" s="112"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -52554,27 +52554,27 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:56" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="91" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="115"/>
-      <c r="T14" s="116"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="93"/>
       <c r="U14" s="3"/>
       <c r="Y14" s="61" t="s">
         <v>31</v>
@@ -52591,25 +52591,25 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:56" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B15" s="117"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="118"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="119"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="96"/>
       <c r="U15" s="3"/>
       <c r="Y15" s="62" t="s">
         <v>32</v>
@@ -52626,25 +52626,25 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B16" s="117"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="118"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="118"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="119"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="96"/>
       <c r="U16" s="3"/>
       <c r="Y16" s="62" t="s">
         <v>47</v>
@@ -52660,25 +52660,25 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B17" s="117"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="118"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="118"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="119"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="96"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="62" t="s">
         <v>39</v>
@@ -52694,25 +52694,25 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="18" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="119"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="95"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="96"/>
       <c r="U18" s="3"/>
       <c r="Y18" s="62" t="s">
         <v>35</v>
@@ -52728,25 +52728,25 @@
       <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B19" s="117"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="118"/>
-      <c r="P19" s="118"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="119"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="96"/>
       <c r="U19" s="3"/>
       <c r="Y19" s="62" t="s">
         <v>42</v>
@@ -52762,25 +52762,25 @@
       <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B20" s="117"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="118"/>
-      <c r="P20" s="118"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="119"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="96"/>
       <c r="U20" s="3"/>
       <c r="Y20" s="62" t="s">
         <v>48</v>
@@ -52794,25 +52794,25 @@
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B21" s="117"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="119"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="96"/>
       <c r="U21" s="3"/>
       <c r="Y21" s="62" t="s">
         <v>49</v>
@@ -52828,25 +52828,25 @@
       <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B22" s="117"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="119"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="95"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="96"/>
       <c r="U22" s="3"/>
       <c r="Y22" s="62" t="s">
         <v>50</v>
@@ -52863,25 +52863,25 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B23" s="117"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-      <c r="O23" s="118"/>
-      <c r="P23" s="118"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="119"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="96"/>
       <c r="U23" s="3"/>
       <c r="Y23" s="62" t="s">
         <v>51</v>
@@ -52898,25 +52898,25 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B24" s="117"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-      <c r="O24" s="118"/>
-      <c r="P24" s="118"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="119"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="96"/>
       <c r="U24" s="3"/>
       <c r="Y24" s="62" t="s">
         <v>52</v>
@@ -52933,25 +52933,25 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B25" s="117"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="119"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="96"/>
       <c r="U25" s="3"/>
       <c r="Y25" s="62" t="s">
         <v>53</v>
@@ -52966,25 +52966,25 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="118"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="119"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="96"/>
       <c r="U26" s="3"/>
       <c r="Y26" s="62" t="s">
         <v>105</v>
@@ -53004,25 +53004,25 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="118"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="119"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="96"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -53041,25 +53041,25 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:56" ht="47.25" customHeight="1">
-      <c r="B28" s="120"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="121"/>
-      <c r="K28" s="121"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="121"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="122"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="99"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -53070,10 +53070,10 @@
       <c r="AC28" s="63"/>
       <c r="AD28" s="63"/>
       <c r="AE28" s="64"/>
-      <c r="AF28" s="110"/>
-      <c r="AG28" s="110"/>
-      <c r="AH28" s="110"/>
-      <c r="AI28" s="110"/>
+      <c r="AF28" s="87"/>
+      <c r="AG28" s="87"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="87"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
     </row>
@@ -53122,34 +53122,34 @@
       <c r="BD29" s="6"/>
     </row>
     <row r="30" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="91"/>
-      <c r="U30" s="91"/>
-      <c r="V30" s="91"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="91"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="91"/>
-      <c r="AA30" s="92"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="108"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="108"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="108"/>
+      <c r="X30" s="108"/>
+      <c r="Y30" s="108"/>
+      <c r="Z30" s="108"/>
+      <c r="AA30" s="109"/>
       <c r="AC30" s="63"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="64"/>
@@ -53212,29 +53212,29 @@
       <c r="E33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="93" t="s">
+      <c r="G33" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="95"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+      <c r="AA33" s="112"/>
       <c r="AC33" s="63"/>
       <c r="AD33" s="63"/>
       <c r="AE33" s="64"/>
@@ -53257,29 +53257,29 @@
         <v>29</v>
       </c>
       <c r="F34" s="36"/>
-      <c r="G34" s="96" t="s">
+      <c r="G34" s="113" t="s">
         <v>302</v>
       </c>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="97"/>
-      <c r="S34" s="97"/>
-      <c r="T34" s="97"/>
-      <c r="U34" s="97"/>
-      <c r="V34" s="97"/>
-      <c r="W34" s="97"/>
-      <c r="X34" s="97"/>
-      <c r="Y34" s="97"/>
-      <c r="Z34" s="97"/>
-      <c r="AA34" s="98"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="114"/>
+      <c r="R34" s="114"/>
+      <c r="S34" s="114"/>
+      <c r="T34" s="114"/>
+      <c r="U34" s="114"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="114"/>
+      <c r="Z34" s="114"/>
+      <c r="AA34" s="115"/>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="64"/>
@@ -53302,29 +53302,29 @@
         <v>51</v>
       </c>
       <c r="F35" s="36"/>
-      <c r="G35" s="99" t="s">
+      <c r="G35" s="116" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="100"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="100"/>
-      <c r="T35" s="100"/>
-      <c r="U35" s="100"/>
-      <c r="V35" s="100"/>
-      <c r="W35" s="100"/>
-      <c r="X35" s="100"/>
-      <c r="Y35" s="100"/>
-      <c r="Z35" s="100"/>
-      <c r="AA35" s="101"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="117"/>
+      <c r="N35" s="117"/>
+      <c r="O35" s="117"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="117"/>
+      <c r="R35" s="117"/>
+      <c r="S35" s="117"/>
+      <c r="T35" s="117"/>
+      <c r="U35" s="117"/>
+      <c r="V35" s="117"/>
+      <c r="W35" s="117"/>
+      <c r="X35" s="117"/>
+      <c r="Y35" s="117"/>
+      <c r="Z35" s="117"/>
+      <c r="AA35" s="118"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
@@ -53347,29 +53347,29 @@
         <v>95</v>
       </c>
       <c r="F36" s="36"/>
-      <c r="G36" s="102" t="s">
+      <c r="G36" s="119" t="s">
         <v>301</v>
       </c>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="103"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="103"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="103"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="103"/>
-      <c r="V36" s="103"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="103"/>
-      <c r="AA36" s="104"/>
+      <c r="H36" s="120"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="120"/>
+      <c r="P36" s="120"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="120"/>
+      <c r="T36" s="120"/>
+      <c r="U36" s="120"/>
+      <c r="V36" s="120"/>
+      <c r="W36" s="120"/>
+      <c r="X36" s="120"/>
+      <c r="Y36" s="120"/>
+      <c r="Z36" s="120"/>
+      <c r="AA36" s="121"/>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="64"/>
@@ -54838,20 +54838,20 @@
       <c r="E67" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="93" t="s">
+      <c r="G67" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="94"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="94"/>
-      <c r="K67" s="94"/>
-      <c r="L67" s="94"/>
-      <c r="M67" s="94"/>
-      <c r="N67" s="94"/>
-      <c r="O67" s="94"/>
-      <c r="P67" s="94"/>
-      <c r="Q67" s="94"/>
-      <c r="R67" s="95"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="111"/>
+      <c r="K67" s="111"/>
+      <c r="L67" s="111"/>
+      <c r="M67" s="111"/>
+      <c r="N67" s="111"/>
+      <c r="O67" s="111"/>
+      <c r="P67" s="111"/>
+      <c r="Q67" s="111"/>
+      <c r="R67" s="112"/>
       <c r="S67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -56891,34 +56891,34 @@
       <c r="E104" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="107" t="s">
+      <c r="G104" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="108"/>
-      <c r="I104" s="108"/>
-      <c r="J104" s="108"/>
-      <c r="K104" s="108"/>
-      <c r="L104" s="108"/>
-      <c r="M104" s="108"/>
-      <c r="N104" s="108"/>
-      <c r="O104" s="108"/>
-      <c r="P104" s="108"/>
-      <c r="Q104" s="108"/>
-      <c r="R104" s="108"/>
-      <c r="S104" s="108"/>
-      <c r="T104" s="108"/>
-      <c r="U104" s="108"/>
-      <c r="V104" s="108"/>
-      <c r="W104" s="108"/>
-      <c r="X104" s="108"/>
-      <c r="Y104" s="108"/>
-      <c r="Z104" s="108"/>
-      <c r="AA104" s="108"/>
-      <c r="AB104" s="108"/>
-      <c r="AC104" s="108"/>
-      <c r="AD104" s="108"/>
-      <c r="AE104" s="108"/>
-      <c r="AF104" s="109"/>
+      <c r="H104" s="125"/>
+      <c r="I104" s="125"/>
+      <c r="J104" s="125"/>
+      <c r="K104" s="125"/>
+      <c r="L104" s="125"/>
+      <c r="M104" s="125"/>
+      <c r="N104" s="125"/>
+      <c r="O104" s="125"/>
+      <c r="P104" s="125"/>
+      <c r="Q104" s="125"/>
+      <c r="R104" s="125"/>
+      <c r="S104" s="125"/>
+      <c r="T104" s="125"/>
+      <c r="U104" s="125"/>
+      <c r="V104" s="125"/>
+      <c r="W104" s="125"/>
+      <c r="X104" s="125"/>
+      <c r="Y104" s="125"/>
+      <c r="Z104" s="125"/>
+      <c r="AA104" s="125"/>
+      <c r="AB104" s="125"/>
+      <c r="AC104" s="125"/>
+      <c r="AD104" s="125"/>
+      <c r="AE104" s="125"/>
+      <c r="AF104" s="126"/>
       <c r="AG104" s="6"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
@@ -58634,47 +58634,47 @@
       <c r="G144" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="87" t="s">
+      <c r="I144" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J144" s="88"/>
-      <c r="K144" s="88"/>
-      <c r="L144" s="88"/>
-      <c r="M144" s="88"/>
-      <c r="N144" s="88"/>
-      <c r="O144" s="88"/>
-      <c r="P144" s="88"/>
-      <c r="Q144" s="88"/>
-      <c r="R144" s="88"/>
-      <c r="S144" s="88"/>
-      <c r="T144" s="88"/>
-      <c r="U144" s="88"/>
-      <c r="V144" s="88"/>
-      <c r="W144" s="88"/>
-      <c r="X144" s="88"/>
-      <c r="Y144" s="88"/>
-      <c r="Z144" s="88"/>
-      <c r="AA144" s="88"/>
-      <c r="AB144" s="88"/>
-      <c r="AC144" s="88"/>
-      <c r="AD144" s="88"/>
-      <c r="AE144" s="88"/>
-      <c r="AF144" s="88"/>
-      <c r="AG144" s="88"/>
-      <c r="AH144" s="88"/>
-      <c r="AI144" s="88"/>
-      <c r="AJ144" s="88"/>
-      <c r="AK144" s="88"/>
-      <c r="AL144" s="88"/>
-      <c r="AM144" s="88"/>
-      <c r="AN144" s="88"/>
-      <c r="AO144" s="88"/>
-      <c r="AP144" s="88"/>
-      <c r="AQ144" s="88"/>
-      <c r="AR144" s="88"/>
-      <c r="AS144" s="88"/>
-      <c r="AT144" s="88"/>
-      <c r="AU144" s="89"/>
+      <c r="J144" s="105"/>
+      <c r="K144" s="105"/>
+      <c r="L144" s="105"/>
+      <c r="M144" s="105"/>
+      <c r="N144" s="105"/>
+      <c r="O144" s="105"/>
+      <c r="P144" s="105"/>
+      <c r="Q144" s="105"/>
+      <c r="R144" s="105"/>
+      <c r="S144" s="105"/>
+      <c r="T144" s="105"/>
+      <c r="U144" s="105"/>
+      <c r="V144" s="105"/>
+      <c r="W144" s="105"/>
+      <c r="X144" s="105"/>
+      <c r="Y144" s="105"/>
+      <c r="Z144" s="105"/>
+      <c r="AA144" s="105"/>
+      <c r="AB144" s="105"/>
+      <c r="AC144" s="105"/>
+      <c r="AD144" s="105"/>
+      <c r="AE144" s="105"/>
+      <c r="AF144" s="105"/>
+      <c r="AG144" s="105"/>
+      <c r="AH144" s="105"/>
+      <c r="AI144" s="105"/>
+      <c r="AJ144" s="105"/>
+      <c r="AK144" s="105"/>
+      <c r="AL144" s="105"/>
+      <c r="AM144" s="105"/>
+      <c r="AN144" s="105"/>
+      <c r="AO144" s="105"/>
+      <c r="AP144" s="105"/>
+      <c r="AQ144" s="105"/>
+      <c r="AR144" s="105"/>
+      <c r="AS144" s="105"/>
+      <c r="AT144" s="105"/>
+      <c r="AU144" s="106"/>
       <c r="AV144" s="6"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="6"/>
@@ -60326,55 +60326,55 @@
       <c r="G179" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I179" s="87" t="s">
+      <c r="I179" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="J179" s="88"/>
-      <c r="K179" s="88"/>
-      <c r="L179" s="88"/>
-      <c r="M179" s="88"/>
-      <c r="N179" s="88"/>
-      <c r="O179" s="88"/>
-      <c r="P179" s="88"/>
-      <c r="Q179" s="88"/>
-      <c r="R179" s="88"/>
-      <c r="S179" s="88"/>
-      <c r="T179" s="88"/>
-      <c r="U179" s="88"/>
-      <c r="V179" s="88"/>
-      <c r="W179" s="88"/>
-      <c r="X179" s="88"/>
-      <c r="Y179" s="88"/>
-      <c r="Z179" s="88"/>
-      <c r="AA179" s="88"/>
-      <c r="AB179" s="88"/>
-      <c r="AC179" s="88"/>
-      <c r="AD179" s="88"/>
-      <c r="AE179" s="88"/>
-      <c r="AF179" s="88"/>
-      <c r="AG179" s="88"/>
-      <c r="AH179" s="88"/>
-      <c r="AI179" s="88"/>
-      <c r="AJ179" s="88"/>
-      <c r="AK179" s="88"/>
-      <c r="AL179" s="88"/>
-      <c r="AM179" s="88"/>
-      <c r="AN179" s="88"/>
-      <c r="AO179" s="88"/>
-      <c r="AP179" s="88"/>
-      <c r="AQ179" s="88"/>
-      <c r="AR179" s="88"/>
-      <c r="AS179" s="88"/>
-      <c r="AT179" s="88"/>
-      <c r="AU179" s="88"/>
-      <c r="AV179" s="88"/>
-      <c r="AW179" s="88"/>
-      <c r="AX179" s="88"/>
-      <c r="AY179" s="88"/>
-      <c r="AZ179" s="88"/>
-      <c r="BA179" s="88"/>
-      <c r="BB179" s="88"/>
-      <c r="BC179" s="89"/>
+      <c r="J179" s="105"/>
+      <c r="K179" s="105"/>
+      <c r="L179" s="105"/>
+      <c r="M179" s="105"/>
+      <c r="N179" s="105"/>
+      <c r="O179" s="105"/>
+      <c r="P179" s="105"/>
+      <c r="Q179" s="105"/>
+      <c r="R179" s="105"/>
+      <c r="S179" s="105"/>
+      <c r="T179" s="105"/>
+      <c r="U179" s="105"/>
+      <c r="V179" s="105"/>
+      <c r="W179" s="105"/>
+      <c r="X179" s="105"/>
+      <c r="Y179" s="105"/>
+      <c r="Z179" s="105"/>
+      <c r="AA179" s="105"/>
+      <c r="AB179" s="105"/>
+      <c r="AC179" s="105"/>
+      <c r="AD179" s="105"/>
+      <c r="AE179" s="105"/>
+      <c r="AF179" s="105"/>
+      <c r="AG179" s="105"/>
+      <c r="AH179" s="105"/>
+      <c r="AI179" s="105"/>
+      <c r="AJ179" s="105"/>
+      <c r="AK179" s="105"/>
+      <c r="AL179" s="105"/>
+      <c r="AM179" s="105"/>
+      <c r="AN179" s="105"/>
+      <c r="AO179" s="105"/>
+      <c r="AP179" s="105"/>
+      <c r="AQ179" s="105"/>
+      <c r="AR179" s="105"/>
+      <c r="AS179" s="105"/>
+      <c r="AT179" s="105"/>
+      <c r="AU179" s="105"/>
+      <c r="AV179" s="105"/>
+      <c r="AW179" s="105"/>
+      <c r="AX179" s="105"/>
+      <c r="AY179" s="105"/>
+      <c r="AZ179" s="105"/>
+      <c r="BA179" s="105"/>
+      <c r="BB179" s="105"/>
+      <c r="BC179" s="106"/>
       <c r="BD179" s="6"/>
     </row>
     <row r="180" spans="2:56" ht="15" thickTop="1">
@@ -62690,11 +62690,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G36:AA36"/>
-    <mergeCell ref="G67:R67"/>
-    <mergeCell ref="I179:BC179"/>
-    <mergeCell ref="I144:AU144"/>
-    <mergeCell ref="G104:AF104"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="Y13:AA13"/>
     <mergeCell ref="AF28:AG28"/>
     <mergeCell ref="AH28:AI28"/>
     <mergeCell ref="B30:AA30"/>
@@ -62702,12 +62703,11 @@
     <mergeCell ref="G35:AA35"/>
     <mergeCell ref="G34:AA34"/>
     <mergeCell ref="B14:T28"/>
-    <mergeCell ref="B2:AA2"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="G36:AA36"/>
+    <mergeCell ref="G67:R67"/>
+    <mergeCell ref="I179:BC179"/>
+    <mergeCell ref="I144:AU144"/>
+    <mergeCell ref="G104:AF104"/>
   </mergeCells>
   <conditionalFormatting sqref="Y15:AA26 AE26 AC27:AE39">
     <cfRule type="expression" dxfId="0" priority="16">

--- a/ExcelEsport/FMWC_Examples/What Is My Flight Number - Patrick Chatain - My Work.xlsx
+++ b/ExcelEsport/FMWC_Examples/What Is My Flight Number - Patrick Chatain - My Work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\ExcelEsport\FMWC_Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D41DCE-8BD3-49C1-94F0-F309F2DF287C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC27B03-FD3B-4695-8410-59B8ED23DC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{114A3ACC-2F61-4F50-A5CF-63A86B2334B2}"/>
   </bookViews>
@@ -2086,57 +2086,6 @@
     <xf numFmtId="3" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2205,6 +2154,57 @@
     </xf>
     <xf numFmtId="3" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3345,7 +3345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B840F547-97A4-4023-9D52-57A423820E20}">
   <dimension ref="A1:AZ216"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A123" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A131" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
@@ -3397,34 +3397,34 @@
       <c r="AZ1" s="6"/>
     </row>
     <row r="2" spans="2:52" ht="60.6" customHeight="1">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="111" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
       <c r="AO2" s="3"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -3440,32 +3440,32 @@
       <c r="AZ3" s="6"/>
     </row>
     <row r="4" spans="2:52" ht="33.6" customHeight="1">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="Y4" s="100" t="s">
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="Y4" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="89"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="112"/>
       <c r="AO4" s="3"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -3665,11 +3665,11 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="101" t="s">
+      <c r="Y11" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="103"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="126"/>
       <c r="AO11" s="3"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -3704,33 +3704,33 @@
       <c r="AZ12" s="6"/>
     </row>
     <row r="13" spans="2:52" ht="24.9" customHeight="1" thickBot="1">
-      <c r="B13" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
+      <c r="B13" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="112"/>
       <c r="U13" s="60"/>
-      <c r="Y13" s="90" t="s">
+      <c r="Y13" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="112"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -3738,27 +3738,27 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:52" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="114" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="93"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="116"/>
       <c r="U14" s="3"/>
       <c r="Y14" s="61" t="s">
         <v>31</v>
@@ -3775,25 +3775,25 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:52" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="96"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="119"/>
       <c r="U15" s="3"/>
       <c r="Y15" s="62" t="s">
         <v>32</v>
@@ -3813,25 +3813,25 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="96"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="119"/>
       <c r="U16" s="3"/>
       <c r="Y16" s="62" t="s">
         <v>47</v>
@@ -3850,25 +3850,25 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="96"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="119"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="62" t="s">
         <v>39</v>
@@ -3887,25 +3887,25 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="18" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B18" s="94"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="96"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="119"/>
       <c r="U18" s="3"/>
       <c r="Y18" s="62" t="s">
         <v>35</v>
@@ -3924,25 +3924,25 @@
       <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="96"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="119"/>
       <c r="U19" s="3"/>
       <c r="Y19" s="62" t="s">
         <v>42</v>
@@ -3961,25 +3961,25 @@
       <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="96"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="119"/>
       <c r="U20" s="3"/>
       <c r="Y20" s="62" t="s">
         <v>48</v>
@@ -3996,25 +3996,25 @@
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B21" s="94"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="96"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="119"/>
       <c r="U21" s="3"/>
       <c r="Y21" s="62" t="s">
         <v>49</v>
@@ -4033,25 +4033,25 @@
       <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B22" s="94"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="96"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="119"/>
       <c r="U22" s="3"/>
       <c r="Y22" s="62" t="s">
         <v>50</v>
@@ -4071,25 +4071,25 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B23" s="94"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="96"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="119"/>
       <c r="U23" s="3"/>
       <c r="Y23" s="62" t="s">
         <v>51</v>
@@ -4109,25 +4109,25 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B24" s="94"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="96"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="119"/>
       <c r="U24" s="3"/>
       <c r="Y24" s="62" t="s">
         <v>52</v>
@@ -4147,25 +4147,25 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B25" s="94"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="96"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="119"/>
       <c r="U25" s="3"/>
       <c r="Y25" s="62" t="s">
         <v>53</v>
@@ -4183,25 +4183,25 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B26" s="94"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="96"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="119"/>
       <c r="U26" s="3"/>
       <c r="Y26" s="62" t="s">
         <v>105</v>
@@ -4224,25 +4224,25 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B27" s="94"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="96"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="118"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="119"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -4261,25 +4261,25 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:52" ht="47.25" customHeight="1">
-      <c r="B28" s="97"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="98"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="99"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="122"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -4290,10 +4290,10 @@
       <c r="AC28" s="63"/>
       <c r="AD28" s="63"/>
       <c r="AE28" s="64"/>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="87"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="110"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
     </row>
@@ -4338,34 +4338,34 @@
       <c r="AZ29" s="6"/>
     </row>
     <row r="30" spans="2:52" ht="25.5" customHeight="1">
-      <c r="B30" s="107" t="s">
+      <c r="B30" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="108"/>
-      <c r="S30" s="108"/>
-      <c r="T30" s="108"/>
-      <c r="U30" s="108"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="108"/>
-      <c r="X30" s="108"/>
-      <c r="Y30" s="108"/>
-      <c r="Z30" s="108"/>
-      <c r="AA30" s="109"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="92"/>
       <c r="AC30" s="63"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="64"/>
@@ -4416,29 +4416,29 @@
       <c r="E33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="110" t="s">
+      <c r="G33" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
-      <c r="W33" s="111"/>
-      <c r="X33" s="111"/>
-      <c r="Y33" s="111"/>
-      <c r="Z33" s="111"/>
-      <c r="AA33" s="112"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="95"/>
       <c r="AC33" s="63"/>
       <c r="AD33" s="63"/>
       <c r="AE33" s="64"/>
@@ -4458,29 +4458,29 @@
         <f>IF(AND(E34&lt;&gt;"",E34=[1]Answers!E34),1,IF(ISBLANK(E34),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G34" s="113" t="s">
+      <c r="G34" s="96" t="s">
         <v>308</v>
       </c>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="114"/>
-      <c r="Q34" s="114"/>
-      <c r="R34" s="114"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
-      <c r="U34" s="114"/>
-      <c r="V34" s="114"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="114"/>
-      <c r="Y34" s="114"/>
-      <c r="Z34" s="114"/>
-      <c r="AA34" s="115"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="98"/>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="64"/>
@@ -4500,29 +4500,29 @@
         <f>IF(AND(E35&lt;&gt;"",E35=[1]Answers!E35),1,IF(ISBLANK(E35),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G35" s="116" t="s">
+      <c r="G35" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="117"/>
-      <c r="S35" s="117"/>
-      <c r="T35" s="117"/>
-      <c r="U35" s="117"/>
-      <c r="V35" s="117"/>
-      <c r="W35" s="117"/>
-      <c r="X35" s="117"/>
-      <c r="Y35" s="117"/>
-      <c r="Z35" s="117"/>
-      <c r="AA35" s="118"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="101"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
@@ -4542,29 +4542,29 @@
         <f>IF(AND(E36&lt;&gt;"",E36=[1]Answers!E36),1,IF(ISBLANK(E36),0,-1))</f>
         <v>0</v>
       </c>
-      <c r="G36" s="119" t="s">
+      <c r="G36" s="102" t="s">
         <v>309</v>
       </c>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="120"/>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="120"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="120"/>
-      <c r="V36" s="120"/>
-      <c r="W36" s="120"/>
-      <c r="X36" s="120"/>
-      <c r="Y36" s="120"/>
-      <c r="Z36" s="120"/>
-      <c r="AA36" s="121"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="103"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="103"/>
+      <c r="V36" s="103"/>
+      <c r="W36" s="103"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="103"/>
+      <c r="AA36" s="104"/>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="64"/>
@@ -4667,13 +4667,13 @@
       <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="123" t="s">
+      <c r="J41" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="K41" s="123"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="123"/>
-      <c r="N41" s="123"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="106"/>
+      <c r="M41" s="106"/>
+      <c r="N41" s="106"/>
       <c r="AS41" s="6"/>
       <c r="AT41" s="6"/>
       <c r="AU41" s="6"/>
@@ -4684,14 +4684,14 @@
       <c r="AZ41" s="6"/>
     </row>
     <row r="42" spans="2:52" ht="15" customHeight="1" thickTop="1">
-      <c r="J42" s="122" cm="1">
+      <c r="J42" s="105" cm="1">
         <f t="array" ref="J42">SUMPRODUCT(--(F34:F216=1),F34:F216,D34:D216)</f>
         <v>420</v>
       </c>
-      <c r="K42" s="122"/>
-      <c r="L42" s="122"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="122"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
       <c r="AS42" s="6"/>
       <c r="AT42" s="6"/>
       <c r="AU42" s="6"/>
@@ -4705,11 +4705,11 @@
       <c r="B43" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="122"/>
-      <c r="M43" s="122"/>
-      <c r="N43" s="122"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
       <c r="AS43" s="6"/>
       <c r="AT43" s="6"/>
       <c r="AU43" s="6"/>
@@ -4722,11 +4722,11 @@
     <row r="44" spans="2:52" ht="15" customHeight="1" thickBot="1">
       <c r="B44" s="20"/>
       <c r="G44" s="27"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="122"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="105"/>
       <c r="R44" s="6"/>
     </row>
     <row r="45" spans="2:52" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4747,11 +4747,11 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122"/>
-      <c r="L45" s="122"/>
-      <c r="M45" s="122"/>
-      <c r="N45" s="122"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
       <c r="R45" s="6"/>
       <c r="AB45" s="6"/>
       <c r="AC45" s="6"/>
@@ -5904,20 +5904,20 @@
       <c r="E67" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="110" t="s">
+      <c r="G67" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="111"/>
-      <c r="I67" s="111"/>
-      <c r="J67" s="111"/>
-      <c r="K67" s="111"/>
-      <c r="L67" s="111"/>
-      <c r="M67" s="111"/>
-      <c r="N67" s="111"/>
-      <c r="O67" s="111"/>
-      <c r="P67" s="111"/>
-      <c r="Q67" s="111"/>
-      <c r="R67" s="112"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="94"/>
+      <c r="J67" s="94"/>
+      <c r="K67" s="94"/>
+      <c r="L67" s="94"/>
+      <c r="M67" s="94"/>
+      <c r="N67" s="94"/>
+      <c r="O67" s="94"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="95"/>
       <c r="S67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -7964,35 +7964,35 @@
         <v>4</v>
       </c>
       <c r="E104" s="44"/>
-      <c r="G104" s="124" t="s">
+      <c r="G104" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="125"/>
-      <c r="I104" s="125"/>
-      <c r="J104" s="125"/>
-      <c r="K104" s="125"/>
-      <c r="L104" s="125"/>
-      <c r="M104" s="125"/>
-      <c r="N104" s="125"/>
-      <c r="O104" s="125"/>
-      <c r="P104" s="125"/>
-      <c r="Q104" s="125"/>
-      <c r="R104" s="125"/>
-      <c r="S104" s="125"/>
-      <c r="T104" s="125"/>
-      <c r="U104" s="125"/>
-      <c r="V104" s="125"/>
-      <c r="W104" s="125"/>
-      <c r="X104" s="125"/>
-      <c r="Y104" s="125"/>
-      <c r="Z104" s="125"/>
-      <c r="AA104" s="125"/>
-      <c r="AB104" s="125"/>
-      <c r="AC104" s="125"/>
-      <c r="AD104" s="125"/>
-      <c r="AE104" s="125"/>
-      <c r="AF104" s="125"/>
-      <c r="AG104" s="126"/>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
+      <c r="J104" s="108"/>
+      <c r="K104" s="108"/>
+      <c r="L104" s="108"/>
+      <c r="M104" s="108"/>
+      <c r="N104" s="108"/>
+      <c r="O104" s="108"/>
+      <c r="P104" s="108"/>
+      <c r="Q104" s="108"/>
+      <c r="R104" s="108"/>
+      <c r="S104" s="108"/>
+      <c r="T104" s="108"/>
+      <c r="U104" s="108"/>
+      <c r="V104" s="108"/>
+      <c r="W104" s="108"/>
+      <c r="X104" s="108"/>
+      <c r="Y104" s="108"/>
+      <c r="Z104" s="108"/>
+      <c r="AA104" s="108"/>
+      <c r="AB104" s="108"/>
+      <c r="AC104" s="108"/>
+      <c r="AD104" s="108"/>
+      <c r="AE104" s="108"/>
+      <c r="AF104" s="108"/>
+      <c r="AG104" s="109"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
       <c r="AJ104" s="6"/>
@@ -9668,48 +9668,48 @@
       <c r="G144" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="104" t="s">
+      <c r="I144" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="J144" s="105"/>
-      <c r="K144" s="105"/>
-      <c r="L144" s="105"/>
-      <c r="M144" s="105"/>
-      <c r="N144" s="105"/>
-      <c r="O144" s="105"/>
-      <c r="P144" s="105"/>
-      <c r="Q144" s="105"/>
-      <c r="R144" s="105"/>
-      <c r="S144" s="105"/>
-      <c r="T144" s="105"/>
-      <c r="U144" s="105"/>
-      <c r="V144" s="105"/>
-      <c r="W144" s="105"/>
-      <c r="X144" s="105"/>
-      <c r="Y144" s="105"/>
-      <c r="Z144" s="105"/>
-      <c r="AA144" s="105"/>
-      <c r="AB144" s="105"/>
-      <c r="AC144" s="105"/>
-      <c r="AD144" s="105"/>
-      <c r="AE144" s="105"/>
-      <c r="AF144" s="105"/>
-      <c r="AG144" s="105"/>
-      <c r="AH144" s="105"/>
-      <c r="AI144" s="105"/>
-      <c r="AJ144" s="105"/>
-      <c r="AK144" s="105"/>
-      <c r="AL144" s="105"/>
-      <c r="AM144" s="105"/>
-      <c r="AN144" s="105"/>
-      <c r="AO144" s="105"/>
-      <c r="AP144" s="105"/>
-      <c r="AQ144" s="105"/>
-      <c r="AR144" s="105"/>
-      <c r="AS144" s="105"/>
-      <c r="AT144" s="105"/>
-      <c r="AU144" s="105"/>
-      <c r="AV144" s="106"/>
+      <c r="J144" s="88"/>
+      <c r="K144" s="88"/>
+      <c r="L144" s="88"/>
+      <c r="M144" s="88"/>
+      <c r="N144" s="88"/>
+      <c r="O144" s="88"/>
+      <c r="P144" s="88"/>
+      <c r="Q144" s="88"/>
+      <c r="R144" s="88"/>
+      <c r="S144" s="88"/>
+      <c r="T144" s="88"/>
+      <c r="U144" s="88"/>
+      <c r="V144" s="88"/>
+      <c r="W144" s="88"/>
+      <c r="X144" s="88"/>
+      <c r="Y144" s="88"/>
+      <c r="Z144" s="88"/>
+      <c r="AA144" s="88"/>
+      <c r="AB144" s="88"/>
+      <c r="AC144" s="88"/>
+      <c r="AD144" s="88"/>
+      <c r="AE144" s="88"/>
+      <c r="AF144" s="88"/>
+      <c r="AG144" s="88"/>
+      <c r="AH144" s="88"/>
+      <c r="AI144" s="88"/>
+      <c r="AJ144" s="88"/>
+      <c r="AK144" s="88"/>
+      <c r="AL144" s="88"/>
+      <c r="AM144" s="88"/>
+      <c r="AN144" s="88"/>
+      <c r="AO144" s="88"/>
+      <c r="AP144" s="88"/>
+      <c r="AQ144" s="88"/>
+      <c r="AR144" s="88"/>
+      <c r="AS144" s="88"/>
+      <c r="AT144" s="88"/>
+      <c r="AU144" s="88"/>
+      <c r="AV144" s="89"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="6"/>
       <c r="AY144" s="6"/>
@@ -11300,52 +11300,52 @@
       <c r="G179" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I179" s="104" t="s">
+      <c r="I179" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="J179" s="105"/>
-      <c r="K179" s="105"/>
-      <c r="L179" s="105"/>
-      <c r="M179" s="105"/>
-      <c r="N179" s="105"/>
-      <c r="O179" s="105"/>
-      <c r="P179" s="105"/>
-      <c r="Q179" s="105"/>
-      <c r="R179" s="105"/>
-      <c r="S179" s="105"/>
-      <c r="T179" s="105"/>
-      <c r="U179" s="105"/>
-      <c r="V179" s="105"/>
-      <c r="W179" s="105"/>
-      <c r="X179" s="105"/>
-      <c r="Y179" s="105"/>
-      <c r="Z179" s="105"/>
-      <c r="AA179" s="105"/>
-      <c r="AB179" s="105"/>
-      <c r="AC179" s="105"/>
-      <c r="AD179" s="105"/>
-      <c r="AE179" s="105"/>
-      <c r="AF179" s="105"/>
-      <c r="AG179" s="105"/>
-      <c r="AH179" s="105"/>
-      <c r="AI179" s="105"/>
-      <c r="AJ179" s="105"/>
-      <c r="AK179" s="105"/>
-      <c r="AL179" s="105"/>
-      <c r="AM179" s="105"/>
-      <c r="AN179" s="105"/>
-      <c r="AO179" s="105"/>
-      <c r="AP179" s="105"/>
-      <c r="AQ179" s="105"/>
-      <c r="AR179" s="105"/>
-      <c r="AS179" s="105"/>
-      <c r="AT179" s="105"/>
-      <c r="AU179" s="105"/>
-      <c r="AV179" s="105"/>
-      <c r="AW179" s="105"/>
-      <c r="AX179" s="105"/>
-      <c r="AY179" s="105"/>
-      <c r="AZ179" s="106"/>
+      <c r="J179" s="88"/>
+      <c r="K179" s="88"/>
+      <c r="L179" s="88"/>
+      <c r="M179" s="88"/>
+      <c r="N179" s="88"/>
+      <c r="O179" s="88"/>
+      <c r="P179" s="88"/>
+      <c r="Q179" s="88"/>
+      <c r="R179" s="88"/>
+      <c r="S179" s="88"/>
+      <c r="T179" s="88"/>
+      <c r="U179" s="88"/>
+      <c r="V179" s="88"/>
+      <c r="W179" s="88"/>
+      <c r="X179" s="88"/>
+      <c r="Y179" s="88"/>
+      <c r="Z179" s="88"/>
+      <c r="AA179" s="88"/>
+      <c r="AB179" s="88"/>
+      <c r="AC179" s="88"/>
+      <c r="AD179" s="88"/>
+      <c r="AE179" s="88"/>
+      <c r="AF179" s="88"/>
+      <c r="AG179" s="88"/>
+      <c r="AH179" s="88"/>
+      <c r="AI179" s="88"/>
+      <c r="AJ179" s="88"/>
+      <c r="AK179" s="88"/>
+      <c r="AL179" s="88"/>
+      <c r="AM179" s="88"/>
+      <c r="AN179" s="88"/>
+      <c r="AO179" s="88"/>
+      <c r="AP179" s="88"/>
+      <c r="AQ179" s="88"/>
+      <c r="AR179" s="88"/>
+      <c r="AS179" s="88"/>
+      <c r="AT179" s="88"/>
+      <c r="AU179" s="88"/>
+      <c r="AV179" s="88"/>
+      <c r="AW179" s="88"/>
+      <c r="AX179" s="88"/>
+      <c r="AY179" s="88"/>
+      <c r="AZ179" s="89"/>
     </row>
     <row r="180" spans="2:52" ht="15" thickTop="1">
       <c r="B180" s="1"/>
@@ -13549,6 +13549,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="B14:T28"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y11:AA11"/>
     <mergeCell ref="I144:AV144"/>
     <mergeCell ref="I179:AZ179"/>
     <mergeCell ref="B30:AA30"/>
@@ -13560,15 +13569,6 @@
     <mergeCell ref="J42:N45"/>
     <mergeCell ref="J41:N41"/>
     <mergeCell ref="G104:AG104"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="B2:AA2"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="B14:T28"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y11:AA11"/>
   </mergeCells>
   <conditionalFormatting sqref="Y15:AA26 AE26 AC27:AE39">
     <cfRule type="expression" dxfId="4" priority="16">
@@ -52167,34 +52167,34 @@
       <c r="BD1" s="6"/>
     </row>
     <row r="2" spans="2:56" ht="60.6" customHeight="1">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="111" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
       <c r="AO2" s="3"/>
       <c r="AY2" s="6"/>
       <c r="AZ2" s="6"/>
@@ -52218,32 +52218,32 @@
       <c r="BD3" s="6"/>
     </row>
     <row r="4" spans="2:56" ht="33.6" customHeight="1">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="Y4" s="100" t="s">
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="Y4" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="89"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="112"/>
       <c r="AO4" s="3"/>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -52471,11 +52471,11 @@
       <c r="T11" s="31"/>
       <c r="U11" s="31"/>
       <c r="X11" s="31"/>
-      <c r="Y11" s="101" t="s">
+      <c r="Y11" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="103"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="126"/>
       <c r="AO11" s="3"/>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
@@ -52520,33 +52520,33 @@
       <c r="BD12" s="6"/>
     </row>
     <row r="13" spans="2:56" ht="24.9" customHeight="1" thickBot="1">
-      <c r="B13" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
+      <c r="B13" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="112"/>
       <c r="U13" s="60"/>
-      <c r="Y13" s="90" t="s">
+      <c r="Y13" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="112"/>
       <c r="AF13" s="60"/>
       <c r="AG13" s="60"/>
       <c r="AH13" s="60"/>
@@ -52554,27 +52554,27 @@
       <c r="AP13" s="3"/>
     </row>
     <row r="14" spans="2:56" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="114" t="s">
         <v>310</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="93"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="116"/>
       <c r="U14" s="3"/>
       <c r="Y14" s="61" t="s">
         <v>31</v>
@@ -52591,25 +52591,25 @@
       <c r="AP14" s="3"/>
     </row>
     <row r="15" spans="2:56" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="96"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118"/>
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="119"/>
       <c r="U15" s="3"/>
       <c r="Y15" s="62" t="s">
         <v>32</v>
@@ -52626,25 +52626,25 @@
       <c r="AP15" s="3"/>
     </row>
     <row r="16" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="96"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="119"/>
       <c r="U16" s="3"/>
       <c r="Y16" s="62" t="s">
         <v>47</v>
@@ -52660,25 +52660,25 @@
       <c r="AP16" s="3"/>
     </row>
     <row r="17" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="96"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="119"/>
       <c r="U17" s="3"/>
       <c r="Y17" s="62" t="s">
         <v>39</v>
@@ -52694,25 +52694,25 @@
       <c r="AP17" s="3"/>
     </row>
     <row r="18" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B18" s="94"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="96"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="119"/>
       <c r="U18" s="3"/>
       <c r="Y18" s="62" t="s">
         <v>35</v>
@@ -52728,25 +52728,25 @@
       <c r="AO18" s="3"/>
     </row>
     <row r="19" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="96"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="118"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="118"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="119"/>
       <c r="U19" s="3"/>
       <c r="Y19" s="62" t="s">
         <v>42</v>
@@ -52762,25 +52762,25 @@
       <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="96"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="119"/>
       <c r="U20" s="3"/>
       <c r="Y20" s="62" t="s">
         <v>48</v>
@@ -52794,25 +52794,25 @@
       <c r="AO20" s="3"/>
     </row>
     <row r="21" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B21" s="94"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="96"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="118"/>
+      <c r="M21" s="118"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="119"/>
       <c r="U21" s="3"/>
       <c r="Y21" s="62" t="s">
         <v>49</v>
@@ -52828,25 +52828,25 @@
       <c r="AO21" s="3"/>
     </row>
     <row r="22" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B22" s="94"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="96"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="119"/>
       <c r="U22" s="3"/>
       <c r="Y22" s="62" t="s">
         <v>50</v>
@@ -52863,25 +52863,25 @@
       <c r="AP22" s="3"/>
     </row>
     <row r="23" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B23" s="94"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="96"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="119"/>
       <c r="U23" s="3"/>
       <c r="Y23" s="62" t="s">
         <v>51</v>
@@ -52898,25 +52898,25 @@
       <c r="AP23" s="3"/>
     </row>
     <row r="24" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B24" s="94"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="96"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="118"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="119"/>
       <c r="U24" s="3"/>
       <c r="Y24" s="62" t="s">
         <v>52</v>
@@ -52933,25 +52933,25 @@
       <c r="AP24" s="3"/>
     </row>
     <row r="25" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B25" s="94"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="96"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="119"/>
       <c r="U25" s="3"/>
       <c r="Y25" s="62" t="s">
         <v>53</v>
@@ -52966,25 +52966,25 @@
       <c r="AP25" s="3"/>
     </row>
     <row r="26" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B26" s="94"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="96"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="118"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="119"/>
       <c r="U26" s="3"/>
       <c r="Y26" s="62" t="s">
         <v>105</v>
@@ -53004,25 +53004,25 @@
       <c r="AP26" s="3"/>
     </row>
     <row r="27" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B27" s="94"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="95"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="96"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="118"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="118"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="119"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -53041,25 +53041,25 @@
       <c r="AP27" s="3"/>
     </row>
     <row r="28" spans="2:56" ht="47.25" customHeight="1">
-      <c r="B28" s="97"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="98"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="99"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="122"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -53070,10 +53070,10 @@
       <c r="AC28" s="63"/>
       <c r="AD28" s="63"/>
       <c r="AE28" s="64"/>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="87"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="110"/>
+      <c r="AH28" s="110"/>
+      <c r="AI28" s="110"/>
       <c r="AO28" s="3"/>
       <c r="AP28" s="3"/>
     </row>
@@ -53122,34 +53122,34 @@
       <c r="BD29" s="6"/>
     </row>
     <row r="30" spans="2:56" ht="25.5" customHeight="1">
-      <c r="B30" s="107" t="s">
+      <c r="B30" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="108"/>
-      <c r="R30" s="108"/>
-      <c r="S30" s="108"/>
-      <c r="T30" s="108"/>
-      <c r="U30" s="108"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="108"/>
-      <c r="X30" s="108"/>
-      <c r="Y30" s="108"/>
-      <c r="Z30" s="108"/>
-      <c r="AA30" s="109"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="92"/>
       <c r="AC30" s="63"/>
       <c r="AD30" s="63"/>
       <c r="AE30" s="64"/>
@@ -53212,29 +53212,29 @@
       <c r="E33" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="110" t="s">
+      <c r="G33" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="111"/>
-      <c r="I33" s="111"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="111"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
-      <c r="N33" s="111"/>
-      <c r="O33" s="111"/>
-      <c r="P33" s="111"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="111"/>
-      <c r="T33" s="111"/>
-      <c r="U33" s="111"/>
-      <c r="V33" s="111"/>
-      <c r="W33" s="111"/>
-      <c r="X33" s="111"/>
-      <c r="Y33" s="111"/>
-      <c r="Z33" s="111"/>
-      <c r="AA33" s="112"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="95"/>
       <c r="AC33" s="63"/>
       <c r="AD33" s="63"/>
       <c r="AE33" s="64"/>
@@ -53257,29 +53257,29 @@
         <v>29</v>
       </c>
       <c r="F34" s="36"/>
-      <c r="G34" s="113" t="s">
+      <c r="G34" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="114"/>
-      <c r="Q34" s="114"/>
-      <c r="R34" s="114"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
-      <c r="U34" s="114"/>
-      <c r="V34" s="114"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="114"/>
-      <c r="Y34" s="114"/>
-      <c r="Z34" s="114"/>
-      <c r="AA34" s="115"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="98"/>
       <c r="AC34" s="63"/>
       <c r="AD34" s="63"/>
       <c r="AE34" s="64"/>
@@ -53302,29 +53302,29 @@
         <v>51</v>
       </c>
       <c r="F35" s="36"/>
-      <c r="G35" s="116" t="s">
+      <c r="G35" s="99" t="s">
         <v>299</v>
       </c>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="117"/>
-      <c r="S35" s="117"/>
-      <c r="T35" s="117"/>
-      <c r="U35" s="117"/>
-      <c r="V35" s="117"/>
-      <c r="W35" s="117"/>
-      <c r="X35" s="117"/>
-      <c r="Y35" s="117"/>
-      <c r="Z35" s="117"/>
-      <c r="AA35" s="118"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+      <c r="Z35" s="100"/>
+      <c r="AA35" s="101"/>
       <c r="AC35" s="63"/>
       <c r="AD35" s="63"/>
       <c r="AE35" s="64"/>
@@ -53347,29 +53347,29 @@
         <v>95</v>
       </c>
       <c r="F36" s="36"/>
-      <c r="G36" s="119" t="s">
+      <c r="G36" s="102" t="s">
         <v>301</v>
       </c>
-      <c r="H36" s="120"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="120"/>
-      <c r="P36" s="120"/>
-      <c r="Q36" s="120"/>
-      <c r="R36" s="120"/>
-      <c r="S36" s="120"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="120"/>
-      <c r="V36" s="120"/>
-      <c r="W36" s="120"/>
-      <c r="X36" s="120"/>
-      <c r="Y36" s="120"/>
-      <c r="Z36" s="120"/>
-      <c r="AA36" s="121"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="103"/>
+      <c r="L36" s="103"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103"/>
+      <c r="S36" s="103"/>
+      <c r="T36" s="103"/>
+      <c r="U36" s="103"/>
+      <c r="V36" s="103"/>
+      <c r="W36" s="103"/>
+      <c r="X36" s="103"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="103"/>
+      <c r="AA36" s="104"/>
       <c r="AC36" s="63"/>
       <c r="AD36" s="63"/>
       <c r="AE36" s="64"/>
@@ -54838,20 +54838,20 @@
       <c r="E67" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="110" t="s">
+      <c r="G67" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="111"/>
-      <c r="I67" s="111"/>
-      <c r="J67" s="111"/>
-      <c r="K67" s="111"/>
-      <c r="L67" s="111"/>
-      <c r="M67" s="111"/>
-      <c r="N67" s="111"/>
-      <c r="O67" s="111"/>
-      <c r="P67" s="111"/>
-      <c r="Q67" s="111"/>
-      <c r="R67" s="112"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="94"/>
+      <c r="J67" s="94"/>
+      <c r="K67" s="94"/>
+      <c r="L67" s="94"/>
+      <c r="M67" s="94"/>
+      <c r="N67" s="94"/>
+      <c r="O67" s="94"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="95"/>
       <c r="S67" s="6"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -56891,34 +56891,34 @@
       <c r="E104" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="124" t="s">
+      <c r="G104" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="H104" s="125"/>
-      <c r="I104" s="125"/>
-      <c r="J104" s="125"/>
-      <c r="K104" s="125"/>
-      <c r="L104" s="125"/>
-      <c r="M104" s="125"/>
-      <c r="N104" s="125"/>
-      <c r="O104" s="125"/>
-      <c r="P104" s="125"/>
-      <c r="Q104" s="125"/>
-      <c r="R104" s="125"/>
-      <c r="S104" s="125"/>
-      <c r="T104" s="125"/>
-      <c r="U104" s="125"/>
-      <c r="V104" s="125"/>
-      <c r="W104" s="125"/>
-      <c r="X104" s="125"/>
-      <c r="Y104" s="125"/>
-      <c r="Z104" s="125"/>
-      <c r="AA104" s="125"/>
-      <c r="AB104" s="125"/>
-      <c r="AC104" s="125"/>
-      <c r="AD104" s="125"/>
-      <c r="AE104" s="125"/>
-      <c r="AF104" s="126"/>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
+      <c r="J104" s="108"/>
+      <c r="K104" s="108"/>
+      <c r="L104" s="108"/>
+      <c r="M104" s="108"/>
+      <c r="N104" s="108"/>
+      <c r="O104" s="108"/>
+      <c r="P104" s="108"/>
+      <c r="Q104" s="108"/>
+      <c r="R104" s="108"/>
+      <c r="S104" s="108"/>
+      <c r="T104" s="108"/>
+      <c r="U104" s="108"/>
+      <c r="V104" s="108"/>
+      <c r="W104" s="108"/>
+      <c r="X104" s="108"/>
+      <c r="Y104" s="108"/>
+      <c r="Z104" s="108"/>
+      <c r="AA104" s="108"/>
+      <c r="AB104" s="108"/>
+      <c r="AC104" s="108"/>
+      <c r="AD104" s="108"/>
+      <c r="AE104" s="108"/>
+      <c r="AF104" s="109"/>
       <c r="AG104" s="6"/>
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
@@ -58634,47 +58634,47 @@
       <c r="G144" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I144" s="104" t="s">
+      <c r="I144" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="J144" s="105"/>
-      <c r="K144" s="105"/>
-      <c r="L144" s="105"/>
-      <c r="M144" s="105"/>
-      <c r="N144" s="105"/>
-      <c r="O144" s="105"/>
-      <c r="P144" s="105"/>
-      <c r="Q144" s="105"/>
-      <c r="R144" s="105"/>
-      <c r="S144" s="105"/>
-      <c r="T144" s="105"/>
-      <c r="U144" s="105"/>
-      <c r="V144" s="105"/>
-      <c r="W144" s="105"/>
-      <c r="X144" s="105"/>
-      <c r="Y144" s="105"/>
-      <c r="Z144" s="105"/>
-      <c r="AA144" s="105"/>
-      <c r="AB144" s="105"/>
-      <c r="AC144" s="105"/>
-      <c r="AD144" s="105"/>
-      <c r="AE144" s="105"/>
-      <c r="AF144" s="105"/>
-      <c r="AG144" s="105"/>
-      <c r="AH144" s="105"/>
-      <c r="AI144" s="105"/>
-      <c r="AJ144" s="105"/>
-      <c r="AK144" s="105"/>
-      <c r="AL144" s="105"/>
-      <c r="AM144" s="105"/>
-      <c r="AN144" s="105"/>
-      <c r="AO144" s="105"/>
-      <c r="AP144" s="105"/>
-      <c r="AQ144" s="105"/>
-      <c r="AR144" s="105"/>
-      <c r="AS144" s="105"/>
-      <c r="AT144" s="105"/>
-      <c r="AU144" s="106"/>
+      <c r="J144" s="88"/>
+      <c r="K144" s="88"/>
+      <c r="L144" s="88"/>
+      <c r="M144" s="88"/>
+      <c r="N144" s="88"/>
+      <c r="O144" s="88"/>
+      <c r="P144" s="88"/>
+      <c r="Q144" s="88"/>
+      <c r="R144" s="88"/>
+      <c r="S144" s="88"/>
+      <c r="T144" s="88"/>
+      <c r="U144" s="88"/>
+      <c r="V144" s="88"/>
+      <c r="W144" s="88"/>
+      <c r="X144" s="88"/>
+      <c r="Y144" s="88"/>
+      <c r="Z144" s="88"/>
+      <c r="AA144" s="88"/>
+      <c r="AB144" s="88"/>
+      <c r="AC144" s="88"/>
+      <c r="AD144" s="88"/>
+      <c r="AE144" s="88"/>
+      <c r="AF144" s="88"/>
+      <c r="AG144" s="88"/>
+      <c r="AH144" s="88"/>
+      <c r="AI144" s="88"/>
+      <c r="AJ144" s="88"/>
+      <c r="AK144" s="88"/>
+      <c r="AL144" s="88"/>
+      <c r="AM144" s="88"/>
+      <c r="AN144" s="88"/>
+      <c r="AO144" s="88"/>
+      <c r="AP144" s="88"/>
+      <c r="AQ144" s="88"/>
+      <c r="AR144" s="88"/>
+      <c r="AS144" s="88"/>
+      <c r="AT144" s="88"/>
+      <c r="AU144" s="89"/>
       <c r="AV144" s="6"/>
       <c r="AW144" s="6"/>
       <c r="AX144" s="6"/>
@@ -60326,55 +60326,55 @@
       <c r="G179" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I179" s="104" t="s">
+      <c r="I179" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="J179" s="105"/>
-      <c r="K179" s="105"/>
-      <c r="L179" s="105"/>
-      <c r="M179" s="105"/>
-      <c r="N179" s="105"/>
-      <c r="O179" s="105"/>
-      <c r="P179" s="105"/>
-      <c r="Q179" s="105"/>
-      <c r="R179" s="105"/>
-      <c r="S179" s="105"/>
-      <c r="T179" s="105"/>
-      <c r="U179" s="105"/>
-      <c r="V179" s="105"/>
-      <c r="W179" s="105"/>
-      <c r="X179" s="105"/>
-      <c r="Y179" s="105"/>
-      <c r="Z179" s="105"/>
-      <c r="AA179" s="105"/>
-      <c r="AB179" s="105"/>
-      <c r="AC179" s="105"/>
-      <c r="AD179" s="105"/>
-      <c r="AE179" s="105"/>
-      <c r="AF179" s="105"/>
-      <c r="AG179" s="105"/>
-      <c r="AH179" s="105"/>
-      <c r="AI179" s="105"/>
-      <c r="AJ179" s="105"/>
-      <c r="AK179" s="105"/>
-      <c r="AL179" s="105"/>
-      <c r="AM179" s="105"/>
-      <c r="AN179" s="105"/>
-      <c r="AO179" s="105"/>
-      <c r="AP179" s="105"/>
-      <c r="AQ179" s="105"/>
-      <c r="AR179" s="105"/>
-      <c r="AS179" s="105"/>
-      <c r="AT179" s="105"/>
-      <c r="AU179" s="105"/>
-      <c r="AV179" s="105"/>
-      <c r="AW179" s="105"/>
-      <c r="AX179" s="105"/>
-      <c r="AY179" s="105"/>
-      <c r="AZ179" s="105"/>
-      <c r="BA179" s="105"/>
-      <c r="BB179" s="105"/>
-      <c r="BC179" s="106"/>
+      <c r="J179" s="88"/>
+      <c r="K179" s="88"/>
+      <c r="L179" s="88"/>
+      <c r="M179" s="88"/>
+      <c r="N179" s="88"/>
+      <c r="O179" s="88"/>
+      <c r="P179" s="88"/>
+      <c r="Q179" s="88"/>
+      <c r="R179" s="88"/>
+      <c r="S179" s="88"/>
+      <c r="T179" s="88"/>
+      <c r="U179" s="88"/>
+      <c r="V179" s="88"/>
+      <c r="W179" s="88"/>
+      <c r="X179" s="88"/>
+      <c r="Y179" s="88"/>
+      <c r="Z179" s="88"/>
+      <c r="AA179" s="88"/>
+      <c r="AB179" s="88"/>
+      <c r="AC179" s="88"/>
+      <c r="AD179" s="88"/>
+      <c r="AE179" s="88"/>
+      <c r="AF179" s="88"/>
+      <c r="AG179" s="88"/>
+      <c r="AH179" s="88"/>
+      <c r="AI179" s="88"/>
+      <c r="AJ179" s="88"/>
+      <c r="AK179" s="88"/>
+      <c r="AL179" s="88"/>
+      <c r="AM179" s="88"/>
+      <c r="AN179" s="88"/>
+      <c r="AO179" s="88"/>
+      <c r="AP179" s="88"/>
+      <c r="AQ179" s="88"/>
+      <c r="AR179" s="88"/>
+      <c r="AS179" s="88"/>
+      <c r="AT179" s="88"/>
+      <c r="AU179" s="88"/>
+      <c r="AV179" s="88"/>
+      <c r="AW179" s="88"/>
+      <c r="AX179" s="88"/>
+      <c r="AY179" s="88"/>
+      <c r="AZ179" s="88"/>
+      <c r="BA179" s="88"/>
+      <c r="BB179" s="88"/>
+      <c r="BC179" s="89"/>
       <c r="BD179" s="6"/>
     </row>
     <row r="180" spans="2:56" ht="15" thickTop="1">
@@ -62690,12 +62690,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:AA2"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="B13:T13"/>
-    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="G36:AA36"/>
+    <mergeCell ref="G67:R67"/>
+    <mergeCell ref="I179:BC179"/>
+    <mergeCell ref="I144:AU144"/>
+    <mergeCell ref="G104:AF104"/>
     <mergeCell ref="AF28:AG28"/>
     <mergeCell ref="AH28:AI28"/>
     <mergeCell ref="B30:AA30"/>
@@ -62703,11 +62702,12 @@
     <mergeCell ref="G35:AA35"/>
     <mergeCell ref="G34:AA34"/>
     <mergeCell ref="B14:T28"/>
-    <mergeCell ref="G36:AA36"/>
-    <mergeCell ref="G67:R67"/>
-    <mergeCell ref="I179:BC179"/>
-    <mergeCell ref="I144:AU144"/>
-    <mergeCell ref="G104:AF104"/>
+    <mergeCell ref="B2:AA2"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="B13:T13"/>
+    <mergeCell ref="Y13:AA13"/>
   </mergeCells>
   <conditionalFormatting sqref="Y15:AA26 AE26 AC27:AE39">
     <cfRule type="expression" dxfId="0" priority="16">
